--- a/data/source/current_earnings.xlsx
+++ b/data/source/current_earnings.xlsx
@@ -3148,6 +3148,24 @@
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
+    <xf numFmtId="164" fontId="80" fillId="2" borderId="0" xfId="315" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3155,30 +3173,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="82" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
     <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="80" fillId="2" borderId="0" xfId="315" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="480">
@@ -4354,12 +4354,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -5292,10 +5292,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
@@ -7149,2976 +7149,2976 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="45" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
     </row>
     <row r="4" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="N4" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="O4" s="48" t="s">
+      <c r="O4" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="P4" s="48" t="s">
+      <c r="P4" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="S4" s="48" t="s">
+      <c r="S4" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="T4" s="48" t="s">
+      <c r="T4" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="U4" s="48" t="s">
+      <c r="U4" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="V4" s="48" t="s">
+      <c r="V4" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="Y4" s="48" t="s">
+      <c r="Y4" s="43" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="41">
         <v>733.25</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="41">
         <v>760.06</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="41">
         <v>754.02</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="41">
         <v>726.53</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="41">
         <v>732.01</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="41">
         <v>735.92</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="41">
         <v>738.05</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="41">
         <v>753.9</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="41">
         <v>743.75</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="41">
         <v>755.38</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="41">
         <v>765.03</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5" s="41">
         <v>760.06</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5" s="41">
         <v>768.22</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="41">
         <v>768.96</v>
       </c>
-      <c r="P5" s="46">
+      <c r="P5" s="41">
         <v>760.77</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5" s="41">
         <v>777.15</v>
       </c>
-      <c r="R5" s="46">
+      <c r="R5" s="41">
         <v>781.9</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="41">
         <v>918.31</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="41">
         <v>945.7</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="41">
         <v>959.35</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="41">
         <v>955.4</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="41">
         <v>966.74</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="41">
         <v>976.45</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="41">
         <v>996.31</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="41">
         <v>1013.33</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="41">
         <v>968.13</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K6" s="41">
         <v>973.33</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="41">
         <v>976.28</v>
       </c>
-      <c r="M6" s="46">
+      <c r="M6" s="41">
         <v>954.57</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6" s="41">
         <v>934.99</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="41">
         <v>948.02</v>
       </c>
-      <c r="P6" s="46">
+      <c r="P6" s="41">
         <v>955.21</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="41">
         <v>962.76</v>
       </c>
-      <c r="R6" s="46">
+      <c r="R6" s="41">
         <v>975.8</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="41">
         <v>788.1</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="41">
         <v>807.65</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="41">
         <v>802.7</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="41">
         <v>799.84</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="41">
         <v>794.42</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="41">
         <v>798.66</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="41">
         <v>796.49</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="41">
         <v>819.94</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="41">
         <v>799.8</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="41">
         <v>801.86</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="41">
         <v>812.41</v>
       </c>
-      <c r="M7" s="46">
+      <c r="M7" s="41">
         <v>797.48</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7" s="41">
         <v>803.06</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="41">
         <v>810.54</v>
       </c>
-      <c r="P7" s="46">
+      <c r="P7" s="41">
         <v>813.6</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="Q7" s="41">
         <v>820.46</v>
       </c>
-      <c r="R7" s="46">
+      <c r="R7" s="41">
         <v>828.8</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="41">
         <v>670.89</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="41">
         <v>674.57</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="41">
         <v>676.55</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="41">
         <v>670.55</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="41">
         <v>666.79</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="41">
         <v>661.65</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="41">
         <v>667.36</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8" s="41">
         <v>684.39</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="41">
         <v>669.19</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="41">
         <v>675.86</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="41">
         <v>686.26</v>
       </c>
-      <c r="M8" s="46">
+      <c r="M8" s="41">
         <v>675.37</v>
       </c>
-      <c r="N8" s="46">
+      <c r="N8" s="41">
         <v>675.35</v>
       </c>
-      <c r="O8" s="46">
+      <c r="O8" s="41">
         <v>673.93</v>
       </c>
-      <c r="P8" s="46">
+      <c r="P8" s="41">
         <v>664.99</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="41">
         <v>675.66</v>
       </c>
-      <c r="R8" s="46">
+      <c r="R8" s="41">
         <v>687.37</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="41">
         <v>955.48</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="41">
         <v>980.69</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="41">
         <v>980.7</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="41">
         <v>961.14</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="41">
         <v>960.06</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="41">
         <v>962.21</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="41">
         <v>963.59</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="41">
         <v>994.39</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9" s="41">
         <v>960.45</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="41">
         <v>970.14</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="41">
         <v>994.73</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="41">
         <v>969.8</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="41">
         <v>970.25</v>
       </c>
-      <c r="O9" s="46">
+      <c r="O9" s="41">
         <v>974.7</v>
       </c>
-      <c r="P9" s="46">
+      <c r="P9" s="41">
         <v>970.15</v>
       </c>
-      <c r="Q9" s="46">
+      <c r="Q9" s="41">
         <v>979.61</v>
       </c>
-      <c r="R9" s="46">
+      <c r="R9" s="41">
         <v>1010.01</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="41">
         <v>895.1</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="41">
         <v>919.86</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="41">
         <v>922.26</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="41">
         <v>902.16</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="41">
         <v>903.83</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="41">
         <v>897.94</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="41">
         <v>912.52</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="41">
         <v>939.6</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="41">
         <v>908.86</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="41">
         <v>917.67</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="41">
         <v>927.18</v>
       </c>
-      <c r="M10" s="46">
+      <c r="M10" s="41">
         <v>897.4</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10" s="41">
         <v>915.83</v>
       </c>
-      <c r="O10" s="46">
+      <c r="O10" s="41">
         <v>912.34</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="41">
         <v>910.09</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="41">
         <v>910.68</v>
       </c>
-      <c r="R10" s="46">
+      <c r="R10" s="41">
         <v>927.84</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="41">
         <v>956.09</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="41">
         <v>973.28</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="41">
         <v>975.74</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="41">
         <v>962.46</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="41">
         <v>955.04</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="41">
         <v>957.38</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="41">
         <v>961.92</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="41">
         <v>997.9</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="41">
         <v>984.97</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="41">
         <v>993.81</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11" s="41">
         <v>1010.28</v>
       </c>
-      <c r="M11" s="46">
+      <c r="M11" s="41">
         <v>1001.28</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11" s="41">
         <v>1005.3</v>
       </c>
-      <c r="O11" s="46">
+      <c r="O11" s="41">
         <v>1003.59</v>
       </c>
-      <c r="P11" s="46">
+      <c r="P11" s="41">
         <v>999.32</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11" s="41">
         <v>1019.37</v>
       </c>
-      <c r="R11" s="46">
+      <c r="R11" s="41">
         <v>1042.44</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="41">
         <v>730.52</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="41">
         <v>750.25</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="41">
         <v>751.25</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="41">
         <v>741.59</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="41">
         <v>738.81</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="41">
         <v>728.97</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="41">
         <v>738.81</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="41">
         <v>759.45</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="41">
         <v>759.28</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="41">
         <v>761.54</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="41">
         <v>765.61</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="41">
         <v>782.21</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="41">
         <v>799.53</v>
       </c>
-      <c r="O12" s="46">
+      <c r="O12" s="41">
         <v>803.2</v>
       </c>
-      <c r="P12" s="46">
+      <c r="P12" s="41">
         <v>806.86</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="Q12" s="41">
         <v>810.41</v>
       </c>
-      <c r="R12" s="46">
+      <c r="R12" s="41">
         <v>809.42</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="41">
         <v>1398.23</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="41">
         <v>1490.03</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="41">
         <v>1474.93</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="41">
         <v>1382.37</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="41">
         <v>1367.2</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="41">
         <v>1359.65</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="41">
         <v>1317.75</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="41">
         <v>1363.12</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="41">
         <v>1308.3</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="41">
         <v>1273.6199999999999</v>
       </c>
-      <c r="L13" s="46">
+      <c r="L13" s="41">
         <v>1345.68</v>
       </c>
-      <c r="M13" s="46">
+      <c r="M13" s="41">
         <v>1298.8800000000001</v>
       </c>
-      <c r="N13" s="46">
+      <c r="N13" s="41">
         <v>1287.97</v>
       </c>
-      <c r="O13" s="46">
+      <c r="O13" s="41">
         <v>1305.3900000000001</v>
       </c>
-      <c r="P13" s="46">
+      <c r="P13" s="41">
         <v>1306.6099999999999</v>
       </c>
-      <c r="Q13" s="46">
+      <c r="Q13" s="41">
         <v>1333.58</v>
       </c>
-      <c r="R13" s="46">
+      <c r="R13" s="41">
         <v>1412.43</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="41">
         <v>761.11</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="41">
         <v>781.79</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="41">
         <v>779.02</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="41">
         <v>769.01</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="41">
         <v>769.84</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="41">
         <v>764.18</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="41">
         <v>771.21</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="41">
         <v>786.6</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="41">
         <v>772.92</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="41">
         <v>777.82</v>
       </c>
-      <c r="L14" s="46">
+      <c r="L14" s="41">
         <v>792.81</v>
       </c>
-      <c r="M14" s="46">
+      <c r="M14" s="41">
         <v>784.78</v>
       </c>
-      <c r="N14" s="46">
+      <c r="N14" s="41">
         <v>777.02</v>
       </c>
-      <c r="O14" s="46">
+      <c r="O14" s="41">
         <v>782.5</v>
       </c>
-      <c r="P14" s="46">
+      <c r="P14" s="41">
         <v>788.39</v>
       </c>
-      <c r="Q14" s="46">
+      <c r="Q14" s="41">
         <v>788.65</v>
       </c>
-      <c r="R14" s="46">
+      <c r="R14" s="41">
         <v>802.96</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="41">
         <v>830.33</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="41">
         <v>849.32</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="41">
         <v>844.38</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="41">
         <v>823.02</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="41">
         <v>824.85</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="41">
         <v>820.99</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="41">
         <v>826.61</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="41">
         <v>848.7</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15" s="41">
         <v>825.11</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="41">
         <v>839.03</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="41">
         <v>852.23</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15" s="41">
         <v>839.72</v>
       </c>
-      <c r="N15" s="46">
+      <c r="N15" s="41">
         <v>839.36</v>
       </c>
-      <c r="O15" s="46">
+      <c r="O15" s="41">
         <v>842.17</v>
       </c>
-      <c r="P15" s="46">
+      <c r="P15" s="41">
         <v>840.43</v>
       </c>
-      <c r="Q15" s="46">
+      <c r="Q15" s="41">
         <v>842.51</v>
       </c>
-      <c r="R15" s="46">
+      <c r="R15" s="41">
         <v>877.91</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="41">
         <v>813.73</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="41">
         <v>839.2</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="41">
         <v>839.54</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="41">
         <v>811.47</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="41">
         <v>812.13</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="41">
         <v>804.41</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="41">
         <v>814.19</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="41">
         <v>833.68</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="41">
         <v>797.72</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="41">
         <v>806.2</v>
       </c>
-      <c r="L16" s="46">
+      <c r="L16" s="41">
         <v>833.15</v>
       </c>
-      <c r="M16" s="46">
+      <c r="M16" s="41">
         <v>828.3</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="41">
         <v>824.92</v>
       </c>
-      <c r="O16" s="46">
+      <c r="O16" s="41">
         <v>827.64</v>
       </c>
-      <c r="P16" s="46">
+      <c r="P16" s="41">
         <v>822.17</v>
       </c>
-      <c r="Q16" s="46">
+      <c r="Q16" s="41">
         <v>829.27</v>
       </c>
-      <c r="R16" s="46">
+      <c r="R16" s="41">
         <v>851.76</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="41">
         <v>717.53</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="41">
         <v>744.77</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="41">
         <v>736.35</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="41">
         <v>733.6</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="41">
         <v>735.13</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="41">
         <v>735.5</v>
       </c>
-      <c r="H17" s="46">
+      <c r="H17" s="41">
         <v>740.04</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17" s="41">
         <v>765.9</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J17" s="41">
         <v>732.39</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17" s="41">
         <v>738.7</v>
       </c>
-      <c r="L17" s="46">
+      <c r="L17" s="41">
         <v>748.39</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M17" s="41">
         <v>732.15</v>
       </c>
-      <c r="N17" s="46">
+      <c r="N17" s="41">
         <v>731.92</v>
       </c>
-      <c r="O17" s="46">
+      <c r="O17" s="41">
         <v>729.65</v>
       </c>
-      <c r="P17" s="46">
+      <c r="P17" s="41">
         <v>727.06</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q17" s="41">
         <v>742.62</v>
       </c>
-      <c r="R17" s="46">
+      <c r="R17" s="41">
         <v>758.59</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="41">
         <v>872.59</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="41">
         <v>901.14</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="41">
         <v>893.71</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="41">
         <v>878.76</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="41">
         <v>879.28</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="41">
         <v>878.77</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="41">
         <v>880.99</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="41">
         <v>905.5</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="41">
         <v>887.49</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="41">
         <v>902.31</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="41">
         <v>920.94</v>
       </c>
-      <c r="M18" s="46">
+      <c r="M18" s="41">
         <v>902.09</v>
       </c>
-      <c r="N18" s="46">
+      <c r="N18" s="41">
         <v>900.38</v>
       </c>
-      <c r="O18" s="46">
+      <c r="O18" s="41">
         <v>894.01</v>
       </c>
-      <c r="P18" s="46">
+      <c r="P18" s="41">
         <v>896.99</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="41">
         <v>899.03</v>
       </c>
-      <c r="R18" s="46">
+      <c r="R18" s="41">
         <v>917.18</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19" s="41">
         <v>798.1</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="41">
         <v>800.1</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="41">
         <v>797.3</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="41">
         <v>790.31</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="41">
         <v>792.75</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="41">
         <v>790.49</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="41">
         <v>791.7</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="41">
         <v>810.84</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="41">
         <v>791.09</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="41">
         <v>799.21</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="41">
         <v>807.45</v>
       </c>
-      <c r="M19" s="46">
+      <c r="M19" s="41">
         <v>807.3</v>
       </c>
-      <c r="N19" s="46">
+      <c r="N19" s="41">
         <v>804.54</v>
       </c>
-      <c r="O19" s="46">
+      <c r="O19" s="41">
         <v>796.79</v>
       </c>
-      <c r="P19" s="46">
+      <c r="P19" s="41">
         <v>794.05</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19" s="41">
         <v>808.68</v>
       </c>
-      <c r="R19" s="46">
+      <c r="R19" s="41">
         <v>813.28</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="41">
         <v>755.82</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="41">
         <v>775.34</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="41">
         <v>775.55</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="41">
         <v>780.06</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="41">
         <v>780.92</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="41">
         <v>776.04</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="41">
         <v>780.71</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="41">
         <v>812.25</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="41">
         <v>792.81</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="41">
         <v>796.02</v>
       </c>
-      <c r="L20" s="46">
+      <c r="L20" s="41">
         <v>781.1</v>
       </c>
-      <c r="M20" s="46">
+      <c r="M20" s="41">
         <v>777.92</v>
       </c>
-      <c r="N20" s="46">
+      <c r="N20" s="41">
         <v>768.95</v>
       </c>
-      <c r="O20" s="46">
+      <c r="O20" s="41">
         <v>770.64</v>
       </c>
-      <c r="P20" s="46">
+      <c r="P20" s="41">
         <v>784.04</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="41">
         <v>806.61</v>
       </c>
-      <c r="R20" s="46">
+      <c r="R20" s="41">
         <v>812.33</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="41">
         <v>770.18</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="41">
         <v>781.77</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="41">
         <v>777.81</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="41">
         <v>756.84</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21" s="41">
         <v>761.11</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="41">
         <v>767.08</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="41">
         <v>769.18</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="41">
         <v>789.6</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="41">
         <v>768.4</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21" s="41">
         <v>779.08</v>
       </c>
-      <c r="L21" s="46">
+      <c r="L21" s="41">
         <v>790.17</v>
       </c>
-      <c r="M21" s="46">
+      <c r="M21" s="41">
         <v>783.82</v>
       </c>
-      <c r="N21" s="46">
+      <c r="N21" s="41">
         <v>772.13</v>
       </c>
-      <c r="O21" s="46">
+      <c r="O21" s="41">
         <v>766.82</v>
       </c>
-      <c r="P21" s="46">
+      <c r="P21" s="41">
         <v>760.45</v>
       </c>
-      <c r="Q21" s="46">
+      <c r="Q21" s="41">
         <v>767.53</v>
       </c>
-      <c r="R21" s="46">
+      <c r="R21" s="41">
         <v>766.42</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="41">
         <v>740.23</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="41">
         <v>731.34</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="41">
         <v>740.95</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="41">
         <v>739.55</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="41">
         <v>742.02</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="41">
         <v>742.34</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="41">
         <v>749.06</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="41">
         <v>754.7</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="41">
         <v>744.12</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22" s="41">
         <v>741.95</v>
       </c>
-      <c r="L22" s="46">
+      <c r="L22" s="41">
         <v>747.56</v>
       </c>
-      <c r="M22" s="46">
+      <c r="M22" s="41">
         <v>751.08</v>
       </c>
-      <c r="N22" s="46">
+      <c r="N22" s="41">
         <v>739.5</v>
       </c>
-      <c r="O22" s="46">
+      <c r="O22" s="41">
         <v>732.89</v>
       </c>
-      <c r="P22" s="46">
+      <c r="P22" s="41">
         <v>741.31</v>
       </c>
-      <c r="Q22" s="46">
+      <c r="Q22" s="41">
         <v>744.1</v>
       </c>
-      <c r="R22" s="46">
+      <c r="R22" s="41">
         <v>739.55</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="41">
         <v>794.47</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C23" s="41">
         <v>806.26</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23" s="41">
         <v>801.29</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="41">
         <v>794.68</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23" s="41">
         <v>786.88</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="41">
         <v>788.01</v>
       </c>
-      <c r="H23" s="46">
+      <c r="H23" s="41">
         <v>787.29</v>
       </c>
-      <c r="I23" s="46">
+      <c r="I23" s="41">
         <v>807.68</v>
       </c>
-      <c r="J23" s="46">
+      <c r="J23" s="41">
         <v>784.11</v>
       </c>
-      <c r="K23" s="46">
+      <c r="K23" s="41">
         <v>801.29</v>
       </c>
-      <c r="L23" s="46">
+      <c r="L23" s="41">
         <v>812.52</v>
       </c>
-      <c r="M23" s="46">
+      <c r="M23" s="41">
         <v>802.28</v>
       </c>
-      <c r="N23" s="46">
+      <c r="N23" s="41">
         <v>795.66</v>
       </c>
-      <c r="O23" s="46">
+      <c r="O23" s="41">
         <v>786.59</v>
       </c>
-      <c r="P23" s="46">
+      <c r="P23" s="41">
         <v>776.08</v>
       </c>
-      <c r="Q23" s="46">
+      <c r="Q23" s="41">
         <v>789.6</v>
       </c>
-      <c r="R23" s="46">
+      <c r="R23" s="41">
         <v>806.34</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="41">
         <v>743.43</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="41">
         <v>748</v>
       </c>
-      <c r="D24" s="46">
+      <c r="D24" s="41">
         <v>753.95</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="41">
         <v>743.77</v>
       </c>
-      <c r="F24" s="46">
+      <c r="F24" s="41">
         <v>743.28</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="41">
         <v>736.08</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="41">
         <v>741.13</v>
       </c>
-      <c r="I24" s="46">
+      <c r="I24" s="41">
         <v>747.44</v>
       </c>
-      <c r="J24" s="46">
+      <c r="J24" s="41">
         <v>752.79</v>
       </c>
-      <c r="K24" s="46">
+      <c r="K24" s="41">
         <v>754.94</v>
       </c>
-      <c r="L24" s="46">
+      <c r="L24" s="41">
         <v>761.46</v>
       </c>
-      <c r="M24" s="46">
+      <c r="M24" s="41">
         <v>758.38</v>
       </c>
-      <c r="N24" s="46">
+      <c r="N24" s="41">
         <v>749.06</v>
       </c>
-      <c r="O24" s="46">
+      <c r="O24" s="41">
         <v>751.17</v>
       </c>
-      <c r="P24" s="46">
+      <c r="P24" s="41">
         <v>751.04</v>
       </c>
-      <c r="Q24" s="46">
+      <c r="Q24" s="41">
         <v>753.06</v>
       </c>
-      <c r="R24" s="46">
+      <c r="R24" s="41">
         <v>756.68</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="41">
         <v>920.41</v>
       </c>
-      <c r="C25" s="46">
+      <c r="C25" s="41">
         <v>939.37</v>
       </c>
-      <c r="D25" s="46">
+      <c r="D25" s="41">
         <v>946.96</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="41">
         <v>930.25</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="41">
         <v>928.84</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="41">
         <v>919.58</v>
       </c>
-      <c r="H25" s="46">
+      <c r="H25" s="41">
         <v>920.2</v>
       </c>
-      <c r="I25" s="46">
+      <c r="I25" s="41">
         <v>946.62</v>
       </c>
-      <c r="J25" s="46">
+      <c r="J25" s="41">
         <v>938.4</v>
       </c>
-      <c r="K25" s="46">
+      <c r="K25" s="41">
         <v>941.47</v>
       </c>
-      <c r="L25" s="46">
+      <c r="L25" s="41">
         <v>958.07</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="41">
         <v>939.13</v>
       </c>
-      <c r="N25" s="46">
+      <c r="N25" s="41">
         <v>919.97</v>
       </c>
-      <c r="O25" s="46">
+      <c r="O25" s="41">
         <v>916.64</v>
       </c>
-      <c r="P25" s="46">
+      <c r="P25" s="41">
         <v>924.45</v>
       </c>
-      <c r="Q25" s="46">
+      <c r="Q25" s="41">
         <v>929.21</v>
       </c>
-      <c r="R25" s="46">
+      <c r="R25" s="41">
         <v>942.91</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="46">
+      <c r="B26" s="41">
         <v>1008.56</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C26" s="41">
         <v>1009.8</v>
       </c>
-      <c r="D26" s="46">
+      <c r="D26" s="41">
         <v>1015.03</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="41">
         <v>1006.99</v>
       </c>
-      <c r="F26" s="46">
+      <c r="F26" s="41">
         <v>1011.37</v>
       </c>
-      <c r="G26" s="46">
+      <c r="G26" s="41">
         <v>1002.99</v>
       </c>
-      <c r="H26" s="46">
+      <c r="H26" s="41">
         <v>1004.3</v>
       </c>
-      <c r="I26" s="46">
+      <c r="I26" s="41">
         <v>1021.77</v>
       </c>
-      <c r="J26" s="46">
+      <c r="J26" s="41">
         <v>1018.4</v>
       </c>
-      <c r="K26" s="46">
+      <c r="K26" s="41">
         <v>1031.47</v>
       </c>
-      <c r="L26" s="46">
+      <c r="L26" s="41">
         <v>1055.57</v>
       </c>
-      <c r="M26" s="46">
+      <c r="M26" s="41">
         <v>1044.03</v>
       </c>
-      <c r="N26" s="46">
+      <c r="N26" s="41">
         <v>1044.95</v>
       </c>
-      <c r="O26" s="46">
+      <c r="O26" s="41">
         <v>1038.02</v>
       </c>
-      <c r="P26" s="46">
+      <c r="P26" s="41">
         <v>1035.3</v>
       </c>
-      <c r="Q26" s="46">
+      <c r="Q26" s="41">
         <v>1035.6300000000001</v>
       </c>
-      <c r="R26" s="46">
+      <c r="R26" s="41">
         <v>1046.6400000000001</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="41">
         <v>814.31</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27" s="41">
         <v>822.17</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="41">
         <v>826.28</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="41">
         <v>818.4</v>
       </c>
-      <c r="F27" s="46">
+      <c r="F27" s="41">
         <v>820.02</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="41">
         <v>816.91</v>
       </c>
-      <c r="H27" s="46">
+      <c r="H27" s="41">
         <v>820.46</v>
       </c>
-      <c r="I27" s="46">
+      <c r="I27" s="41">
         <v>847.37</v>
       </c>
-      <c r="J27" s="46">
+      <c r="J27" s="41">
         <v>827.27</v>
       </c>
-      <c r="K27" s="46">
+      <c r="K27" s="41">
         <v>837.26</v>
       </c>
-      <c r="L27" s="46">
+      <c r="L27" s="41">
         <v>844.22</v>
       </c>
-      <c r="M27" s="46">
+      <c r="M27" s="41">
         <v>835.21</v>
       </c>
-      <c r="N27" s="46">
+      <c r="N27" s="41">
         <v>823.71</v>
       </c>
-      <c r="O27" s="46">
+      <c r="O27" s="41">
         <v>820.66</v>
       </c>
-      <c r="P27" s="46">
+      <c r="P27" s="41">
         <v>823.09</v>
       </c>
-      <c r="Q27" s="46">
+      <c r="Q27" s="41">
         <v>823.88</v>
       </c>
-      <c r="R27" s="46">
+      <c r="R27" s="41">
         <v>827.66</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="41">
         <v>873.68</v>
       </c>
-      <c r="C28" s="46">
+      <c r="C28" s="41">
         <v>884.11</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D28" s="41">
         <v>892.25</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="41">
         <v>872.93</v>
       </c>
-      <c r="F28" s="46">
+      <c r="F28" s="41">
         <v>871.7</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="41">
         <v>876.71</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="41">
         <v>882.36</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="41">
         <v>904.1</v>
       </c>
-      <c r="J28" s="46">
+      <c r="J28" s="41">
         <v>881.4</v>
       </c>
-      <c r="K28" s="46">
+      <c r="K28" s="41">
         <v>897.26</v>
       </c>
-      <c r="L28" s="46">
+      <c r="L28" s="41">
         <v>900.14</v>
       </c>
-      <c r="M28" s="46">
+      <c r="M28" s="41">
         <v>888.33</v>
       </c>
-      <c r="N28" s="46">
+      <c r="N28" s="41">
         <v>894.79</v>
       </c>
-      <c r="O28" s="46">
+      <c r="O28" s="41">
         <v>886.44</v>
       </c>
-      <c r="P28" s="46">
+      <c r="P28" s="41">
         <v>906.18</v>
       </c>
-      <c r="Q28" s="46">
+      <c r="Q28" s="41">
         <v>906.53</v>
       </c>
-      <c r="R28" s="46">
+      <c r="R28" s="41">
         <v>928.5</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="46">
+      <c r="B29" s="41">
         <v>675.85</v>
       </c>
-      <c r="C29" s="46">
+      <c r="C29" s="41">
         <v>697.53</v>
       </c>
-      <c r="D29" s="46">
+      <c r="D29" s="41">
         <v>702.47</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="41">
         <v>680.78</v>
       </c>
-      <c r="F29" s="46">
+      <c r="F29" s="41">
         <v>677.12</v>
       </c>
-      <c r="G29" s="46">
+      <c r="G29" s="41">
         <v>678.39</v>
       </c>
-      <c r="H29" s="46">
+      <c r="H29" s="41">
         <v>681.51</v>
       </c>
-      <c r="I29" s="46">
+      <c r="I29" s="41">
         <v>694.63</v>
       </c>
-      <c r="J29" s="46">
+      <c r="J29" s="41">
         <v>676.13</v>
       </c>
-      <c r="K29" s="46">
+      <c r="K29" s="41">
         <v>683.59</v>
       </c>
-      <c r="L29" s="46">
+      <c r="L29" s="41">
         <v>698.49</v>
       </c>
-      <c r="M29" s="46">
+      <c r="M29" s="41">
         <v>689.49</v>
       </c>
-      <c r="N29" s="46">
+      <c r="N29" s="41">
         <v>687.85</v>
       </c>
-      <c r="O29" s="46">
+      <c r="O29" s="41">
         <v>681.62</v>
       </c>
-      <c r="P29" s="46">
+      <c r="P29" s="41">
         <v>672.71</v>
       </c>
-      <c r="Q29" s="46">
+      <c r="Q29" s="41">
         <v>684.63</v>
       </c>
-      <c r="R29" s="46">
+      <c r="R29" s="41">
         <v>706.73</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="46">
+      <c r="B30" s="41">
         <v>743.76</v>
       </c>
-      <c r="C30" s="46">
+      <c r="C30" s="41">
         <v>759.58</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="41">
         <v>757.87</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="41">
         <v>747.66</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="41">
         <v>743.37</v>
       </c>
-      <c r="G30" s="46">
+      <c r="G30" s="41">
         <v>743.6</v>
       </c>
-      <c r="H30" s="46">
+      <c r="H30" s="41">
         <v>743.6</v>
       </c>
-      <c r="I30" s="46">
+      <c r="I30" s="41">
         <v>759.55</v>
       </c>
-      <c r="J30" s="46">
+      <c r="J30" s="41">
         <v>742.22</v>
       </c>
-      <c r="K30" s="46">
+      <c r="K30" s="41">
         <v>744.95</v>
       </c>
-      <c r="L30" s="46">
+      <c r="L30" s="41">
         <v>755.48</v>
       </c>
-      <c r="M30" s="46">
+      <c r="M30" s="41">
         <v>745.78</v>
       </c>
-      <c r="N30" s="46">
+      <c r="N30" s="41">
         <v>743.15</v>
       </c>
-      <c r="O30" s="46">
+      <c r="O30" s="41">
         <v>738.26</v>
       </c>
-      <c r="P30" s="46">
+      <c r="P30" s="41">
         <v>740.26</v>
       </c>
-      <c r="Q30" s="46">
+      <c r="Q30" s="41">
         <v>746.79</v>
       </c>
-      <c r="R30" s="46">
+      <c r="R30" s="41">
         <v>753.87</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="46">
+      <c r="B31" s="41">
         <v>700.1</v>
       </c>
-      <c r="C31" s="46">
+      <c r="C31" s="41">
         <v>722.67</v>
       </c>
-      <c r="D31" s="46">
+      <c r="D31" s="41">
         <v>706.23</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E31" s="41">
         <v>696.96</v>
       </c>
-      <c r="F31" s="46">
+      <c r="F31" s="41">
         <v>711.75</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="41">
         <v>713.19</v>
       </c>
-      <c r="H31" s="46">
+      <c r="H31" s="41">
         <v>716.56</v>
       </c>
-      <c r="I31" s="46">
+      <c r="I31" s="41">
         <v>746.72</v>
       </c>
-      <c r="J31" s="46">
+      <c r="J31" s="41">
         <v>723.65</v>
       </c>
-      <c r="K31" s="46">
+      <c r="K31" s="41">
         <v>723.13</v>
       </c>
-      <c r="L31" s="46">
+      <c r="L31" s="41">
         <v>747.78</v>
       </c>
-      <c r="M31" s="46">
+      <c r="M31" s="41">
         <v>722.87</v>
       </c>
-      <c r="N31" s="46">
+      <c r="N31" s="41">
         <v>711.98</v>
       </c>
-      <c r="O31" s="46">
+      <c r="O31" s="41">
         <v>722.55</v>
       </c>
-      <c r="P31" s="46">
+      <c r="P31" s="41">
         <v>709.95</v>
       </c>
-      <c r="Q31" s="46">
+      <c r="Q31" s="41">
         <v>724.46</v>
       </c>
-      <c r="R31" s="46">
+      <c r="R31" s="41">
         <v>743.76</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="46">
+      <c r="B32" s="41">
         <v>738.53</v>
       </c>
-      <c r="C32" s="46">
+      <c r="C32" s="41">
         <v>755.63</v>
       </c>
-      <c r="D32" s="46">
+      <c r="D32" s="41">
         <v>755.14</v>
       </c>
-      <c r="E32" s="46">
+      <c r="E32" s="41">
         <v>738.53</v>
       </c>
-      <c r="F32" s="46">
+      <c r="F32" s="41">
         <v>742.75</v>
       </c>
-      <c r="G32" s="46">
+      <c r="G32" s="41">
         <v>749.34</v>
       </c>
-      <c r="H32" s="46">
+      <c r="H32" s="41">
         <v>752.2</v>
       </c>
-      <c r="I32" s="46">
+      <c r="I32" s="41">
         <v>785.25</v>
       </c>
-      <c r="J32" s="46">
+      <c r="J32" s="41">
         <v>766.14</v>
       </c>
-      <c r="K32" s="46">
+      <c r="K32" s="41">
         <v>766.61</v>
       </c>
-      <c r="L32" s="46">
+      <c r="L32" s="41">
         <v>774.63</v>
       </c>
-      <c r="M32" s="46">
+      <c r="M32" s="41">
         <v>760.84</v>
       </c>
-      <c r="N32" s="46">
+      <c r="N32" s="41">
         <v>760.18</v>
       </c>
-      <c r="O32" s="46">
+      <c r="O32" s="41">
         <v>761.9</v>
       </c>
-      <c r="P32" s="46">
+      <c r="P32" s="41">
         <v>762.86</v>
       </c>
-      <c r="Q32" s="46">
+      <c r="Q32" s="41">
         <v>777.67</v>
       </c>
-      <c r="R32" s="46">
+      <c r="R32" s="41">
         <v>788.73</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="46">
+      <c r="B33" s="41">
         <v>717.45</v>
       </c>
-      <c r="C33" s="46">
+      <c r="C33" s="41">
         <v>732.98</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="41">
         <v>737.52</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="41">
         <v>729.79</v>
       </c>
-      <c r="F33" s="46">
+      <c r="F33" s="41">
         <v>729.63</v>
       </c>
-      <c r="G33" s="46">
+      <c r="G33" s="41">
         <v>730.13</v>
       </c>
-      <c r="H33" s="46">
+      <c r="H33" s="41">
         <v>737.02</v>
       </c>
-      <c r="I33" s="46">
+      <c r="I33" s="41">
         <v>754.29</v>
       </c>
-      <c r="J33" s="46">
+      <c r="J33" s="41">
         <v>747.32</v>
       </c>
-      <c r="K33" s="46">
+      <c r="K33" s="41">
         <v>741.69</v>
       </c>
-      <c r="L33" s="46">
+      <c r="L33" s="41">
         <v>753.94</v>
       </c>
-      <c r="M33" s="46">
+      <c r="M33" s="41">
         <v>737.14</v>
       </c>
-      <c r="N33" s="46">
+      <c r="N33" s="41">
         <v>739.36</v>
       </c>
-      <c r="O33" s="46">
+      <c r="O33" s="41">
         <v>741.26</v>
       </c>
-      <c r="P33" s="46">
+      <c r="P33" s="41">
         <v>737.04</v>
       </c>
-      <c r="Q33" s="46">
+      <c r="Q33" s="41">
         <v>746.59</v>
       </c>
-      <c r="R33" s="46">
+      <c r="R33" s="41">
         <v>757.86</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="46">
+      <c r="B34" s="41">
         <v>809.34</v>
       </c>
-      <c r="C34" s="46">
+      <c r="C34" s="41">
         <v>819.54</v>
       </c>
-      <c r="D34" s="46">
+      <c r="D34" s="41">
         <v>831.14</v>
       </c>
-      <c r="E34" s="46">
+      <c r="E34" s="41">
         <v>842.69</v>
       </c>
-      <c r="F34" s="46">
+      <c r="F34" s="41">
         <v>839.8</v>
       </c>
-      <c r="G34" s="46">
+      <c r="G34" s="41">
         <v>825.11</v>
       </c>
-      <c r="H34" s="46">
+      <c r="H34" s="41">
         <v>830.89</v>
       </c>
-      <c r="I34" s="46">
+      <c r="I34" s="41">
         <v>835.79</v>
       </c>
-      <c r="J34" s="46">
+      <c r="J34" s="41">
         <v>837.78</v>
       </c>
-      <c r="K34" s="46">
+      <c r="K34" s="41">
         <v>852.1</v>
       </c>
-      <c r="L34" s="46">
+      <c r="L34" s="41">
         <v>862.76</v>
       </c>
-      <c r="M34" s="46">
+      <c r="M34" s="41">
         <v>851.26</v>
       </c>
-      <c r="N34" s="46">
+      <c r="N34" s="41">
         <v>861.14</v>
       </c>
-      <c r="O34" s="46">
+      <c r="O34" s="41">
         <v>857.89</v>
       </c>
-      <c r="P34" s="46">
+      <c r="P34" s="41">
         <v>848.68</v>
       </c>
-      <c r="Q34" s="46">
+      <c r="Q34" s="41">
         <v>860.5</v>
       </c>
-      <c r="R34" s="46">
+      <c r="R34" s="41">
         <v>871.42</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="46">
+      <c r="B35" s="41">
         <v>918.98</v>
       </c>
-      <c r="C35" s="46">
+      <c r="C35" s="41">
         <v>942.36</v>
       </c>
-      <c r="D35" s="46">
+      <c r="D35" s="41">
         <v>947.98</v>
       </c>
-      <c r="E35" s="46">
+      <c r="E35" s="41">
         <v>928.44</v>
       </c>
-      <c r="F35" s="46">
+      <c r="F35" s="41">
         <v>930.46</v>
       </c>
-      <c r="G35" s="46">
+      <c r="G35" s="41">
         <v>929.78</v>
       </c>
-      <c r="H35" s="46">
+      <c r="H35" s="41">
         <v>930.56</v>
       </c>
-      <c r="I35" s="46">
+      <c r="I35" s="41">
         <v>948.02</v>
       </c>
-      <c r="J35" s="46">
+      <c r="J35" s="41">
         <v>938.96</v>
       </c>
-      <c r="K35" s="46">
+      <c r="K35" s="41">
         <v>943.1</v>
       </c>
-      <c r="L35" s="46">
+      <c r="L35" s="41">
         <v>956.08</v>
       </c>
-      <c r="M35" s="46">
+      <c r="M35" s="41">
         <v>942.82</v>
       </c>
-      <c r="N35" s="46">
+      <c r="N35" s="41">
         <v>934.75</v>
       </c>
-      <c r="O35" s="46">
+      <c r="O35" s="41">
         <v>940.46</v>
       </c>
-      <c r="P35" s="46">
+      <c r="P35" s="41">
         <v>937.33</v>
       </c>
-      <c r="Q35" s="46">
+      <c r="Q35" s="41">
         <v>945.96</v>
       </c>
-      <c r="R35" s="46">
+      <c r="R35" s="41">
         <v>962.2</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="46">
+      <c r="B36" s="41">
         <v>699.02</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C36" s="41">
         <v>708.3</v>
       </c>
-      <c r="D36" s="46">
+      <c r="D36" s="41">
         <v>708.98</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="41">
         <v>694.27</v>
       </c>
-      <c r="F36" s="46">
+      <c r="F36" s="41">
         <v>693.58</v>
       </c>
-      <c r="G36" s="46">
+      <c r="G36" s="41">
         <v>689.16</v>
       </c>
-      <c r="H36" s="46">
+      <c r="H36" s="41">
         <v>693.89</v>
       </c>
-      <c r="I36" s="46">
+      <c r="I36" s="41">
         <v>709.17</v>
       </c>
-      <c r="J36" s="46">
+      <c r="J36" s="41">
         <v>700.42</v>
       </c>
-      <c r="K36" s="46">
+      <c r="K36" s="41">
         <v>699.73</v>
       </c>
-      <c r="L36" s="46">
+      <c r="L36" s="41">
         <v>705.55</v>
       </c>
-      <c r="M36" s="46">
+      <c r="M36" s="41">
         <v>693.6</v>
       </c>
-      <c r="N36" s="46">
+      <c r="N36" s="41">
         <v>687.71</v>
       </c>
-      <c r="O36" s="46">
+      <c r="O36" s="41">
         <v>691.78</v>
       </c>
-      <c r="P36" s="46">
+      <c r="P36" s="41">
         <v>681.98</v>
       </c>
-      <c r="Q36" s="46">
+      <c r="Q36" s="41">
         <v>685.41</v>
       </c>
-      <c r="R36" s="46">
+      <c r="R36" s="41">
         <v>686.82</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="46">
+      <c r="B37" s="41">
         <v>961.45</v>
       </c>
-      <c r="C37" s="46">
+      <c r="C37" s="41">
         <v>978.31</v>
       </c>
-      <c r="D37" s="46">
+      <c r="D37" s="41">
         <v>979.52</v>
       </c>
-      <c r="E37" s="46">
+      <c r="E37" s="41">
         <v>966.48</v>
       </c>
-      <c r="F37" s="46">
+      <c r="F37" s="41">
         <v>962.14</v>
       </c>
-      <c r="G37" s="46">
+      <c r="G37" s="41">
         <v>958.77</v>
       </c>
-      <c r="H37" s="46">
+      <c r="H37" s="41">
         <v>961.61</v>
       </c>
-      <c r="I37" s="46">
+      <c r="I37" s="41">
         <v>983.25</v>
       </c>
-      <c r="J37" s="46">
+      <c r="J37" s="41">
         <v>964.83</v>
       </c>
-      <c r="K37" s="46">
+      <c r="K37" s="41">
         <v>969.21</v>
       </c>
-      <c r="L37" s="46">
+      <c r="L37" s="41">
         <v>993.82</v>
       </c>
-      <c r="M37" s="46">
+      <c r="M37" s="41">
         <v>978.31</v>
       </c>
-      <c r="N37" s="46">
+      <c r="N37" s="41">
         <v>977.28</v>
       </c>
-      <c r="O37" s="46">
+      <c r="O37" s="41">
         <v>979.4</v>
       </c>
-      <c r="P37" s="46">
+      <c r="P37" s="41">
         <v>971.43</v>
       </c>
-      <c r="Q37" s="46">
+      <c r="Q37" s="41">
         <v>969.7</v>
       </c>
-      <c r="R37" s="46">
+      <c r="R37" s="41">
         <v>983.47</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="46">
+      <c r="B38" s="41">
         <v>753.77</v>
       </c>
-      <c r="C38" s="46">
+      <c r="C38" s="41">
         <v>771.08</v>
       </c>
-      <c r="D38" s="46">
+      <c r="D38" s="41">
         <v>768.85</v>
       </c>
-      <c r="E38" s="46">
+      <c r="E38" s="41">
         <v>758.18</v>
       </c>
-      <c r="F38" s="46">
+      <c r="F38" s="41">
         <v>762.45</v>
       </c>
-      <c r="G38" s="46">
+      <c r="G38" s="41">
         <v>760.04</v>
       </c>
-      <c r="H38" s="46">
+      <c r="H38" s="41">
         <v>763.49</v>
       </c>
-      <c r="I38" s="46">
+      <c r="I38" s="41">
         <v>788.9</v>
       </c>
-      <c r="J38" s="46">
+      <c r="J38" s="41">
         <v>766.61</v>
       </c>
-      <c r="K38" s="46">
+      <c r="K38" s="41">
         <v>778.15</v>
       </c>
-      <c r="L38" s="46">
+      <c r="L38" s="41">
         <v>790.26</v>
       </c>
-      <c r="M38" s="46">
+      <c r="M38" s="41">
         <v>779.16</v>
       </c>
-      <c r="N38" s="46">
+      <c r="N38" s="41">
         <v>776.72</v>
       </c>
-      <c r="O38" s="46">
+      <c r="O38" s="41">
         <v>783.15</v>
       </c>
-      <c r="P38" s="46">
+      <c r="P38" s="41">
         <v>790.78</v>
       </c>
-      <c r="Q38" s="46">
+      <c r="Q38" s="41">
         <v>797.48</v>
       </c>
-      <c r="R38" s="46">
+      <c r="R38" s="41">
         <v>811.44</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="46">
+      <c r="B39" s="41">
         <v>864.92</v>
       </c>
-      <c r="C39" s="46">
+      <c r="C39" s="41">
         <v>873.25</v>
       </c>
-      <c r="D39" s="46">
+      <c r="D39" s="41">
         <v>877.04</v>
       </c>
-      <c r="E39" s="46">
+      <c r="E39" s="41">
         <v>878.15</v>
       </c>
-      <c r="F39" s="46">
+      <c r="F39" s="41">
         <v>875.13</v>
       </c>
-      <c r="G39" s="46">
+      <c r="G39" s="41">
         <v>877.21</v>
       </c>
-      <c r="H39" s="46">
+      <c r="H39" s="41">
         <v>894.2</v>
       </c>
-      <c r="I39" s="46">
+      <c r="I39" s="41">
         <v>919.08</v>
       </c>
-      <c r="J39" s="46">
+      <c r="J39" s="41">
         <v>895.49</v>
       </c>
-      <c r="K39" s="46">
+      <c r="K39" s="41">
         <v>907.3</v>
       </c>
-      <c r="L39" s="46">
+      <c r="L39" s="41">
         <v>901.56</v>
       </c>
-      <c r="M39" s="46">
+      <c r="M39" s="41">
         <v>881.03</v>
       </c>
-      <c r="N39" s="46">
+      <c r="N39" s="41">
         <v>895.13</v>
       </c>
-      <c r="O39" s="46">
+      <c r="O39" s="41">
         <v>875.69</v>
       </c>
-      <c r="P39" s="46">
+      <c r="P39" s="41">
         <v>864.74</v>
       </c>
-      <c r="Q39" s="46">
+      <c r="Q39" s="41">
         <v>885.1</v>
       </c>
-      <c r="R39" s="46">
+      <c r="R39" s="41">
         <v>907.9</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="46">
+      <c r="B40" s="41">
         <v>760.84</v>
       </c>
-      <c r="C40" s="46">
+      <c r="C40" s="41">
         <v>771.68</v>
       </c>
-      <c r="D40" s="46">
+      <c r="D40" s="41">
         <v>777.58</v>
       </c>
-      <c r="E40" s="46">
+      <c r="E40" s="41">
         <v>767.38</v>
       </c>
-      <c r="F40" s="46">
+      <c r="F40" s="41">
         <v>766.57</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40" s="41">
         <v>767.29</v>
       </c>
-      <c r="H40" s="46">
+      <c r="H40" s="41">
         <v>767.59</v>
       </c>
-      <c r="I40" s="46">
+      <c r="I40" s="41">
         <v>788.88</v>
       </c>
-      <c r="J40" s="46">
+      <c r="J40" s="41">
         <v>780.89</v>
       </c>
-      <c r="K40" s="46">
+      <c r="K40" s="41">
         <v>782.94</v>
       </c>
-      <c r="L40" s="46">
+      <c r="L40" s="41">
         <v>795.11</v>
       </c>
-      <c r="M40" s="46">
+      <c r="M40" s="41">
         <v>788.79</v>
       </c>
-      <c r="N40" s="46">
+      <c r="N40" s="41">
         <v>786.08</v>
       </c>
-      <c r="O40" s="46">
+      <c r="O40" s="41">
         <v>785.4</v>
       </c>
-      <c r="P40" s="46">
+      <c r="P40" s="41">
         <v>787.03</v>
       </c>
-      <c r="Q40" s="46">
+      <c r="Q40" s="41">
         <v>799.6</v>
       </c>
-      <c r="R40" s="46">
+      <c r="R40" s="41">
         <v>807.71</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="46">
+      <c r="B41" s="41">
         <v>755.32</v>
       </c>
-      <c r="C41" s="46">
+      <c r="C41" s="41">
         <v>767.55</v>
       </c>
-      <c r="D41" s="46">
+      <c r="D41" s="41">
         <v>768.34</v>
       </c>
-      <c r="E41" s="46">
+      <c r="E41" s="41">
         <v>748.89</v>
       </c>
-      <c r="F41" s="46">
+      <c r="F41" s="41">
         <v>744.88</v>
       </c>
-      <c r="G41" s="46">
+      <c r="G41" s="41">
         <v>752.03</v>
       </c>
-      <c r="H41" s="46">
+      <c r="H41" s="41">
         <v>744.76</v>
       </c>
-      <c r="I41" s="46">
+      <c r="I41" s="41">
         <v>767.71</v>
       </c>
-      <c r="J41" s="46">
+      <c r="J41" s="41">
         <v>748.43</v>
       </c>
-      <c r="K41" s="46">
+      <c r="K41" s="41">
         <v>756.46</v>
       </c>
-      <c r="L41" s="46">
+      <c r="L41" s="41">
         <v>771.5</v>
       </c>
-      <c r="M41" s="46">
+      <c r="M41" s="41">
         <v>758.1</v>
       </c>
-      <c r="N41" s="46">
+      <c r="N41" s="41">
         <v>756.63</v>
       </c>
-      <c r="O41" s="46">
+      <c r="O41" s="41">
         <v>760.03</v>
       </c>
-      <c r="P41" s="46">
+      <c r="P41" s="41">
         <v>754.86</v>
       </c>
-      <c r="Q41" s="46">
+      <c r="Q41" s="41">
         <v>759.93</v>
       </c>
-      <c r="R41" s="46">
+      <c r="R41" s="41">
         <v>773.96</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="46">
+      <c r="B42" s="41">
         <v>778.22</v>
       </c>
-      <c r="C42" s="46">
+      <c r="C42" s="41">
         <v>807.56</v>
       </c>
-      <c r="D42" s="46">
+      <c r="D42" s="41">
         <v>804.27</v>
       </c>
-      <c r="E42" s="46">
+      <c r="E42" s="41">
         <v>783.55</v>
       </c>
-      <c r="F42" s="46">
+      <c r="F42" s="41">
         <v>787.23</v>
       </c>
-      <c r="G42" s="46">
+      <c r="G42" s="41">
         <v>791.52</v>
       </c>
-      <c r="H42" s="46">
+      <c r="H42" s="41">
         <v>792.88</v>
       </c>
-      <c r="I42" s="46">
+      <c r="I42" s="41">
         <v>820.05</v>
       </c>
-      <c r="J42" s="46">
+      <c r="J42" s="41">
         <v>796.67</v>
       </c>
-      <c r="K42" s="46">
+      <c r="K42" s="41">
         <v>801.39</v>
       </c>
-      <c r="L42" s="46">
+      <c r="L42" s="41">
         <v>828.35</v>
       </c>
-      <c r="M42" s="46">
+      <c r="M42" s="41">
         <v>808.02</v>
       </c>
-      <c r="N42" s="46">
+      <c r="N42" s="41">
         <v>811.29</v>
       </c>
-      <c r="O42" s="46">
+      <c r="O42" s="41">
         <v>820.6</v>
       </c>
-      <c r="P42" s="46">
+      <c r="P42" s="41">
         <v>811.71</v>
       </c>
-      <c r="Q42" s="46">
+      <c r="Q42" s="41">
         <v>834.62</v>
       </c>
-      <c r="R42" s="46">
+      <c r="R42" s="41">
         <v>857.82</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="46">
+      <c r="B43" s="41">
         <v>799.6</v>
       </c>
-      <c r="C43" s="46">
+      <c r="C43" s="41">
         <v>811.83</v>
       </c>
-      <c r="D43" s="46">
+      <c r="D43" s="41">
         <v>818.64</v>
       </c>
-      <c r="E43" s="46">
+      <c r="E43" s="41">
         <v>814.58</v>
       </c>
-      <c r="F43" s="46">
+      <c r="F43" s="41">
         <v>817.36</v>
       </c>
-      <c r="G43" s="46">
+      <c r="G43" s="41">
         <v>818.38</v>
       </c>
-      <c r="H43" s="46">
+      <c r="H43" s="41">
         <v>819.74</v>
       </c>
-      <c r="I43" s="46">
+      <c r="I43" s="41">
         <v>831.78</v>
       </c>
-      <c r="J43" s="46">
+      <c r="J43" s="41">
         <v>823.03</v>
       </c>
-      <c r="K43" s="46">
+      <c r="K43" s="41">
         <v>828.97</v>
       </c>
-      <c r="L43" s="46">
+      <c r="L43" s="41">
         <v>841.72</v>
       </c>
-      <c r="M43" s="46">
+      <c r="M43" s="41">
         <v>833.45</v>
       </c>
-      <c r="N43" s="46">
+      <c r="N43" s="41">
         <v>831.04</v>
       </c>
-      <c r="O43" s="46">
+      <c r="O43" s="41">
         <v>825.55</v>
       </c>
-      <c r="P43" s="46">
+      <c r="P43" s="41">
         <v>822.19</v>
       </c>
-      <c r="Q43" s="46">
+      <c r="Q43" s="41">
         <v>825.31</v>
       </c>
-      <c r="R43" s="46">
+      <c r="R43" s="41">
         <v>832.32</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="46">
+      <c r="B44" s="41">
         <v>827.87</v>
       </c>
-      <c r="C44" s="46">
+      <c r="C44" s="41">
         <v>831.68</v>
       </c>
-      <c r="D44" s="46">
+      <c r="D44" s="41">
         <v>838.29</v>
       </c>
-      <c r="E44" s="46">
+      <c r="E44" s="41">
         <v>827.44</v>
       </c>
-      <c r="F44" s="46">
+      <c r="F44" s="41">
         <v>828.16</v>
       </c>
-      <c r="G44" s="46">
+      <c r="G44" s="41">
         <v>810.77</v>
       </c>
-      <c r="H44" s="46">
+      <c r="H44" s="41">
         <v>815.14</v>
       </c>
-      <c r="I44" s="46">
+      <c r="I44" s="41">
         <v>814.39</v>
       </c>
-      <c r="J44" s="46">
+      <c r="J44" s="41">
         <v>821.84</v>
       </c>
-      <c r="K44" s="46">
+      <c r="K44" s="41">
         <v>827.11</v>
       </c>
-      <c r="L44" s="46">
+      <c r="L44" s="41">
         <v>839.42</v>
       </c>
-      <c r="M44" s="46">
+      <c r="M44" s="41">
         <v>825.46</v>
       </c>
-      <c r="N44" s="46">
+      <c r="N44" s="41">
         <v>844.34</v>
       </c>
-      <c r="O44" s="46">
+      <c r="O44" s="41">
         <v>843.7</v>
       </c>
-      <c r="P44" s="46">
+      <c r="P44" s="41">
         <v>833.95</v>
       </c>
-      <c r="Q44" s="46">
+      <c r="Q44" s="41">
         <v>852.16</v>
       </c>
-      <c r="R44" s="46">
+      <c r="R44" s="41">
         <v>860.66</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="46">
+      <c r="B45" s="41">
         <v>744.31</v>
       </c>
-      <c r="C45" s="46">
+      <c r="C45" s="41">
         <v>739.06</v>
       </c>
-      <c r="D45" s="46">
+      <c r="D45" s="41">
         <v>754.73</v>
       </c>
-      <c r="E45" s="46">
+      <c r="E45" s="41">
         <v>734.21</v>
       </c>
-      <c r="F45" s="46">
+      <c r="F45" s="41">
         <v>729.74</v>
       </c>
-      <c r="G45" s="46">
+      <c r="G45" s="41">
         <v>730.45</v>
       </c>
-      <c r="H45" s="46">
+      <c r="H45" s="41">
         <v>737.72</v>
       </c>
-      <c r="I45" s="46">
+      <c r="I45" s="41">
         <v>749.41</v>
       </c>
-      <c r="J45" s="46">
+      <c r="J45" s="41">
         <v>737.45</v>
       </c>
-      <c r="K45" s="46">
+      <c r="K45" s="41">
         <v>744.94</v>
       </c>
-      <c r="L45" s="46">
+      <c r="L45" s="41">
         <v>758.64</v>
       </c>
-      <c r="M45" s="46">
+      <c r="M45" s="41">
         <v>749.78</v>
       </c>
-      <c r="N45" s="46">
+      <c r="N45" s="41">
         <v>752.33</v>
       </c>
-      <c r="O45" s="46">
+      <c r="O45" s="41">
         <v>749.58</v>
       </c>
-      <c r="P45" s="46">
+      <c r="P45" s="41">
         <v>767.08</v>
       </c>
-      <c r="Q45" s="46">
+      <c r="Q45" s="41">
         <v>758.78</v>
       </c>
-      <c r="R45" s="46">
+      <c r="R45" s="41">
         <v>762.91</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="46">
+      <c r="B46" s="41">
         <v>701.49</v>
       </c>
-      <c r="C46" s="46">
+      <c r="C46" s="41">
         <v>715.81</v>
       </c>
-      <c r="D46" s="46">
+      <c r="D46" s="41">
         <v>709.92</v>
       </c>
-      <c r="E46" s="46">
+      <c r="E46" s="41">
         <v>704.67</v>
       </c>
-      <c r="F46" s="46">
+      <c r="F46" s="41">
         <v>707.36</v>
       </c>
-      <c r="G46" s="46">
+      <c r="G46" s="41">
         <v>708.62</v>
       </c>
-      <c r="H46" s="46">
+      <c r="H46" s="41">
         <v>709.32</v>
       </c>
-      <c r="I46" s="46">
+      <c r="I46" s="41">
         <v>721.41</v>
       </c>
-      <c r="J46" s="46">
+      <c r="J46" s="41">
         <v>715.36</v>
       </c>
-      <c r="K46" s="46">
+      <c r="K46" s="41">
         <v>727.35</v>
       </c>
-      <c r="L46" s="46">
+      <c r="L46" s="41">
         <v>730.31</v>
       </c>
-      <c r="M46" s="46">
+      <c r="M46" s="41">
         <v>716.57</v>
       </c>
-      <c r="N46" s="46">
+      <c r="N46" s="41">
         <v>717.36</v>
       </c>
-      <c r="O46" s="46">
+      <c r="O46" s="41">
         <v>707.41</v>
       </c>
-      <c r="P46" s="46">
+      <c r="P46" s="41">
         <v>711.98</v>
       </c>
-      <c r="Q46" s="46">
+      <c r="Q46" s="41">
         <v>725.8</v>
       </c>
-      <c r="R46" s="46">
+      <c r="R46" s="41">
         <v>737.27</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="46">
+      <c r="B47" s="41">
         <v>718.98</v>
       </c>
-      <c r="C47" s="46">
+      <c r="C47" s="41">
         <v>727.66</v>
       </c>
-      <c r="D47" s="46">
+      <c r="D47" s="41">
         <v>732.16</v>
       </c>
-      <c r="E47" s="46">
+      <c r="E47" s="41">
         <v>724.15</v>
       </c>
-      <c r="F47" s="46">
+      <c r="F47" s="41">
         <v>724.11</v>
       </c>
-      <c r="G47" s="46">
+      <c r="G47" s="41">
         <v>729.65</v>
       </c>
-      <c r="H47" s="46">
+      <c r="H47" s="41">
         <v>734.98</v>
       </c>
-      <c r="I47" s="46">
+      <c r="I47" s="41">
         <v>748.94</v>
       </c>
-      <c r="J47" s="46">
+      <c r="J47" s="41">
         <v>734.65</v>
       </c>
-      <c r="K47" s="46">
+      <c r="K47" s="41">
         <v>742.02</v>
       </c>
-      <c r="L47" s="46">
+      <c r="L47" s="41">
         <v>753.67</v>
       </c>
-      <c r="M47" s="46">
+      <c r="M47" s="41">
         <v>752.58</v>
       </c>
-      <c r="N47" s="46">
+      <c r="N47" s="41">
         <v>755.74</v>
       </c>
-      <c r="O47" s="46">
+      <c r="O47" s="41">
         <v>749.03</v>
       </c>
-      <c r="P47" s="46">
+      <c r="P47" s="41">
         <v>754.01</v>
       </c>
-      <c r="Q47" s="46">
+      <c r="Q47" s="41">
         <v>756.85</v>
       </c>
-      <c r="R47" s="46">
+      <c r="R47" s="41">
         <v>777.22</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="46">
+      <c r="B48" s="41">
         <v>883.01</v>
       </c>
-      <c r="C48" s="46">
+      <c r="C48" s="41">
         <v>907.49</v>
       </c>
-      <c r="D48" s="46">
+      <c r="D48" s="41">
         <v>896.44</v>
       </c>
-      <c r="E48" s="46">
+      <c r="E48" s="41">
         <v>878.04</v>
       </c>
-      <c r="F48" s="46">
+      <c r="F48" s="41">
         <v>874.52</v>
       </c>
-      <c r="G48" s="46">
+      <c r="G48" s="41">
         <v>877.49</v>
       </c>
-      <c r="H48" s="46">
+      <c r="H48" s="41">
         <v>876.4</v>
       </c>
-      <c r="I48" s="46">
+      <c r="I48" s="41">
         <v>899.99</v>
       </c>
-      <c r="J48" s="46">
+      <c r="J48" s="41">
         <v>865.18</v>
       </c>
-      <c r="K48" s="46">
+      <c r="K48" s="41">
         <v>876.79</v>
       </c>
-      <c r="L48" s="46">
+      <c r="L48" s="41">
         <v>898.35</v>
       </c>
-      <c r="M48" s="46">
+      <c r="M48" s="41">
         <v>876.68</v>
       </c>
-      <c r="N48" s="46">
+      <c r="N48" s="41">
         <v>877.15</v>
       </c>
-      <c r="O48" s="46">
+      <c r="O48" s="41">
         <v>871.79</v>
       </c>
-      <c r="P48" s="46">
+      <c r="P48" s="41">
         <v>862.75</v>
       </c>
-      <c r="Q48" s="46">
+      <c r="Q48" s="41">
         <v>867.27</v>
       </c>
-      <c r="R48" s="46">
+      <c r="R48" s="41">
         <v>891.61</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="46">
+      <c r="B49" s="41">
         <v>825.6</v>
       </c>
-      <c r="C49" s="46">
+      <c r="C49" s="41">
         <v>850.02</v>
       </c>
-      <c r="D49" s="46">
+      <c r="D49" s="41">
         <v>846.96</v>
       </c>
-      <c r="E49" s="46">
+      <c r="E49" s="41">
         <v>825.59</v>
       </c>
-      <c r="F49" s="46">
+      <c r="F49" s="41">
         <v>829.33</v>
       </c>
-      <c r="G49" s="46">
+      <c r="G49" s="41">
         <v>830.97</v>
       </c>
-      <c r="H49" s="46">
+      <c r="H49" s="41">
         <v>836.59</v>
       </c>
-      <c r="I49" s="46">
+      <c r="I49" s="41">
         <v>858.45</v>
       </c>
-      <c r="J49" s="46">
+      <c r="J49" s="41">
         <v>837.98</v>
       </c>
-      <c r="K49" s="46">
+      <c r="K49" s="41">
         <v>841.46</v>
       </c>
-      <c r="L49" s="46">
+      <c r="L49" s="41">
         <v>870.06</v>
       </c>
-      <c r="M49" s="46">
+      <c r="M49" s="41">
         <v>829.72</v>
       </c>
-      <c r="N49" s="46">
+      <c r="N49" s="41">
         <v>831.3</v>
       </c>
-      <c r="O49" s="46">
+      <c r="O49" s="41">
         <v>829.01</v>
       </c>
-      <c r="P49" s="46">
+      <c r="P49" s="41">
         <v>826.63</v>
       </c>
-      <c r="Q49" s="46">
+      <c r="Q49" s="41">
         <v>840.39</v>
       </c>
-      <c r="R49" s="46">
+      <c r="R49" s="41">
         <v>862.7</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="46">
+      <c r="B50" s="41">
         <v>775.45</v>
       </c>
-      <c r="C50" s="46">
+      <c r="C50" s="41">
         <v>781.11</v>
       </c>
-      <c r="D50" s="46">
+      <c r="D50" s="41">
         <v>788.04</v>
       </c>
-      <c r="E50" s="46">
+      <c r="E50" s="41">
         <v>801.45</v>
       </c>
-      <c r="F50" s="46">
+      <c r="F50" s="41">
         <v>808.36</v>
       </c>
-      <c r="G50" s="46">
+      <c r="G50" s="41">
         <v>805.06</v>
       </c>
-      <c r="H50" s="46">
+      <c r="H50" s="41">
         <v>808.83</v>
       </c>
-      <c r="I50" s="46">
+      <c r="I50" s="41">
         <v>810.86</v>
       </c>
-      <c r="J50" s="46">
+      <c r="J50" s="41">
         <v>808.02</v>
       </c>
-      <c r="K50" s="46">
+      <c r="K50" s="41">
         <v>810.43</v>
       </c>
-      <c r="L50" s="46">
+      <c r="L50" s="41">
         <v>817.85</v>
       </c>
-      <c r="M50" s="46">
+      <c r="M50" s="41">
         <v>814.11</v>
       </c>
-      <c r="N50" s="46">
+      <c r="N50" s="41">
         <v>806.85</v>
       </c>
-      <c r="O50" s="46">
+      <c r="O50" s="41">
         <v>797.17</v>
       </c>
-      <c r="P50" s="46">
+      <c r="P50" s="41">
         <v>794.21</v>
       </c>
-      <c r="Q50" s="46">
+      <c r="Q50" s="41">
         <v>809.52</v>
       </c>
-      <c r="R50" s="46">
+      <c r="R50" s="41">
         <v>817.23</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="46">
+      <c r="B51" s="41">
         <v>889.76</v>
       </c>
-      <c r="C51" s="46">
+      <c r="C51" s="41">
         <v>923.13</v>
       </c>
-      <c r="D51" s="46">
+      <c r="D51" s="41">
         <v>925.92</v>
       </c>
-      <c r="E51" s="46">
+      <c r="E51" s="41">
         <v>919.21</v>
       </c>
-      <c r="F51" s="46">
+      <c r="F51" s="41">
         <v>915.68</v>
       </c>
-      <c r="G51" s="46">
+      <c r="G51" s="41">
         <v>905.23</v>
       </c>
-      <c r="H51" s="46">
+      <c r="H51" s="41">
         <v>905.93</v>
       </c>
-      <c r="I51" s="46">
+      <c r="I51" s="41">
         <v>937.7</v>
       </c>
-      <c r="J51" s="46">
+      <c r="J51" s="41">
         <v>919.1</v>
       </c>
-      <c r="K51" s="46">
+      <c r="K51" s="41">
         <v>919.96</v>
       </c>
-      <c r="L51" s="46">
+      <c r="L51" s="41">
         <v>939.87</v>
       </c>
-      <c r="M51" s="46">
+      <c r="M51" s="41">
         <v>919.45</v>
       </c>
-      <c r="N51" s="46">
+      <c r="N51" s="41">
         <v>924.76</v>
       </c>
-      <c r="O51" s="46">
+      <c r="O51" s="41">
         <v>924.06</v>
       </c>
-      <c r="P51" s="46">
+      <c r="P51" s="41">
         <v>929.51</v>
       </c>
-      <c r="Q51" s="46">
+      <c r="Q51" s="41">
         <v>938.46</v>
       </c>
-      <c r="R51" s="46">
+      <c r="R51" s="41">
         <v>954.45</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="46">
+      <c r="B52" s="41">
         <v>990.86</v>
       </c>
-      <c r="C52" s="46">
+      <c r="C52" s="41">
         <v>1024.69</v>
       </c>
-      <c r="D52" s="46">
+      <c r="D52" s="41">
         <v>1024.3399999999999</v>
       </c>
-      <c r="E52" s="46">
+      <c r="E52" s="41">
         <v>995.98</v>
       </c>
-      <c r="F52" s="46">
+      <c r="F52" s="41">
         <v>998.92</v>
       </c>
-      <c r="G52" s="46">
+      <c r="G52" s="41">
         <v>997.27</v>
       </c>
-      <c r="H52" s="46">
+      <c r="H52" s="41">
         <v>998.82</v>
       </c>
-      <c r="I52" s="46">
+      <c r="I52" s="41">
         <v>1039.23</v>
       </c>
-      <c r="J52" s="46">
+      <c r="J52" s="41">
         <v>1021.8</v>
       </c>
-      <c r="K52" s="46">
+      <c r="K52" s="41">
         <v>1029</v>
       </c>
-      <c r="L52" s="46">
+      <c r="L52" s="41">
         <v>1066.3399999999999</v>
       </c>
-      <c r="M52" s="46">
+      <c r="M52" s="41">
         <v>1026.1500000000001</v>
       </c>
-      <c r="N52" s="46">
+      <c r="N52" s="41">
         <v>1032.58</v>
       </c>
-      <c r="O52" s="46">
+      <c r="O52" s="41">
         <v>1036.5999999999999</v>
       </c>
-      <c r="P52" s="46">
+      <c r="P52" s="41">
         <v>1032.8900000000001</v>
       </c>
-      <c r="Q52" s="46">
+      <c r="Q52" s="41">
         <v>1040.26</v>
       </c>
-      <c r="R52" s="46">
+      <c r="R52" s="41">
         <v>1072.06</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="46">
+      <c r="B53" s="41">
         <v>714.81</v>
       </c>
-      <c r="C53" s="46">
+      <c r="C53" s="41">
         <v>711.7</v>
       </c>
-      <c r="D53" s="46">
+      <c r="D53" s="41">
         <v>715.19</v>
       </c>
-      <c r="E53" s="46">
+      <c r="E53" s="41">
         <v>712.41</v>
       </c>
-      <c r="F53" s="46">
+      <c r="F53" s="41">
         <v>718.24</v>
       </c>
-      <c r="G53" s="46">
+      <c r="G53" s="41">
         <v>714.44</v>
       </c>
-      <c r="H53" s="46">
+      <c r="H53" s="41">
         <v>720.34</v>
       </c>
-      <c r="I53" s="46">
+      <c r="I53" s="41">
         <v>729.03</v>
       </c>
-      <c r="J53" s="46">
+      <c r="J53" s="41">
         <v>720.37</v>
       </c>
-      <c r="K53" s="46">
+      <c r="K53" s="41">
         <v>725.22</v>
       </c>
-      <c r="L53" s="46">
+      <c r="L53" s="41">
         <v>731.5</v>
       </c>
-      <c r="M53" s="46">
+      <c r="M53" s="41">
         <v>718.99</v>
       </c>
-      <c r="N53" s="46">
+      <c r="N53" s="41">
         <v>720.94</v>
       </c>
-      <c r="O53" s="46">
+      <c r="O53" s="41">
         <v>724.07</v>
       </c>
-      <c r="P53" s="46">
+      <c r="P53" s="41">
         <v>727.67</v>
       </c>
-      <c r="Q53" s="46">
+      <c r="Q53" s="41">
         <v>731.84</v>
       </c>
-      <c r="R53" s="46">
+      <c r="R53" s="41">
         <v>725.87</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="46">
+      <c r="B54" s="41">
         <v>787.24</v>
       </c>
-      <c r="C54" s="46">
+      <c r="C54" s="41">
         <v>795.32</v>
       </c>
-      <c r="D54" s="46">
+      <c r="D54" s="41">
         <v>795.65</v>
       </c>
-      <c r="E54" s="46">
+      <c r="E54" s="41">
         <v>785.57</v>
       </c>
-      <c r="F54" s="46">
+      <c r="F54" s="41">
         <v>786.24</v>
       </c>
-      <c r="G54" s="46">
+      <c r="G54" s="41">
         <v>778.13</v>
       </c>
-      <c r="H54" s="46">
+      <c r="H54" s="41">
         <v>781.12</v>
       </c>
-      <c r="I54" s="46">
+      <c r="I54" s="41">
         <v>792.83</v>
       </c>
-      <c r="J54" s="46">
+      <c r="J54" s="41">
         <v>785.57</v>
       </c>
-      <c r="K54" s="46">
+      <c r="K54" s="41">
         <v>795.66</v>
       </c>
-      <c r="L54" s="46">
+      <c r="L54" s="41">
         <v>805.46</v>
       </c>
-      <c r="M54" s="46">
+      <c r="M54" s="41">
         <v>800.35</v>
       </c>
-      <c r="N54" s="46">
+      <c r="N54" s="41">
         <v>793.74</v>
       </c>
-      <c r="O54" s="46">
+      <c r="O54" s="41">
         <v>794.14</v>
       </c>
-      <c r="P54" s="46">
+      <c r="P54" s="41">
         <v>794.87</v>
       </c>
-      <c r="Q54" s="46">
+      <c r="Q54" s="41">
         <v>801.6</v>
       </c>
-      <c r="R54" s="46">
+      <c r="R54" s="41">
         <v>809.42</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="47" t="s">
+      <c r="A55" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="46">
+      <c r="B55" s="41">
         <v>811.19</v>
       </c>
-      <c r="C55" s="46">
+      <c r="C55" s="41">
         <v>835.75</v>
       </c>
-      <c r="D55" s="46">
+      <c r="D55" s="41">
         <v>826.24</v>
       </c>
-      <c r="E55" s="46">
+      <c r="E55" s="41">
         <v>814.45</v>
       </c>
-      <c r="F55" s="46">
+      <c r="F55" s="41">
         <v>815.08</v>
       </c>
-      <c r="G55" s="46">
+      <c r="G55" s="41">
         <v>810.87</v>
       </c>
-      <c r="H55" s="46">
+      <c r="H55" s="41">
         <v>809.9</v>
       </c>
-      <c r="I55" s="46">
+      <c r="I55" s="41">
         <v>837.93</v>
       </c>
-      <c r="J55" s="46">
+      <c r="J55" s="41">
         <v>804.8</v>
       </c>
-      <c r="K55" s="46">
+      <c r="K55" s="41">
         <v>806.96</v>
       </c>
-      <c r="L55" s="46">
+      <c r="L55" s="41">
         <v>816.76</v>
       </c>
-      <c r="M55" s="46">
+      <c r="M55" s="41">
         <v>778.22</v>
       </c>
-      <c r="N55" s="46">
+      <c r="N55" s="41">
         <v>773.85</v>
       </c>
-      <c r="O55" s="46">
+      <c r="O55" s="41">
         <v>776.22</v>
       </c>
-      <c r="P55" s="46">
+      <c r="P55" s="41">
         <v>778.55</v>
       </c>
-      <c r="Q55" s="46">
+      <c r="Q55" s="41">
         <v>755.96</v>
       </c>
-      <c r="R55" s="46">
+      <c r="R55" s="41">
         <v>774.56</v>
       </c>
     </row>
@@ -10142,7 +10142,7 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D9" sqref="D9:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10169,12 +10169,12 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">

--- a/data/source/current_earnings.xlsx
+++ b/data/source/current_earnings.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RAuxier\Box Sync\TPC\CENTER\SLFI\SEM\Online SEM\Earnings\2017\May 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RAuxier\Box Sync\TPC\CENTER\SLFI\SEM\Online SEM\Earnings\2017\June 2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="1110" windowWidth="20775" windowHeight="11415" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="1110" windowWidth="20775" windowHeight="11415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Earnings Table" sheetId="2" r:id="rId1"/>
     <sheet name="Earnings_Comparison" sheetId="1" r:id="rId2"/>
-    <sheet name="May 2017_BLS Data Series" sheetId="26" r:id="rId3"/>
+    <sheet name="June 2017_BLS Data Series" sheetId="27" r:id="rId3"/>
     <sheet name="SCRATCH" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -805,7 +805,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="R5" authorId="0" shapeId="0">
+    <comment ref="S5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -820,7 +820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R6" authorId="0" shapeId="0">
+    <comment ref="S6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -835,7 +835,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="S7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -850,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="0" shapeId="0">
+    <comment ref="S8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -865,7 +865,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="0" shapeId="0">
+    <comment ref="S9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -880,7 +880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R10" authorId="0" shapeId="0">
+    <comment ref="S10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -895,7 +895,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R11" authorId="0" shapeId="0">
+    <comment ref="S11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -910,7 +910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R12" authorId="0" shapeId="0">
+    <comment ref="S12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -925,7 +925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="0" shapeId="0">
+    <comment ref="S13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -940,7 +940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R14" authorId="0" shapeId="0">
+    <comment ref="S14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -955,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R15" authorId="0" shapeId="0">
+    <comment ref="S15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R16" authorId="0" shapeId="0">
+    <comment ref="S16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -985,7 +985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R17" authorId="0" shapeId="0">
+    <comment ref="S17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1000,7 +1000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R18" authorId="0" shapeId="0">
+    <comment ref="S18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1015,7 +1015,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R19" authorId="0" shapeId="0">
+    <comment ref="S19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1030,7 +1030,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R20" authorId="0" shapeId="0">
+    <comment ref="S20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1045,7 +1045,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R21" authorId="0" shapeId="0">
+    <comment ref="S21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1060,7 +1060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R22" authorId="0" shapeId="0">
+    <comment ref="S22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1075,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R23" authorId="0" shapeId="0">
+    <comment ref="S23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R24" authorId="0" shapeId="0">
+    <comment ref="S24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R25" authorId="0" shapeId="0">
+    <comment ref="S25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1120,7 +1120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R26" authorId="0" shapeId="0">
+    <comment ref="S26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1135,7 +1135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R27" authorId="0" shapeId="0">
+    <comment ref="S27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1150,7 +1150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R28" authorId="0" shapeId="0">
+    <comment ref="S28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1165,7 +1165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R29" authorId="0" shapeId="0">
+    <comment ref="S29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1180,7 +1180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R30" authorId="0" shapeId="0">
+    <comment ref="S30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1195,7 +1195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R31" authorId="0" shapeId="0">
+    <comment ref="S31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1210,7 +1210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R32" authorId="0" shapeId="0">
+    <comment ref="S32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1225,7 +1225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R33" authorId="0" shapeId="0">
+    <comment ref="S33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1240,7 +1240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R34" authorId="0" shapeId="0">
+    <comment ref="S34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1255,7 +1255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R35" authorId="0" shapeId="0">
+    <comment ref="S35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1270,7 +1270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R36" authorId="0" shapeId="0">
+    <comment ref="S36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1285,7 +1285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R37" authorId="0" shapeId="0">
+    <comment ref="S37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1300,7 +1300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R38" authorId="0" shapeId="0">
+    <comment ref="S38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1315,7 +1315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R39" authorId="0" shapeId="0">
+    <comment ref="S39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1330,7 +1330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R40" authorId="0" shapeId="0">
+    <comment ref="S40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1345,7 +1345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R41" authorId="0" shapeId="0">
+    <comment ref="S41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1360,7 +1360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R42" authorId="0" shapeId="0">
+    <comment ref="S42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1375,7 +1375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R43" authorId="0" shapeId="0">
+    <comment ref="S43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1390,7 +1390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R44" authorId="0" shapeId="0">
+    <comment ref="S44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1405,7 +1405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R45" authorId="0" shapeId="0">
+    <comment ref="S45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1420,7 +1420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R46" authorId="0" shapeId="0">
+    <comment ref="S46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1435,7 +1435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R47" authorId="0" shapeId="0">
+    <comment ref="S47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1450,7 +1450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R48" authorId="0" shapeId="0">
+    <comment ref="S48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1465,7 +1465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R49" authorId="0" shapeId="0">
+    <comment ref="S49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1480,7 +1480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R50" authorId="0" shapeId="0">
+    <comment ref="S50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1495,7 +1495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R51" authorId="0" shapeId="0">
+    <comment ref="S51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1510,7 +1510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R52" authorId="0" shapeId="0">
+    <comment ref="S52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1525,7 +1525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R53" authorId="0" shapeId="0">
+    <comment ref="S53" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1540,7 +1540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R54" authorId="0" shapeId="0">
+    <comment ref="S54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1555,7 +1555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R55" authorId="0" shapeId="0">
+    <comment ref="S55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1575,7 +1575,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="197">
   <si>
     <t>State and Area Employment, Hours, and Earnings</t>
   </si>
@@ -2186,10 +2186,10 @@
     <t>Average Weekly Wages April 2017</t>
   </si>
   <si>
-    <t>May 2016 adj for inflation</t>
-  </si>
-  <si>
-    <t>Average Weekly Earnings May 2017</t>
+    <t>June 2016 adj for inflation</t>
+  </si>
+  <si>
+    <t>Average Weekly Earnings June 2017</t>
   </si>
 </sst>
 </file>
@@ -3855,7 +3855,7 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3909,9 +3909,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="174" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3931,7 +3928,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="4" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
     <xf numFmtId="164" fontId="78" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3946,6 +3942,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5173,7 +5170,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5185,12 +5182,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
@@ -5215,11 +5212,11 @@
       </c>
       <c r="C3" s="30">
         <f>+Earnings_Comparison!E58</f>
-        <v>901.97</v>
+        <v>905.63</v>
       </c>
       <c r="D3" s="29">
         <f>+Earnings_Comparison!H58</f>
-        <v>0.57598407943317831</v>
+        <v>1.105647928819109</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5232,11 +5229,11 @@
       </c>
       <c r="C4" s="30">
         <f>+Earnings_Comparison!E5</f>
-        <v>790.24</v>
+        <v>785.62</v>
       </c>
       <c r="D4" s="29">
         <f>+Earnings_Comparison!H5</f>
-        <v>-1.337220770601244</v>
+        <v>-0.67673420289339203</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5249,11 +5246,11 @@
       </c>
       <c r="C5" s="30">
         <f>+Earnings_Comparison!E6</f>
-        <v>983.68</v>
+        <v>981.58</v>
       </c>
       <c r="D5" s="29">
         <f>+Earnings_Comparison!H6</f>
-        <v>-2.4164267194448641E-2</v>
+        <v>0.48000007094550767</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5266,11 +5263,11 @@
       </c>
       <c r="C6" s="30">
         <f>+Earnings_Comparison!E7</f>
-        <v>863.78</v>
+        <v>863.08</v>
       </c>
       <c r="D6" s="29">
         <f>+Earnings_Comparison!H7</f>
-        <v>0.80407388856638118</v>
+        <v>3.8545518411986057</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5283,11 +5280,11 @@
       </c>
       <c r="C7" s="30">
         <f>+Earnings_Comparison!E8</f>
-        <v>708.26</v>
+        <v>714.35</v>
       </c>
       <c r="D7" s="29">
         <f>+Earnings_Comparison!H8</f>
-        <v>1.1428160010965138</v>
+        <v>2.5711381322665261</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5300,11 +5297,11 @@
       </c>
       <c r="C8" s="30">
         <f>+Earnings_Comparison!E9</f>
-        <v>1024.31</v>
+        <v>1021.34</v>
       </c>
       <c r="D8" s="29">
         <f>+Earnings_Comparison!H9</f>
-        <v>-0.41609298673916939</v>
+        <v>2.4764109612882113</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5317,11 +5314,11 @@
       </c>
       <c r="C9" s="30">
         <f>+Earnings_Comparison!E10</f>
-        <v>898.92</v>
+        <v>914.85</v>
       </c>
       <c r="D9" s="29">
         <f>+Earnings_Comparison!H10</f>
-        <v>-4.6914032871673399</v>
+        <v>-0.33369282099028341</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5334,11 +5331,11 @@
       </c>
       <c r="C10" s="30">
         <f>+Earnings_Comparison!E11</f>
-        <v>1038.9100000000001</v>
+        <v>1030.51</v>
       </c>
       <c r="D10" s="29">
         <f>+Earnings_Comparison!H11</f>
-        <v>-2.3320454062370821</v>
+        <v>0.45646591779280321</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5351,11 +5348,11 @@
       </c>
       <c r="C11" s="30">
         <f>+Earnings_Comparison!E12</f>
-        <v>828.75</v>
+        <v>820.33</v>
       </c>
       <c r="D11" s="29">
         <f>+Earnings_Comparison!H12</f>
-        <v>0.20298194810215442</v>
+        <v>1.7093900397560313</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5368,11 +5365,11 @@
       </c>
       <c r="C12" s="30">
         <f>+Earnings_Comparison!E13</f>
-        <v>1391.01</v>
+        <v>1389.26</v>
       </c>
       <c r="D12" s="29">
         <f>+Earnings_Comparison!H13</f>
-        <v>-3.2968194679639629</v>
+        <v>1.4450403859940675</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5385,11 +5382,11 @@
       </c>
       <c r="C13" s="30">
         <f>+Earnings_Comparison!E14</f>
-        <v>813.96</v>
+        <v>807.49</v>
       </c>
       <c r="D13" s="29">
         <f>+Earnings_Comparison!H14</f>
-        <v>-0.15494487652164546</v>
+        <v>0.89038048517495749</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5402,11 +5399,11 @@
       </c>
       <c r="C14" s="30">
         <f>+Earnings_Comparison!E15</f>
-        <v>871.47</v>
+        <v>874.87</v>
       </c>
       <c r="D14" s="29">
         <f>+Earnings_Comparison!H15</f>
-        <v>-1.1313074582754545</v>
+        <v>2.0060662729118439</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5419,11 +5416,11 @@
       </c>
       <c r="C15" s="30">
         <f>+Earnings_Comparison!E16</f>
-        <v>841.1</v>
+        <v>847.26</v>
       </c>
       <c r="D15" s="29">
         <f>+Earnings_Comparison!H16</f>
-        <v>-3.0688664784802255</v>
+        <v>1.0598314178942969</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5436,11 +5433,11 @@
       </c>
       <c r="C16" s="30">
         <f>+Earnings_Comparison!E17</f>
-        <v>745.59</v>
+        <v>749.49</v>
       </c>
       <c r="D16" s="29">
         <f>+Earnings_Comparison!H17</f>
-        <v>-3.1484578892507664</v>
+        <v>0.9022291893232115</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5453,11 +5450,11 @@
       </c>
       <c r="C17" s="30">
         <f>+Earnings_Comparison!E18</f>
-        <v>902.7</v>
+        <v>908.61</v>
       </c>
       <c r="D17" s="29">
         <f>+Earnings_Comparison!H18</f>
-        <v>-3.209613299342251</v>
+        <v>-0.53110757711504197</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5470,11 +5467,11 @@
       </c>
       <c r="C18" s="30">
         <f>+Earnings_Comparison!E19</f>
-        <v>834.55</v>
+        <v>851.65</v>
       </c>
       <c r="D18" s="29">
         <f>+Earnings_Comparison!H19</f>
-        <v>0.55496916701844867</v>
+        <v>4.0894852174315766</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5487,11 +5484,11 @@
       </c>
       <c r="C19" s="30">
         <f>+Earnings_Comparison!E20</f>
-        <v>793.44</v>
+        <v>798.22</v>
       </c>
       <c r="D19" s="29">
         <f>+Earnings_Comparison!H20</f>
-        <v>-3.6807142413847083</v>
+        <v>-4.3361384534694514</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5504,11 +5501,11 @@
       </c>
       <c r="C20" s="30">
         <f>+Earnings_Comparison!E21</f>
-        <v>771.51</v>
+        <v>782.15</v>
       </c>
       <c r="D20" s="29">
         <f>+Earnings_Comparison!H21</f>
-        <v>-1.1446143433823774</v>
+        <v>0.82261488428254648</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5521,11 +5518,11 @@
       </c>
       <c r="C21" s="30">
         <f>+Earnings_Comparison!E22</f>
-        <v>760.28</v>
+        <v>759.85</v>
       </c>
       <c r="D21" s="29">
         <f>+Earnings_Comparison!H22</f>
-        <v>0.76802758893252943</v>
+        <v>-0.18858119088721592</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5538,11 +5535,11 @@
       </c>
       <c r="C22" s="30">
         <f>+Earnings_Comparison!E23</f>
-        <v>803.93</v>
+        <v>806.06</v>
       </c>
       <c r="D22" s="29">
         <f>+Earnings_Comparison!H23</f>
-        <v>-1.7719494729972918</v>
+        <v>0.27369076879304455</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5555,11 +5552,11 @@
       </c>
       <c r="C23" s="30">
         <f>+Earnings_Comparison!E24</f>
-        <v>790.1</v>
+        <v>780.1</v>
       </c>
       <c r="D23" s="29">
         <f>+Earnings_Comparison!H24</f>
-        <v>2.7502932037129169</v>
+        <v>3.4826645421318414</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5572,11 +5569,11 @@
       </c>
       <c r="C24" s="30">
         <f>+Earnings_Comparison!E25</f>
-        <v>939.47</v>
+        <v>945.65</v>
       </c>
       <c r="D24" s="29">
         <f>+Earnings_Comparison!H25</f>
-        <v>-1.8403729778983635</v>
+        <v>0.40045663849239688</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5589,11 +5586,11 @@
       </c>
       <c r="C25" s="30">
         <f>+Earnings_Comparison!E26</f>
-        <v>1055.28</v>
+        <v>1054.77</v>
       </c>
       <c r="D25" s="29">
         <f>+Earnings_Comparison!H26</f>
-        <v>-1.1018796984118673</v>
+        <v>0.8118215501988324</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5606,11 +5603,11 @@
       </c>
       <c r="C26" s="30">
         <f>+Earnings_Comparison!E27</f>
-        <v>822.83</v>
+        <v>799.03</v>
       </c>
       <c r="D26" s="29">
         <f>+Earnings_Comparison!H27</f>
-        <v>-1.966663143628522</v>
+        <v>-3.7313302579275454</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5623,11 +5620,11 @@
       </c>
       <c r="C27" s="30">
         <f>+Earnings_Comparison!E28</f>
-        <v>955.53</v>
+        <v>954.52</v>
       </c>
       <c r="D27" s="29">
         <f>+Earnings_Comparison!H28</f>
-        <v>1.3161817408710474</v>
+        <v>2.7828870257054161</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5640,11 +5637,11 @@
       </c>
       <c r="C28" s="30">
         <f>+Earnings_Comparison!E29</f>
-        <v>700.95</v>
+        <v>703.93</v>
       </c>
       <c r="D28" s="29">
         <f>+Earnings_Comparison!H29</f>
-        <v>-1.4382234939017247</v>
+        <v>0.68120271426670431</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5657,11 +5654,11 @@
       </c>
       <c r="C29" s="30">
         <f>+Earnings_Comparison!E30</f>
-        <v>794.29</v>
+        <v>792.61</v>
       </c>
       <c r="D29" s="29">
         <f>+Earnings_Comparison!H30</f>
-        <v>3.6081567897000788</v>
+        <v>5.540565782582596</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5674,11 +5671,11 @@
       </c>
       <c r="C30" s="30">
         <f>+Earnings_Comparison!E31</f>
-        <v>750.47</v>
+        <v>760.91</v>
       </c>
       <c r="D30" s="29">
         <f>+Earnings_Comparison!H31</f>
-        <v>-0.52145074909980549</v>
+        <v>2.2089277692085574</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5691,11 +5688,11 @@
       </c>
       <c r="C31" s="30">
         <f>+Earnings_Comparison!E32</f>
-        <v>814.24</v>
+        <v>818.03</v>
       </c>
       <c r="D31" s="29">
         <f>+Earnings_Comparison!H32</f>
-        <v>1.7303855439707361</v>
+        <v>3.3118991450269641</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5708,11 +5705,11 @@
       </c>
       <c r="C32" s="30">
         <f>+Earnings_Comparison!E33</f>
-        <v>760.61</v>
+        <v>763.16</v>
       </c>
       <c r="D32" s="29">
         <f>+Earnings_Comparison!H33</f>
-        <v>-1.5971506210631814</v>
+        <v>6.8529697601649175E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5725,11 +5722,11 @@
       </c>
       <c r="C33" s="30">
         <f>+Earnings_Comparison!E34</f>
-        <v>889.2</v>
+        <v>878.22</v>
       </c>
       <c r="D33" s="29">
         <f>+Earnings_Comparison!H34</f>
-        <v>1.1490524591535545</v>
+        <v>2.1147173544935338</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -5742,11 +5739,11 @@
       </c>
       <c r="C34" s="30">
         <f>+Earnings_Comparison!E35</f>
-        <v>820.98</v>
+        <v>999.32</v>
       </c>
       <c r="D34" s="29">
         <f>+Earnings_Comparison!H35</f>
-        <v>-16.158169549298773</v>
+        <v>4.4464190964051964</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5759,11 +5756,11 @@
       </c>
       <c r="C35" s="30">
         <f>+Earnings_Comparison!E36</f>
-        <v>709.05</v>
+        <v>706.82</v>
       </c>
       <c r="D35" s="29">
         <f>+Earnings_Comparison!H36</f>
-        <v>1.3883833816789704</v>
+        <v>2.4708996405107264</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5776,11 +5773,11 @@
       </c>
       <c r="C36" s="30">
         <f>+Earnings_Comparison!E37</f>
-        <v>994.01</v>
+        <v>991.65</v>
       </c>
       <c r="D36" s="29">
         <f>+Earnings_Comparison!H37</f>
-        <v>-0.58519872818123542</v>
+        <v>1.4126994782312607</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5793,11 +5790,11 @@
       </c>
       <c r="C37" s="30">
         <f>+Earnings_Comparison!E38</f>
-        <v>830.76</v>
+        <v>823.48</v>
       </c>
       <c r="D37" s="29">
         <f>+Earnings_Comparison!H38</f>
-        <v>0.79612838198972469</v>
+        <v>1.0885255024292162</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5810,11 +5807,11 @@
       </c>
       <c r="C38" s="30">
         <f>+Earnings_Comparison!E39</f>
-        <v>916.04</v>
+        <v>921.94</v>
       </c>
       <c r="D38" s="29">
         <f>+Earnings_Comparison!H39</f>
-        <v>-0.63854232526744381</v>
+        <v>3.218136068981603</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5827,11 +5824,11 @@
       </c>
       <c r="C39" s="30">
         <f>+Earnings_Comparison!E40</f>
-        <v>814.97</v>
+        <v>812.87</v>
       </c>
       <c r="D39" s="29">
         <f>+Earnings_Comparison!H40</f>
-        <v>-0.66167734483771889</v>
+        <v>0.72480034412625294</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -5844,11 +5841,11 @@
       </c>
       <c r="C40" s="30">
         <f>+Earnings_Comparison!E41</f>
-        <v>806.41</v>
+        <v>804.79</v>
       </c>
       <c r="D40" s="29">
         <f>+Earnings_Comparison!H41</f>
-        <v>2.6478698397107925</v>
+        <v>3.829429179605337</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5861,11 +5858,11 @@
       </c>
       <c r="C41" s="30">
         <f>+Earnings_Comparison!E42</f>
-        <v>854.28</v>
+        <v>858.5</v>
       </c>
       <c r="D41" s="29">
         <f>+Earnings_Comparison!H42</f>
-        <v>-2.0032649615040587</v>
+        <v>1.2662018685905441</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5878,11 +5875,11 @@
       </c>
       <c r="C42" s="30">
         <f>+Earnings_Comparison!E43</f>
-        <v>842.3</v>
+        <v>837.23</v>
       </c>
       <c r="D42" s="29">
         <f>+Earnings_Comparison!H43</f>
-        <v>-0.45168401575316208</v>
+        <v>-0.11473531203562981</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5895,11 +5892,11 @@
       </c>
       <c r="C43" s="30">
         <f>+Earnings_Comparison!E44</f>
-        <v>885.72</v>
+        <v>872.52</v>
       </c>
       <c r="D43" s="29">
         <f>+Earnings_Comparison!H44</f>
-        <v>1.3699264822319313</v>
+        <v>1.2258651176063617</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5912,11 +5909,11 @@
       </c>
       <c r="C44" s="30">
         <f>+Earnings_Comparison!E45</f>
-        <v>775.22</v>
+        <v>785.25</v>
       </c>
       <c r="D44" s="29">
         <f>+Earnings_Comparison!H45</f>
-        <v>-1.6678851009577222E-2</v>
+        <v>1.1798008378898217</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5929,11 +5926,11 @@
       </c>
       <c r="C45" s="30">
         <f>+Earnings_Comparison!E46</f>
-        <v>736.16</v>
+        <v>730.85</v>
       </c>
       <c r="D45" s="29">
         <f>+Earnings_Comparison!H46</f>
-        <v>-1.5729663444067454</v>
+        <v>-8.0100816422934429E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5946,11 +5943,11 @@
       </c>
       <c r="C46" s="30">
         <f>+Earnings_Comparison!E47</f>
-        <v>794.38</v>
+        <v>794.95</v>
       </c>
       <c r="D46" s="29">
         <f>+Earnings_Comparison!H47</f>
-        <v>0.55845726089667203</v>
+        <v>2.0487812258880966</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5963,11 +5960,11 @@
       </c>
       <c r="C47" s="30">
         <f>+Earnings_Comparison!E48</f>
-        <v>923.2</v>
+        <v>894.28</v>
       </c>
       <c r="D47" s="29">
         <f>+Earnings_Comparison!H48</f>
-        <v>1.5144872988430702</v>
+        <v>1.1038524586913123</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5980,11 +5977,11 @@
       </c>
       <c r="C48" s="30">
         <f>+Earnings_Comparison!E49</f>
-        <v>869.08</v>
+        <v>877.91</v>
       </c>
       <c r="D48" s="29">
         <f>+Earnings_Comparison!H49</f>
-        <v>-0.91574775849554424</v>
+        <v>2.6963967270785538</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -5997,11 +5994,11 @@
       </c>
       <c r="C49" s="30">
         <f>+Earnings_Comparison!E50</f>
-        <v>815.47</v>
+        <v>809.76</v>
       </c>
       <c r="D49" s="29">
         <f>+Earnings_Comparison!H50</f>
-        <v>-2.9413242704030118</v>
+        <v>-1.7358646667118505</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -6014,11 +6011,11 @@
       </c>
       <c r="C50" s="30">
         <f>+Earnings_Comparison!E51</f>
-        <v>943.92</v>
+        <v>929.43</v>
       </c>
       <c r="D50" s="29">
         <f>+Earnings_Comparison!H51</f>
-        <v>-2.9507759985103799</v>
+        <v>-2.0802761260702574</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -6031,11 +6028,11 @@
       </c>
       <c r="C51" s="30">
         <f>+Earnings_Comparison!E52</f>
-        <v>1073.3</v>
+        <v>1070.8699999999999</v>
       </c>
       <c r="D51" s="29">
         <f>+Earnings_Comparison!H52</f>
-        <v>-1.3827994581944725</v>
+        <v>1.9386828292423663</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -6048,11 +6045,11 @@
       </c>
       <c r="C52" s="30">
         <f>+Earnings_Comparison!E53</f>
-        <v>752.6</v>
+        <v>762.55</v>
       </c>
       <c r="D52" s="29">
         <f>+Earnings_Comparison!H53</f>
-        <v>2.5058420358735178</v>
+        <v>3.6732997018352531</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -6065,11 +6062,11 @@
       </c>
       <c r="C53" s="30">
         <f>+Earnings_Comparison!E54</f>
-        <v>827.12</v>
+        <v>814.92</v>
       </c>
       <c r="D53" s="29">
         <f>+Earnings_Comparison!H54</f>
-        <v>0.30613365437066609</v>
+        <v>0.43619621162769295</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -6082,11 +6079,11 @@
       </c>
       <c r="C54" s="30">
         <f>+Earnings_Comparison!E55</f>
-        <v>812.89</v>
+        <v>818.15</v>
       </c>
       <c r="D54" s="29">
         <f>+Earnings_Comparison!H55</f>
-        <v>3.106357764018397</v>
+        <v>7.836626279745218</v>
       </c>
     </row>
   </sheetData>
@@ -6102,11 +6099,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J58" sqref="J58"/>
+      <selection pane="bottomRight" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6125,10 +6122,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="52"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
@@ -6136,7 +6133,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="D3" s="34"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
@@ -6148,11 +6145,11 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="46">
-        <v>42491</v>
-      </c>
-      <c r="E4" s="47">
-        <v>42856</v>
+      <c r="D4" s="44">
+        <v>42522</v>
+      </c>
+      <c r="E4" s="45">
+        <v>42887</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="13" t="s">
@@ -6162,7 +6159,7 @@
         <v>57</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="41" t="s">
         <v>193</v>
       </c>
       <c r="K4" s="10"/>
@@ -6198,27 +6195,27 @@
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="37">
-        <f>'May 2017_BLS Data Series'!F5</f>
-        <v>786.21</v>
-      </c>
-      <c r="E5" s="44">
-        <f>'May 2017_BLS Data Series'!R5</f>
-        <v>790.24</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35">
+      <c r="D5" s="36">
+        <f>'June 2017_BLS Data Series'!G5</f>
+        <v>778.26</v>
+      </c>
+      <c r="E5" s="42">
+        <f>'June 2017_BLS Data Series'!S5</f>
+        <v>785.62</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34">
         <f>D5/$G$61</f>
-        <v>800.95047612902692</v>
+        <v>790.97278336057889</v>
       </c>
       <c r="H5" s="11">
         <f>((E5/G5)-1)*100</f>
-        <v>-1.337220770601244</v>
+        <v>-0.67673420289339203</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="29">
         <f>E5-D5</f>
-        <v>4.0299999999999727</v>
+        <v>7.3600000000000136</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -6233,27 +6230,27 @@
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="37">
-        <f>'May 2017_BLS Data Series'!F6</f>
-        <v>965.81</v>
-      </c>
-      <c r="E6" s="44">
-        <f>'May 2017_BLS Data Series'!R6</f>
-        <v>983.68</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35">
+      <c r="D6" s="36">
+        <f>'June 2017_BLS Data Series'!G6</f>
+        <v>961.19</v>
+      </c>
+      <c r="E6" s="42">
+        <f>'June 2017_BLS Data Series'!S6</f>
+        <v>981.58</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34">
         <f t="shared" ref="G6:G55" si="0">D6/$G$61</f>
-        <v>983.91775651565797</v>
+        <v>976.89092287712958</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" ref="H6:H55" si="1">((E6/G6)-1)*100</f>
-        <v>-2.4164267194448641E-2</v>
+        <v>0.48000007094550767</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="29">
         <f t="shared" ref="J6:J55" si="2">E6-D6</f>
-        <v>17.870000000000005</v>
+        <v>20.389999999999986</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -6268,27 +6265,27 @@
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="37">
-        <f>'May 2017_BLS Data Series'!F7</f>
-        <v>841.12</v>
-      </c>
-      <c r="E7" s="44">
-        <f>'May 2017_BLS Data Series'!R7</f>
-        <v>863.78</v>
-      </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35">
+      <c r="D7" s="36">
+        <f>'June 2017_BLS Data Series'!G7</f>
+        <v>817.69</v>
+      </c>
+      <c r="E7" s="42">
+        <f>'June 2017_BLS Data Series'!S7</f>
+        <v>863.08</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34">
         <f t="shared" si="0"/>
-        <v>856.88997148554085</v>
+        <v>831.04686766133659</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="1"/>
-        <v>0.80407388856638118</v>
+        <v>3.8545518411986057</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="29">
         <f t="shared" si="2"/>
-        <v>22.659999999999968</v>
+        <v>45.389999999999986</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -6303,27 +6300,27 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="37">
-        <f>'May 2017_BLS Data Series'!F8</f>
-        <v>687.37</v>
-      </c>
-      <c r="E8" s="44">
-        <f>'May 2017_BLS Data Series'!R8</f>
-        <v>708.26</v>
-      </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35">
+      <c r="D8" s="36">
+        <f>'June 2017_BLS Data Series'!G8</f>
+        <v>685.25</v>
+      </c>
+      <c r="E8" s="42">
+        <f>'June 2017_BLS Data Series'!S8</f>
+        <v>714.35</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34">
         <f t="shared" si="0"/>
-        <v>700.25734698974725</v>
+        <v>696.44347621339489</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="1"/>
-        <v>1.1428160010965138</v>
+        <v>2.5711381322665261</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="29">
         <f t="shared" si="2"/>
-        <v>20.889999999999986</v>
+        <v>29.100000000000023</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -6338,27 +6335,27 @@
       <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="37">
-        <f>'May 2017_BLS Data Series'!F9</f>
-        <v>1009.66</v>
-      </c>
-      <c r="E9" s="44">
-        <f>'May 2017_BLS Data Series'!R9</f>
-        <v>1024.31</v>
-      </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35">
+      <c r="D9" s="36">
+        <f>'June 2017_BLS Data Series'!G9</f>
+        <v>980.64</v>
+      </c>
+      <c r="E9" s="42">
+        <f>'June 2017_BLS Data Series'!S9</f>
+        <v>1021.34</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34">
         <f t="shared" si="0"/>
-        <v>1028.5898903962468</v>
+        <v>996.65863628442696</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="1"/>
-        <v>-0.41609298673916939</v>
+        <v>2.4764109612882113</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="29">
         <f t="shared" si="2"/>
-        <v>14.649999999999977</v>
+        <v>40.700000000000045</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -6373,27 +6370,27 @@
       <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="37">
-        <f>'May 2017_BLS Data Series'!F10</f>
-        <v>925.81</v>
-      </c>
-      <c r="E10" s="44">
-        <f>'May 2017_BLS Data Series'!R10</f>
-        <v>898.92</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35">
+      <c r="D10" s="36">
+        <f>'June 2017_BLS Data Series'!G10</f>
+        <v>903.16</v>
+      </c>
+      <c r="E10" s="42">
+        <f>'June 2017_BLS Data Series'!S10</f>
+        <v>914.85</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34">
         <f t="shared" si="0"/>
-        <v>943.16780542732135</v>
+        <v>917.91300981669417</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="1"/>
-        <v>-4.6914032871673399</v>
+        <v>-0.33369282099028341</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="29">
         <f t="shared" si="2"/>
-        <v>-26.889999999999986</v>
+        <v>11.690000000000055</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -6408,27 +6405,27 @@
       <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="37">
-        <f>'May 2017_BLS Data Series'!F11</f>
-        <v>1044.1400000000001</v>
-      </c>
-      <c r="E11" s="44">
-        <f>'May 2017_BLS Data Series'!R11</f>
-        <v>1038.9100000000001</v>
-      </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35">
+      <c r="D11" s="36">
+        <f>'June 2017_BLS Data Series'!G11</f>
+        <v>1009.34</v>
+      </c>
+      <c r="E11" s="42">
+        <f>'June 2017_BLS Data Series'!S11</f>
+        <v>1030.51</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34">
         <f t="shared" si="0"/>
-        <v>1063.7163482343931</v>
+        <v>1025.8274473275856</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="1"/>
-        <v>-2.3320454062370821</v>
+        <v>0.45646591779280321</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="29">
         <f t="shared" si="2"/>
-        <v>-5.2300000000000182</v>
+        <v>21.169999999999959</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -6443,27 +6440,27 @@
       <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="37">
-        <f>'May 2017_BLS Data Series'!F12</f>
-        <v>811.85</v>
-      </c>
-      <c r="E12" s="44">
-        <f>'May 2017_BLS Data Series'!R12</f>
-        <v>828.75</v>
-      </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35">
+      <c r="D12" s="36">
+        <f>'June 2017_BLS Data Series'!G12</f>
+        <v>793.58</v>
+      </c>
+      <c r="E12" s="42">
+        <f>'June 2017_BLS Data Series'!S12</f>
+        <v>820.33</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34">
         <f t="shared" si="0"/>
-        <v>827.0711947766506</v>
+        <v>806.54303371532421</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="1"/>
-        <v>0.20298194810215442</v>
+        <v>1.7093900397560313</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="29">
         <f t="shared" si="2"/>
-        <v>16.899999999999977</v>
+        <v>26.75</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -6478,27 +6475,27 @@
       <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="37">
-        <f>'May 2017_BLS Data Series'!F13</f>
-        <v>1411.96</v>
-      </c>
-      <c r="E13" s="44">
-        <f>'May 2017_BLS Data Series'!R13</f>
-        <v>1391.01</v>
-      </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35">
+      <c r="D13" s="36">
+        <f>'June 2017_BLS Data Series'!G13</f>
+        <v>1347.46</v>
+      </c>
+      <c r="E13" s="42">
+        <f>'June 2017_BLS Data Series'!S13</f>
+        <v>1389.26</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34">
         <f t="shared" si="0"/>
-        <v>1438.4325234671917</v>
+        <v>1369.4705968018986</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="1"/>
-        <v>-3.2968194679639629</v>
+        <v>1.4450403859940675</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="29">
         <f t="shared" si="2"/>
-        <v>-20.950000000000045</v>
+        <v>41.799999999999955</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -6513,27 +6510,27 @@
       <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="37">
-        <f>'May 2017_BLS Data Series'!F14</f>
-        <v>800.22</v>
-      </c>
-      <c r="E14" s="44">
-        <f>'May 2017_BLS Data Series'!R14</f>
-        <v>813.96</v>
-      </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35">
+      <c r="D14" s="36">
+        <f>'June 2017_BLS Data Series'!G14</f>
+        <v>787.5</v>
+      </c>
+      <c r="E14" s="42">
+        <f>'June 2017_BLS Data Series'!S14</f>
+        <v>807.49</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34">
         <f t="shared" si="0"/>
-        <v>815.22314649771681</v>
+        <v>800.36371764764465</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="1"/>
-        <v>-0.15494487652164546</v>
+        <v>0.89038048517495749</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="29">
         <f t="shared" si="2"/>
-        <v>13.740000000000009</v>
+        <v>19.990000000000009</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -6548,27 +6545,27 @@
       <c r="C15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="37">
-        <f>'May 2017_BLS Data Series'!F15</f>
-        <v>865.22</v>
-      </c>
-      <c r="E15" s="44">
-        <f>'May 2017_BLS Data Series'!R15</f>
-        <v>871.47</v>
-      </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35">
+      <c r="D15" s="36">
+        <f>'June 2017_BLS Data Series'!G15</f>
+        <v>843.88</v>
+      </c>
+      <c r="E15" s="42">
+        <f>'June 2017_BLS Data Series'!S15</f>
+        <v>874.87</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34">
         <f t="shared" si="0"/>
-        <v>881.44181701626371</v>
+        <v>857.66467815681824</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="1"/>
-        <v>-1.1313074582754545</v>
+        <v>2.0060662729118439</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="29">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>30.990000000000009</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -6583,27 +6580,27 @@
       <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="37">
-        <f>'May 2017_BLS Data Series'!F16</f>
-        <v>851.76</v>
-      </c>
-      <c r="E16" s="44">
-        <f>'May 2017_BLS Data Series'!R16</f>
-        <v>841.1</v>
-      </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35">
+      <c r="D16" s="36">
+        <f>'June 2017_BLS Data Series'!G16</f>
+        <v>824.9</v>
+      </c>
+      <c r="E16" s="42">
+        <f>'June 2017_BLS Data Series'!S16</f>
+        <v>847.26</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34">
         <f t="shared" si="0"/>
-        <v>867.72945847503843</v>
+        <v>838.37464214291049</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="1"/>
-        <v>-3.0688664784802255</v>
+        <v>1.0598314178942969</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="29">
         <f t="shared" si="2"/>
-        <v>-10.659999999999968</v>
+        <v>22.360000000000014</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -6618,27 +6615,27 @@
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="37">
-        <f>'May 2017_BLS Data Series'!F17</f>
-        <v>755.66</v>
-      </c>
-      <c r="E17" s="44">
-        <f>'May 2017_BLS Data Series'!R17</f>
-        <v>745.59</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35">
+      <c r="D17" s="36">
+        <f>'June 2017_BLS Data Series'!G17</f>
+        <v>730.85</v>
+      </c>
+      <c r="E17" s="42">
+        <f>'June 2017_BLS Data Series'!S17</f>
+        <v>749.49</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34">
         <f t="shared" si="0"/>
-        <v>769.82770098530978</v>
+        <v>742.78834672099185</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="1"/>
-        <v>-3.1484578892507664</v>
+        <v>0.9022291893232115</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="29">
         <f t="shared" si="2"/>
-        <v>-10.069999999999936</v>
+        <v>18.639999999999986</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -6653,27 +6650,27 @@
       <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="37">
-        <f>'May 2017_BLS Data Series'!F18</f>
-        <v>915.47</v>
-      </c>
-      <c r="E18" s="44">
-        <f>'May 2017_BLS Data Series'!R18</f>
-        <v>902.7</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35">
+      <c r="D18" s="36">
+        <f>'June 2017_BLS Data Series'!G18</f>
+        <v>898.78</v>
+      </c>
+      <c r="E18" s="42">
+        <f>'June 2017_BLS Data Series'!S18</f>
+        <v>908.61</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34">
         <f t="shared" si="0"/>
-        <v>932.63394307098645</v>
+        <v>913.46146304425395</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="1"/>
-        <v>-3.209613299342251</v>
+        <v>-0.53110757711504197</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="29">
         <f t="shared" si="2"/>
-        <v>-12.769999999999982</v>
+        <v>9.8300000000000409</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -6688,27 +6685,27 @@
       <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="37">
-        <f>'May 2017_BLS Data Series'!F19</f>
-        <v>814.67</v>
-      </c>
-      <c r="E19" s="44">
-        <f>'May 2017_BLS Data Series'!R19</f>
-        <v>834.55</v>
-      </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35">
+      <c r="D19" s="36">
+        <f>'June 2017_BLS Data Series'!G19</f>
+        <v>805.04</v>
+      </c>
+      <c r="E19" s="42">
+        <f>'June 2017_BLS Data Series'!S19</f>
+        <v>851.65</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34">
         <f t="shared" si="0"/>
-        <v>829.94406632837831</v>
+        <v>818.19023143499658</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>0.55496916701844867</v>
+        <v>4.0894852174315766</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="29">
         <f t="shared" si="2"/>
-        <v>19.879999999999995</v>
+        <v>46.610000000000014</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -6723,27 +6720,27 @@
       <c r="C20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="37">
-        <f>'May 2017_BLS Data Series'!F20</f>
-        <v>808.6</v>
-      </c>
-      <c r="E20" s="44">
-        <f>'May 2017_BLS Data Series'!R20</f>
-        <v>793.44</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35">
+      <c r="D20" s="36">
+        <f>'June 2017_BLS Data Series'!G20</f>
+        <v>820.99</v>
+      </c>
+      <c r="E20" s="42">
+        <f>'June 2017_BLS Data Series'!S20</f>
+        <v>798.22</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34">
         <f t="shared" si="0"/>
-        <v>823.76026125072326</v>
+        <v>834.40077276386</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="1"/>
-        <v>-3.6807142413847083</v>
+        <v>-4.3361384534694514</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="29">
         <f t="shared" si="2"/>
-        <v>-15.159999999999968</v>
+        <v>-22.769999999999982</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -6758,27 +6755,27 @@
       <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="37">
-        <f>'May 2017_BLS Data Series'!F21</f>
-        <v>766.08</v>
-      </c>
-      <c r="E21" s="44">
-        <f>'May 2017_BLS Data Series'!R21</f>
-        <v>771.51</v>
-      </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35">
+      <c r="D21" s="36">
+        <f>'June 2017_BLS Data Series'!G21</f>
+        <v>763.3</v>
+      </c>
+      <c r="E21" s="42">
+        <f>'June 2017_BLS Data Series'!S21</f>
+        <v>782.15</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34">
         <f t="shared" si="0"/>
-        <v>780.4430632438216</v>
+        <v>775.76841356247246</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="1"/>
-        <v>-1.1446143433823774</v>
+        <v>0.82261488428254648</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="29">
         <f t="shared" si="2"/>
-        <v>5.42999999999995</v>
+        <v>18.850000000000023</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -6793,27 +6790,27 @@
       <c r="C22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="37">
-        <f>'May 2017_BLS Data Series'!F22</f>
-        <v>740.6</v>
-      </c>
-      <c r="E22" s="44">
-        <f>'May 2017_BLS Data Series'!R22</f>
-        <v>760.28</v>
-      </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35">
+      <c r="D22" s="36">
+        <f>'June 2017_BLS Data Series'!G22</f>
+        <v>749.05</v>
+      </c>
+      <c r="E22" s="42">
+        <f>'June 2017_BLS Data Series'!S22</f>
+        <v>759.85</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34">
         <f t="shared" si="0"/>
-        <v>754.48534440055118</v>
+        <v>761.28564152884849</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="1"/>
-        <v>0.76802758893252943</v>
+        <v>-0.18858119088721592</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="29">
         <f t="shared" si="2"/>
-        <v>19.67999999999995</v>
+        <v>10.800000000000068</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
@@ -6828,27 +6825,27 @@
       <c r="C23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="37">
-        <f>'May 2017_BLS Data Series'!F23</f>
-        <v>803.37</v>
-      </c>
-      <c r="E23" s="44">
-        <f>'May 2017_BLS Data Series'!R23</f>
-        <v>803.93</v>
-      </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35">
+      <c r="D23" s="36">
+        <f>'June 2017_BLS Data Series'!G23</f>
+        <v>790.94</v>
+      </c>
+      <c r="E23" s="42">
+        <f>'June 2017_BLS Data Series'!S23</f>
+        <v>806.06</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34">
         <f t="shared" si="0"/>
-        <v>818.43220514592326</v>
+        <v>803.85990963330551</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="1"/>
-        <v>-1.7719494729972918</v>
+        <v>0.27369076879304455</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="29">
         <f t="shared" si="2"/>
-        <v>0.55999999999994543</v>
+        <v>15.119999999999891</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -6863,27 +6860,27 @@
       <c r="C24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="37">
-        <f>'May 2017_BLS Data Series'!F24</f>
-        <v>754.8</v>
-      </c>
-      <c r="E24" s="44">
-        <f>'May 2017_BLS Data Series'!R24</f>
-        <v>790.1</v>
-      </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35">
+      <c r="D24" s="36">
+        <f>'June 2017_BLS Data Series'!G24</f>
+        <v>741.73</v>
+      </c>
+      <c r="E24" s="42">
+        <f>'June 2017_BLS Data Series'!S24</f>
+        <v>780.1</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34">
         <f t="shared" si="0"/>
-        <v>768.95157703691052</v>
+        <v>753.84607021052375</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="1"/>
-        <v>2.7502932037129169</v>
+        <v>3.4826645421318414</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="29">
         <f t="shared" si="2"/>
-        <v>35.300000000000068</v>
+        <v>38.370000000000005</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -6898,27 +6895,27 @@
       <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="37">
-        <f>'May 2017_BLS Data Series'!F25</f>
-        <v>939.47</v>
-      </c>
-      <c r="E25" s="44">
-        <f>'May 2017_BLS Data Series'!R25</f>
-        <v>939.47</v>
-      </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35">
+      <c r="D25" s="36">
+        <f>'June 2017_BLS Data Series'!G25</f>
+        <v>926.74</v>
+      </c>
+      <c r="E25" s="42">
+        <f>'June 2017_BLS Data Series'!S25</f>
+        <v>945.65</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34">
         <f t="shared" si="0"/>
-        <v>957.08391372398842</v>
+        <v>941.87818627654372</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="1"/>
-        <v>-1.8403729778983635</v>
+        <v>0.40045663849239688</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18.909999999999968</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -6933,27 +6930,27 @@
       <c r="C26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="37">
-        <f>'May 2017_BLS Data Series'!F26</f>
-        <v>1047.4000000000001</v>
-      </c>
-      <c r="E26" s="44">
-        <f>'May 2017_BLS Data Series'!R26</f>
-        <v>1055.28</v>
-      </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35">
+      <c r="D26" s="36">
+        <f>'June 2017_BLS Data Series'!G26</f>
+        <v>1029.46</v>
+      </c>
+      <c r="E26" s="42">
+        <f>'June 2017_BLS Data Series'!S26</f>
+        <v>1054.77</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34">
         <f t="shared" si="0"/>
-        <v>1067.0374692480925</v>
+        <v>1046.2761051041832</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>-1.1018796984118673</v>
+        <v>0.8118215501988324</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="29">
         <f t="shared" si="2"/>
-        <v>7.8799999999998818</v>
+        <v>25.309999999999945</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -6968,27 +6965,27 @@
       <c r="C27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="37">
-        <f>'May 2017_BLS Data Series'!F27</f>
-        <v>823.89</v>
-      </c>
-      <c r="E27" s="44">
-        <f>'May 2017_BLS Data Series'!R27</f>
-        <v>822.83</v>
-      </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35">
+      <c r="D27" s="36">
+        <f>'June 2017_BLS Data Series'!G27</f>
+        <v>816.66</v>
+      </c>
+      <c r="E27" s="42">
+        <f>'June 2017_BLS Data Series'!S27</f>
+        <v>799.03</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34">
         <f t="shared" si="0"/>
-        <v>839.33693005423993</v>
+        <v>830.00004273539741</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="1"/>
-        <v>-1.966663143628522</v>
+        <v>-3.7313302579275454</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="29">
         <f t="shared" si="2"/>
-        <v>-1.0599999999999454</v>
+        <v>-17.629999999999995</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -7003,27 +7000,27 @@
       <c r="C28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="37">
-        <f>'May 2017_BLS Data Series'!F28</f>
-        <v>925.76</v>
-      </c>
-      <c r="E28" s="44">
-        <f>'May 2017_BLS Data Series'!R28</f>
-        <v>955.53</v>
-      </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35">
+      <c r="D28" s="36">
+        <f>'June 2017_BLS Data Series'!G28</f>
+        <v>913.75</v>
+      </c>
+      <c r="E28" s="42">
+        <f>'June 2017_BLS Data Series'!S28</f>
+        <v>954.52</v>
+      </c>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34">
         <f t="shared" si="0"/>
-        <v>943.11686798846097</v>
+        <v>928.67599619115583</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="1"/>
-        <v>1.3161817408710474</v>
+        <v>2.7828870257054161</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="29">
         <f t="shared" si="2"/>
-        <v>29.769999999999982</v>
+        <v>40.769999999999982</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -7038,27 +7035,27 @@
       <c r="C29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="37">
-        <f>'May 2017_BLS Data Series'!F29</f>
-        <v>698.09</v>
-      </c>
-      <c r="E29" s="44">
-        <f>'May 2017_BLS Data Series'!R29</f>
-        <v>700.95</v>
-      </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35">
+      <c r="D29" s="36">
+        <f>'June 2017_BLS Data Series'!G29</f>
+        <v>687.93</v>
+      </c>
+      <c r="E29" s="42">
+        <f>'June 2017_BLS Data Series'!S29</f>
+        <v>703.93</v>
+      </c>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34">
         <f t="shared" si="0"/>
-        <v>711.17833388142151</v>
+        <v>699.16725369059566</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="1"/>
-        <v>-1.4382234939017247</v>
+        <v>0.68120271426670431</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="29">
         <f t="shared" si="2"/>
-        <v>2.8600000000000136</v>
+        <v>16</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -7073,27 +7070,27 @@
       <c r="C30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="37">
-        <f>'May 2017_BLS Data Series'!F30</f>
-        <v>752.52</v>
-      </c>
-      <c r="E30" s="44">
-        <f>'May 2017_BLS Data Series'!R30</f>
-        <v>794.29</v>
-      </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35">
+      <c r="D30" s="36">
+        <f>'June 2017_BLS Data Series'!G30</f>
+        <v>738.93</v>
+      </c>
+      <c r="E30" s="42">
+        <f>'June 2017_BLS Data Series'!S30</f>
+        <v>792.61</v>
+      </c>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34">
         <f t="shared" si="0"/>
-        <v>766.62882982487542</v>
+        <v>751.00033254777645</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="1"/>
-        <v>3.6081567897000788</v>
+        <v>5.540565782582596</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="29">
         <f t="shared" si="2"/>
-        <v>41.769999999999982</v>
+        <v>53.680000000000064</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
@@ -7108,27 +7105,27 @@
       <c r="C31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="37">
-        <f>'May 2017_BLS Data Series'!F31</f>
-        <v>740.52</v>
-      </c>
-      <c r="E31" s="44">
-        <f>'May 2017_BLS Data Series'!R31</f>
-        <v>750.47</v>
-      </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35">
+      <c r="D31" s="36">
+        <f>'June 2017_BLS Data Series'!G31</f>
+        <v>732.5</v>
+      </c>
+      <c r="E31" s="42">
+        <f>'June 2017_BLS Data Series'!S31</f>
+        <v>760.91</v>
+      </c>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34">
         <f t="shared" si="0"/>
-        <v>754.4038444983745</v>
+        <v>744.46529927225356</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="1"/>
-        <v>-0.52145074909980549</v>
+        <v>2.2089277692085574</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="29">
         <f t="shared" si="2"/>
-        <v>9.9500000000000455</v>
+        <v>28.409999999999968</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -7143,27 +7140,27 @@
       <c r="C32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="37">
-        <f>'May 2017_BLS Data Series'!F32</f>
-        <v>785.66</v>
-      </c>
-      <c r="E32" s="44">
-        <f>'May 2017_BLS Data Series'!R32</f>
-        <v>814.24</v>
-      </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35">
+      <c r="D32" s="36">
+        <f>'June 2017_BLS Data Series'!G32</f>
+        <v>779.08</v>
+      </c>
+      <c r="E32" s="42">
+        <f>'June 2017_BLS Data Series'!S32</f>
+        <v>818.03</v>
+      </c>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34">
         <f t="shared" si="0"/>
-        <v>800.39016430156221</v>
+        <v>791.80617796181207</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="1"/>
-        <v>1.7303855439707361</v>
+        <v>3.3118991450269641</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="29">
         <f t="shared" si="2"/>
-        <v>28.580000000000041</v>
+        <v>38.949999999999932</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -7178,27 +7175,27 @@
       <c r="C33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="37">
-        <f>'May 2017_BLS Data Series'!F33</f>
-        <v>758.73</v>
-      </c>
-      <c r="E33" s="44">
-        <f>'May 2017_BLS Data Series'!R33</f>
-        <v>760.61</v>
-      </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35">
+      <c r="D33" s="36">
+        <f>'June 2017_BLS Data Series'!G33</f>
+        <v>750.38</v>
+      </c>
+      <c r="E33" s="42">
+        <f>'June 2017_BLS Data Series'!S33</f>
+        <v>763.16</v>
+      </c>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34">
         <f t="shared" si="0"/>
-        <v>772.95525973133965</v>
+        <v>762.63736691865336</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="1"/>
-        <v>-1.5971506210631814</v>
+        <v>6.8529697601649175E-2</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="29">
         <f t="shared" si="2"/>
-        <v>1.8799999999999955</v>
+        <v>12.779999999999973</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -7213,27 +7210,27 @@
       <c r="C34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="37">
-        <f>'May 2017_BLS Data Series'!F34</f>
-        <v>862.92</v>
-      </c>
-      <c r="E34" s="44">
-        <f>'May 2017_BLS Data Series'!R34</f>
-        <v>889.2</v>
-      </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35">
+      <c r="D34" s="36">
+        <f>'June 2017_BLS Data Series'!G34</f>
+        <v>846.21</v>
+      </c>
+      <c r="E34" s="42">
+        <f>'June 2017_BLS Data Series'!S34</f>
+        <v>878.22</v>
+      </c>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34">
         <f t="shared" si="0"/>
-        <v>879.0986948286843</v>
+        <v>860.03273842617568</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="1"/>
-        <v>1.1490524591535545</v>
+        <v>2.1147173544935338</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="29">
         <f t="shared" si="2"/>
-        <v>26.280000000000086</v>
+        <v>32.009999999999991</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
@@ -7248,27 +7245,27 @@
       <c r="C35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="37">
-        <f>'May 2017_BLS Data Series'!F35</f>
-        <v>961.18</v>
-      </c>
-      <c r="E35" s="44">
-        <f>'May 2017_BLS Data Series'!R35</f>
-        <v>820.98</v>
-      </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35">
+      <c r="D35" s="36">
+        <f>'June 2017_BLS Data Series'!G35</f>
+        <v>941.4</v>
+      </c>
+      <c r="E35" s="42">
+        <f>'June 2017_BLS Data Series'!S35</f>
+        <v>999.32</v>
+      </c>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34">
         <f t="shared" si="0"/>
-        <v>979.20094967718296</v>
+        <v>956.77765561078422</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="1"/>
-        <v>-16.158169549298773</v>
+        <v>4.4464190964051964</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="29">
         <f t="shared" si="2"/>
-        <v>-140.19999999999993</v>
+        <v>57.920000000000073</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -7283,27 +7280,27 @@
       <c r="C36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="37">
-        <f>'May 2017_BLS Data Series'!F36</f>
-        <v>686.47</v>
-      </c>
-      <c r="E36" s="44">
-        <f>'May 2017_BLS Data Series'!R36</f>
-        <v>709.05</v>
-      </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35">
+      <c r="D36" s="36">
+        <f>'June 2017_BLS Data Series'!G36</f>
+        <v>678.69</v>
+      </c>
+      <c r="E36" s="42">
+        <f>'June 2017_BLS Data Series'!S36</f>
+        <v>706.82</v>
+      </c>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34">
         <f t="shared" si="0"/>
-        <v>699.34047309025971</v>
+        <v>689.77631940353012</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="1"/>
-        <v>1.3883833816789704</v>
+        <v>2.4708996405107264</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="29">
         <f t="shared" si="2"/>
-        <v>22.579999999999927</v>
+        <v>28.129999999999995</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -7318,27 +7315,27 @@
       <c r="C37" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="37">
-        <f>'May 2017_BLS Data Series'!F37</f>
-        <v>981.46</v>
-      </c>
-      <c r="E37" s="44">
-        <f>'May 2017_BLS Data Series'!R37</f>
-        <v>994.01</v>
-      </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35">
+      <c r="D37" s="36">
+        <f>'June 2017_BLS Data Series'!G37</f>
+        <v>962.12</v>
+      </c>
+      <c r="E37" s="42">
+        <f>'June 2017_BLS Data Series'!S37</f>
+        <v>991.65</v>
+      </c>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34">
         <f t="shared" si="0"/>
-        <v>999.86117487896968</v>
+        <v>977.83611431511349</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="1"/>
-        <v>-0.58519872818123542</v>
+        <v>1.4126994782312607</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="29">
         <f t="shared" si="2"/>
-        <v>12.549999999999955</v>
+        <v>29.529999999999973</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
@@ -7353,27 +7350,27 @@
       <c r="C38" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="37">
-        <f>'May 2017_BLS Data Series'!F38</f>
-        <v>809.03</v>
-      </c>
-      <c r="E38" s="44">
-        <f>'May 2017_BLS Data Series'!R38</f>
-        <v>830.76</v>
-      </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35">
+      <c r="D38" s="36">
+        <f>'June 2017_BLS Data Series'!G38</f>
+        <v>801.52</v>
+      </c>
+      <c r="E38" s="42">
+        <f>'June 2017_BLS Data Series'!S38</f>
+        <v>823.48</v>
+      </c>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34">
         <f t="shared" si="0"/>
-        <v>824.19832322492289</v>
+        <v>814.61273265897159</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="1"/>
-        <v>0.79612838198972469</v>
+        <v>1.0885255024292162</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="29">
         <f t="shared" si="2"/>
-        <v>21.730000000000018</v>
+        <v>21.960000000000036</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -7388,27 +7385,27 @@
       <c r="C39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="37">
-        <f>'May 2017_BLS Data Series'!F39</f>
-        <v>904.96</v>
-      </c>
-      <c r="E39" s="44">
-        <f>'May 2017_BLS Data Series'!R39</f>
-        <v>916.04</v>
-      </c>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35">
+      <c r="D39" s="36">
+        <f>'June 2017_BLS Data Series'!G39</f>
+        <v>878.84</v>
+      </c>
+      <c r="E39" s="42">
+        <f>'June 2017_BLS Data Series'!S39</f>
+        <v>921.94</v>
+      </c>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34">
         <f t="shared" si="0"/>
-        <v>921.92689342252606</v>
+        <v>893.19574554597591</v>
       </c>
       <c r="H39" s="11">
         <f t="shared" si="1"/>
-        <v>-0.63854232526744381</v>
+        <v>3.218136068981603</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="29">
         <f t="shared" si="2"/>
-        <v>11.079999999999927</v>
+        <v>43.100000000000023</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
@@ -7423,27 +7420,27 @@
       <c r="C40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="37">
-        <f>'May 2017_BLS Data Series'!F40</f>
-        <v>805.3</v>
-      </c>
-      <c r="E40" s="44">
-        <f>'May 2017_BLS Data Series'!R40</f>
-        <v>814.97</v>
-      </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35">
+      <c r="D40" s="36">
+        <f>'June 2017_BLS Data Series'!G40</f>
+        <v>794.05</v>
+      </c>
+      <c r="E40" s="42">
+        <f>'June 2017_BLS Data Series'!S40</f>
+        <v>812.87</v>
+      </c>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34">
         <f t="shared" si="0"/>
-        <v>820.39839028593542</v>
+        <v>807.02071110871384</v>
       </c>
       <c r="H40" s="11">
         <f t="shared" si="1"/>
-        <v>-0.66167734483771889</v>
+        <v>0.72480034412625294</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="29">
         <f t="shared" si="2"/>
-        <v>9.6700000000000728</v>
+        <v>18.82000000000005</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -7458,27 +7455,27 @@
       <c r="C41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="37">
-        <f>'May 2017_BLS Data Series'!F41</f>
-        <v>771.15</v>
-      </c>
-      <c r="E41" s="44">
-        <f>'May 2017_BLS Data Series'!R41</f>
-        <v>806.41</v>
-      </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35">
+      <c r="D41" s="36">
+        <f>'June 2017_BLS Data Series'!G41</f>
+        <v>762.65</v>
+      </c>
+      <c r="E41" s="42">
+        <f>'June 2017_BLS Data Series'!S41</f>
+        <v>804.79</v>
+      </c>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34">
         <f t="shared" si="0"/>
-        <v>785.60811954426811</v>
+        <v>775.10779589076333</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="1"/>
-        <v>2.6478698397107925</v>
+        <v>3.829429179605337</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="29">
         <f t="shared" si="2"/>
-        <v>35.259999999999991</v>
+        <v>42.139999999999986</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
@@ -7493,27 +7490,27 @@
       <c r="C42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="37">
-        <f>'May 2017_BLS Data Series'!F42</f>
-        <v>855.7</v>
-      </c>
-      <c r="E42" s="44">
-        <f>'May 2017_BLS Data Series'!R42</f>
-        <v>854.28</v>
-      </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35">
+      <c r="D42" s="36">
+        <f>'June 2017_BLS Data Series'!G42</f>
+        <v>834.14</v>
+      </c>
+      <c r="E42" s="42">
+        <f>'June 2017_BLS Data Series'!S42</f>
+        <v>858.5</v>
+      </c>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34">
         <f t="shared" si="0"/>
-        <v>871.74332865723966</v>
+        <v>847.76557642997625</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" si="1"/>
-        <v>-2.0032649615040587</v>
+        <v>1.2662018685905441</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="29">
         <f t="shared" si="2"/>
-        <v>-1.4200000000000728</v>
+        <v>24.360000000000014</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
@@ -7528,27 +7525,27 @@
       <c r="C43" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="37">
-        <f>'May 2017_BLS Data Series'!F43</f>
-        <v>830.55</v>
-      </c>
-      <c r="E43" s="44">
-        <f>'May 2017_BLS Data Series'!R43</f>
-        <v>842.3</v>
-      </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35">
+      <c r="D43" s="36">
+        <f>'June 2017_BLS Data Series'!G43</f>
+        <v>824.72</v>
+      </c>
+      <c r="E43" s="42">
+        <f>'June 2017_BLS Data Series'!S43</f>
+        <v>837.23</v>
+      </c>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34">
         <f t="shared" si="0"/>
-        <v>846.12179691044787</v>
+        <v>838.1917018645911</v>
       </c>
       <c r="H43" s="11">
         <f t="shared" si="1"/>
-        <v>-0.45168401575316208</v>
+        <v>-0.11473531203562981</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="29">
         <f t="shared" si="2"/>
-        <v>11.75</v>
+        <v>12.509999999999991</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
@@ -7563,27 +7560,27 @@
       <c r="C44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="37">
-        <f>'May 2017_BLS Data Series'!F44</f>
-        <v>857.67</v>
-      </c>
-      <c r="E44" s="44">
-        <f>'May 2017_BLS Data Series'!R44</f>
-        <v>885.72</v>
-      </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35">
+      <c r="D44" s="36">
+        <f>'June 2017_BLS Data Series'!G44</f>
+        <v>848.1</v>
+      </c>
+      <c r="E44" s="42">
+        <f>'June 2017_BLS Data Series'!S44</f>
+        <v>872.52</v>
+      </c>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34">
         <f t="shared" si="0"/>
-        <v>873.7502637483401</v>
+        <v>861.95361134852999</v>
       </c>
       <c r="H44" s="11">
         <f t="shared" si="1"/>
-        <v>1.3699264822319313</v>
+        <v>1.2258651176063617</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="29">
         <f t="shared" si="2"/>
-        <v>28.050000000000068</v>
+        <v>24.419999999999959</v>
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
@@ -7598,27 +7595,27 @@
       <c r="C45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="37">
-        <f>'May 2017_BLS Data Series'!F45</f>
-        <v>761.08</v>
-      </c>
-      <c r="E45" s="44">
-        <f>'May 2017_BLS Data Series'!R45</f>
-        <v>775.22</v>
-      </c>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35">
+      <c r="D45" s="36">
+        <f>'June 2017_BLS Data Series'!G45</f>
+        <v>763.62</v>
+      </c>
+      <c r="E45" s="42">
+        <f>'June 2017_BLS Data Series'!S45</f>
+        <v>785.25</v>
+      </c>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34">
         <f t="shared" si="0"/>
-        <v>775.34931935777945</v>
+        <v>776.09364072392941</v>
       </c>
       <c r="H45" s="11">
         <f t="shared" si="1"/>
-        <v>-1.6678851009577222E-2</v>
+        <v>1.1798008378898217</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="29">
         <f t="shared" si="2"/>
-        <v>14.139999999999986</v>
+        <v>21.629999999999995</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
@@ -7633,27 +7630,27 @@
       <c r="C46" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="37">
-        <f>'May 2017_BLS Data Series'!F46</f>
-        <v>734.16</v>
-      </c>
-      <c r="E46" s="44">
-        <f>'May 2017_BLS Data Series'!R46</f>
-        <v>736.16</v>
-      </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35">
+      <c r="D46" s="36">
+        <f>'June 2017_BLS Data Series'!G46</f>
+        <v>719.68</v>
+      </c>
+      <c r="E46" s="42">
+        <f>'June 2017_BLS Data Series'!S46</f>
+        <v>730.85</v>
+      </c>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34">
         <f t="shared" si="0"/>
-        <v>747.92460227532888</v>
+        <v>731.43588611638961</v>
       </c>
       <c r="H46" s="11">
         <f t="shared" si="1"/>
-        <v>-1.5729663444067454</v>
+        <v>-8.0100816422934429E-2</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="29">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>11.170000000000073</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
@@ -7668,27 +7665,27 @@
       <c r="C47" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="37">
-        <f>'May 2017_BLS Data Series'!F47</f>
-        <v>775.43</v>
-      </c>
-      <c r="E47" s="44">
-        <f>'May 2017_BLS Data Series'!R47</f>
-        <v>794.38</v>
-      </c>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35">
+      <c r="D47" s="36">
+        <f>'June 2017_BLS Data Series'!G47</f>
+        <v>766.47</v>
+      </c>
+      <c r="E47" s="42">
+        <f>'June 2017_BLS Data Series'!S47</f>
+        <v>794.95</v>
+      </c>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34">
         <f t="shared" si="0"/>
-        <v>789.96836431072018</v>
+        <v>778.99019513065423</v>
       </c>
       <c r="H47" s="11">
         <f t="shared" si="1"/>
-        <v>0.55845726089667203</v>
+        <v>2.0487812258880966</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="29">
         <f t="shared" si="2"/>
-        <v>18.950000000000045</v>
+        <v>28.480000000000018</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
@@ -7703,27 +7700,27 @@
       <c r="C48" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="37">
-        <f>'May 2017_BLS Data Series'!F48</f>
-        <v>892.69</v>
-      </c>
-      <c r="E48" s="44">
-        <f>'May 2017_BLS Data Series'!R48</f>
-        <v>923.2</v>
-      </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35">
+      <c r="D48" s="36">
+        <f>'June 2017_BLS Data Series'!G48</f>
+        <v>870.3</v>
+      </c>
+      <c r="E48" s="42">
+        <f>'June 2017_BLS Data Series'!S48</f>
+        <v>894.28</v>
+      </c>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34">
         <f t="shared" si="0"/>
-        <v>909.42684592617888</v>
+        <v>884.51624567459692</v>
       </c>
       <c r="H48" s="11">
         <f t="shared" si="1"/>
-        <v>1.5144872988430702</v>
+        <v>1.1038524586913123</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="29">
         <f t="shared" si="2"/>
-        <v>30.509999999999991</v>
+        <v>23.980000000000018</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
@@ -7738,27 +7735,27 @@
       <c r="C49" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="37">
-        <f>'May 2017_BLS Data Series'!F49</f>
-        <v>860.97</v>
-      </c>
-      <c r="E49" s="44">
-        <f>'May 2017_BLS Data Series'!R49</f>
-        <v>869.08</v>
-      </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35">
+      <c r="D49" s="36">
+        <f>'June 2017_BLS Data Series'!G49</f>
+        <v>841.12</v>
+      </c>
+      <c r="E49" s="42">
+        <f>'June 2017_BLS Data Series'!S49</f>
+        <v>877.91</v>
+      </c>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34">
         <f t="shared" si="0"/>
-        <v>877.11213471312794</v>
+        <v>854.85959388925312</v>
       </c>
       <c r="H49" s="11">
         <f t="shared" si="1"/>
-        <v>-0.91574775849554424</v>
+        <v>2.6963967270785538</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="29">
         <f t="shared" si="2"/>
-        <v>8.1100000000000136</v>
+        <v>36.789999999999964</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
@@ -7773,27 +7770,27 @@
       <c r="C50" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="37">
-        <f>'May 2017_BLS Data Series'!F50</f>
-        <v>824.72</v>
-      </c>
-      <c r="E50" s="44">
-        <f>'May 2017_BLS Data Series'!R50</f>
-        <v>815.47</v>
-      </c>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35">
+      <c r="D50" s="36">
+        <f>'June 2017_BLS Data Series'!G50</f>
+        <v>810.82</v>
+      </c>
+      <c r="E50" s="42">
+        <f>'June 2017_BLS Data Series'!S50</f>
+        <v>809.76</v>
+      </c>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34">
         <f t="shared" si="0"/>
-        <v>840.18249153932288</v>
+        <v>824.06464703881045</v>
       </c>
       <c r="H50" s="11">
         <f t="shared" si="1"/>
-        <v>-2.9413242704030118</v>
+        <v>-1.7358646667118505</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="29">
         <f t="shared" si="2"/>
-        <v>-9.25</v>
+        <v>-1.0600000000000591</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -7808,27 +7805,27 @@
       <c r="C51" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="37">
-        <f>'May 2017_BLS Data Series'!F51</f>
-        <v>954.72</v>
-      </c>
-      <c r="E51" s="44">
-        <f>'May 2017_BLS Data Series'!R51</f>
-        <v>943.92</v>
-      </c>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35">
+      <c r="D51" s="36">
+        <f>'June 2017_BLS Data Series'!G51</f>
+        <v>933.92</v>
+      </c>
+      <c r="E51" s="42">
+        <f>'June 2017_BLS Data Series'!S51</f>
+        <v>929.43</v>
+      </c>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34">
         <f t="shared" si="0"/>
-        <v>972.61983257641668</v>
+        <v>949.17547071173112</v>
       </c>
       <c r="H51" s="11">
         <f t="shared" si="1"/>
-        <v>-2.9507759985103799</v>
+        <v>-2.0802761260702574</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="29">
         <f t="shared" si="2"/>
-        <v>-10.800000000000068</v>
+        <v>-4.4900000000000091</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -7843,27 +7840,27 @@
       <c r="C52" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="37">
-        <f>'May 2017_BLS Data Series'!F52</f>
-        <v>1068.32</v>
-      </c>
-      <c r="E52" s="44">
-        <f>'May 2017_BLS Data Series'!R52</f>
-        <v>1073.3</v>
-      </c>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35">
+      <c r="D52" s="36">
+        <f>'June 2017_BLS Data Series'!G52</f>
+        <v>1033.6199999999999</v>
+      </c>
+      <c r="E52" s="42">
+        <f>'June 2017_BLS Data Series'!S52</f>
+        <v>1070.8699999999999</v>
+      </c>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34">
         <f t="shared" si="0"/>
-        <v>1088.3496936672925</v>
+        <v>1050.5040582031218</v>
       </c>
       <c r="H52" s="11">
         <f t="shared" si="1"/>
-        <v>-1.3827994581944725</v>
+        <v>1.9386828292423663</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="29">
         <f t="shared" si="2"/>
-        <v>4.9800000000000182</v>
+        <v>37.25</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -7878,27 +7875,27 @@
       <c r="C53" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="37">
-        <f>'May 2017_BLS Data Series'!F53</f>
-        <v>720.69</v>
-      </c>
-      <c r="E53" s="44">
-        <f>'May 2017_BLS Data Series'!R53</f>
-        <v>752.6</v>
-      </c>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35">
+      <c r="D53" s="36">
+        <f>'June 2017_BLS Data Series'!G53</f>
+        <v>723.71</v>
+      </c>
+      <c r="E53" s="42">
+        <f>'June 2017_BLS Data Series'!S53</f>
+        <v>762.55</v>
+      </c>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34">
         <f t="shared" si="0"/>
-        <v>734.20205624633172</v>
+        <v>735.53171568098651</v>
       </c>
       <c r="H53" s="11">
         <f t="shared" si="1"/>
-        <v>2.5058420358735178</v>
+        <v>3.6732997018352531</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="29">
         <f t="shared" si="2"/>
-        <v>31.909999999999968</v>
+        <v>38.839999999999918</v>
       </c>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
@@ -7913,27 +7910,27 @@
       <c r="C54" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="37">
-        <f>'May 2017_BLS Data Series'!F54</f>
-        <v>809.42</v>
-      </c>
-      <c r="E54" s="44">
-        <f>'May 2017_BLS Data Series'!R54</f>
-        <v>827.12</v>
-      </c>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35">
+      <c r="D54" s="36">
+        <f>'June 2017_BLS Data Series'!G54</f>
+        <v>798.34</v>
+      </c>
+      <c r="E54" s="42">
+        <f>'June 2017_BLS Data Series'!S54</f>
+        <v>814.92</v>
+      </c>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34">
         <f t="shared" si="0"/>
-        <v>824.59563524803411</v>
+        <v>811.38078774199448</v>
       </c>
       <c r="H54" s="11">
         <f t="shared" si="1"/>
-        <v>0.30613365437066609</v>
+        <v>0.43619621162769295</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="29">
         <f t="shared" si="2"/>
-        <v>17.700000000000045</v>
+        <v>16.579999999999927</v>
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
@@ -7948,32 +7945,32 @@
       <c r="C55" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="37">
-        <f>'May 2017_BLS Data Series'!F55</f>
-        <v>773.89</v>
-      </c>
-      <c r="E55" s="44">
-        <f>'May 2017_BLS Data Series'!R55</f>
-        <v>812.89</v>
-      </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35">
+      <c r="D55" s="36">
+        <f>'June 2017_BLS Data Series'!G55</f>
+        <v>746.5</v>
+      </c>
+      <c r="E55" s="42">
+        <f>'June 2017_BLS Data Series'!S55</f>
+        <v>818.15</v>
+      </c>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34">
         <f t="shared" si="0"/>
-        <v>788.39949119381924</v>
+        <v>758.69398758598948</v>
       </c>
       <c r="H55" s="11">
         <f t="shared" si="1"/>
-        <v>3.106357764018397</v>
+        <v>7.836626279745218</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="29">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>71.649999999999977</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9">
         <f>COUNTIF(J5:J55,"&lt;0")</f>
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -7985,21 +7982,21 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C57" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>187</v>
+      <c r="D57" s="44">
+        <v>42522</v>
+      </c>
+      <c r="E57" s="45">
+        <v>42887</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="11"/>
       <c r="I57" s="8"/>
-      <c r="J57" s="42" t="s">
+      <c r="J57" s="41" t="s">
         <v>193</v>
       </c>
       <c r="K57" s="8"/>
@@ -8012,25 +8009,25 @@
       <c r="C58" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D58" s="45">
-        <v>880.3</v>
-      </c>
-      <c r="E58" s="45">
-        <v>901.97</v>
+      <c r="D58" s="43">
+        <v>881.33</v>
+      </c>
+      <c r="E58" s="43">
+        <v>905.63</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="11">
         <f>D58/$G$61</f>
-        <v>896.8045485765665</v>
-      </c>
-      <c r="H58" s="11">
+        <v>895.72641939606183</v>
+      </c>
+      <c r="H58" s="29">
         <f>((E58/G58)-1)*100</f>
-        <v>0.57598407943317831</v>
+        <v>1.105647928819109</v>
       </c>
       <c r="I58" s="9"/>
-      <c r="J58" s="11">
+      <c r="J58" s="29">
         <f>((E58/D58)-1)*100</f>
-        <v>2.4616607974554228</v>
+        <v>2.757196509820381</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
@@ -8065,16 +8062,16 @@
       <c r="C61" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="45">
-        <v>240.22900000000001</v>
-      </c>
-      <c r="E61" s="48">
-        <v>244.733</v>
+      <c r="D61" s="43">
+        <v>241.018</v>
+      </c>
+      <c r="E61" s="46">
+        <v>244.95500000000001</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9">
         <f>D61/E61</f>
-        <v>0.98159627022101636</v>
+        <v>0.98392766018248246</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -8135,59 +8132,59 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:N1"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="43" customWidth="1"/>
-    <col min="2" max="255" width="8" style="43" customWidth="1"/>
-    <col min="256" max="16384" width="9.140625" style="43"/>
+    <col min="1" max="1" width="23" style="48" customWidth="1"/>
+    <col min="2" max="255" width="8" style="48" customWidth="1"/>
+    <col min="256" max="16384" width="9.140625" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
     </row>
     <row r="4" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="32" t="s">
@@ -8264,2859 +8261,3012 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="36">
         <v>768.58</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>768.96</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="36">
         <v>760.77</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="36">
         <v>777.15</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="36">
         <v>786.21</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="36">
         <v>778.26</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="36">
         <v>782.13</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="36">
         <v>771.37</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="36">
         <v>778.22</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="36">
         <v>801.36</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="36">
         <v>780.57</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="36">
         <v>783.13</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="36">
         <v>795.44</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="36">
         <v>788.25</v>
       </c>
-      <c r="P5" s="37">
+      <c r="P5" s="36">
         <v>785.07</v>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="36">
         <v>800.8</v>
       </c>
-      <c r="R5" s="37">
+      <c r="R5" s="36">
         <v>790.24</v>
       </c>
+      <c r="S5" s="36">
+        <v>785.62</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="36">
         <v>935.32</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="36">
         <v>951.48</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="36">
         <v>955.89</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="36">
         <v>959.92</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="36">
         <v>965.81</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="36">
         <v>961.19</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="36">
         <v>989.87</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="36">
         <v>986.95</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="36">
         <v>974.63</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="36">
         <v>1001.32</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="36">
         <v>981.74</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="36">
         <v>976.29</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="36">
         <v>975.07</v>
       </c>
-      <c r="O6" s="37">
+      <c r="O6" s="36">
         <v>966.65</v>
       </c>
-      <c r="P6" s="37">
+      <c r="P6" s="36">
         <v>978.59</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="36">
         <v>987.56</v>
       </c>
-      <c r="R6" s="37">
-        <v>983.68</v>
+      <c r="R6" s="36">
+        <v>966.38</v>
+      </c>
+      <c r="S6" s="36">
+        <v>981.58</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="36">
         <v>803.06</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="36">
         <v>810.54</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="36">
         <v>813.6</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="36">
         <v>820.46</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="36">
         <v>841.12</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="36">
         <v>817.69</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="36">
         <v>814.28</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="36">
         <v>826.58</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="36">
         <v>825.56</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="36">
         <v>848.07</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="36">
         <v>831.74</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="36">
         <v>827.66</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="36">
         <v>857.44</v>
       </c>
-      <c r="O7" s="37">
+      <c r="O7" s="36">
         <v>856.03</v>
       </c>
-      <c r="P7" s="37">
+      <c r="P7" s="36">
         <v>849.34</v>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="36">
         <v>884.1</v>
       </c>
-      <c r="R7" s="37">
-        <v>863.78</v>
+      <c r="R7" s="36">
+        <v>862.5</v>
+      </c>
+      <c r="S7" s="36">
+        <v>863.08</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="36">
         <v>675.35</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="36">
         <v>673.93</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>666.99</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>677.66</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="36">
         <v>687.37</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="36">
         <v>685.25</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="36">
         <v>698.92</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="36">
         <v>688.4</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="36">
         <v>686.39</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="36">
         <v>706.15</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="36">
         <v>694.19</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="36">
         <v>697.94</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="36">
         <v>703.11</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="36">
         <v>703.82</v>
       </c>
-      <c r="P8" s="37">
+      <c r="P8" s="36">
         <v>702.45</v>
       </c>
-      <c r="Q8" s="37">
+      <c r="Q8" s="36">
         <v>719.32</v>
       </c>
-      <c r="R8" s="37">
-        <v>708.26</v>
+      <c r="R8" s="36">
+        <v>707.92</v>
+      </c>
+      <c r="S8" s="36">
+        <v>714.35</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="36">
         <v>971.28</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="36">
         <v>978.58</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>970.49</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="36">
         <v>979.95</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="36">
         <v>1009.66</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="36">
         <v>980.64</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <v>988.31</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="36">
         <v>992.44</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="36">
         <v>998.13</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="36">
         <v>1036.7</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="36">
         <v>1001.52</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="36">
         <v>1004.45</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="36">
         <v>1028.79</v>
       </c>
-      <c r="O9" s="37">
+      <c r="O9" s="36">
         <v>1007.17</v>
       </c>
-      <c r="P9" s="37">
+      <c r="P9" s="36">
         <v>1010.61</v>
       </c>
-      <c r="Q9" s="37">
+      <c r="Q9" s="36">
         <v>1043.6500000000001</v>
       </c>
-      <c r="R9" s="37">
-        <v>1024.31</v>
+      <c r="R9" s="36">
+        <v>1020.43</v>
+      </c>
+      <c r="S9" s="36">
+        <v>1021.34</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="36">
         <v>915.49</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>912</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="36">
         <v>909.42</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="36">
         <v>910.34</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="36">
         <v>925.81</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="36">
         <v>903.16</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="36">
         <v>899.76</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="36">
         <v>899.08</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="36">
         <v>901.81</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="36">
         <v>931.27</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="36">
         <v>897.77</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="36">
         <v>891.38</v>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="36">
         <v>904.2</v>
       </c>
-      <c r="O10" s="37">
+      <c r="O10" s="36">
         <v>899.7</v>
       </c>
-      <c r="P10" s="37">
+      <c r="P10" s="36">
         <v>896.2</v>
       </c>
-      <c r="Q10" s="37">
+      <c r="Q10" s="36">
         <v>931.39</v>
       </c>
-      <c r="R10" s="37">
-        <v>898.92</v>
+      <c r="R10" s="36">
+        <v>917.33</v>
+      </c>
+      <c r="S10" s="36">
+        <v>914.85</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="36">
         <v>1005.3</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <v>1003.59</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>999.32</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="36">
         <v>1019.37</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="36">
         <v>1044.1400000000001</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="36">
         <v>1009.34</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="36">
         <v>1014.05</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="36">
         <v>1021.1</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="36">
         <v>1029.8800000000001</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="36">
         <v>1058.49</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="36">
         <v>1030.21</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="36">
         <v>1033.24</v>
       </c>
-      <c r="N11" s="37">
+      <c r="N11" s="36">
         <v>1056.83</v>
       </c>
-      <c r="O11" s="37">
+      <c r="O11" s="36">
         <v>1032.9000000000001</v>
       </c>
-      <c r="P11" s="37">
+      <c r="P11" s="36">
         <v>1032.73</v>
       </c>
-      <c r="Q11" s="37">
+      <c r="Q11" s="36">
         <v>1065.93</v>
       </c>
-      <c r="R11" s="37">
-        <v>1038.9100000000001</v>
+      <c r="R11" s="36">
+        <v>1042.6099999999999</v>
+      </c>
+      <c r="S11" s="36">
+        <v>1030.51</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="36">
         <v>799.2</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="36">
         <v>801.12</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="36">
         <v>807.53</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="36">
         <v>810.74</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="36">
         <v>811.85</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="36">
         <v>793.58</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="36">
         <v>801.36</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="36">
         <v>799.79</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="36">
         <v>803.75</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="36">
         <v>843.16</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="36">
         <v>819.89</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="36">
         <v>816.19</v>
       </c>
-      <c r="N12" s="37">
+      <c r="N12" s="36">
         <v>833.02</v>
       </c>
-      <c r="O12" s="37">
+      <c r="O12" s="36">
         <v>829.46</v>
       </c>
-      <c r="P12" s="37">
+      <c r="P12" s="36">
         <v>825.93</v>
       </c>
-      <c r="Q12" s="37">
+      <c r="Q12" s="36">
         <v>860.6</v>
       </c>
-      <c r="R12" s="37">
-        <v>828.75</v>
+      <c r="R12" s="36">
+        <v>814.93</v>
+      </c>
+      <c r="S12" s="36">
+        <v>820.33</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="36">
         <v>1287.26</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="36">
         <v>1304.69</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="36">
         <v>1305.9100000000001</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="36">
         <v>1332.86</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="36">
         <v>1411.96</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="36">
         <v>1347.46</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="36">
         <v>1358.65</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="36">
         <v>1382.7</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="36">
         <v>1383.08</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="36">
         <v>1456.36</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="36">
         <v>1403.26</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="36">
         <v>1412.46</v>
       </c>
-      <c r="N13" s="37">
+      <c r="N13" s="36">
         <v>1480.46</v>
       </c>
-      <c r="O13" s="37">
+      <c r="O13" s="36">
         <v>1412.46</v>
       </c>
-      <c r="P13" s="37">
+      <c r="P13" s="36">
         <v>1412.35</v>
       </c>
-      <c r="Q13" s="37">
+      <c r="Q13" s="36">
         <v>1454.91</v>
       </c>
-      <c r="R13" s="37">
-        <v>1391.01</v>
+      <c r="R13" s="36">
+        <v>1392.77</v>
+      </c>
+      <c r="S13" s="36">
+        <v>1389.26</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="36">
         <v>777.37</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="36">
         <v>782.5</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="36">
         <v>790.7</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="36">
         <v>788.65</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="36">
         <v>800.22</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="36">
         <v>787.5</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="36">
         <v>785.74</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="36">
         <v>789.57</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="36">
         <v>791.28</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="36">
         <v>811.23</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="36">
         <v>805.46</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="36">
         <v>811.91</v>
       </c>
-      <c r="N14" s="37">
+      <c r="N14" s="36">
         <v>822.16</v>
       </c>
-      <c r="O14" s="37">
+      <c r="O14" s="36">
         <v>817.71</v>
       </c>
-      <c r="P14" s="37">
+      <c r="P14" s="36">
         <v>815.65</v>
       </c>
-      <c r="Q14" s="37">
+      <c r="Q14" s="36">
         <v>834.55</v>
       </c>
-      <c r="R14" s="37">
-        <v>813.96</v>
+      <c r="R14" s="36">
+        <v>815.67</v>
+      </c>
+      <c r="S14" s="36">
+        <v>807.49</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="36">
         <v>839.36</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="36">
         <v>842.17</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="36">
         <v>840.43</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="36">
         <v>842.51</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="36">
         <v>865.22</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="36">
         <v>843.88</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="36">
         <v>847.73</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="36">
         <v>847.7</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="36">
         <v>848.39</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="36">
         <v>882.46</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="36">
         <v>857.12</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="36">
         <v>862.38</v>
       </c>
-      <c r="N15" s="37">
+      <c r="N15" s="36">
         <v>885.89</v>
       </c>
-      <c r="O15" s="37">
+      <c r="O15" s="36">
         <v>867.22</v>
       </c>
-      <c r="P15" s="37">
+      <c r="P15" s="36">
         <v>861.27</v>
       </c>
-      <c r="Q15" s="37">
+      <c r="Q15" s="36">
         <v>890.53</v>
       </c>
-      <c r="R15" s="37">
-        <v>871.47</v>
+      <c r="R15" s="36">
+        <v>868.02</v>
+      </c>
+      <c r="S15" s="36">
+        <v>874.87</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="36">
         <v>824.26</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="36">
         <v>824.13</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="36">
         <v>820.54</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="36">
         <v>827.64</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="36">
         <v>851.76</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="36">
         <v>824.9</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="36">
         <v>837.31</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="36">
         <v>830.58</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="36">
         <v>828.82</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="36">
         <v>858.61</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="36">
         <v>817.59</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="36">
         <v>829.76</v>
       </c>
-      <c r="N16" s="37">
+      <c r="N16" s="36">
         <v>870.13</v>
       </c>
-      <c r="O16" s="37">
+      <c r="O16" s="36">
         <v>837.82</v>
       </c>
-      <c r="P16" s="37">
+      <c r="P16" s="36">
         <v>830.43</v>
       </c>
-      <c r="Q16" s="37">
+      <c r="Q16" s="36">
         <v>876.77</v>
       </c>
-      <c r="R16" s="37">
-        <v>841.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="R16" s="36">
+        <v>846.95</v>
+      </c>
+      <c r="S16" s="36">
+        <v>847.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="36">
         <v>734.18</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="36">
         <v>729.65</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="36">
         <v>727.38</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="36">
         <v>744.89</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="36">
         <v>755.66</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="36">
         <v>730.85</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="36">
         <v>735.6</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="36">
         <v>735.71</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="36">
         <v>734.33</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="36">
         <v>757.91</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="36">
         <v>735.05</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="36">
         <v>724.81</v>
       </c>
-      <c r="N17" s="37">
+      <c r="N17" s="36">
         <v>740.34</v>
       </c>
-      <c r="O17" s="37">
+      <c r="O17" s="36">
         <v>735.15</v>
       </c>
-      <c r="P17" s="37">
+      <c r="P17" s="36">
         <v>734.72</v>
       </c>
-      <c r="Q17" s="37">
+      <c r="Q17" s="36">
         <v>765.12</v>
       </c>
-      <c r="R17" s="37">
-        <v>745.59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="R17" s="36">
+        <v>751.41</v>
+      </c>
+      <c r="S17" s="36">
+        <v>749.49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="36">
         <v>900.38</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="36">
         <v>894.01</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="36">
         <v>897.33</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="36">
         <v>899.37</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="36">
         <v>915.47</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="36">
         <v>898.78</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="36">
         <v>900.92</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="36">
         <v>902.02</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="36">
         <v>910.75</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="36">
         <v>935.86</v>
       </c>
-      <c r="L18" s="37">
+      <c r="L18" s="36">
         <v>912.8</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="36">
         <v>906.1</v>
       </c>
-      <c r="N18" s="37">
+      <c r="N18" s="36">
         <v>914.62</v>
       </c>
-      <c r="O18" s="37">
+      <c r="O18" s="36">
         <v>902.46</v>
       </c>
-      <c r="P18" s="37">
+      <c r="P18" s="36">
         <v>897.43</v>
       </c>
-      <c r="Q18" s="37">
+      <c r="Q18" s="36">
         <v>919</v>
       </c>
-      <c r="R18" s="37">
-        <v>902.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="R18" s="36">
+        <v>900.38</v>
+      </c>
+      <c r="S18" s="36">
+        <v>908.61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="36">
         <v>804.54</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="36">
         <v>796.79</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="36">
         <v>794.05</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="36">
         <v>809.03</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="36">
         <v>814.67</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="36">
         <v>805.04</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="36">
         <v>811.63</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="36">
         <v>815.26</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="36">
         <v>823.64</v>
       </c>
-      <c r="K19" s="37">
+      <c r="K19" s="36">
         <v>847.97</v>
       </c>
-      <c r="L19" s="37">
+      <c r="L19" s="36">
         <v>836.78</v>
       </c>
-      <c r="M19" s="37">
+      <c r="M19" s="36">
         <v>837.66</v>
       </c>
-      <c r="N19" s="37">
+      <c r="N19" s="36">
         <v>845.99</v>
       </c>
-      <c r="O19" s="37">
+      <c r="O19" s="36">
         <v>840.42</v>
       </c>
-      <c r="P19" s="37">
+      <c r="P19" s="36">
         <v>833.17</v>
       </c>
-      <c r="Q19" s="37">
+      <c r="Q19" s="36">
         <v>851.54</v>
       </c>
-      <c r="R19" s="37">
-        <v>834.55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+      <c r="R19" s="36">
+        <v>848.77</v>
+      </c>
+      <c r="S19" s="36">
+        <v>851.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="36">
         <v>768.95</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="36">
         <v>770.3</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="36">
         <v>784.04</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="36">
         <v>806.27</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="36">
         <v>808.6</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="36">
         <v>820.99</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="36">
         <v>809.8</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="36">
         <v>803.18</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="36">
         <v>806.08</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="36">
         <v>826.96</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="36">
         <v>812.67</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="36">
         <v>797.89</v>
       </c>
-      <c r="N20" s="37">
+      <c r="N20" s="36">
         <v>795.21</v>
       </c>
-      <c r="O20" s="37">
+      <c r="O20" s="36">
         <v>790.5</v>
       </c>
-      <c r="P20" s="37">
+      <c r="P20" s="36">
         <v>789.59</v>
       </c>
-      <c r="Q20" s="37">
+      <c r="Q20" s="36">
         <v>811.72</v>
       </c>
-      <c r="R20" s="37">
-        <v>793.44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="R20" s="36">
+        <v>790.02</v>
+      </c>
+      <c r="S20" s="36">
+        <v>798.22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="36">
         <v>772.13</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="36">
         <v>767.15</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="36">
         <v>760.45</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="36">
         <v>767.53</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="36">
         <v>766.08</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="36">
         <v>763.3</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="36">
         <v>766.92</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="36">
         <v>770.3</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="36">
         <v>774.36</v>
       </c>
-      <c r="K21" s="37">
+      <c r="K21" s="36">
         <v>797.05</v>
       </c>
-      <c r="L21" s="37">
+      <c r="L21" s="36">
         <v>780.72</v>
       </c>
-      <c r="M21" s="37">
+      <c r="M21" s="36">
         <v>779.09</v>
       </c>
-      <c r="N21" s="37">
+      <c r="N21" s="36">
         <v>785.23</v>
       </c>
-      <c r="O21" s="37">
+      <c r="O21" s="36">
         <v>786.86</v>
       </c>
-      <c r="P21" s="37">
+      <c r="P21" s="36">
         <v>781.17</v>
       </c>
-      <c r="Q21" s="37">
+      <c r="Q21" s="36">
         <v>794.53</v>
       </c>
-      <c r="R21" s="37">
-        <v>771.51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="R21" s="36">
+        <v>774.14</v>
+      </c>
+      <c r="S21" s="36">
+        <v>782.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="36">
         <v>739.5</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="36">
         <v>732.89</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="36">
         <v>741.66</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="36">
         <v>746.58</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="36">
         <v>740.6</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="36">
         <v>749.05</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="36">
         <v>747.65</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="36">
         <v>739.9</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="36">
         <v>745.52</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="36">
         <v>763.22</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="36">
         <v>753.3</v>
       </c>
-      <c r="M22" s="37">
+      <c r="M22" s="36">
         <v>763.58</v>
       </c>
-      <c r="N22" s="37">
+      <c r="N22" s="36">
         <v>773.78</v>
       </c>
-      <c r="O22" s="37">
+      <c r="O22" s="36">
         <v>758.73</v>
       </c>
-      <c r="P22" s="37">
+      <c r="P22" s="36">
         <v>757.25</v>
       </c>
-      <c r="Q22" s="37">
+      <c r="Q22" s="36">
         <v>768.15</v>
       </c>
-      <c r="R22" s="37">
-        <v>760.28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="R22" s="36">
+        <v>756.7</v>
+      </c>
+      <c r="S22" s="36">
+        <v>759.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="36">
         <v>794.6</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="36">
         <v>785.89</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="36">
         <v>775.39</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="36">
         <v>788.55</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="36">
         <v>803.37</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="36">
         <v>790.94</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="36">
         <v>789.4</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="36">
         <v>774.63</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="36">
         <v>798.16</v>
       </c>
-      <c r="K23" s="37">
+      <c r="K23" s="36">
         <v>825.38</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="36">
         <v>802.74</v>
       </c>
-      <c r="M23" s="37">
+      <c r="M23" s="36">
         <v>803.62</v>
       </c>
-      <c r="N23" s="37">
+      <c r="N23" s="36">
         <v>817.39</v>
       </c>
-      <c r="O23" s="37">
+      <c r="O23" s="36">
         <v>815.62</v>
       </c>
-      <c r="P23" s="37">
+      <c r="P23" s="36">
         <v>814.2</v>
       </c>
-      <c r="Q23" s="37">
+      <c r="Q23" s="36">
         <v>808.54</v>
       </c>
-      <c r="R23" s="37">
-        <v>803.93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="R23" s="36">
+        <v>807.12</v>
+      </c>
+      <c r="S23" s="36">
+        <v>806.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="36">
         <v>749.06</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="36">
         <v>748.94</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="36">
         <v>751.04</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="36">
         <v>753.06</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="36">
         <v>754.8</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="36">
         <v>741.73</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="36">
         <v>740.18</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="36">
         <v>747.95</v>
       </c>
-      <c r="J24" s="37">
+      <c r="J24" s="36">
         <v>760.92</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K24" s="36">
         <v>773.47</v>
       </c>
-      <c r="L24" s="37">
+      <c r="L24" s="36">
         <v>770.44</v>
       </c>
-      <c r="M24" s="37">
+      <c r="M24" s="36">
         <v>763.64</v>
       </c>
-      <c r="N24" s="37">
+      <c r="N24" s="36">
         <v>776.79</v>
       </c>
-      <c r="O24" s="37">
+      <c r="O24" s="36">
         <v>773.52</v>
       </c>
-      <c r="P24" s="37">
+      <c r="P24" s="36">
         <v>789.93</v>
       </c>
-      <c r="Q24" s="37">
+      <c r="Q24" s="36">
         <v>790.16</v>
       </c>
-      <c r="R24" s="37">
-        <v>790.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="R24" s="36">
+        <v>793.85</v>
+      </c>
+      <c r="S24" s="36">
+        <v>780.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="36">
         <v>919.97</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="36">
         <v>916.64</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="36">
         <v>924.45</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="36">
         <v>929.21</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="36">
         <v>939.47</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="36">
         <v>926.74</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="36">
         <v>928.16</v>
       </c>
-      <c r="I25" s="37">
+      <c r="I25" s="36">
         <v>936.37</v>
       </c>
-      <c r="J25" s="37">
+      <c r="J25" s="36">
         <v>940.77</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="36">
         <v>962.85</v>
       </c>
-      <c r="L25" s="37">
+      <c r="L25" s="36">
         <v>951.51</v>
       </c>
-      <c r="M25" s="37">
+      <c r="M25" s="36">
         <v>942.22</v>
       </c>
-      <c r="N25" s="37">
+      <c r="N25" s="36">
         <v>971.11</v>
       </c>
-      <c r="O25" s="37">
+      <c r="O25" s="36">
         <v>950.08</v>
       </c>
-      <c r="P25" s="37">
+      <c r="P25" s="36">
         <v>944.12</v>
       </c>
-      <c r="Q25" s="37">
+      <c r="Q25" s="36">
         <v>969.88</v>
       </c>
-      <c r="R25" s="37">
+      <c r="R25" s="36">
         <v>939.47</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="S25" s="36">
+        <v>945.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="36">
         <v>1041.48</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="36">
         <v>1031.25</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="36">
         <v>1030.8599999999999</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="36">
         <v>1034.6300000000001</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="36">
         <v>1047.4000000000001</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="36">
         <v>1029.46</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="36">
         <v>1035.8900000000001</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="36">
         <v>1029.46</v>
       </c>
-      <c r="J26" s="37">
+      <c r="J26" s="36">
         <v>1049.22</v>
       </c>
-      <c r="K26" s="37">
+      <c r="K26" s="36">
         <v>1075.52</v>
       </c>
-      <c r="L26" s="37">
+      <c r="L26" s="36">
         <v>1059.78</v>
       </c>
-      <c r="M26" s="37">
+      <c r="M26" s="36">
         <v>1065.6400000000001</v>
       </c>
-      <c r="N26" s="37">
+      <c r="N26" s="36">
         <v>1084.27</v>
       </c>
-      <c r="O26" s="37">
+      <c r="O26" s="36">
         <v>1065.24</v>
       </c>
-      <c r="P26" s="37">
+      <c r="P26" s="36">
         <v>1061.6099999999999</v>
       </c>
-      <c r="Q26" s="37">
+      <c r="Q26" s="36">
         <v>1086.29</v>
       </c>
-      <c r="R26" s="37">
-        <v>1055.28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+      <c r="R26" s="36">
+        <v>1060.1199999999999</v>
+      </c>
+      <c r="S26" s="36">
+        <v>1054.77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="36">
         <v>822.02</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="36">
         <v>818.64</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="36">
         <v>821.06</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="36">
         <v>822.17</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="36">
         <v>823.89</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="36">
         <v>816.66</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="36">
         <v>821.47</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I27" s="36">
         <v>821.1</v>
       </c>
-      <c r="J27" s="37">
+      <c r="J27" s="36">
         <v>829.68</v>
       </c>
-      <c r="K27" s="37">
+      <c r="K27" s="36">
         <v>850.86</v>
       </c>
-      <c r="L27" s="37">
+      <c r="L27" s="36">
         <v>834.54</v>
       </c>
-      <c r="M27" s="37">
+      <c r="M27" s="36">
         <v>840.08</v>
       </c>
-      <c r="N27" s="37">
+      <c r="N27" s="36">
         <v>851.06</v>
       </c>
-      <c r="O27" s="37">
+      <c r="O27" s="36">
         <v>843.09</v>
       </c>
-      <c r="P27" s="37">
+      <c r="P27" s="36">
         <v>808.02</v>
       </c>
-      <c r="Q27" s="37">
+      <c r="Q27" s="36">
         <v>830.13</v>
       </c>
-      <c r="R27" s="37">
-        <v>822.83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="R27" s="36">
+        <v>791.25</v>
+      </c>
+      <c r="S27" s="36">
+        <v>799.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="36">
         <v>894.79</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="36">
         <v>886.44</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="36">
         <v>906.18</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E28" s="36">
         <v>906.53</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="36">
         <v>925.76</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="36">
         <v>913.75</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="36">
         <v>919</v>
       </c>
-      <c r="I28" s="37">
+      <c r="I28" s="36">
         <v>916.61</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="36">
         <v>931.61</v>
       </c>
-      <c r="K28" s="37">
+      <c r="K28" s="36">
         <v>953.24</v>
       </c>
-      <c r="L28" s="37">
+      <c r="L28" s="36">
         <v>950.08</v>
       </c>
-      <c r="M28" s="37">
+      <c r="M28" s="36">
         <v>944.12</v>
       </c>
-      <c r="N28" s="37">
+      <c r="N28" s="36">
         <v>958.8</v>
       </c>
-      <c r="O28" s="37">
+      <c r="O28" s="36">
         <v>955.19</v>
       </c>
-      <c r="P28" s="37">
+      <c r="P28" s="36">
         <v>955.86</v>
       </c>
-      <c r="Q28" s="37">
+      <c r="Q28" s="36">
         <v>987.7</v>
       </c>
-      <c r="R28" s="37">
-        <v>955.53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="R28" s="36">
+        <v>957.68</v>
+      </c>
+      <c r="S28" s="36">
+        <v>954.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="36">
         <v>687.5</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="36">
         <v>679.31</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="36">
         <v>672.37</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="36">
         <v>684.29</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="36">
         <v>698.09</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="36">
         <v>687.93</v>
       </c>
-      <c r="H29" s="37">
+      <c r="H29" s="36">
         <v>700.79</v>
       </c>
-      <c r="I29" s="37">
+      <c r="I29" s="36">
         <v>688.62</v>
       </c>
-      <c r="J29" s="37">
+      <c r="J29" s="36">
         <v>699.05</v>
       </c>
-      <c r="K29" s="37">
+      <c r="K29" s="36">
         <v>715.88</v>
       </c>
-      <c r="L29" s="37">
+      <c r="L29" s="36">
         <v>699.75</v>
       </c>
-      <c r="M29" s="37">
+      <c r="M29" s="36">
         <v>700.79</v>
       </c>
-      <c r="N29" s="37">
+      <c r="N29" s="36">
         <v>711.61</v>
       </c>
-      <c r="O29" s="37">
+      <c r="O29" s="36">
         <v>705.1</v>
       </c>
-      <c r="P29" s="37">
+      <c r="P29" s="36">
         <v>699.61</v>
       </c>
-      <c r="Q29" s="37">
+      <c r="Q29" s="36">
         <v>705.1</v>
       </c>
-      <c r="R29" s="37">
-        <v>700.95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="R29" s="36">
+        <v>697.12</v>
+      </c>
+      <c r="S29" s="36">
+        <v>703.93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B30" s="36">
         <v>743.15</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="36">
         <v>738.26</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="36">
         <v>740.59</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="36">
         <v>746.79</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="36">
         <v>752.52</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="36">
         <v>738.93</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="36">
         <v>746.59</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="36">
         <v>741.02</v>
       </c>
-      <c r="J30" s="37">
+      <c r="J30" s="36">
         <v>760.91</v>
       </c>
-      <c r="K30" s="37">
+      <c r="K30" s="36">
         <v>780.78</v>
       </c>
-      <c r="L30" s="37">
+      <c r="L30" s="36">
         <v>768.91</v>
       </c>
-      <c r="M30" s="37">
+      <c r="M30" s="36">
         <v>766.92</v>
       </c>
-      <c r="N30" s="37">
+      <c r="N30" s="36">
         <v>792.08</v>
       </c>
-      <c r="O30" s="37">
+      <c r="O30" s="36">
         <v>776.86</v>
       </c>
-      <c r="P30" s="37">
+      <c r="P30" s="36">
         <v>785.55</v>
       </c>
-      <c r="Q30" s="37">
+      <c r="Q30" s="36">
         <v>812.26</v>
       </c>
-      <c r="R30" s="37">
-        <v>794.29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+      <c r="R30" s="36">
+        <v>791.28</v>
+      </c>
+      <c r="S30" s="36">
+        <v>792.61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="36">
         <v>713.87</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="36">
         <v>722.87</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="36">
         <v>709.95</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="36">
         <v>724.79</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="36">
         <v>740.52</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="36">
         <v>732.5</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="36">
         <v>739.36</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="36">
         <v>738.47</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31" s="36">
         <v>740.95</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31" s="36">
         <v>758.91</v>
       </c>
-      <c r="L31" s="37">
+      <c r="L31" s="36">
         <v>739.37</v>
       </c>
-      <c r="M31" s="37">
+      <c r="M31" s="36">
         <v>735.8</v>
       </c>
-      <c r="N31" s="37">
+      <c r="N31" s="36">
         <v>751.43</v>
       </c>
-      <c r="O31" s="37">
+      <c r="O31" s="36">
         <v>729.31</v>
       </c>
-      <c r="P31" s="37">
+      <c r="P31" s="36">
         <v>731.58</v>
       </c>
-      <c r="Q31" s="37">
+      <c r="Q31" s="36">
         <v>760.98</v>
       </c>
-      <c r="R31" s="37">
-        <v>750.47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="R31" s="36">
+        <v>750.79</v>
+      </c>
+      <c r="S31" s="36">
+        <v>760.91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="36">
         <v>760.18</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="36">
         <v>761.9</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="36">
         <v>762.86</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="36">
         <v>779.96</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="36">
         <v>785.66</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="36">
         <v>779.08</v>
       </c>
-      <c r="H32" s="37">
+      <c r="H32" s="36">
         <v>782.68</v>
       </c>
-      <c r="I32" s="37">
+      <c r="I32" s="36">
         <v>783.28</v>
       </c>
-      <c r="J32" s="37">
+      <c r="J32" s="36">
         <v>783.82</v>
       </c>
-      <c r="K32" s="37">
+      <c r="K32" s="36">
         <v>806.27</v>
       </c>
-      <c r="L32" s="37">
+      <c r="L32" s="36">
         <v>774.14</v>
       </c>
-      <c r="M32" s="37">
+      <c r="M32" s="36">
         <v>768.83</v>
       </c>
-      <c r="N32" s="37">
+      <c r="N32" s="36">
         <v>807.84</v>
       </c>
-      <c r="O32" s="37">
+      <c r="O32" s="36">
         <v>791.95</v>
       </c>
-      <c r="P32" s="37">
+      <c r="P32" s="36">
         <v>804.44</v>
       </c>
-      <c r="Q32" s="37">
+      <c r="Q32" s="36">
         <v>830.06</v>
       </c>
-      <c r="R32" s="37">
-        <v>814.24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="R32" s="36">
+        <v>812.89</v>
+      </c>
+      <c r="S32" s="36">
+        <v>818.03</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="36">
         <v>739.7</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="36">
         <v>741.26</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="36">
         <v>739.26</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="36">
         <v>746.59</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="36">
         <v>758.73</v>
       </c>
-      <c r="G33" s="37">
+      <c r="G33" s="36">
         <v>750.38</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="36">
         <v>748.3</v>
       </c>
-      <c r="I33" s="37">
+      <c r="I33" s="36">
         <v>758.52</v>
       </c>
-      <c r="J33" s="37">
+      <c r="J33" s="36">
         <v>750.88</v>
       </c>
-      <c r="K33" s="37">
+      <c r="K33" s="36">
         <v>765.9</v>
       </c>
-      <c r="L33" s="37">
+      <c r="L33" s="36">
         <v>749.35</v>
       </c>
-      <c r="M33" s="37">
+      <c r="M33" s="36">
         <v>757.02</v>
       </c>
-      <c r="N33" s="37">
+      <c r="N33" s="36">
         <v>774.07</v>
       </c>
-      <c r="O33" s="37">
+      <c r="O33" s="36">
         <v>753.75</v>
       </c>
-      <c r="P33" s="37">
+      <c r="P33" s="36">
         <v>761.39</v>
       </c>
-      <c r="Q33" s="37">
+      <c r="Q33" s="36">
         <v>768.82</v>
       </c>
-      <c r="R33" s="37">
-        <v>760.61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="R33" s="36">
+        <v>761.11</v>
+      </c>
+      <c r="S33" s="36">
+        <v>763.16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="36">
         <v>861.8</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="36">
         <v>858.22</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="36">
         <v>849.35</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="36">
         <v>860.83</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="36">
         <v>862.92</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="36">
         <v>846.21</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34" s="36">
         <v>852.38</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="36">
         <v>864.62</v>
       </c>
-      <c r="J34" s="37">
+      <c r="J34" s="36">
         <v>884.07</v>
       </c>
-      <c r="K34" s="37">
+      <c r="K34" s="36">
         <v>909.08</v>
       </c>
-      <c r="L34" s="37">
+      <c r="L34" s="36">
         <v>892.06</v>
       </c>
-      <c r="M34" s="37">
+      <c r="M34" s="36">
         <v>894.44</v>
       </c>
-      <c r="N34" s="37">
+      <c r="N34" s="36">
         <v>905.13</v>
       </c>
-      <c r="O34" s="37">
+      <c r="O34" s="36">
         <v>893.45</v>
       </c>
-      <c r="P34" s="37">
+      <c r="P34" s="36">
         <v>893.45</v>
       </c>
-      <c r="Q34" s="37">
+      <c r="Q34" s="36">
         <v>916.76</v>
       </c>
-      <c r="R34" s="37">
-        <v>889.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="R34" s="36">
+        <v>888.52</v>
+      </c>
+      <c r="S34" s="36">
+        <v>878.22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="36">
         <v>934.75</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="36">
         <v>940.46</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="36">
         <v>937.67</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="36">
         <v>948.77</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="36">
         <v>961.18</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="36">
         <v>941.4</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H35" s="36">
         <v>946.28</v>
       </c>
-      <c r="I35" s="37">
+      <c r="I35" s="36">
         <v>946.83</v>
       </c>
-      <c r="J35" s="37">
+      <c r="J35" s="36">
         <v>981.01</v>
       </c>
-      <c r="K35" s="37">
+      <c r="K35" s="36">
         <v>1004.85</v>
       </c>
-      <c r="L35" s="37">
+      <c r="L35" s="36">
         <v>978.77</v>
       </c>
-      <c r="M35" s="37">
+      <c r="M35" s="36">
         <v>986.52</v>
       </c>
-      <c r="N35" s="37">
+      <c r="N35" s="36">
         <v>1003.45</v>
       </c>
-      <c r="O35" s="37">
+      <c r="O35" s="36">
         <v>963.64</v>
       </c>
-      <c r="P35" s="37">
+      <c r="P35" s="36">
         <v>951.35</v>
       </c>
-      <c r="Q35" s="37">
+      <c r="Q35" s="36">
         <v>987.39</v>
       </c>
-      <c r="R35" s="37">
-        <v>820.98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="R35" s="36">
+        <v>1007.76</v>
+      </c>
+      <c r="S35" s="36">
+        <v>999.32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="37">
+      <c r="B36" s="36">
         <v>687.71</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="36">
         <v>691.78</v>
       </c>
-      <c r="D36" s="37">
+      <c r="D36" s="36">
         <v>681.98</v>
       </c>
-      <c r="E36" s="37">
+      <c r="E36" s="36">
         <v>685.41</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="36">
         <v>686.47</v>
       </c>
-      <c r="G36" s="37">
+      <c r="G36" s="36">
         <v>678.69</v>
       </c>
-      <c r="H36" s="37">
+      <c r="H36" s="36">
         <v>684.74</v>
       </c>
-      <c r="I36" s="37">
+      <c r="I36" s="36">
         <v>688.13</v>
       </c>
-      <c r="J36" s="37">
+      <c r="J36" s="36">
         <v>691.71</v>
       </c>
-      <c r="K36" s="37">
+      <c r="K36" s="36">
         <v>709.87</v>
       </c>
-      <c r="L36" s="37">
+      <c r="L36" s="36">
         <v>695.72</v>
       </c>
-      <c r="M36" s="37">
+      <c r="M36" s="36">
         <v>694.54</v>
       </c>
-      <c r="N36" s="37">
+      <c r="N36" s="36">
         <v>703.17</v>
       </c>
-      <c r="O36" s="37">
+      <c r="O36" s="36">
         <v>695.21</v>
       </c>
-      <c r="P36" s="37">
+      <c r="P36" s="36">
         <v>694.21</v>
       </c>
-      <c r="Q36" s="37">
+      <c r="Q36" s="36">
         <v>720.71</v>
       </c>
-      <c r="R36" s="37">
-        <v>709.05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+      <c r="R36" s="36">
+        <v>710.06</v>
+      </c>
+      <c r="S36" s="36">
+        <v>706.82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="37">
+      <c r="B37" s="36">
         <v>976.95</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="36">
         <v>979.07</v>
       </c>
-      <c r="D37" s="37">
+      <c r="D37" s="36">
         <v>971.43</v>
       </c>
-      <c r="E37" s="37">
+      <c r="E37" s="36">
         <v>969.36</v>
       </c>
-      <c r="F37" s="37">
+      <c r="F37" s="36">
         <v>981.46</v>
       </c>
-      <c r="G37" s="37">
+      <c r="G37" s="36">
         <v>962.12</v>
       </c>
-      <c r="H37" s="37">
+      <c r="H37" s="36">
         <v>977.3</v>
       </c>
-      <c r="I37" s="37">
+      <c r="I37" s="36">
         <v>993.04</v>
       </c>
-      <c r="J37" s="37">
+      <c r="J37" s="36">
         <v>980.78</v>
       </c>
-      <c r="K37" s="37">
+      <c r="K37" s="36">
         <v>998.87</v>
       </c>
-      <c r="L37" s="37">
+      <c r="L37" s="36">
         <v>979.96</v>
       </c>
-      <c r="M37" s="37">
+      <c r="M37" s="36">
         <v>980.88</v>
       </c>
-      <c r="N37" s="37">
+      <c r="N37" s="36">
         <v>1011.03</v>
       </c>
-      <c r="O37" s="37">
+      <c r="O37" s="36">
         <v>992.67</v>
       </c>
-      <c r="P37" s="37">
+      <c r="P37" s="36">
         <v>984.66</v>
       </c>
-      <c r="Q37" s="37">
+      <c r="Q37" s="36">
         <v>1016.06</v>
       </c>
-      <c r="R37" s="37">
-        <v>994.01</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
+      <c r="R37" s="36">
+        <v>991.67</v>
+      </c>
+      <c r="S37" s="36">
+        <v>991.65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="36">
         <v>776.72</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="36">
         <v>783.48</v>
       </c>
-      <c r="D38" s="37">
+      <c r="D38" s="36">
         <v>790.78</v>
       </c>
-      <c r="E38" s="37">
+      <c r="E38" s="36">
         <v>797.13</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="36">
         <v>809.03</v>
       </c>
-      <c r="G38" s="37">
+      <c r="G38" s="36">
         <v>801.52</v>
       </c>
-      <c r="H38" s="37">
+      <c r="H38" s="36">
         <v>803.16</v>
       </c>
-      <c r="I38" s="37">
+      <c r="I38" s="36">
         <v>806.68</v>
       </c>
-      <c r="J38" s="37">
+      <c r="J38" s="36">
         <v>809.43</v>
       </c>
-      <c r="K38" s="37">
+      <c r="K38" s="36">
         <v>824.86</v>
       </c>
-      <c r="L38" s="37">
+      <c r="L38" s="36">
         <v>817.65</v>
       </c>
-      <c r="M38" s="37">
+      <c r="M38" s="36">
         <v>812.87</v>
       </c>
-      <c r="N38" s="37">
+      <c r="N38" s="36">
         <v>818.38</v>
       </c>
-      <c r="O38" s="37">
+      <c r="O38" s="36">
         <v>825.26</v>
       </c>
-      <c r="P38" s="37">
+      <c r="P38" s="36">
         <v>823.89</v>
       </c>
-      <c r="Q38" s="37">
+      <c r="Q38" s="36">
         <v>844.6</v>
       </c>
-      <c r="R38" s="37">
-        <v>830.76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
+      <c r="R38" s="36">
+        <v>825.6</v>
+      </c>
+      <c r="S38" s="36">
+        <v>823.48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="37">
+      <c r="B39" s="36">
         <v>895.13</v>
       </c>
-      <c r="C39" s="37">
+      <c r="C39" s="36">
         <v>875.69</v>
       </c>
-      <c r="D39" s="37">
+      <c r="D39" s="36">
         <v>864.74</v>
       </c>
-      <c r="E39" s="37">
+      <c r="E39" s="36">
         <v>885.1</v>
       </c>
-      <c r="F39" s="37">
+      <c r="F39" s="36">
         <v>904.96</v>
       </c>
-      <c r="G39" s="37">
+      <c r="G39" s="36">
         <v>878.84</v>
       </c>
-      <c r="H39" s="37">
+      <c r="H39" s="36">
         <v>891.58</v>
       </c>
-      <c r="I39" s="37">
+      <c r="I39" s="36">
         <v>896.93</v>
       </c>
-      <c r="J39" s="37">
+      <c r="J39" s="36">
         <v>891.99</v>
       </c>
-      <c r="K39" s="37">
+      <c r="K39" s="36">
         <v>913.3</v>
       </c>
-      <c r="L39" s="37">
+      <c r="L39" s="36">
         <v>880.14</v>
       </c>
-      <c r="M39" s="37">
+      <c r="M39" s="36">
         <v>872.25</v>
       </c>
-      <c r="N39" s="37">
+      <c r="N39" s="36">
         <v>882.2</v>
       </c>
-      <c r="O39" s="37">
+      <c r="O39" s="36">
         <v>867.16</v>
       </c>
-      <c r="P39" s="37">
+      <c r="P39" s="36">
         <v>868.52</v>
       </c>
-      <c r="Q39" s="37">
+      <c r="Q39" s="36">
         <v>915.41</v>
       </c>
-      <c r="R39" s="37">
-        <v>916.04</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
+      <c r="R39" s="36">
+        <v>915.2</v>
+      </c>
+      <c r="S39" s="36">
+        <v>921.94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="37">
+      <c r="B40" s="36">
         <v>786.08</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="36">
         <v>785.4</v>
       </c>
-      <c r="D40" s="37">
+      <c r="D40" s="36">
         <v>787.03</v>
       </c>
-      <c r="E40" s="37">
+      <c r="E40" s="36">
         <v>799.94</v>
       </c>
-      <c r="F40" s="37">
+      <c r="F40" s="36">
         <v>805.3</v>
       </c>
-      <c r="G40" s="37">
+      <c r="G40" s="36">
         <v>794.05</v>
       </c>
-      <c r="H40" s="37">
+      <c r="H40" s="36">
         <v>800.22</v>
       </c>
-      <c r="I40" s="37">
+      <c r="I40" s="36">
         <v>796.79</v>
       </c>
-      <c r="J40" s="37">
+      <c r="J40" s="36">
         <v>810.12</v>
       </c>
-      <c r="K40" s="37">
+      <c r="K40" s="36">
         <v>827.94</v>
       </c>
-      <c r="L40" s="37">
+      <c r="L40" s="36">
         <v>815.28</v>
       </c>
-      <c r="M40" s="37">
+      <c r="M40" s="36">
         <v>820.44</v>
       </c>
-      <c r="N40" s="37">
+      <c r="N40" s="36">
         <v>825.94</v>
       </c>
-      <c r="O40" s="37">
+      <c r="O40" s="36">
         <v>814.31</v>
       </c>
-      <c r="P40" s="37">
+      <c r="P40" s="36">
         <v>815.33</v>
       </c>
-      <c r="Q40" s="37">
+      <c r="Q40" s="36">
         <v>823.54</v>
       </c>
-      <c r="R40" s="37">
-        <v>814.97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
+      <c r="R40" s="36">
+        <v>814.28</v>
+      </c>
+      <c r="S40" s="36">
+        <v>812.87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="37">
+      <c r="B41" s="36">
         <v>756.28</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C41" s="36">
         <v>759.68</v>
       </c>
-      <c r="D41" s="37">
+      <c r="D41" s="36">
         <v>754.52</v>
       </c>
-      <c r="E41" s="37">
+      <c r="E41" s="36">
         <v>757.39</v>
       </c>
-      <c r="F41" s="37">
+      <c r="F41" s="36">
         <v>771.15</v>
       </c>
-      <c r="G41" s="37">
+      <c r="G41" s="36">
         <v>762.65</v>
       </c>
-      <c r="H41" s="37">
+      <c r="H41" s="36">
         <v>777.22</v>
       </c>
-      <c r="I41" s="37">
+      <c r="I41" s="36">
         <v>767.55</v>
       </c>
-      <c r="J41" s="37">
+      <c r="J41" s="36">
         <v>779.92</v>
       </c>
-      <c r="K41" s="37">
+      <c r="K41" s="36">
         <v>798.25</v>
       </c>
-      <c r="L41" s="37">
+      <c r="L41" s="36">
         <v>780.15</v>
       </c>
-      <c r="M41" s="37">
+      <c r="M41" s="36">
         <v>781.55</v>
       </c>
-      <c r="N41" s="37">
+      <c r="N41" s="36">
         <v>798.13</v>
       </c>
-      <c r="O41" s="37">
+      <c r="O41" s="36">
         <v>798.13</v>
       </c>
-      <c r="P41" s="37">
+      <c r="P41" s="36">
         <v>799.19</v>
       </c>
-      <c r="Q41" s="37">
+      <c r="Q41" s="36">
         <v>823.19</v>
       </c>
-      <c r="R41" s="37">
-        <v>806.41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
+      <c r="R41" s="36">
+        <v>803.08</v>
+      </c>
+      <c r="S41" s="36">
+        <v>804.79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="37">
+      <c r="B42" s="36">
         <v>811.29</v>
       </c>
-      <c r="C42" s="37">
+      <c r="C42" s="36">
         <v>820.6</v>
       </c>
-      <c r="D42" s="37">
+      <c r="D42" s="36">
         <v>811.71</v>
       </c>
-      <c r="E42" s="37">
+      <c r="E42" s="36">
         <v>834.62</v>
       </c>
-      <c r="F42" s="37">
+      <c r="F42" s="36">
         <v>855.7</v>
       </c>
-      <c r="G42" s="37">
+      <c r="G42" s="36">
         <v>834.14</v>
       </c>
-      <c r="H42" s="37">
+      <c r="H42" s="36">
         <v>844.86</v>
       </c>
-      <c r="I42" s="37">
+      <c r="I42" s="36">
         <v>843.83</v>
       </c>
-      <c r="J42" s="37">
+      <c r="J42" s="36">
         <v>857.5</v>
       </c>
-      <c r="K42" s="37">
+      <c r="K42" s="36">
         <v>885.92</v>
       </c>
-      <c r="L42" s="37">
+      <c r="L42" s="36">
         <v>856.8</v>
       </c>
-      <c r="M42" s="37">
+      <c r="M42" s="36">
         <v>850.48</v>
       </c>
-      <c r="N42" s="37">
+      <c r="N42" s="36">
         <v>871.34</v>
       </c>
-      <c r="O42" s="37">
+      <c r="O42" s="36">
         <v>869.04</v>
       </c>
-      <c r="P42" s="37">
+      <c r="P42" s="36">
         <v>859.35</v>
       </c>
-      <c r="Q42" s="37">
+      <c r="Q42" s="36">
         <v>894.84</v>
       </c>
-      <c r="R42" s="37">
-        <v>854.28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
+      <c r="R42" s="36">
+        <v>852.1</v>
+      </c>
+      <c r="S42" s="36">
+        <v>858.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="37">
+      <c r="B43" s="36">
         <v>831.72</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C43" s="36">
         <v>825.89</v>
       </c>
-      <c r="D43" s="37">
+      <c r="D43" s="36">
         <v>822.53</v>
       </c>
-      <c r="E43" s="37">
+      <c r="E43" s="36">
         <v>825.65</v>
       </c>
-      <c r="F43" s="37">
+      <c r="F43" s="36">
         <v>830.55</v>
       </c>
-      <c r="G43" s="37">
+      <c r="G43" s="36">
         <v>824.72</v>
       </c>
-      <c r="H43" s="37">
+      <c r="H43" s="36">
         <v>831.48</v>
       </c>
-      <c r="I43" s="37">
+      <c r="I43" s="36">
         <v>829.11</v>
       </c>
-      <c r="J43" s="37">
+      <c r="J43" s="36">
         <v>837.23</v>
       </c>
-      <c r="K43" s="37">
+      <c r="K43" s="36">
         <v>852.5</v>
       </c>
-      <c r="L43" s="37">
+      <c r="L43" s="36">
         <v>842.63</v>
       </c>
-      <c r="M43" s="37">
+      <c r="M43" s="36">
         <v>845</v>
       </c>
-      <c r="N43" s="37">
+      <c r="N43" s="36">
         <v>848.57</v>
       </c>
-      <c r="O43" s="37">
+      <c r="O43" s="36">
         <v>835.33</v>
       </c>
-      <c r="P43" s="37">
+      <c r="P43" s="36">
         <v>826.65</v>
       </c>
-      <c r="Q43" s="37">
+      <c r="Q43" s="36">
         <v>853.94</v>
       </c>
-      <c r="R43" s="37">
-        <v>842.3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
+      <c r="R43" s="36">
+        <v>839.59</v>
+      </c>
+      <c r="S43" s="36">
+        <v>837.23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="37">
+      <c r="B44" s="36">
         <v>842.08</v>
       </c>
-      <c r="C44" s="37">
+      <c r="C44" s="36">
         <v>843.7</v>
       </c>
-      <c r="D44" s="37">
+      <c r="D44" s="36">
         <v>833.95</v>
       </c>
-      <c r="E44" s="37">
+      <c r="E44" s="36">
         <v>849.55</v>
       </c>
-      <c r="F44" s="37">
+      <c r="F44" s="36">
         <v>857.67</v>
       </c>
-      <c r="G44" s="37">
+      <c r="G44" s="36">
         <v>848.1</v>
       </c>
-      <c r="H44" s="37">
+      <c r="H44" s="36">
         <v>842.82</v>
       </c>
-      <c r="I44" s="37">
+      <c r="I44" s="36">
         <v>854.04</v>
       </c>
-      <c r="J44" s="37">
+      <c r="J44" s="36">
         <v>852.11</v>
       </c>
-      <c r="K44" s="37">
+      <c r="K44" s="36">
         <v>853.74</v>
       </c>
-      <c r="L44" s="37">
+      <c r="L44" s="36">
         <v>856.27</v>
       </c>
-      <c r="M44" s="37">
+      <c r="M44" s="36">
         <v>858.05</v>
       </c>
-      <c r="N44" s="37">
+      <c r="N44" s="36">
         <v>876.29</v>
       </c>
-      <c r="O44" s="37">
+      <c r="O44" s="36">
         <v>858.92</v>
       </c>
-      <c r="P44" s="37">
+      <c r="P44" s="36">
         <v>857.92</v>
       </c>
-      <c r="Q44" s="37">
+      <c r="Q44" s="36">
         <v>887.7</v>
       </c>
-      <c r="R44" s="37">
-        <v>885.72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="s">
+      <c r="R44" s="36">
+        <v>878.76</v>
+      </c>
+      <c r="S44" s="36">
+        <v>872.52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="37">
+      <c r="B45" s="36">
         <v>752.33</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C45" s="36">
         <v>749.58</v>
       </c>
-      <c r="D45" s="37">
+      <c r="D45" s="36">
         <v>767.08</v>
       </c>
-      <c r="E45" s="37">
+      <c r="E45" s="36">
         <v>758.78</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="36">
         <v>761.08</v>
       </c>
-      <c r="G45" s="37">
+      <c r="G45" s="36">
         <v>763.62</v>
       </c>
-      <c r="H45" s="37">
+      <c r="H45" s="36">
         <v>754.39</v>
       </c>
-      <c r="I45" s="37">
+      <c r="I45" s="36">
         <v>755.08</v>
       </c>
-      <c r="J45" s="37">
+      <c r="J45" s="36">
         <v>765.06</v>
       </c>
-      <c r="K45" s="37">
+      <c r="K45" s="36">
         <v>770.87</v>
       </c>
-      <c r="L45" s="37">
+      <c r="L45" s="36">
         <v>776.25</v>
       </c>
-      <c r="M45" s="37">
+      <c r="M45" s="36">
         <v>774.87</v>
       </c>
-      <c r="N45" s="37">
+      <c r="N45" s="36">
         <v>794.3</v>
       </c>
-      <c r="O45" s="37">
+      <c r="O45" s="36">
         <v>782.26</v>
       </c>
-      <c r="P45" s="37">
+      <c r="P45" s="36">
         <v>797.99</v>
       </c>
-      <c r="Q45" s="37">
+      <c r="Q45" s="36">
         <v>791.16</v>
       </c>
-      <c r="R45" s="37">
-        <v>775.22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
+      <c r="R45" s="36">
+        <v>776.42</v>
+      </c>
+      <c r="S45" s="36">
+        <v>785.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="37">
+      <c r="B46" s="36">
         <v>717.02</v>
       </c>
-      <c r="C46" s="37">
+      <c r="C46" s="36">
         <v>707.41</v>
       </c>
-      <c r="D46" s="37">
+      <c r="D46" s="36">
         <v>711.65</v>
       </c>
-      <c r="E46" s="37">
+      <c r="E46" s="36">
         <v>725.8</v>
       </c>
-      <c r="F46" s="37">
+      <c r="F46" s="36">
         <v>734.16</v>
       </c>
-      <c r="G46" s="37">
+      <c r="G46" s="36">
         <v>719.68</v>
       </c>
-      <c r="H46" s="37">
+      <c r="H46" s="36">
         <v>727.56</v>
       </c>
-      <c r="I46" s="37">
+      <c r="I46" s="36">
         <v>720.53</v>
       </c>
-      <c r="J46" s="37">
+      <c r="J46" s="36">
         <v>736.56</v>
       </c>
-      <c r="K46" s="37">
+      <c r="K46" s="36">
         <v>750.03</v>
       </c>
-      <c r="L46" s="37">
+      <c r="L46" s="36">
         <v>738.82</v>
       </c>
-      <c r="M46" s="37">
+      <c r="M46" s="36">
         <v>726.55</v>
       </c>
-      <c r="N46" s="37">
+      <c r="N46" s="36">
         <v>745.78</v>
       </c>
-      <c r="O46" s="37">
+      <c r="O46" s="36">
         <v>737.37</v>
       </c>
-      <c r="P46" s="37">
+      <c r="P46" s="36">
         <v>732.06</v>
       </c>
-      <c r="Q46" s="37">
+      <c r="Q46" s="36">
         <v>749.53</v>
       </c>
-      <c r="R46" s="37">
-        <v>736.16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
+      <c r="R46" s="36">
+        <v>740.04</v>
+      </c>
+      <c r="S46" s="36">
+        <v>730.85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="37">
+      <c r="B47" s="36">
         <v>753.25</v>
       </c>
-      <c r="C47" s="37">
+      <c r="C47" s="36">
         <v>748.68</v>
       </c>
-      <c r="D47" s="37">
+      <c r="D47" s="36">
         <v>753.3</v>
       </c>
-      <c r="E47" s="37">
+      <c r="E47" s="36">
         <v>756.5</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="36">
         <v>775.43</v>
       </c>
-      <c r="G47" s="37">
+      <c r="G47" s="36">
         <v>766.47</v>
       </c>
-      <c r="H47" s="37">
+      <c r="H47" s="36">
         <v>773.19</v>
       </c>
-      <c r="I47" s="37">
+      <c r="I47" s="36">
         <v>770.71</v>
       </c>
-      <c r="J47" s="37">
+      <c r="J47" s="36">
         <v>781.99</v>
       </c>
-      <c r="K47" s="37">
+      <c r="K47" s="36">
         <v>797.27</v>
       </c>
-      <c r="L47" s="37">
+      <c r="L47" s="36">
         <v>788.81</v>
       </c>
-      <c r="M47" s="37">
+      <c r="M47" s="36">
         <v>806.7</v>
       </c>
-      <c r="N47" s="37">
+      <c r="N47" s="36">
         <v>814.67</v>
       </c>
-      <c r="O47" s="37">
+      <c r="O47" s="36">
         <v>800.75</v>
       </c>
-      <c r="P47" s="37">
+      <c r="P47" s="36">
         <v>790.72</v>
       </c>
-      <c r="Q47" s="37">
+      <c r="Q47" s="36">
         <v>805.85</v>
       </c>
-      <c r="R47" s="37">
-        <v>794.38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
+      <c r="R47" s="36">
+        <v>794.02</v>
+      </c>
+      <c r="S47" s="36">
+        <v>794.95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="37">
+      <c r="B48" s="36">
         <v>877.15</v>
       </c>
-      <c r="C48" s="37">
+      <c r="C48" s="36">
         <v>871.79</v>
       </c>
-      <c r="D48" s="37">
+      <c r="D48" s="36">
         <v>863.1</v>
       </c>
-      <c r="E48" s="37">
+      <c r="E48" s="36">
         <v>870.06</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="36">
         <v>892.69</v>
       </c>
-      <c r="G48" s="37">
+      <c r="G48" s="36">
         <v>870.3</v>
       </c>
-      <c r="H48" s="37">
+      <c r="H48" s="36">
         <v>870.72</v>
       </c>
-      <c r="I48" s="37">
+      <c r="I48" s="36">
         <v>872.15</v>
       </c>
-      <c r="J48" s="37">
+      <c r="J48" s="36">
         <v>877.86</v>
       </c>
-      <c r="K48" s="37">
+      <c r="K48" s="36">
         <v>909.32</v>
       </c>
-      <c r="L48" s="37">
+      <c r="L48" s="36">
         <v>880.4</v>
       </c>
-      <c r="M48" s="37">
+      <c r="M48" s="36">
         <v>887.5</v>
       </c>
-      <c r="N48" s="37">
+      <c r="N48" s="36">
         <v>912.6</v>
       </c>
-      <c r="O48" s="37">
+      <c r="O48" s="36">
         <v>890.66</v>
       </c>
-      <c r="P48" s="37">
+      <c r="P48" s="36">
         <v>891.76</v>
       </c>
-      <c r="Q48" s="37">
+      <c r="Q48" s="36">
         <v>913.92</v>
       </c>
-      <c r="R48" s="37">
-        <v>923.2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
+      <c r="R48" s="36">
+        <v>898.9</v>
+      </c>
+      <c r="S48" s="36">
+        <v>894.28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="37">
+      <c r="B49" s="36">
         <v>831.3</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="36">
         <v>829.01</v>
       </c>
-      <c r="D49" s="37">
+      <c r="D49" s="36">
         <v>826.97</v>
       </c>
-      <c r="E49" s="37">
+      <c r="E49" s="36">
         <v>840.39</v>
       </c>
-      <c r="F49" s="37">
+      <c r="F49" s="36">
         <v>860.97</v>
       </c>
-      <c r="G49" s="37">
+      <c r="G49" s="36">
         <v>841.12</v>
       </c>
-      <c r="H49" s="37">
+      <c r="H49" s="36">
         <v>844.6</v>
       </c>
-      <c r="I49" s="37">
+      <c r="I49" s="36">
         <v>843.18</v>
       </c>
-      <c r="J49" s="37">
+      <c r="J49" s="36">
         <v>853.88</v>
       </c>
-      <c r="K49" s="37">
+      <c r="K49" s="36">
         <v>872.96</v>
       </c>
-      <c r="L49" s="37">
+      <c r="L49" s="36">
         <v>871.39</v>
       </c>
-      <c r="M49" s="37">
+      <c r="M49" s="36">
         <v>848.08</v>
       </c>
-      <c r="N49" s="37">
+      <c r="N49" s="36">
         <v>872.96</v>
       </c>
-      <c r="O49" s="37">
+      <c r="O49" s="36">
         <v>849.47</v>
       </c>
-      <c r="P49" s="37">
+      <c r="P49" s="36">
         <v>850.81</v>
       </c>
-      <c r="Q49" s="37">
+      <c r="Q49" s="36">
         <v>892.74</v>
       </c>
-      <c r="R49" s="37">
-        <v>869.08</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
+      <c r="R49" s="36">
+        <v>870.48</v>
+      </c>
+      <c r="S49" s="36">
+        <v>877.91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="37">
+      <c r="B50" s="36">
         <v>813.12</v>
       </c>
-      <c r="C50" s="37">
+      <c r="C50" s="36">
         <v>802.76</v>
       </c>
-      <c r="D50" s="37">
+      <c r="D50" s="36">
         <v>797.37</v>
       </c>
-      <c r="E50" s="37">
+      <c r="E50" s="36">
         <v>814.52</v>
       </c>
-      <c r="F50" s="37">
+      <c r="F50" s="36">
         <v>824.72</v>
       </c>
-      <c r="G50" s="37">
+      <c r="G50" s="36">
         <v>810.82</v>
       </c>
-      <c r="H50" s="37">
+      <c r="H50" s="36">
         <v>811.91</v>
       </c>
-      <c r="I50" s="37">
+      <c r="I50" s="36">
         <v>806.13</v>
       </c>
-      <c r="J50" s="37">
+      <c r="J50" s="36">
         <v>822.35</v>
       </c>
-      <c r="K50" s="37">
+      <c r="K50" s="36">
         <v>828.35</v>
       </c>
-      <c r="L50" s="37">
+      <c r="L50" s="36">
         <v>821.51</v>
       </c>
-      <c r="M50" s="37">
+      <c r="M50" s="36">
         <v>802.46</v>
       </c>
-      <c r="N50" s="37">
+      <c r="N50" s="36">
         <v>815.63</v>
       </c>
-      <c r="O50" s="37">
+      <c r="O50" s="36">
         <v>797.83</v>
       </c>
-      <c r="P50" s="37">
+      <c r="P50" s="36">
         <v>789.9</v>
       </c>
-      <c r="Q50" s="37">
+      <c r="Q50" s="36">
         <v>819.18</v>
       </c>
-      <c r="R50" s="37">
-        <v>815.47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
+      <c r="R50" s="36">
+        <v>817.74</v>
+      </c>
+      <c r="S50" s="36">
+        <v>809.76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="37">
+      <c r="B51" s="36">
         <v>924.41</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="36">
         <v>924.06</v>
       </c>
-      <c r="D51" s="37">
+      <c r="D51" s="36">
         <v>929.51</v>
       </c>
-      <c r="E51" s="37">
+      <c r="E51" s="36">
         <v>938.46</v>
       </c>
-      <c r="F51" s="37">
+      <c r="F51" s="36">
         <v>954.72</v>
       </c>
-      <c r="G51" s="37">
+      <c r="G51" s="36">
         <v>933.92</v>
       </c>
-      <c r="H51" s="37">
+      <c r="H51" s="36">
         <v>943.35</v>
       </c>
-      <c r="I51" s="37">
+      <c r="I51" s="36">
         <v>935.06</v>
       </c>
-      <c r="J51" s="37">
+      <c r="J51" s="36">
         <v>950.51</v>
       </c>
-      <c r="K51" s="37">
+      <c r="K51" s="36">
         <v>972.87</v>
       </c>
-      <c r="L51" s="37">
+      <c r="L51" s="36">
         <v>947.19</v>
       </c>
-      <c r="M51" s="37">
+      <c r="M51" s="36">
         <v>949.69</v>
       </c>
-      <c r="N51" s="37">
+      <c r="N51" s="36">
         <v>970.56</v>
       </c>
-      <c r="O51" s="37">
+      <c r="O51" s="36">
         <v>954.26</v>
       </c>
-      <c r="P51" s="37">
+      <c r="P51" s="36">
         <v>942.55</v>
       </c>
-      <c r="Q51" s="37">
+      <c r="Q51" s="36">
         <v>974.72</v>
       </c>
-      <c r="R51" s="37">
-        <v>943.92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="38" t="s">
+      <c r="R51" s="36">
+        <v>939.13</v>
+      </c>
+      <c r="S51" s="36">
+        <v>929.43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="37">
+      <c r="B52" s="36">
         <v>1032.92</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="36">
         <v>1036.94</v>
       </c>
-      <c r="D52" s="37">
+      <c r="D52" s="36">
         <v>1033.23</v>
       </c>
-      <c r="E52" s="37">
+      <c r="E52" s="36">
         <v>1039.9100000000001</v>
       </c>
-      <c r="F52" s="37">
+      <c r="F52" s="36">
         <v>1068.32</v>
       </c>
-      <c r="G52" s="37">
+      <c r="G52" s="36">
         <v>1033.6199999999999</v>
       </c>
-      <c r="H52" s="37">
+      <c r="H52" s="36">
         <v>1038.3499999999999</v>
       </c>
-      <c r="I52" s="37">
+      <c r="I52" s="36">
         <v>1040.02</v>
       </c>
-      <c r="J52" s="37">
+      <c r="J52" s="36">
         <v>1052.53</v>
       </c>
-      <c r="K52" s="37">
+      <c r="K52" s="36">
         <v>1087.5899999999999</v>
       </c>
-      <c r="L52" s="37">
+      <c r="L52" s="36">
         <v>1050.58</v>
       </c>
-      <c r="M52" s="37">
+      <c r="M52" s="36">
         <v>1053.33</v>
       </c>
-      <c r="N52" s="37">
+      <c r="N52" s="36">
         <v>1094.46</v>
       </c>
-      <c r="O52" s="37">
+      <c r="O52" s="36">
         <v>1063.96</v>
       </c>
-      <c r="P52" s="37">
+      <c r="P52" s="36">
         <v>1064.33</v>
       </c>
-      <c r="Q52" s="37">
+      <c r="Q52" s="36">
         <v>1110.54</v>
       </c>
-      <c r="R52" s="37">
-        <v>1073.3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="38" t="s">
+      <c r="R52" s="36">
+        <v>1066.4000000000001</v>
+      </c>
+      <c r="S52" s="36">
+        <v>1070.8699999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B53" s="36">
         <v>720.94</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="36">
         <v>724.07</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="36">
         <v>728.02</v>
       </c>
-      <c r="E53" s="37">
+      <c r="E53" s="36">
         <v>732.19</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="36">
         <v>720.69</v>
       </c>
-      <c r="G53" s="37">
+      <c r="G53" s="36">
         <v>723.71</v>
       </c>
-      <c r="H53" s="37">
+      <c r="H53" s="36">
         <v>735.3</v>
       </c>
-      <c r="I53" s="37">
+      <c r="I53" s="36">
         <v>732.16</v>
       </c>
-      <c r="J53" s="37">
+      <c r="J53" s="36">
         <v>738.85</v>
       </c>
-      <c r="K53" s="37">
+      <c r="K53" s="36">
         <v>751.89</v>
       </c>
-      <c r="L53" s="37">
+      <c r="L53" s="36">
         <v>745.54</v>
       </c>
-      <c r="M53" s="37">
+      <c r="M53" s="36">
         <v>740.61</v>
       </c>
-      <c r="N53" s="37">
+      <c r="N53" s="36">
         <v>755.04</v>
       </c>
-      <c r="O53" s="37">
+      <c r="O53" s="36">
         <v>752.19</v>
       </c>
-      <c r="P53" s="37">
+      <c r="P53" s="36">
         <v>754.25</v>
       </c>
-      <c r="Q53" s="37">
+      <c r="Q53" s="36">
         <v>758.6</v>
       </c>
-      <c r="R53" s="37">
-        <v>752.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+      <c r="R53" s="36">
+        <v>755.07</v>
+      </c>
+      <c r="S53" s="36">
+        <v>762.55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="37">
+      <c r="B54" s="36">
         <v>793.74</v>
       </c>
-      <c r="C54" s="37">
+      <c r="C54" s="36">
         <v>791.42</v>
       </c>
-      <c r="D54" s="37">
+      <c r="D54" s="36">
         <v>794.54</v>
       </c>
-      <c r="E54" s="37">
+      <c r="E54" s="36">
         <v>801.27</v>
       </c>
-      <c r="F54" s="37">
+      <c r="F54" s="36">
         <v>809.42</v>
       </c>
-      <c r="G54" s="37">
+      <c r="G54" s="36">
         <v>798.34</v>
       </c>
-      <c r="H54" s="37">
+      <c r="H54" s="36">
         <v>809.85</v>
       </c>
-      <c r="I54" s="37">
+      <c r="I54" s="36">
         <v>808.16</v>
       </c>
-      <c r="J54" s="37">
+      <c r="J54" s="36">
         <v>801.02</v>
       </c>
-      <c r="K54" s="37">
+      <c r="K54" s="36">
         <v>825.52</v>
       </c>
-      <c r="L54" s="37">
+      <c r="L54" s="36">
         <v>819.25</v>
       </c>
-      <c r="M54" s="37">
+      <c r="M54" s="36">
         <v>818.41</v>
       </c>
-      <c r="N54" s="37">
+      <c r="N54" s="36">
         <v>829.25</v>
       </c>
-      <c r="O54" s="37">
+      <c r="O54" s="36">
         <v>812.52</v>
       </c>
-      <c r="P54" s="37">
+      <c r="P54" s="36">
         <v>815.85</v>
       </c>
-      <c r="Q54" s="37">
+      <c r="Q54" s="36">
         <v>843.31</v>
       </c>
-      <c r="R54" s="37">
-        <v>827.12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="38" t="s">
+      <c r="R54" s="36">
+        <v>817.74</v>
+      </c>
+      <c r="S54" s="36">
+        <v>814.92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="37">
+      <c r="B55" s="36">
         <v>774.82</v>
       </c>
-      <c r="C55" s="37">
+      <c r="C55" s="36">
         <v>777.2</v>
       </c>
-      <c r="D55" s="37">
+      <c r="D55" s="36">
         <v>776.88</v>
       </c>
-      <c r="E55" s="37">
+      <c r="E55" s="36">
         <v>755.31</v>
       </c>
-      <c r="F55" s="37">
+      <c r="F55" s="36">
         <v>773.89</v>
       </c>
-      <c r="G55" s="37">
+      <c r="G55" s="36">
         <v>746.5</v>
       </c>
-      <c r="H55" s="37">
+      <c r="H55" s="36">
         <v>757.91</v>
       </c>
-      <c r="I55" s="37">
+      <c r="I55" s="36">
         <v>770.38</v>
       </c>
-      <c r="J55" s="37">
+      <c r="J55" s="36">
         <v>775.56</v>
       </c>
-      <c r="K55" s="37">
+      <c r="K55" s="36">
         <v>812.26</v>
       </c>
-      <c r="L55" s="37">
+      <c r="L55" s="36">
         <v>793.54</v>
       </c>
-      <c r="M55" s="37">
+      <c r="M55" s="36">
         <v>770.25</v>
       </c>
-      <c r="N55" s="37">
+      <c r="N55" s="36">
         <v>795.31</v>
       </c>
-      <c r="O55" s="37">
+      <c r="O55" s="36">
         <v>783.42</v>
       </c>
-      <c r="P55" s="37">
+      <c r="P55" s="36">
         <v>784.14</v>
       </c>
-      <c r="Q55" s="37">
+      <c r="Q55" s="36">
         <v>838.01</v>
       </c>
-      <c r="R55" s="37">
-        <v>812.89</v>
+      <c r="R55" s="36">
+        <v>824.2</v>
+      </c>
+      <c r="S55" s="36">
+        <v>818.15</v>
       </c>
     </row>
   </sheetData>
@@ -11128,7 +11278,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: June 16, 2017 (10:24:00 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: July 21, 2017 (11:12:55 AM)</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -11136,10 +11286,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6:O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11150,31 +11300,31 @@
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>166</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="49">
+      <c r="C1" s="47">
         <f>+Earnings_Comparison!E58</f>
-        <v>901.97</v>
+        <v>905.63</v>
       </c>
       <c r="D1" s="23">
         <f>+Earnings_Comparison!H58</f>
-        <v>0.57598407943317831</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+        <v>1.105647928819109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>165</v>
       </c>
@@ -11188,607 +11338,607 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
+        <f>+Earnings_Comparison!B55</f>
+        <v>WY</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="25">
+        <f>+Earnings_Comparison!E55</f>
+        <v>818.15</v>
+      </c>
+      <c r="D4" s="24">
+        <f>+Earnings_Comparison!H55</f>
+        <v>7.836626279745218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
         <f>+Earnings_Comparison!B30</f>
         <v>MO</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B5" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C5" s="25">
         <f>+Earnings_Comparison!E30</f>
-        <v>794.29</v>
-      </c>
-      <c r="D4" s="24">
+        <v>792.61</v>
+      </c>
+      <c r="D5" s="24">
         <f>+Earnings_Comparison!H30</f>
-        <v>3.6081567897000788</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>+Earnings_Comparison!B55</f>
-        <v>WY</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="25">
-        <f>+Earnings_Comparison!E55</f>
-        <v>812.89</v>
-      </c>
-      <c r="D5" s="24">
-        <f>+Earnings_Comparison!H55</f>
-        <v>3.106357764018397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.540565782582596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>+Earnings_Comparison!B24</f>
-        <v>ME</v>
+        <f>+Earnings_Comparison!B35</f>
+        <v>NJ</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C6" s="25">
-        <f>+Earnings_Comparison!E24</f>
-        <v>790.1</v>
+        <f>+Earnings_Comparison!E35</f>
+        <v>999.32</v>
       </c>
       <c r="D6" s="24">
-        <f>+Earnings_Comparison!H24</f>
-        <v>2.7502932037129169</v>
+        <f>+Earnings_Comparison!H35</f>
+        <v>4.4464190964051964</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="O6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>+Earnings_Comparison!B41</f>
-        <v>OK</v>
+        <f>+Earnings_Comparison!B19</f>
+        <v>IN</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C7" s="25">
-        <f>+Earnings_Comparison!E41</f>
-        <v>806.41</v>
+        <f>+Earnings_Comparison!E19</f>
+        <v>851.65</v>
       </c>
       <c r="D7" s="24">
-        <f>+Earnings_Comparison!H41</f>
-        <v>2.6478698397107925</v>
+        <f>+Earnings_Comparison!H19</f>
+        <v>4.0894852174315766</v>
       </c>
       <c r="K7" s="20"/>
       <c r="M7" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="O7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>+Earnings_Comparison!B53</f>
-        <v>WV</v>
+        <f>+Earnings_Comparison!B7</f>
+        <v>AZ</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="C8" s="25">
-        <f>+Earnings_Comparison!E53</f>
-        <v>752.6</v>
+        <f>+Earnings_Comparison!E7</f>
+        <v>863.08</v>
       </c>
       <c r="D8" s="24">
-        <f>+Earnings_Comparison!H53</f>
-        <v>2.5058420358735178</v>
+        <f>+Earnings_Comparison!H7</f>
+        <v>3.8545518411986057</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="O8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>+Earnings_Comparison!B32</f>
-        <v>NE</v>
+        <f>+Earnings_Comparison!B41</f>
+        <v>OK</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C9" s="25">
-        <f>+Earnings_Comparison!E32</f>
-        <v>814.24</v>
+        <f>+Earnings_Comparison!E41</f>
+        <v>804.79</v>
       </c>
       <c r="D9" s="24">
-        <f>+Earnings_Comparison!H32</f>
-        <v>1.7303855439707361</v>
+        <f>+Earnings_Comparison!H41</f>
+        <v>3.829429179605337</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="O9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>+Earnings_Comparison!B48</f>
-        <v>TX</v>
+        <f>+Earnings_Comparison!B53</f>
+        <v>WV</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C10" s="25">
-        <f>+Earnings_Comparison!E48</f>
-        <v>923.2</v>
+        <f>+Earnings_Comparison!E53</f>
+        <v>762.55</v>
       </c>
       <c r="D10" s="24">
-        <f>+Earnings_Comparison!H48</f>
-        <v>1.5144872988430702</v>
+        <f>+Earnings_Comparison!H53</f>
+        <v>3.6732997018352531</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
+        <f>+Earnings_Comparison!B24</f>
+        <v>ME</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="25">
+        <f>+Earnings_Comparison!E24</f>
+        <v>780.1</v>
+      </c>
+      <c r="D11" s="24">
+        <f>+Earnings_Comparison!H24</f>
+        <v>3.4826645421318414</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>+Earnings_Comparison!B32</f>
+        <v>NE</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="25">
+        <f>+Earnings_Comparison!E32</f>
+        <v>818.03</v>
+      </c>
+      <c r="D12" s="24">
+        <f>+Earnings_Comparison!H32</f>
+        <v>3.3118991450269641</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>+Earnings_Comparison!B39</f>
+        <v>ND</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="25">
+        <f>+Earnings_Comparison!E39</f>
+        <v>921.94</v>
+      </c>
+      <c r="D13" s="24">
+        <f>+Earnings_Comparison!H39</f>
+        <v>3.218136068981603</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>+Earnings_Comparison!B28</f>
+        <v>MN</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="25">
+        <f>+Earnings_Comparison!E28</f>
+        <v>954.52</v>
+      </c>
+      <c r="D14" s="24">
+        <f>+Earnings_Comparison!H28</f>
+        <v>2.7828870257054161</v>
+      </c>
+      <c r="F14" s="25">
+        <f>C$1-C14</f>
+        <v>-48.889999999999986</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>+Earnings_Comparison!B49</f>
+        <v>UT</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="25">
+        <f>+Earnings_Comparison!E49</f>
+        <v>877.91</v>
+      </c>
+      <c r="D15" s="24">
+        <f>+Earnings_Comparison!H49</f>
+        <v>2.6963967270785538</v>
+      </c>
+      <c r="F15" s="25">
+        <f t="shared" ref="F15:F21" si="0">C$1-C15</f>
+        <v>27.720000000000027</v>
+      </c>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>+Earnings_Comparison!B8</f>
+        <v>AR</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="25">
+        <f>+Earnings_Comparison!E8</f>
+        <v>714.35</v>
+      </c>
+      <c r="D16" s="24">
+        <f>+Earnings_Comparison!H8</f>
+        <v>2.5711381322665261</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" si="0"/>
+        <v>191.27999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>+Earnings_Comparison!B9</f>
+        <v>CA</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="25">
+        <f>+Earnings_Comparison!E9</f>
+        <v>1021.34</v>
+      </c>
+      <c r="D17" s="24">
+        <f>+Earnings_Comparison!H9</f>
+        <v>2.4764109612882113</v>
+      </c>
+      <c r="F17" s="25">
+        <f t="shared" si="0"/>
+        <v>-115.71000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
         <f>+Earnings_Comparison!B36</f>
         <v>NM</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B18" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C18" s="25">
         <f>+Earnings_Comparison!E36</f>
-        <v>709.05</v>
-      </c>
-      <c r="D11" s="24">
+        <v>706.82</v>
+      </c>
+      <c r="D18" s="24">
         <f>+Earnings_Comparison!H36</f>
-        <v>1.3883833816789704</v>
-      </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
+        <v>2.4708996405107264</v>
+      </c>
+      <c r="F18" s="25">
+        <f t="shared" si="0"/>
+        <v>198.80999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>+Earnings_Comparison!B31</f>
+        <v>MT</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="25">
+        <f>+Earnings_Comparison!E31</f>
+        <v>760.91</v>
+      </c>
+      <c r="D19" s="24">
+        <f>+Earnings_Comparison!H31</f>
+        <v>2.2089277692085574</v>
+      </c>
+      <c r="F19" s="25">
+        <f t="shared" si="0"/>
+        <v>144.72000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>+Earnings_Comparison!B34</f>
+        <v>NH</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="25">
+        <f>+Earnings_Comparison!E34</f>
+        <v>878.22</v>
+      </c>
+      <c r="D20" s="24">
+        <f>+Earnings_Comparison!H34</f>
+        <v>2.1147173544935338</v>
+      </c>
+      <c r="F20" s="25">
+        <f t="shared" si="0"/>
+        <v>27.409999999999968</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>+Earnings_Comparison!B47</f>
+        <v>TN</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="25">
+        <f>+Earnings_Comparison!E47</f>
+        <v>794.95</v>
+      </c>
+      <c r="D21" s="24">
+        <f>+Earnings_Comparison!H47</f>
+        <v>2.0487812258880966</v>
+      </c>
+      <c r="F21" s="25">
+        <f t="shared" si="0"/>
+        <v>110.67999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>+Earnings_Comparison!B15</f>
+        <v>GA</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="25">
+        <f>+Earnings_Comparison!E15</f>
+        <v>874.87</v>
+      </c>
+      <c r="D22" s="24">
+        <f>+Earnings_Comparison!H15</f>
+        <v>2.0060662729118439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>+Earnings_Comparison!B52</f>
+        <v>WA</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="25">
+        <f>+Earnings_Comparison!E52</f>
+        <v>1070.8699999999999</v>
+      </c>
+      <c r="D23" s="24">
+        <f>+Earnings_Comparison!H52</f>
+        <v>1.9386828292423663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>+Earnings_Comparison!B12</f>
+        <v>DE</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="25">
+        <f>+Earnings_Comparison!E12</f>
+        <v>820.33</v>
+      </c>
+      <c r="D24" s="24">
+        <f>+Earnings_Comparison!H12</f>
+        <v>1.7093900397560313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>+Earnings_Comparison!B13</f>
+        <v>DC</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="25">
+        <f>+Earnings_Comparison!E13</f>
+        <v>1389.26</v>
+      </c>
+      <c r="D25" s="24">
+        <f>+Earnings_Comparison!H13</f>
+        <v>1.4450403859940675</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>+Earnings_Comparison!B37</f>
+        <v>NY</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="25">
+        <f>+Earnings_Comparison!E37</f>
+        <v>991.65</v>
+      </c>
+      <c r="D26" s="35">
+        <f>+Earnings_Comparison!H37</f>
+        <v>1.4126994782312607</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>+Earnings_Comparison!B42</f>
+        <v>OR</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="25">
+        <f>+Earnings_Comparison!E42</f>
+        <v>858.5</v>
+      </c>
+      <c r="D27" s="24">
+        <f>+Earnings_Comparison!H42</f>
+        <v>1.2662018685905441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
         <f>+Earnings_Comparison!B44</f>
         <v>RI</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B28" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C28" s="25">
         <f>+Earnings_Comparison!E44</f>
-        <v>885.72</v>
-      </c>
-      <c r="D12" s="24">
+        <v>872.52</v>
+      </c>
+      <c r="D28" s="24">
         <f>+Earnings_Comparison!H44</f>
-        <v>1.3699264822319313</v>
-      </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f>+Earnings_Comparison!B28</f>
-        <v>MN</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="25">
-        <f>+Earnings_Comparison!E28</f>
-        <v>955.53</v>
-      </c>
-      <c r="D13" s="24">
-        <f>+Earnings_Comparison!H28</f>
-        <v>1.3161817408710474</v>
-      </c>
-      <c r="L13" s="20"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>+Earnings_Comparison!B34</f>
-        <v>NH</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="25">
-        <f>+Earnings_Comparison!E34</f>
-        <v>889.2</v>
-      </c>
-      <c r="D14" s="24">
-        <f>+Earnings_Comparison!H34</f>
-        <v>1.1490524591535545</v>
-      </c>
-      <c r="F14" s="25">
-        <f>C$1-C14</f>
-        <v>12.769999999999982</v>
-      </c>
-      <c r="L14" s="20"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>+Earnings_Comparison!B8</f>
-        <v>AR</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="25">
-        <f>+Earnings_Comparison!E8</f>
-        <v>708.26</v>
-      </c>
-      <c r="D15" s="24">
-        <f>+Earnings_Comparison!H8</f>
-        <v>1.1428160010965138</v>
-      </c>
-      <c r="F15" s="25">
-        <f t="shared" ref="F15:F21" si="0">C$1-C15</f>
-        <v>193.71000000000004</v>
-      </c>
-      <c r="L15" s="20"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f>+Earnings_Comparison!B7</f>
-        <v>AZ</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="25">
-        <f>+Earnings_Comparison!E7</f>
-        <v>863.78</v>
-      </c>
-      <c r="D16" s="24">
-        <f>+Earnings_Comparison!H7</f>
-        <v>0.80407388856638118</v>
-      </c>
-      <c r="F16" s="25">
-        <f t="shared" si="0"/>
-        <v>38.190000000000055</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
+        <v>1.2258651176063617</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>+Earnings_Comparison!B45</f>
+        <v>SC</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="25">
+        <f>+Earnings_Comparison!E45</f>
+        <v>785.25</v>
+      </c>
+      <c r="D29" s="24">
+        <f>+Earnings_Comparison!H45</f>
+        <v>1.1798008378898217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>+Earnings_Comparison!B48</f>
+        <v>TX</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="25">
+        <f>+Earnings_Comparison!E48</f>
+        <v>894.28</v>
+      </c>
+      <c r="D30" s="24">
+        <f>+Earnings_Comparison!H48</f>
+        <v>1.1038524586913123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
         <f>+Earnings_Comparison!B38</f>
         <v>NC</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B31" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C31" s="25">
         <f>+Earnings_Comparison!E38</f>
-        <v>830.76</v>
-      </c>
-      <c r="D17" s="24">
+        <v>823.48</v>
+      </c>
+      <c r="D31" s="24">
         <f>+Earnings_Comparison!H38</f>
-        <v>0.79612838198972469</v>
-      </c>
-      <c r="F17" s="25">
-        <f t="shared" si="0"/>
-        <v>71.210000000000036</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>+Earnings_Comparison!B22</f>
-        <v>KY</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="25">
-        <f>+Earnings_Comparison!E22</f>
-        <v>760.28</v>
-      </c>
-      <c r="D18" s="24">
-        <f>+Earnings_Comparison!H22</f>
-        <v>0.76802758893252943</v>
-      </c>
-      <c r="F18" s="25">
-        <f t="shared" si="0"/>
-        <v>141.69000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f>+Earnings_Comparison!B47</f>
-        <v>TN</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="25">
-        <f>+Earnings_Comparison!E47</f>
-        <v>794.38</v>
-      </c>
-      <c r="D19" s="24">
-        <f>+Earnings_Comparison!H47</f>
-        <v>0.55845726089667203</v>
-      </c>
-      <c r="F19" s="25">
-        <f t="shared" si="0"/>
-        <v>107.59000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>+Earnings_Comparison!B19</f>
-        <v>IN</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="25">
-        <f>+Earnings_Comparison!E19</f>
-        <v>834.55</v>
-      </c>
-      <c r="D20" s="24">
-        <f>+Earnings_Comparison!H19</f>
-        <v>0.55496916701844867</v>
-      </c>
-      <c r="F20" s="25">
-        <f t="shared" si="0"/>
-        <v>67.420000000000073</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f>+Earnings_Comparison!B54</f>
-        <v>WI</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="25">
-        <f>+Earnings_Comparison!E54</f>
-        <v>827.12</v>
-      </c>
-      <c r="D21" s="24">
-        <f>+Earnings_Comparison!H54</f>
-        <v>0.30613365437066609</v>
-      </c>
-      <c r="F21" s="25">
-        <f t="shared" si="0"/>
-        <v>74.850000000000023</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>+Earnings_Comparison!B12</f>
-        <v>DE</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="25">
-        <f>+Earnings_Comparison!E12</f>
-        <v>828.75</v>
-      </c>
-      <c r="D22" s="24">
-        <f>+Earnings_Comparison!H12</f>
-        <v>0.20298194810215442</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f>+Earnings_Comparison!B45</f>
-        <v>SC</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="25">
-        <f>+Earnings_Comparison!E45</f>
-        <v>775.22</v>
-      </c>
-      <c r="D23" s="24">
-        <f>+Earnings_Comparison!H45</f>
-        <v>-1.6678851009577222E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f>+Earnings_Comparison!B6</f>
-        <v>AK</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="25">
-        <f>+Earnings_Comparison!E6</f>
-        <v>983.68</v>
-      </c>
-      <c r="D24" s="24">
-        <f>+Earnings_Comparison!H6</f>
-        <v>-2.4164267194448641E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
+        <v>1.0885255024292162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>+Earnings_Comparison!B16</f>
+        <v>HI</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="25">
+        <f>+Earnings_Comparison!E16</f>
+        <v>847.26</v>
+      </c>
+      <c r="D32" s="24">
+        <f>+Earnings_Comparison!H16</f>
+        <v>1.0598314178942969</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>+Earnings_Comparison!B17</f>
+        <v>ID</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="25">
+        <f>+Earnings_Comparison!E17</f>
+        <v>749.49</v>
+      </c>
+      <c r="D33" s="24">
+        <f>+Earnings_Comparison!H17</f>
+        <v>0.9022291893232115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
         <f>+Earnings_Comparison!B14</f>
         <v>FL</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B34" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C34" s="25">
         <f>+Earnings_Comparison!E14</f>
-        <v>813.96</v>
-      </c>
-      <c r="D25" s="24">
+        <v>807.49</v>
+      </c>
+      <c r="D34" s="24">
         <f>+Earnings_Comparison!H14</f>
-        <v>-0.15494487652164546</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f>+Earnings_Comparison!B9</f>
-        <v>CA</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="25">
-        <f>+Earnings_Comparison!E9</f>
-        <v>1024.31</v>
-      </c>
-      <c r="D26" s="24">
-        <f>+Earnings_Comparison!H9</f>
-        <v>-0.41609298673916939</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f>+Earnings_Comparison!B43</f>
-        <v>PA</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="25">
-        <f>+Earnings_Comparison!E43</f>
-        <v>842.3</v>
-      </c>
-      <c r="D27" s="24">
-        <f>+Earnings_Comparison!H43</f>
-        <v>-0.45168401575316208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f>+Earnings_Comparison!B31</f>
-        <v>MT</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="25">
-        <f>+Earnings_Comparison!E31</f>
-        <v>750.47</v>
-      </c>
-      <c r="D28" s="24">
-        <f>+Earnings_Comparison!H31</f>
-        <v>-0.52145074909980549</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f>+Earnings_Comparison!B37</f>
-        <v>NY</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="25">
-        <f>+Earnings_Comparison!E37</f>
-        <v>994.01</v>
-      </c>
-      <c r="D29" s="36">
-        <f>+Earnings_Comparison!H37</f>
-        <v>-0.58519872818123542</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f>+Earnings_Comparison!B39</f>
-        <v>ND</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="25">
-        <f>+Earnings_Comparison!E39</f>
-        <v>916.04</v>
-      </c>
-      <c r="D30" s="24">
-        <f>+Earnings_Comparison!H39</f>
-        <v>-0.63854232526744381</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f>+Earnings_Comparison!B40</f>
-        <v>OH</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C31" s="25">
-        <f>+Earnings_Comparison!E40</f>
-        <v>814.97</v>
-      </c>
-      <c r="D31" s="36">
-        <f>+Earnings_Comparison!H40</f>
-        <v>-0.66167734483771889</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f>+Earnings_Comparison!B49</f>
-        <v>UT</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="25">
-        <f>+Earnings_Comparison!E49</f>
-        <v>869.08</v>
-      </c>
-      <c r="D32" s="24">
-        <f>+Earnings_Comparison!H49</f>
-        <v>-0.91574775849554424</v>
-      </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f>+Earnings_Comparison!B26</f>
-        <v>MA</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="25">
-        <f>+Earnings_Comparison!E26</f>
-        <v>1055.28</v>
-      </c>
-      <c r="D33" s="24">
-        <f>+Earnings_Comparison!H26</f>
-        <v>-1.1018796984118673</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f>+Earnings_Comparison!B15</f>
-        <v>GA</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="25">
-        <f>+Earnings_Comparison!E15</f>
-        <v>871.47</v>
-      </c>
-      <c r="D34" s="24">
-        <f>+Earnings_Comparison!H15</f>
-        <v>-1.1313074582754545</v>
+        <v>0.89038048517495749</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -11801,45 +11951,45 @@
       </c>
       <c r="C35" s="25">
         <f>+Earnings_Comparison!E21</f>
-        <v>771.51</v>
+        <v>782.15</v>
       </c>
       <c r="D35" s="24">
         <f>+Earnings_Comparison!H21</f>
-        <v>-1.1446143433823774</v>
+        <v>0.82261488428254648</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f>+Earnings_Comparison!B5</f>
-        <v>AL</v>
+        <f>+Earnings_Comparison!B26</f>
+        <v>MA</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C36" s="25">
-        <f>+Earnings_Comparison!E5</f>
-        <v>790.24</v>
+        <f>+Earnings_Comparison!E26</f>
+        <v>1054.77</v>
       </c>
       <c r="D36" s="24">
-        <f>+Earnings_Comparison!H5</f>
-        <v>-1.337220770601244</v>
+        <f>+Earnings_Comparison!H26</f>
+        <v>0.8118215501988324</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f>+Earnings_Comparison!B52</f>
-        <v>WA</v>
+        <f>+Earnings_Comparison!B40</f>
+        <v>OH</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C37" s="25">
-        <f>+Earnings_Comparison!E52</f>
-        <v>1073.3</v>
-      </c>
-      <c r="D37" s="24">
-        <f>+Earnings_Comparison!H52</f>
-        <v>-1.3827994581944725</v>
+        <f>+Earnings_Comparison!E40</f>
+        <v>812.87</v>
+      </c>
+      <c r="D37" s="35">
+        <f>+Earnings_Comparison!H40</f>
+        <v>0.72480034412625294</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -11852,62 +12002,62 @@
       </c>
       <c r="C38" s="25">
         <f>+Earnings_Comparison!E29</f>
-        <v>700.95</v>
+        <v>703.93</v>
       </c>
       <c r="D38" s="24">
         <f>+Earnings_Comparison!H29</f>
-        <v>-1.4382234939017247</v>
+        <v>0.68120271426670431</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f>+Earnings_Comparison!B46</f>
-        <v>SD</v>
+        <f>+Earnings_Comparison!B6</f>
+        <v>AK</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="C39" s="25">
-        <f>+Earnings_Comparison!E46</f>
-        <v>736.16</v>
+        <f>+Earnings_Comparison!E6</f>
+        <v>981.58</v>
       </c>
       <c r="D39" s="24">
-        <f>+Earnings_Comparison!H46</f>
-        <v>-1.5729663444067454</v>
+        <f>+Earnings_Comparison!H6</f>
+        <v>0.48000007094550767</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <f>+Earnings_Comparison!B33</f>
-        <v>NV</v>
+        <f>+Earnings_Comparison!B11</f>
+        <v>CT</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C40" s="25">
-        <f>+Earnings_Comparison!E33</f>
-        <v>760.61</v>
+        <f>+Earnings_Comparison!E11</f>
+        <v>1030.51</v>
       </c>
       <c r="D40" s="24">
-        <f>+Earnings_Comparison!H33</f>
-        <v>-1.5971506210631814</v>
+        <f>+Earnings_Comparison!H11</f>
+        <v>0.45646591779280321</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f>+Earnings_Comparison!B23</f>
-        <v>LA</v>
+        <f>+Earnings_Comparison!B54</f>
+        <v>WI</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="C41" s="25">
-        <f>+Earnings_Comparison!E23</f>
-        <v>803.93</v>
+        <f>+Earnings_Comparison!E54</f>
+        <v>814.92</v>
       </c>
       <c r="D41" s="24">
-        <f>+Earnings_Comparison!H23</f>
-        <v>-1.7719494729972918</v>
+        <f>+Earnings_Comparison!H54</f>
+        <v>0.43619621162769295</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -11920,249 +12070,249 @@
       </c>
       <c r="C42" s="25">
         <f>+Earnings_Comparison!E25</f>
-        <v>939.47</v>
-      </c>
-      <c r="D42" s="36">
+        <v>945.65</v>
+      </c>
+      <c r="D42" s="35">
         <f>+Earnings_Comparison!H25</f>
-        <v>-1.8403729778983635</v>
+        <v>0.40045663849239688</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
+        <f>+Earnings_Comparison!B23</f>
+        <v>LA</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="25">
+        <f>+Earnings_Comparison!E23</f>
+        <v>806.06</v>
+      </c>
+      <c r="D43" s="24">
+        <f>+Earnings_Comparison!H23</f>
+        <v>0.27369076879304455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>+Earnings_Comparison!B33</f>
+        <v>NV</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="25">
+        <f>+Earnings_Comparison!E33</f>
+        <v>763.16</v>
+      </c>
+      <c r="D44" s="24">
+        <f>+Earnings_Comparison!H33</f>
+        <v>6.8529697601649175E-2</v>
+      </c>
+      <c r="H44" s="20"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>+Earnings_Comparison!B46</f>
+        <v>SD</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="25">
+        <f>+Earnings_Comparison!E46</f>
+        <v>730.85</v>
+      </c>
+      <c r="D45" s="24">
+        <f>+Earnings_Comparison!H46</f>
+        <v>-8.0100816422934429E-2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>+Earnings_Comparison!B43</f>
+        <v>PA</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="25">
+        <f>+Earnings_Comparison!E43</f>
+        <v>837.23</v>
+      </c>
+      <c r="D46" s="24">
+        <f>+Earnings_Comparison!H43</f>
+        <v>-0.11473531203562981</v>
+      </c>
+      <c r="H46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>+Earnings_Comparison!B22</f>
+        <v>KY</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="25">
+        <f>+Earnings_Comparison!E22</f>
+        <v>759.85</v>
+      </c>
+      <c r="D47" s="24">
+        <f>+Earnings_Comparison!H22</f>
+        <v>-0.18858119088721592</v>
+      </c>
+      <c r="H47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>+Earnings_Comparison!B10</f>
+        <v>CO</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="25">
+        <f>+Earnings_Comparison!E10</f>
+        <v>914.85</v>
+      </c>
+      <c r="D48" s="24">
+        <f>+Earnings_Comparison!H10</f>
+        <v>-0.33369282099028341</v>
+      </c>
+      <c r="H48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>+Earnings_Comparison!B18</f>
+        <v>IL</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="25">
+        <f>+Earnings_Comparison!E18</f>
+        <v>908.61</v>
+      </c>
+      <c r="D49" s="24">
+        <f>+Earnings_Comparison!H18</f>
+        <v>-0.53110757711504197</v>
+      </c>
+      <c r="H49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>+Earnings_Comparison!B5</f>
+        <v>AL</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="25">
+        <f>+Earnings_Comparison!E5</f>
+        <v>785.62</v>
+      </c>
+      <c r="D50" s="24">
+        <f>+Earnings_Comparison!H5</f>
+        <v>-0.67673420289339203</v>
+      </c>
+      <c r="H50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>+Earnings_Comparison!B50</f>
+        <v>VT</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="25">
+        <f>+Earnings_Comparison!E50</f>
+        <v>809.76</v>
+      </c>
+      <c r="D51" s="24">
+        <f>+Earnings_Comparison!H50</f>
+        <v>-1.7358646667118505</v>
+      </c>
+      <c r="H51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>+Earnings_Comparison!B51</f>
+        <v>VA</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="25">
+        <f>+Earnings_Comparison!E51</f>
+        <v>929.43</v>
+      </c>
+      <c r="D52" s="24">
+        <f>+Earnings_Comparison!H51</f>
+        <v>-2.0802761260702574</v>
+      </c>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
         <f>+Earnings_Comparison!B27</f>
         <v>MI</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B53" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C53" s="25">
         <f>+Earnings_Comparison!E27</f>
-        <v>822.83</v>
-      </c>
-      <c r="D43" s="24">
+        <v>799.03</v>
+      </c>
+      <c r="D53" s="24">
         <f>+Earnings_Comparison!H27</f>
-        <v>-1.966663143628522</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f>+Earnings_Comparison!B42</f>
-        <v>OR</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="25">
-        <f>+Earnings_Comparison!E42</f>
-        <v>854.28</v>
-      </c>
-      <c r="D44" s="24">
-        <f>+Earnings_Comparison!H42</f>
-        <v>-2.0032649615040587</v>
-      </c>
-      <c r="H44" s="20"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f>+Earnings_Comparison!B11</f>
-        <v>CT</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="25">
-        <f>+Earnings_Comparison!E11</f>
-        <v>1038.9100000000001</v>
-      </c>
-      <c r="D45" s="24">
-        <f>+Earnings_Comparison!H11</f>
-        <v>-2.3320454062370821</v>
-      </c>
-      <c r="H45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
-        <f>+Earnings_Comparison!B50</f>
-        <v>VT</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="25">
-        <f>+Earnings_Comparison!E50</f>
-        <v>815.47</v>
-      </c>
-      <c r="D46" s="24">
-        <f>+Earnings_Comparison!H50</f>
-        <v>-2.9413242704030118</v>
-      </c>
-      <c r="H46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f>+Earnings_Comparison!B51</f>
-        <v>VA</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C47" s="25">
-        <f>+Earnings_Comparison!E51</f>
-        <v>943.92</v>
-      </c>
-      <c r="D47" s="24">
-        <f>+Earnings_Comparison!H51</f>
-        <v>-2.9507759985103799</v>
-      </c>
-      <c r="H47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
-        <f>+Earnings_Comparison!B16</f>
-        <v>HI</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" s="25">
-        <f>+Earnings_Comparison!E16</f>
-        <v>841.1</v>
-      </c>
-      <c r="D48" s="24">
-        <f>+Earnings_Comparison!H16</f>
-        <v>-3.0688664784802255</v>
-      </c>
-      <c r="H48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
-        <f>+Earnings_Comparison!B17</f>
-        <v>ID</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" s="25">
-        <f>+Earnings_Comparison!E17</f>
-        <v>745.59</v>
-      </c>
-      <c r="D49" s="24">
-        <f>+Earnings_Comparison!H17</f>
-        <v>-3.1484578892507664</v>
-      </c>
-      <c r="H49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
-        <f>+Earnings_Comparison!B18</f>
-        <v>IL</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="25">
-        <f>+Earnings_Comparison!E18</f>
-        <v>902.7</v>
-      </c>
-      <c r="D50" s="24">
-        <f>+Earnings_Comparison!H18</f>
-        <v>-3.209613299342251</v>
-      </c>
-      <c r="H50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f>+Earnings_Comparison!B13</f>
-        <v>DC</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="25">
-        <f>+Earnings_Comparison!E13</f>
-        <v>1391.01</v>
-      </c>
-      <c r="D51" s="24">
-        <f>+Earnings_Comparison!H13</f>
-        <v>-3.2968194679639629</v>
-      </c>
-      <c r="H51" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
+        <v>-3.7313302579275454</v>
+      </c>
+      <c r="H53" s="20"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
         <f>+Earnings_Comparison!B20</f>
         <v>IA</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B54" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="25">
+      <c r="C54" s="25">
         <f>+Earnings_Comparison!E20</f>
-        <v>793.44</v>
-      </c>
-      <c r="D52" s="24">
+        <v>798.22</v>
+      </c>
+      <c r="D54" s="24">
         <f>+Earnings_Comparison!H20</f>
-        <v>-3.6807142413847083</v>
-      </c>
-      <c r="H52" s="20"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
-        <f>+Earnings_Comparison!B10</f>
-        <v>CO</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="25">
-        <f>+Earnings_Comparison!E10</f>
-        <v>898.92</v>
-      </c>
-      <c r="D53" s="24">
-        <f>+Earnings_Comparison!H10</f>
-        <v>-4.6914032871673399</v>
-      </c>
-      <c r="H53" s="20"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
-        <f>+Earnings_Comparison!B35</f>
-        <v>NJ</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" s="25">
-        <f>+Earnings_Comparison!E35</f>
-        <v>820.98</v>
-      </c>
-      <c r="D54" s="24">
-        <f>+Earnings_Comparison!H35</f>
-        <v>-16.158169549298773</v>
+        <v>-4.3361384534694514</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56">
-        <f>COUNTIF(C4:C54, "&lt;902")</f>
-        <v>38</v>
+        <f>COUNTIF(C4:C54, "&lt;906")</f>
+        <v>37</v>
       </c>
       <c r="D56">
         <f>COUNTIF(D4:D54, "&lt;0")</f>
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -12171,8 +12321,8 @@
       <sortCondition descending="1" ref="D3:D54"/>
     </sortState>
   </autoFilter>
-  <sortState ref="O6:O9">
-    <sortCondition ref="O6"/>
+  <sortState ref="M6:M14">
+    <sortCondition ref="M6"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>

--- a/data/source/current_earnings.xlsx
+++ b/data/source/current_earnings.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RAuxier\Box Sync\TPC\CENTER\SLFI\SEM\Online SEM\Earnings\2017\June 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RAuxier\Box Sync\TPC\CENTER\SLFI\SEM\Online SEM\Earnings\2017\July 2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="1110" windowWidth="20775" windowHeight="11415" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="1110" windowWidth="20775" windowHeight="11415" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Earnings Table" sheetId="2" r:id="rId1"/>
     <sheet name="Earnings_Comparison" sheetId="1" r:id="rId2"/>
-    <sheet name="June 2017_BLS Data Series" sheetId="27" r:id="rId3"/>
+    <sheet name="July 2017_BLS Data Series" sheetId="28" r:id="rId3"/>
     <sheet name="SCRATCH" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -805,7 +805,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="S5" authorId="0" shapeId="0">
+    <comment ref="T5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -820,7 +820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S6" authorId="0" shapeId="0">
+    <comment ref="T6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -835,7 +835,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -850,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="0" shapeId="0">
+    <comment ref="T8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -865,7 +865,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="0" shapeId="0">
+    <comment ref="T9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -880,7 +880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S10" authorId="0" shapeId="0">
+    <comment ref="T10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -895,7 +895,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S11" authorId="0" shapeId="0">
+    <comment ref="T11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -910,7 +910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S12" authorId="0" shapeId="0">
+    <comment ref="T12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -925,7 +925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S13" authorId="0" shapeId="0">
+    <comment ref="T13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -940,7 +940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S14" authorId="0" shapeId="0">
+    <comment ref="T14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -955,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S15" authorId="0" shapeId="0">
+    <comment ref="T15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S16" authorId="0" shapeId="0">
+    <comment ref="T16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -985,7 +985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S17" authorId="0" shapeId="0">
+    <comment ref="T17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1000,7 +1000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S18" authorId="0" shapeId="0">
+    <comment ref="T18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1015,7 +1015,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S19" authorId="0" shapeId="0">
+    <comment ref="T19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1030,7 +1030,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S20" authorId="0" shapeId="0">
+    <comment ref="T20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1045,7 +1045,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S21" authorId="0" shapeId="0">
+    <comment ref="T21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1060,7 +1060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S22" authorId="0" shapeId="0">
+    <comment ref="T22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1075,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S23" authorId="0" shapeId="0">
+    <comment ref="T23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S24" authorId="0" shapeId="0">
+    <comment ref="T24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S25" authorId="0" shapeId="0">
+    <comment ref="T25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1120,7 +1120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S26" authorId="0" shapeId="0">
+    <comment ref="T26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1135,7 +1135,52 @@
         </r>
       </text>
     </comment>
-    <comment ref="S27" authorId="0" shapeId="0">
+    <comment ref="P27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Correction
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Correction
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Correction
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1150,7 +1195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S28" authorId="0" shapeId="0">
+    <comment ref="T28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1165,7 +1210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S29" authorId="0" shapeId="0">
+    <comment ref="T29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1180,7 +1225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S30" authorId="0" shapeId="0">
+    <comment ref="T30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1195,7 +1240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S31" authorId="0" shapeId="0">
+    <comment ref="T31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1210,7 +1255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S32" authorId="0" shapeId="0">
+    <comment ref="T32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1225,7 +1270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S33" authorId="0" shapeId="0">
+    <comment ref="T33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1240,7 +1285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S34" authorId="0" shapeId="0">
+    <comment ref="T34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1255,7 +1300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S35" authorId="0" shapeId="0">
+    <comment ref="T35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1270,7 +1315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S36" authorId="0" shapeId="0">
+    <comment ref="T36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1285,7 +1330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S37" authorId="0" shapeId="0">
+    <comment ref="T37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1300,7 +1345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S38" authorId="0" shapeId="0">
+    <comment ref="T38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1315,7 +1360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S39" authorId="0" shapeId="0">
+    <comment ref="T39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1330,7 +1375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S40" authorId="0" shapeId="0">
+    <comment ref="T40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1345,7 +1390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S41" authorId="0" shapeId="0">
+    <comment ref="T41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1360,7 +1405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S42" authorId="0" shapeId="0">
+    <comment ref="T42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1375,7 +1420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S43" authorId="0" shapeId="0">
+    <comment ref="T43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1390,7 +1435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S44" authorId="0" shapeId="0">
+    <comment ref="T44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1405,7 +1450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S45" authorId="0" shapeId="0">
+    <comment ref="T45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1420,7 +1465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S46" authorId="0" shapeId="0">
+    <comment ref="T46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1435,7 +1480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S47" authorId="0" shapeId="0">
+    <comment ref="T47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1450,7 +1495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S48" authorId="0" shapeId="0">
+    <comment ref="T48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1465,7 +1510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S49" authorId="0" shapeId="0">
+    <comment ref="T49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1480,7 +1525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S50" authorId="0" shapeId="0">
+    <comment ref="T50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1495,7 +1540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S51" authorId="0" shapeId="0">
+    <comment ref="T51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1510,7 +1555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S52" authorId="0" shapeId="0">
+    <comment ref="T52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1525,7 +1570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S53" authorId="0" shapeId="0">
+    <comment ref="T53" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1540,7 +1585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S54" authorId="0" shapeId="0">
+    <comment ref="T54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1555,7 +1600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S55" authorId="0" shapeId="0">
+    <comment ref="T55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1575,7 +1620,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="197">
   <si>
     <t>State and Area Employment, Hours, and Earnings</t>
   </si>
@@ -2186,17 +2231,17 @@
     <t>Average Weekly Wages April 2017</t>
   </si>
   <si>
-    <t>June 2016 adj for inflation</t>
-  </si>
-  <si>
-    <t>Average Weekly Earnings June 2017</t>
+    <t>Average Weekly Earnings July 2017</t>
+  </si>
+  <si>
+    <t>July 2016 adj for inflation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="14">
+  <numFmts count="13">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#0.00"/>
@@ -2210,7 +2255,6 @@
     <numFmt numFmtId="172" formatCode="0.0"/>
     <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="174" formatCode="#0"/>
-    <numFmt numFmtId="175" formatCode="#0.000"/>
   </numFmts>
   <fonts count="80" x14ac:knownFonts="1">
     <font>
@@ -3855,7 +3899,7 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3937,9 +3981,6 @@
     </xf>
     <xf numFmtId="17" fontId="4" fillId="34" borderId="1" xfId="315" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
@@ -5170,7 +5211,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5182,12 +5223,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="A1" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
@@ -5212,11 +5253,11 @@
       </c>
       <c r="C3" s="30">
         <f>+Earnings_Comparison!E58</f>
-        <v>905.63</v>
+        <v>909.42</v>
       </c>
       <c r="D3" s="29">
         <f>+Earnings_Comparison!H58</f>
-        <v>1.105647928819109</v>
+        <v>1.0800694669405031</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5229,11 +5270,11 @@
       </c>
       <c r="C4" s="30">
         <f>+Earnings_Comparison!E5</f>
-        <v>785.62</v>
+        <v>799.46</v>
       </c>
       <c r="D4" s="29">
         <f>+Earnings_Comparison!H5</f>
-        <v>-0.67673420289339203</v>
+        <v>0.47948041116914197</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5246,11 +5287,11 @@
       </c>
       <c r="C5" s="30">
         <f>+Earnings_Comparison!E6</f>
-        <v>981.58</v>
+        <v>1027.1099999999999</v>
       </c>
       <c r="D5" s="29">
         <f>+Earnings_Comparison!H6</f>
-        <v>0.48000007094550767</v>
+        <v>1.9995794181475679</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5263,11 +5304,11 @@
       </c>
       <c r="C6" s="30">
         <f>+Earnings_Comparison!E7</f>
-        <v>863.08</v>
+        <v>898.1</v>
       </c>
       <c r="D6" s="29">
         <f>+Earnings_Comparison!H7</f>
-        <v>3.8545518411986057</v>
+        <v>8.4202774114052978</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5280,11 +5321,11 @@
       </c>
       <c r="C7" s="30">
         <f>+Earnings_Comparison!E8</f>
-        <v>714.35</v>
+        <v>724.46</v>
       </c>
       <c r="D7" s="29">
         <f>+Earnings_Comparison!H8</f>
-        <v>2.5711381322665261</v>
+        <v>1.8935114256935615</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5297,11 +5338,11 @@
       </c>
       <c r="C8" s="30">
         <f>+Earnings_Comparison!E9</f>
-        <v>1021.34</v>
+        <v>1061.28</v>
       </c>
       <c r="D8" s="29">
         <f>+Earnings_Comparison!H9</f>
-        <v>2.4764109612882113</v>
+        <v>5.5592694693389344</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5314,11 +5355,11 @@
       </c>
       <c r="C9" s="30">
         <f>+Earnings_Comparison!E10</f>
-        <v>914.85</v>
+        <v>953.57</v>
       </c>
       <c r="D9" s="29">
         <f>+Earnings_Comparison!H10</f>
-        <v>-0.33369282099028341</v>
+        <v>4.1802710450885128</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5331,11 +5372,11 @@
       </c>
       <c r="C10" s="30">
         <f>+Earnings_Comparison!E11</f>
-        <v>1030.51</v>
+        <v>1058.95</v>
       </c>
       <c r="D10" s="29">
         <f>+Earnings_Comparison!H11</f>
-        <v>0.45646591779280321</v>
+        <v>2.653951392058107</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5348,11 +5389,11 @@
       </c>
       <c r="C11" s="30">
         <f>+Earnings_Comparison!E12</f>
-        <v>820.33</v>
+        <v>911.09</v>
       </c>
       <c r="D11" s="29">
         <f>+Earnings_Comparison!H12</f>
-        <v>1.7093900397560313</v>
+        <v>11.761752934516245</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5365,11 +5406,11 @@
       </c>
       <c r="C12" s="30">
         <f>+Earnings_Comparison!E13</f>
-        <v>1389.26</v>
+        <v>1477.08</v>
       </c>
       <c r="D12" s="29">
         <f>+Earnings_Comparison!H13</f>
-        <v>1.4450403859940675</v>
+        <v>6.8700494516544364</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5382,11 +5423,11 @@
       </c>
       <c r="C13" s="30">
         <f>+Earnings_Comparison!E14</f>
-        <v>807.49</v>
+        <v>829.38</v>
       </c>
       <c r="D13" s="29">
         <f>+Earnings_Comparison!H14</f>
-        <v>0.89038048517495749</v>
+        <v>3.761031775713275</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5399,11 +5440,11 @@
       </c>
       <c r="C14" s="30">
         <f>+Earnings_Comparison!E15</f>
-        <v>874.87</v>
+        <v>911.41</v>
       </c>
       <c r="D14" s="29">
         <f>+Earnings_Comparison!H15</f>
-        <v>2.0060662729118439</v>
+        <v>5.6856012776546505</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5416,11 +5457,11 @@
       </c>
       <c r="C15" s="30">
         <f>+Earnings_Comparison!E16</f>
-        <v>847.26</v>
+        <v>898.78</v>
       </c>
       <c r="D15" s="29">
         <f>+Earnings_Comparison!H16</f>
-        <v>1.0598314178942969</v>
+        <v>5.518038031913397</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5433,11 +5474,11 @@
       </c>
       <c r="C16" s="30">
         <f>+Earnings_Comparison!E17</f>
-        <v>749.49</v>
+        <v>770.56</v>
       </c>
       <c r="D16" s="29">
         <f>+Earnings_Comparison!H17</f>
-        <v>0.9022291893232115</v>
+        <v>2.9732277344208136</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5450,11 +5491,11 @@
       </c>
       <c r="C17" s="30">
         <f>+Earnings_Comparison!E18</f>
-        <v>908.61</v>
+        <v>927.77</v>
       </c>
       <c r="D17" s="29">
         <f>+Earnings_Comparison!H18</f>
-        <v>-0.53110757711504197</v>
+        <v>1.2310363191617268</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5467,11 +5508,11 @@
       </c>
       <c r="C18" s="30">
         <f>+Earnings_Comparison!E19</f>
-        <v>851.65</v>
+        <v>865.56</v>
       </c>
       <c r="D18" s="29">
         <f>+Earnings_Comparison!H19</f>
-        <v>4.0894852174315766</v>
+        <v>4.8331589501042549</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5484,11 +5525,11 @@
       </c>
       <c r="C19" s="30">
         <f>+Earnings_Comparison!E20</f>
-        <v>798.22</v>
+        <v>811.98</v>
       </c>
       <c r="D19" s="29">
         <f>+Earnings_Comparison!H20</f>
-        <v>-4.3361384534694514</v>
+        <v>-1.4339970245571543</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5501,11 +5542,11 @@
       </c>
       <c r="C20" s="30">
         <f>+Earnings_Comparison!E21</f>
-        <v>782.15</v>
+        <v>798.91</v>
       </c>
       <c r="D20" s="29">
         <f>+Earnings_Comparison!H21</f>
-        <v>0.82261488428254648</v>
+        <v>2.401750193753216</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5518,11 +5559,11 @@
       </c>
       <c r="C21" s="30">
         <f>+Earnings_Comparison!E22</f>
-        <v>759.85</v>
+        <v>774.84</v>
       </c>
       <c r="D21" s="29">
         <f>+Earnings_Comparison!H22</f>
-        <v>-0.18858119088721592</v>
+        <v>1.87632742564392</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5535,11 +5576,11 @@
       </c>
       <c r="C22" s="30">
         <f>+Earnings_Comparison!E23</f>
-        <v>806.06</v>
+        <v>828.21</v>
       </c>
       <c r="D22" s="29">
         <f>+Earnings_Comparison!H23</f>
-        <v>0.27369076879304455</v>
+        <v>3.1342544977436271</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5552,11 +5593,11 @@
       </c>
       <c r="C23" s="30">
         <f>+Earnings_Comparison!E24</f>
-        <v>780.1</v>
+        <v>785.22</v>
       </c>
       <c r="D23" s="29">
         <f>+Earnings_Comparison!H24</f>
-        <v>3.4826645421318414</v>
+        <v>4.2830182606085065</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5569,11 +5610,11 @@
       </c>
       <c r="C24" s="30">
         <f>+Earnings_Comparison!E25</f>
-        <v>945.65</v>
+        <v>970.14</v>
       </c>
       <c r="D24" s="29">
         <f>+Earnings_Comparison!H25</f>
-        <v>0.40045663849239688</v>
+        <v>2.7474728856072161</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5586,11 +5627,11 @@
       </c>
       <c r="C25" s="30">
         <f>+Earnings_Comparison!E26</f>
-        <v>1054.77</v>
+        <v>1077.05</v>
       </c>
       <c r="D25" s="29">
         <f>+Earnings_Comparison!H26</f>
-        <v>0.8118215501988324</v>
+        <v>2.2072751628677389</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5603,11 +5644,11 @@
       </c>
       <c r="C26" s="30">
         <f>+Earnings_Comparison!E27</f>
-        <v>799.03</v>
+        <v>852.95</v>
       </c>
       <c r="D26" s="29">
         <f>+Earnings_Comparison!H27</f>
-        <v>-3.7313302579275454</v>
+        <v>2.0684340018956693</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5620,11 +5661,11 @@
       </c>
       <c r="C27" s="30">
         <f>+Earnings_Comparison!E28</f>
-        <v>954.52</v>
+        <v>977.99</v>
       </c>
       <c r="D27" s="29">
         <f>+Earnings_Comparison!H28</f>
-        <v>2.7828870257054161</v>
+        <v>4.6112733569586339</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5637,11 +5678,11 @@
       </c>
       <c r="C28" s="30">
         <f>+Earnings_Comparison!E29</f>
-        <v>703.93</v>
+        <v>715.97</v>
       </c>
       <c r="D28" s="29">
         <f>+Earnings_Comparison!H29</f>
-        <v>0.68120271426670431</v>
+        <v>0.43070583926916317</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5654,11 +5695,11 @@
       </c>
       <c r="C29" s="30">
         <f>+Earnings_Comparison!E30</f>
-        <v>792.61</v>
+        <v>822.17</v>
       </c>
       <c r="D29" s="29">
         <f>+Earnings_Comparison!H30</f>
-        <v>5.540565782582596</v>
+        <v>8.2527762291400464</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5671,11 +5712,11 @@
       </c>
       <c r="C30" s="30">
         <f>+Earnings_Comparison!E31</f>
-        <v>760.91</v>
+        <v>778.08</v>
       </c>
       <c r="D30" s="29">
         <f>+Earnings_Comparison!H31</f>
-        <v>2.2089277692085574</v>
+        <v>3.449378719085483</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5688,11 +5729,11 @@
       </c>
       <c r="C31" s="30">
         <f>+Earnings_Comparison!E32</f>
-        <v>818.03</v>
+        <v>836.97</v>
       </c>
       <c r="D31" s="29">
         <f>+Earnings_Comparison!H32</f>
-        <v>3.3118991450269641</v>
+        <v>5.1199730820937983</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5705,11 +5746,11 @@
       </c>
       <c r="C32" s="30">
         <f>+Earnings_Comparison!E33</f>
-        <v>763.16</v>
+        <v>775.73</v>
       </c>
       <c r="D32" s="29">
         <f>+Earnings_Comparison!H33</f>
-        <v>6.8529697601649175E-2</v>
+        <v>1.9047499961891479</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5722,11 +5763,11 @@
       </c>
       <c r="C33" s="30">
         <f>+Earnings_Comparison!E34</f>
-        <v>878.22</v>
+        <v>874.79</v>
       </c>
       <c r="D33" s="29">
         <f>+Earnings_Comparison!H34</f>
-        <v>2.1147173544935338</v>
+        <v>0.8858237823111903</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -5739,11 +5780,11 @@
       </c>
       <c r="C34" s="30">
         <f>+Earnings_Comparison!E35</f>
-        <v>999.32</v>
+        <v>1000.84</v>
       </c>
       <c r="D34" s="29">
         <f>+Earnings_Comparison!H35</f>
-        <v>4.4464190964051964</v>
+        <v>3.9691704339658074</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5756,11 +5797,11 @@
       </c>
       <c r="C35" s="30">
         <f>+Earnings_Comparison!E36</f>
-        <v>706.82</v>
+        <v>725.9</v>
       </c>
       <c r="D35" s="29">
         <f>+Earnings_Comparison!H36</f>
-        <v>2.4708996405107264</v>
+        <v>4.2103089981685216</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5773,11 +5814,11 @@
       </c>
       <c r="C36" s="30">
         <f>+Earnings_Comparison!E37</f>
-        <v>991.65</v>
+        <v>1013.7</v>
       </c>
       <c r="D36" s="29">
         <f>+Earnings_Comparison!H37</f>
-        <v>1.4126994782312607</v>
+        <v>1.9626545183159871</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5790,11 +5831,11 @@
       </c>
       <c r="C37" s="30">
         <f>+Earnings_Comparison!E38</f>
-        <v>823.48</v>
+        <v>841.46</v>
       </c>
       <c r="D37" s="29">
         <f>+Earnings_Comparison!H38</f>
-        <v>1.0885255024292162</v>
+        <v>2.9890354333622637</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5807,11 +5848,11 @@
       </c>
       <c r="C38" s="30">
         <f>+Earnings_Comparison!E39</f>
-        <v>921.94</v>
+        <v>942.73</v>
       </c>
       <c r="D38" s="29">
         <f>+Earnings_Comparison!H39</f>
-        <v>3.218136068981603</v>
+        <v>3.9409293472148166</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5824,11 +5865,11 @@
       </c>
       <c r="C39" s="30">
         <f>+Earnings_Comparison!E40</f>
-        <v>812.87</v>
+        <v>822.17</v>
       </c>
       <c r="D39" s="29">
         <f>+Earnings_Comparison!H40</f>
-        <v>0.72480034412625294</v>
+        <v>0.99777586777844984</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -5841,11 +5882,11 @@
       </c>
       <c r="C40" s="30">
         <f>+Earnings_Comparison!E41</f>
-        <v>804.79</v>
+        <v>833.69</v>
       </c>
       <c r="D40" s="29">
         <f>+Earnings_Comparison!H41</f>
-        <v>3.829429179605337</v>
+        <v>5.4435964424423</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5858,11 +5899,11 @@
       </c>
       <c r="C41" s="30">
         <f>+Earnings_Comparison!E42</f>
-        <v>858.5</v>
+        <v>888.79</v>
       </c>
       <c r="D41" s="29">
         <f>+Earnings_Comparison!H42</f>
-        <v>1.2662018685905441</v>
+        <v>3.412728385519781</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5875,11 +5916,11 @@
       </c>
       <c r="C42" s="30">
         <f>+Earnings_Comparison!E43</f>
-        <v>837.23</v>
+        <v>848.64</v>
       </c>
       <c r="D42" s="29">
         <f>+Earnings_Comparison!H43</f>
-        <v>-0.11473531203562981</v>
+        <v>0.33010723046997814</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5892,11 +5933,11 @@
       </c>
       <c r="C43" s="30">
         <f>+Earnings_Comparison!E44</f>
-        <v>872.52</v>
+        <v>877.48</v>
       </c>
       <c r="D43" s="29">
         <f>+Earnings_Comparison!H44</f>
-        <v>1.2258651176063617</v>
+        <v>2.34390400101121</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5909,11 +5950,11 @@
       </c>
       <c r="C44" s="30">
         <f>+Earnings_Comparison!E45</f>
-        <v>785.25</v>
+        <v>797.81</v>
       </c>
       <c r="D44" s="29">
         <f>+Earnings_Comparison!H45</f>
-        <v>1.1798008378898217</v>
+        <v>3.9592501859836426</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5926,11 +5967,11 @@
       </c>
       <c r="C45" s="30">
         <f>+Earnings_Comparison!E46</f>
-        <v>730.85</v>
+        <v>743.97</v>
       </c>
       <c r="D45" s="29">
         <f>+Earnings_Comparison!H46</f>
-        <v>-8.0100816422934429E-2</v>
+        <v>0.51854527674572992</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5943,11 +5984,11 @@
       </c>
       <c r="C46" s="30">
         <f>+Earnings_Comparison!E47</f>
-        <v>794.95</v>
+        <v>805.98</v>
       </c>
       <c r="D46" s="29">
         <f>+Earnings_Comparison!H47</f>
-        <v>2.0487812258880966</v>
+        <v>2.4702090932969378</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5960,11 +6001,11 @@
       </c>
       <c r="C47" s="30">
         <f>+Earnings_Comparison!E48</f>
-        <v>894.28</v>
+        <v>930.75</v>
       </c>
       <c r="D47" s="29">
         <f>+Earnings_Comparison!H48</f>
-        <v>1.1038524586913123</v>
+        <v>5.0785595065279132</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5977,11 +6018,11 @@
       </c>
       <c r="C48" s="30">
         <f>+Earnings_Comparison!E49</f>
-        <v>877.91</v>
+        <v>903.21</v>
       </c>
       <c r="D48" s="29">
         <f>+Earnings_Comparison!H49</f>
-        <v>2.6963967270785538</v>
+        <v>5.1228788880663068</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -5994,11 +6035,11 @@
       </c>
       <c r="C49" s="30">
         <f>+Earnings_Comparison!E50</f>
-        <v>809.76</v>
+        <v>821.14</v>
       </c>
       <c r="D49" s="29">
         <f>+Earnings_Comparison!H50</f>
-        <v>-1.7358646667118505</v>
+        <v>-0.58111146522916712</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -6011,11 +6052,11 @@
       </c>
       <c r="C50" s="30">
         <f>+Earnings_Comparison!E51</f>
-        <v>929.43</v>
+        <v>955.96</v>
       </c>
       <c r="D50" s="29">
         <f>+Earnings_Comparison!H51</f>
-        <v>-2.0802761260702574</v>
+        <v>-0.38460703019946862</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -6028,11 +6069,11 @@
       </c>
       <c r="C51" s="30">
         <f>+Earnings_Comparison!E52</f>
-        <v>1070.8699999999999</v>
+        <v>1109.08</v>
       </c>
       <c r="D51" s="29">
         <f>+Earnings_Comparison!H52</f>
-        <v>1.9386828292423663</v>
+        <v>4.9974356044612422</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -6045,11 +6086,11 @@
       </c>
       <c r="C52" s="30">
         <f>+Earnings_Comparison!E53</f>
-        <v>762.55</v>
+        <v>780.12</v>
       </c>
       <c r="D52" s="29">
         <f>+Earnings_Comparison!H53</f>
-        <v>3.6732997018352531</v>
+        <v>4.2933053876920368</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -6062,11 +6103,11 @@
       </c>
       <c r="C53" s="30">
         <f>+Earnings_Comparison!E54</f>
-        <v>814.92</v>
+        <v>839.95</v>
       </c>
       <c r="D53" s="29">
         <f>+Earnings_Comparison!H54</f>
-        <v>0.43619621162769295</v>
+        <v>1.9549776190133317</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -6079,11 +6120,11 @@
       </c>
       <c r="C54" s="30">
         <f>+Earnings_Comparison!E55</f>
-        <v>818.15</v>
+        <v>835.18</v>
       </c>
       <c r="D54" s="29">
         <f>+Earnings_Comparison!H55</f>
-        <v>7.836626279745218</v>
+        <v>8.3233379602161151</v>
       </c>
     </row>
   </sheetData>
@@ -6099,11 +6140,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K52" sqref="K52"/>
+      <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6122,10 +6163,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="51"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
@@ -6146,14 +6187,14 @@
         <v>2</v>
       </c>
       <c r="D4" s="44">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="E4" s="45">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>57</v>
@@ -6196,26 +6237,26 @@
         <v>3</v>
       </c>
       <c r="D5" s="36">
-        <f>'June 2017_BLS Data Series'!G5</f>
-        <v>778.26</v>
+        <f>'July 2017_BLS Data Series'!H5</f>
+        <v>782.13</v>
       </c>
       <c r="E5" s="42">
-        <f>'June 2017_BLS Data Series'!S5</f>
-        <v>785.62</v>
+        <f>'July 2017_BLS Data Series'!T5</f>
+        <v>799.46</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34">
         <f>D5/$G$61</f>
-        <v>790.97278336057889</v>
+        <v>795.6450379008262</v>
       </c>
       <c r="H5" s="11">
         <f>((E5/G5)-1)*100</f>
-        <v>-0.67673420289339203</v>
+        <v>0.47948041116914197</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="29">
         <f>E5-D5</f>
-        <v>7.3600000000000136</v>
+        <v>17.330000000000041</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -6231,26 +6272,26 @@
         <v>4</v>
       </c>
       <c r="D6" s="36">
-        <f>'June 2017_BLS Data Series'!G6</f>
-        <v>961.19</v>
+        <f>'July 2017_BLS Data Series'!H6</f>
+        <v>989.87</v>
       </c>
       <c r="E6" s="42">
-        <f>'June 2017_BLS Data Series'!S6</f>
-        <v>981.58</v>
+        <f>'July 2017_BLS Data Series'!T6</f>
+        <v>1027.1099999999999</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34">
         <f t="shared" ref="G6:G55" si="0">D6/$G$61</f>
-        <v>976.89092287712958</v>
+        <v>1006.9747403460944</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" ref="H6:H55" si="1">((E6/G6)-1)*100</f>
-        <v>0.48000007094550767</v>
+        <v>1.9995794181475679</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="29">
         <f t="shared" ref="J6:J55" si="2">E6-D6</f>
-        <v>20.389999999999986</v>
+        <v>37.239999999999895</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -6266,26 +6307,26 @@
         <v>5</v>
       </c>
       <c r="D7" s="36">
-        <f>'June 2017_BLS Data Series'!G7</f>
-        <v>817.69</v>
+        <f>'July 2017_BLS Data Series'!H7</f>
+        <v>814.28</v>
       </c>
       <c r="E7" s="42">
-        <f>'June 2017_BLS Data Series'!S7</f>
-        <v>863.08</v>
+        <f>'July 2017_BLS Data Series'!T7</f>
+        <v>898.1</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34">
         <f t="shared" si="0"/>
-        <v>831.04686766133659</v>
+        <v>828.35058297454987</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="1"/>
-        <v>3.8545518411986057</v>
+        <v>8.4202774114052978</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="29">
         <f t="shared" si="2"/>
-        <v>45.389999999999986</v>
+        <v>83.82000000000005</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -6301,26 +6342,26 @@
         <v>6</v>
       </c>
       <c r="D8" s="36">
-        <f>'June 2017_BLS Data Series'!G8</f>
-        <v>685.25</v>
+        <f>'July 2017_BLS Data Series'!H8</f>
+        <v>698.92</v>
       </c>
       <c r="E8" s="42">
-        <f>'June 2017_BLS Data Series'!S8</f>
-        <v>714.35</v>
+        <f>'July 2017_BLS Data Series'!T8</f>
+        <v>724.46</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34">
         <f t="shared" si="0"/>
-        <v>696.44347621339489</v>
+        <v>710.99718702727864</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="1"/>
-        <v>2.5711381322665261</v>
+        <v>1.8935114256935615</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="29">
         <f t="shared" si="2"/>
-        <v>29.100000000000023</v>
+        <v>25.540000000000077</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -6336,26 +6377,26 @@
         <v>7</v>
       </c>
       <c r="D9" s="36">
-        <f>'June 2017_BLS Data Series'!G9</f>
-        <v>980.64</v>
+        <f>'July 2017_BLS Data Series'!H9</f>
+        <v>988.31</v>
       </c>
       <c r="E9" s="42">
-        <f>'June 2017_BLS Data Series'!S9</f>
-        <v>1021.34</v>
+        <f>'July 2017_BLS Data Series'!T9</f>
+        <v>1061.28</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34">
         <f t="shared" si="0"/>
-        <v>996.65863628442696</v>
+        <v>1005.387783882175</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="1"/>
-        <v>2.4764109612882113</v>
+        <v>5.5592694693389344</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="29">
         <f t="shared" si="2"/>
-        <v>40.700000000000045</v>
+        <v>72.970000000000027</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -6371,26 +6412,26 @@
         <v>8</v>
       </c>
       <c r="D10" s="36">
-        <f>'June 2017_BLS Data Series'!G10</f>
-        <v>903.16</v>
+        <f>'July 2017_BLS Data Series'!H10</f>
+        <v>899.76</v>
       </c>
       <c r="E10" s="42">
-        <f>'June 2017_BLS Data Series'!S10</f>
-        <v>914.85</v>
+        <f>'July 2017_BLS Data Series'!T10</f>
+        <v>953.57</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34">
         <f t="shared" si="0"/>
-        <v>917.91300981669417</v>
+        <v>915.30765895905711</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="1"/>
-        <v>-0.33369282099028341</v>
+        <v>4.1802710450885128</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="29">
         <f t="shared" si="2"/>
-        <v>11.690000000000055</v>
+        <v>53.810000000000059</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -6406,26 +6447,26 @@
         <v>9</v>
       </c>
       <c r="D11" s="36">
-        <f>'June 2017_BLS Data Series'!G11</f>
-        <v>1009.34</v>
+        <f>'July 2017_BLS Data Series'!H11</f>
+        <v>1014.05</v>
       </c>
       <c r="E11" s="42">
-        <f>'June 2017_BLS Data Series'!S11</f>
-        <v>1030.51</v>
+        <f>'July 2017_BLS Data Series'!T11</f>
+        <v>1058.95</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34">
         <f t="shared" si="0"/>
-        <v>1025.8274473275856</v>
+        <v>1031.5725655368453</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="1"/>
-        <v>0.45646591779280321</v>
+        <v>2.653951392058107</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="29">
         <f t="shared" si="2"/>
-        <v>21.169999999999959</v>
+        <v>44.900000000000091</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -6441,26 +6482,26 @@
         <v>10</v>
       </c>
       <c r="D12" s="36">
-        <f>'June 2017_BLS Data Series'!G12</f>
-        <v>793.58</v>
+        <f>'July 2017_BLS Data Series'!H12</f>
+        <v>801.36</v>
       </c>
       <c r="E12" s="42">
-        <f>'June 2017_BLS Data Series'!S12</f>
-        <v>820.33</v>
+        <f>'July 2017_BLS Data Series'!T12</f>
+        <v>911.09</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34">
         <f t="shared" si="0"/>
-        <v>806.54303371532421</v>
+        <v>815.20732815798658</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="1"/>
-        <v>1.7093900397560313</v>
+        <v>11.761752934516245</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="29">
         <f t="shared" si="2"/>
-        <v>26.75</v>
+        <v>109.73000000000002</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -6476,26 +6517,26 @@
         <v>11</v>
       </c>
       <c r="D13" s="36">
-        <f>'June 2017_BLS Data Series'!G13</f>
-        <v>1347.46</v>
+        <f>'July 2017_BLS Data Series'!H13</f>
+        <v>1358.65</v>
       </c>
       <c r="E13" s="42">
-        <f>'June 2017_BLS Data Series'!S13</f>
-        <v>1389.26</v>
+        <f>'July 2017_BLS Data Series'!T13</f>
+        <v>1477.08</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34">
         <f t="shared" si="0"/>
-        <v>1369.4705968018986</v>
+        <v>1382.1271792975049</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="1"/>
-        <v>1.4450403859940675</v>
+        <v>6.8700494516544364</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="29">
         <f t="shared" si="2"/>
-        <v>41.799999999999955</v>
+        <v>118.42999999999984</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -6511,26 +6552,26 @@
         <v>12</v>
       </c>
       <c r="D14" s="36">
-        <f>'June 2017_BLS Data Series'!G14</f>
-        <v>787.5</v>
+        <f>'July 2017_BLS Data Series'!H14</f>
+        <v>785.74</v>
       </c>
       <c r="E14" s="42">
-        <f>'June 2017_BLS Data Series'!S14</f>
-        <v>807.49</v>
+        <f>'July 2017_BLS Data Series'!T14</f>
+        <v>829.38</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34">
         <f t="shared" si="0"/>
-        <v>800.36371764764465</v>
+        <v>799.31741792310129</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="1"/>
-        <v>0.89038048517495749</v>
+        <v>3.761031775713275</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="29">
         <f t="shared" si="2"/>
-        <v>19.990000000000009</v>
+        <v>43.639999999999986</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -6546,26 +6587,26 @@
         <v>13</v>
       </c>
       <c r="D15" s="36">
-        <f>'June 2017_BLS Data Series'!G15</f>
-        <v>843.88</v>
+        <f>'July 2017_BLS Data Series'!H15</f>
+        <v>847.73</v>
       </c>
       <c r="E15" s="42">
-        <f>'June 2017_BLS Data Series'!S15</f>
-        <v>874.87</v>
+        <f>'July 2017_BLS Data Series'!T15</f>
+        <v>911.41</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="34">
         <f t="shared" si="0"/>
-        <v>857.66467815681824</v>
+        <v>862.37859176820655</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="1"/>
-        <v>2.0060662729118439</v>
+        <v>5.6856012776546505</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="29">
         <f t="shared" si="2"/>
-        <v>30.990000000000009</v>
+        <v>63.67999999999995</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -6581,26 +6622,26 @@
         <v>14</v>
       </c>
       <c r="D16" s="36">
-        <f>'June 2017_BLS Data Series'!G16</f>
-        <v>824.9</v>
+        <f>'July 2017_BLS Data Series'!H16</f>
+        <v>837.31</v>
       </c>
       <c r="E16" s="42">
-        <f>'June 2017_BLS Data Series'!S16</f>
-        <v>847.26</v>
+        <f>'July 2017_BLS Data Series'!T16</f>
+        <v>898.78</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34">
         <f t="shared" si="0"/>
-        <v>838.37464214291049</v>
+        <v>851.77853641305251</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="1"/>
-        <v>1.0598314178942969</v>
+        <v>5.518038031913397</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="29">
         <f t="shared" si="2"/>
-        <v>22.360000000000014</v>
+        <v>61.470000000000027</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -6616,26 +6657,26 @@
         <v>15</v>
       </c>
       <c r="D17" s="36">
-        <f>'June 2017_BLS Data Series'!G17</f>
-        <v>730.85</v>
+        <f>'July 2017_BLS Data Series'!H17</f>
+        <v>735.6</v>
       </c>
       <c r="E17" s="42">
-        <f>'June 2017_BLS Data Series'!S17</f>
-        <v>749.49</v>
+        <f>'July 2017_BLS Data Series'!T17</f>
+        <v>770.56</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34">
         <f t="shared" si="0"/>
-        <v>742.78834672099185</v>
+        <v>748.31100952507609</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="1"/>
-        <v>0.9022291893232115</v>
+        <v>2.9732277344208136</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="29">
         <f t="shared" si="2"/>
-        <v>18.639999999999986</v>
+        <v>34.959999999999923</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -6651,26 +6692,26 @@
         <v>16</v>
       </c>
       <c r="D18" s="36">
-        <f>'June 2017_BLS Data Series'!G18</f>
-        <v>898.78</v>
+        <f>'July 2017_BLS Data Series'!H18</f>
+        <v>900.92</v>
       </c>
       <c r="E18" s="42">
-        <f>'June 2017_BLS Data Series'!S18</f>
-        <v>908.61</v>
+        <f>'July 2017_BLS Data Series'!T18</f>
+        <v>927.77</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34">
         <f t="shared" si="0"/>
-        <v>913.46146304425395</v>
+        <v>916.48770350915106</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="1"/>
-        <v>-0.53110757711504197</v>
+        <v>1.2310363191617268</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="29">
         <f t="shared" si="2"/>
-        <v>9.8300000000000409</v>
+        <v>26.850000000000023</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -6686,26 +6727,26 @@
         <v>17</v>
       </c>
       <c r="D19" s="36">
-        <f>'June 2017_BLS Data Series'!G19</f>
-        <v>805.04</v>
+        <f>'July 2017_BLS Data Series'!H19</f>
+        <v>811.63</v>
       </c>
       <c r="E19" s="42">
-        <f>'June 2017_BLS Data Series'!S19</f>
-        <v>851.65</v>
+        <f>'July 2017_BLS Data Series'!T19</f>
+        <v>865.56</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34">
         <f t="shared" si="0"/>
-        <v>818.19023143499658</v>
+        <v>825.65479154545608</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>4.0894852174315766</v>
+        <v>4.8331589501042549</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="29">
         <f t="shared" si="2"/>
-        <v>46.610000000000014</v>
+        <v>53.92999999999995</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -6721,26 +6762,26 @@
         <v>18</v>
       </c>
       <c r="D20" s="36">
-        <f>'June 2017_BLS Data Series'!G20</f>
-        <v>820.99</v>
+        <f>'July 2017_BLS Data Series'!H20</f>
+        <v>809.8</v>
       </c>
       <c r="E20" s="42">
-        <f>'June 2017_BLS Data Series'!S20</f>
-        <v>798.22</v>
+        <f>'July 2017_BLS Data Series'!T20</f>
+        <v>811.98</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34">
         <f t="shared" si="0"/>
-        <v>834.40077276386</v>
+        <v>823.79316953970442</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="1"/>
-        <v>-4.3361384534694514</v>
+        <v>-1.4339970245571543</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="29">
         <f t="shared" si="2"/>
-        <v>-22.769999999999982</v>
+        <v>2.1800000000000637</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -6756,26 +6797,26 @@
         <v>19</v>
       </c>
       <c r="D21" s="36">
-        <f>'June 2017_BLS Data Series'!G21</f>
-        <v>763.3</v>
+        <f>'July 2017_BLS Data Series'!H21</f>
+        <v>766.92</v>
       </c>
       <c r="E21" s="42">
-        <f>'June 2017_BLS Data Series'!S21</f>
-        <v>782.15</v>
+        <f>'July 2017_BLS Data Series'!T21</f>
+        <v>798.91</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="34">
         <f t="shared" si="0"/>
-        <v>775.76841356247246</v>
+        <v>780.17221237761191</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="1"/>
-        <v>0.82261488428254648</v>
+        <v>2.401750193753216</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="29">
         <f t="shared" si="2"/>
-        <v>18.850000000000023</v>
+        <v>31.990000000000009</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -6791,26 +6832,26 @@
         <v>20</v>
       </c>
       <c r="D22" s="36">
-        <f>'June 2017_BLS Data Series'!G22</f>
-        <v>749.05</v>
+        <f>'July 2017_BLS Data Series'!H22</f>
+        <v>747.65</v>
       </c>
       <c r="E22" s="42">
-        <f>'June 2017_BLS Data Series'!S22</f>
-        <v>759.85</v>
+        <f>'July 2017_BLS Data Series'!T22</f>
+        <v>774.84</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34">
         <f t="shared" si="0"/>
-        <v>761.28564152884849</v>
+        <v>760.56923092906891</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="1"/>
-        <v>-0.18858119088721592</v>
+        <v>1.87632742564392</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="29">
         <f t="shared" si="2"/>
-        <v>10.800000000000068</v>
+        <v>27.190000000000055</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
@@ -6826,26 +6867,26 @@
         <v>21</v>
       </c>
       <c r="D23" s="36">
-        <f>'June 2017_BLS Data Series'!G23</f>
-        <v>790.94</v>
+        <f>'July 2017_BLS Data Series'!H23</f>
+        <v>789.4</v>
       </c>
       <c r="E23" s="42">
-        <f>'June 2017_BLS Data Series'!S23</f>
-        <v>806.06</v>
+        <f>'July 2017_BLS Data Series'!T23</f>
+        <v>828.21</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34">
         <f t="shared" si="0"/>
-        <v>803.85990963330551</v>
+        <v>803.04066193460449</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="1"/>
-        <v>0.27369076879304455</v>
+        <v>3.1342544977436271</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="29">
         <f t="shared" si="2"/>
-        <v>15.119999999999891</v>
+        <v>38.810000000000059</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -6861,26 +6902,26 @@
         <v>22</v>
       </c>
       <c r="D24" s="36">
-        <f>'June 2017_BLS Data Series'!G24</f>
-        <v>741.73</v>
+        <f>'July 2017_BLS Data Series'!H24</f>
+        <v>740.18</v>
       </c>
       <c r="E24" s="42">
-        <f>'June 2017_BLS Data Series'!S24</f>
-        <v>780.1</v>
+        <f>'July 2017_BLS Data Series'!T24</f>
+        <v>785.22</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="34">
         <f t="shared" si="0"/>
-        <v>753.84607021052375</v>
+        <v>752.97015093837786</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="1"/>
-        <v>3.4826645421318414</v>
+        <v>4.2830182606085065</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="29">
         <f t="shared" si="2"/>
-        <v>38.370000000000005</v>
+        <v>45.040000000000077</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -6896,26 +6937,26 @@
         <v>23</v>
       </c>
       <c r="D25" s="36">
-        <f>'June 2017_BLS Data Series'!G25</f>
-        <v>926.74</v>
+        <f>'July 2017_BLS Data Series'!H25</f>
+        <v>928.16</v>
       </c>
       <c r="E25" s="42">
-        <f>'June 2017_BLS Data Series'!S25</f>
-        <v>945.65</v>
+        <f>'July 2017_BLS Data Series'!T25</f>
+        <v>970.14</v>
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="34">
         <f t="shared" si="0"/>
-        <v>941.87818627654372</v>
+        <v>944.19840484066685</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="1"/>
-        <v>0.40045663849239688</v>
+        <v>2.7474728856072161</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="29">
         <f t="shared" si="2"/>
-        <v>18.909999999999968</v>
+        <v>41.980000000000018</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -6931,26 +6972,26 @@
         <v>24</v>
       </c>
       <c r="D26" s="36">
-        <f>'June 2017_BLS Data Series'!G26</f>
-        <v>1029.46</v>
+        <f>'July 2017_BLS Data Series'!H26</f>
+        <v>1035.8900000000001</v>
       </c>
       <c r="E26" s="42">
-        <f>'June 2017_BLS Data Series'!S26</f>
-        <v>1054.77</v>
+        <f>'July 2017_BLS Data Series'!T26</f>
+        <v>1077.05</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34">
         <f t="shared" si="0"/>
-        <v>1046.2761051041832</v>
+        <v>1053.7899560317171</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>0.8118215501988324</v>
+        <v>2.2072751628677389</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="29">
         <f t="shared" si="2"/>
-        <v>25.309999999999945</v>
+        <v>41.159999999999854</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -6966,26 +7007,26 @@
         <v>25</v>
       </c>
       <c r="D27" s="36">
-        <f>'June 2017_BLS Data Series'!G27</f>
-        <v>816.66</v>
+        <f>'July 2017_BLS Data Series'!H27</f>
+        <v>821.47</v>
       </c>
       <c r="E27" s="42">
-        <f>'June 2017_BLS Data Series'!S27</f>
-        <v>799.03</v>
+        <f>'July 2017_BLS Data Series'!T27</f>
+        <v>852.95</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="34">
         <f t="shared" si="0"/>
-        <v>830.00004273539741</v>
+        <v>835.66482462556314</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="1"/>
-        <v>-3.7313302579275454</v>
+        <v>2.0684340018956693</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="29">
         <f t="shared" si="2"/>
-        <v>-17.629999999999995</v>
+        <v>31.480000000000018</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -7001,26 +7042,26 @@
         <v>26</v>
       </c>
       <c r="D28" s="36">
-        <f>'June 2017_BLS Data Series'!G28</f>
-        <v>913.75</v>
+        <f>'July 2017_BLS Data Series'!H28</f>
+        <v>919</v>
       </c>
       <c r="E28" s="42">
-        <f>'June 2017_BLS Data Series'!S28</f>
-        <v>954.52</v>
+        <f>'July 2017_BLS Data Series'!T28</f>
+        <v>977.99</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="34">
         <f t="shared" si="0"/>
-        <v>928.67599619115583</v>
+        <v>934.8801220140632</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="1"/>
-        <v>2.7828870257054161</v>
+        <v>4.6112733569586339</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="29">
         <f t="shared" si="2"/>
-        <v>40.769999999999982</v>
+        <v>58.990000000000009</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -7036,26 +7077,26 @@
         <v>27</v>
       </c>
       <c r="D29" s="36">
-        <f>'June 2017_BLS Data Series'!G29</f>
-        <v>687.93</v>
+        <f>'July 2017_BLS Data Series'!H29</f>
+        <v>700.79</v>
       </c>
       <c r="E29" s="42">
-        <f>'June 2017_BLS Data Series'!S29</f>
-        <v>703.93</v>
+        <f>'July 2017_BLS Data Series'!T29</f>
+        <v>715.97</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34">
         <f t="shared" si="0"/>
-        <v>699.16725369059566</v>
+        <v>712.8995002244128</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="1"/>
-        <v>0.68120271426670431</v>
+        <v>0.43070583926916317</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="29">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15.180000000000064</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -7071,26 +7112,26 @@
         <v>28</v>
       </c>
       <c r="D30" s="36">
-        <f>'June 2017_BLS Data Series'!G30</f>
-        <v>738.93</v>
+        <f>'July 2017_BLS Data Series'!H30</f>
+        <v>746.59</v>
       </c>
       <c r="E30" s="42">
-        <f>'June 2017_BLS Data Series'!S30</f>
-        <v>792.61</v>
+        <f>'July 2017_BLS Data Series'!T30</f>
+        <v>822.17</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="34">
         <f t="shared" si="0"/>
-        <v>751.00033254777645</v>
+        <v>759.49091435743139</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="1"/>
-        <v>5.540565782582596</v>
+        <v>8.2527762291400464</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="29">
         <f t="shared" si="2"/>
-        <v>53.680000000000064</v>
+        <v>75.579999999999927</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
@@ -7106,26 +7147,26 @@
         <v>29</v>
       </c>
       <c r="D31" s="36">
-        <f>'June 2017_BLS Data Series'!G31</f>
-        <v>732.5</v>
+        <f>'July 2017_BLS Data Series'!H31</f>
+        <v>739.36</v>
       </c>
       <c r="E31" s="42">
-        <f>'June 2017_BLS Data Series'!S31</f>
-        <v>760.91</v>
+        <f>'July 2017_BLS Data Series'!T31</f>
+        <v>778.08</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="34">
         <f t="shared" si="0"/>
-        <v>744.46529927225356</v>
+        <v>752.13598151503572</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="1"/>
-        <v>2.2089277692085574</v>
+        <v>3.449378719085483</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="29">
         <f t="shared" si="2"/>
-        <v>28.409999999999968</v>
+        <v>38.720000000000027</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -7141,26 +7182,26 @@
         <v>30</v>
       </c>
       <c r="D32" s="36">
-        <f>'June 2017_BLS Data Series'!G32</f>
-        <v>779.08</v>
+        <f>'July 2017_BLS Data Series'!H32</f>
+        <v>782.68</v>
       </c>
       <c r="E32" s="42">
-        <f>'June 2017_BLS Data Series'!S32</f>
-        <v>818.03</v>
+        <f>'July 2017_BLS Data Series'!T32</f>
+        <v>836.97</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="34">
         <f t="shared" si="0"/>
-        <v>791.80617796181207</v>
+        <v>796.20454178233615</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="1"/>
-        <v>3.3118991450269641</v>
+        <v>5.1199730820937983</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="29">
         <f t="shared" si="2"/>
-        <v>38.949999999999932</v>
+        <v>54.290000000000077</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -7176,26 +7217,26 @@
         <v>31</v>
       </c>
       <c r="D33" s="36">
-        <f>'June 2017_BLS Data Series'!G33</f>
-        <v>750.38</v>
+        <f>'July 2017_BLS Data Series'!H33</f>
+        <v>748.3</v>
       </c>
       <c r="E33" s="42">
-        <f>'June 2017_BLS Data Series'!S33</f>
-        <v>763.16</v>
+        <f>'July 2017_BLS Data Series'!T33</f>
+        <v>775.73</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34">
         <f t="shared" si="0"/>
-        <v>762.63736691865336</v>
+        <v>761.2304627890353</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="1"/>
-        <v>6.8529697601649175E-2</v>
+        <v>1.9047499961891479</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="29">
         <f t="shared" si="2"/>
-        <v>12.779999999999973</v>
+        <v>27.430000000000064</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -7211,26 +7252,26 @@
         <v>32</v>
       </c>
       <c r="D34" s="36">
-        <f>'June 2017_BLS Data Series'!G34</f>
-        <v>846.21</v>
+        <f>'July 2017_BLS Data Series'!H34</f>
+        <v>852.38</v>
       </c>
       <c r="E34" s="42">
-        <f>'June 2017_BLS Data Series'!S34</f>
-        <v>878.22</v>
+        <f>'July 2017_BLS Data Series'!T34</f>
+        <v>874.79</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="34">
         <f t="shared" si="0"/>
-        <v>860.03273842617568</v>
+        <v>867.10894276642784</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="1"/>
-        <v>2.1147173544935338</v>
+        <v>0.8858237823111903</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="29">
         <f t="shared" si="2"/>
-        <v>32.009999999999991</v>
+        <v>22.409999999999968</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
@@ -7246,26 +7287,26 @@
         <v>33</v>
       </c>
       <c r="D35" s="36">
-        <f>'June 2017_BLS Data Series'!G35</f>
-        <v>941.4</v>
+        <f>'July 2017_BLS Data Series'!H35</f>
+        <v>946.28</v>
       </c>
       <c r="E35" s="42">
-        <f>'June 2017_BLS Data Series'!S35</f>
-        <v>999.32</v>
+        <f>'July 2017_BLS Data Series'!T35</f>
+        <v>1000.84</v>
       </c>
       <c r="F35" s="34"/>
       <c r="G35" s="34">
         <f t="shared" si="0"/>
-        <v>956.77765561078422</v>
+        <v>962.63151453696162</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="1"/>
-        <v>4.4464190964051964</v>
+        <v>3.9691704339658074</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="29">
         <f t="shared" si="2"/>
-        <v>57.920000000000073</v>
+        <v>54.560000000000059</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -7281,26 +7322,26 @@
         <v>34</v>
       </c>
       <c r="D36" s="36">
-        <f>'June 2017_BLS Data Series'!G36</f>
-        <v>678.69</v>
+        <f>'July 2017_BLS Data Series'!H36</f>
+        <v>684.74</v>
       </c>
       <c r="E36" s="42">
-        <f>'June 2017_BLS Data Series'!S36</f>
-        <v>706.82</v>
+        <f>'July 2017_BLS Data Series'!T36</f>
+        <v>725.9</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="34">
         <f t="shared" si="0"/>
-        <v>689.77631940353012</v>
+        <v>696.57215968216497</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="1"/>
-        <v>2.4708996405107264</v>
+        <v>4.2103089981685216</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="29">
         <f t="shared" si="2"/>
-        <v>28.129999999999995</v>
+        <v>41.159999999999968</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -7316,26 +7357,26 @@
         <v>35</v>
       </c>
       <c r="D37" s="36">
-        <f>'June 2017_BLS Data Series'!G37</f>
-        <v>962.12</v>
+        <f>'July 2017_BLS Data Series'!H37</f>
+        <v>977.3</v>
       </c>
       <c r="E37" s="42">
-        <f>'June 2017_BLS Data Series'!S37</f>
-        <v>991.65</v>
+        <f>'July 2017_BLS Data Series'!T37</f>
+        <v>1013.7</v>
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="34">
         <f t="shared" si="0"/>
-        <v>977.83611431511349</v>
+        <v>994.18753345412836</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="1"/>
-        <v>1.4126994782312607</v>
+        <v>1.9626545183159871</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="29">
         <f t="shared" si="2"/>
-        <v>29.529999999999973</v>
+        <v>36.400000000000091</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
@@ -7351,26 +7392,26 @@
         <v>36</v>
       </c>
       <c r="D38" s="36">
-        <f>'June 2017_BLS Data Series'!G38</f>
-        <v>801.52</v>
+        <f>'July 2017_BLS Data Series'!H38</f>
+        <v>803.16</v>
       </c>
       <c r="E38" s="42">
-        <f>'June 2017_BLS Data Series'!S38</f>
-        <v>823.48</v>
+        <f>'July 2017_BLS Data Series'!T38</f>
+        <v>841.46</v>
       </c>
       <c r="F38" s="34"/>
       <c r="G38" s="34">
         <f t="shared" si="0"/>
-        <v>814.61273265897159</v>
+        <v>817.03843177020133</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="1"/>
-        <v>1.0885255024292162</v>
+        <v>2.9890354333622637</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="29">
         <f t="shared" si="2"/>
-        <v>21.960000000000036</v>
+        <v>38.300000000000068</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -7386,26 +7427,26 @@
         <v>37</v>
       </c>
       <c r="D39" s="36">
-        <f>'June 2017_BLS Data Series'!G39</f>
-        <v>878.84</v>
+        <f>'July 2017_BLS Data Series'!H39</f>
+        <v>891.58</v>
       </c>
       <c r="E39" s="42">
-        <f>'June 2017_BLS Data Series'!S39</f>
-        <v>921.94</v>
+        <f>'July 2017_BLS Data Series'!T39</f>
+        <v>942.73</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="34">
         <f t="shared" si="0"/>
-        <v>893.19574554597591</v>
+        <v>906.98631032132596</v>
       </c>
       <c r="H39" s="11">
         <f t="shared" si="1"/>
-        <v>3.218136068981603</v>
+        <v>3.9409293472148166</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="29">
         <f t="shared" si="2"/>
-        <v>43.100000000000023</v>
+        <v>51.149999999999977</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
@@ -7421,26 +7462,26 @@
         <v>38</v>
       </c>
       <c r="D40" s="36">
-        <f>'June 2017_BLS Data Series'!G40</f>
-        <v>794.05</v>
+        <f>'July 2017_BLS Data Series'!H40</f>
+        <v>800.22</v>
       </c>
       <c r="E40" s="42">
-        <f>'June 2017_BLS Data Series'!S40</f>
-        <v>812.87</v>
+        <f>'July 2017_BLS Data Series'!T40</f>
+        <v>822.17</v>
       </c>
       <c r="F40" s="34"/>
       <c r="G40" s="34">
         <f t="shared" si="0"/>
-        <v>807.02071110871384</v>
+        <v>814.04762920358405</v>
       </c>
       <c r="H40" s="11">
         <f t="shared" si="1"/>
-        <v>0.72480034412625294</v>
+        <v>0.99777586777844984</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="29">
         <f t="shared" si="2"/>
-        <v>18.82000000000005</v>
+        <v>21.949999999999932</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -7456,26 +7497,26 @@
         <v>39</v>
       </c>
       <c r="D41" s="36">
-        <f>'June 2017_BLS Data Series'!G41</f>
-        <v>762.65</v>
+        <f>'July 2017_BLS Data Series'!H41</f>
+        <v>777.22</v>
       </c>
       <c r="E41" s="42">
-        <f>'June 2017_BLS Data Series'!S41</f>
-        <v>804.79</v>
+        <f>'July 2017_BLS Data Series'!T41</f>
+        <v>833.69</v>
       </c>
       <c r="F41" s="34"/>
       <c r="G41" s="34">
         <f t="shared" si="0"/>
-        <v>775.10779589076333</v>
+        <v>790.65019415861832</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="1"/>
-        <v>3.829429179605337</v>
+        <v>5.4435964424423</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="29">
         <f t="shared" si="2"/>
-        <v>42.139999999999986</v>
+        <v>56.470000000000027</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
@@ -7491,26 +7532,26 @@
         <v>40</v>
       </c>
       <c r="D42" s="36">
-        <f>'June 2017_BLS Data Series'!G42</f>
-        <v>834.14</v>
+        <f>'July 2017_BLS Data Series'!H42</f>
+        <v>844.86</v>
       </c>
       <c r="E42" s="42">
-        <f>'June 2017_BLS Data Series'!S42</f>
-        <v>858.5</v>
+        <f>'July 2017_BLS Data Series'!T42</f>
+        <v>888.79</v>
       </c>
       <c r="F42" s="34"/>
       <c r="G42" s="34">
         <f t="shared" si="0"/>
-        <v>847.76557642997625</v>
+        <v>859.45899878650869</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" si="1"/>
-        <v>1.2662018685905441</v>
+        <v>3.412728385519781</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="29">
         <f t="shared" si="2"/>
-        <v>24.360000000000014</v>
+        <v>43.92999999999995</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
@@ -7526,26 +7567,26 @@
         <v>41</v>
       </c>
       <c r="D43" s="36">
-        <f>'June 2017_BLS Data Series'!G43</f>
-        <v>824.72</v>
+        <f>'July 2017_BLS Data Series'!H43</f>
+        <v>831.48</v>
       </c>
       <c r="E43" s="42">
-        <f>'June 2017_BLS Data Series'!S43</f>
-        <v>837.23</v>
+        <f>'July 2017_BLS Data Series'!T43</f>
+        <v>848.64</v>
       </c>
       <c r="F43" s="34"/>
       <c r="G43" s="34">
         <f t="shared" si="0"/>
-        <v>838.1917018645911</v>
+        <v>845.84779526904606</v>
       </c>
       <c r="H43" s="11">
         <f t="shared" si="1"/>
-        <v>-0.11473531203562981</v>
+        <v>0.33010723046997814</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="29">
         <f t="shared" si="2"/>
-        <v>12.509999999999991</v>
+        <v>17.159999999999968</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
@@ -7561,26 +7602,26 @@
         <v>42</v>
       </c>
       <c r="D44" s="36">
-        <f>'June 2017_BLS Data Series'!G44</f>
-        <v>848.1</v>
+        <f>'July 2017_BLS Data Series'!H44</f>
+        <v>842.82</v>
       </c>
       <c r="E44" s="42">
-        <f>'June 2017_BLS Data Series'!S44</f>
-        <v>872.52</v>
+        <f>'July 2017_BLS Data Series'!T44</f>
+        <v>877.48</v>
       </c>
       <c r="F44" s="34"/>
       <c r="G44" s="34">
         <f t="shared" si="0"/>
-        <v>861.95361134852999</v>
+        <v>857.38374802599867</v>
       </c>
       <c r="H44" s="11">
         <f t="shared" si="1"/>
-        <v>1.2258651176063617</v>
+        <v>2.34390400101121</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="29">
         <f t="shared" si="2"/>
-        <v>24.419999999999959</v>
+        <v>34.659999999999968</v>
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
@@ -7596,26 +7637,26 @@
         <v>43</v>
       </c>
       <c r="D45" s="36">
-        <f>'June 2017_BLS Data Series'!G45</f>
-        <v>763.62</v>
+        <f>'July 2017_BLS Data Series'!H45</f>
+        <v>754.39</v>
       </c>
       <c r="E45" s="42">
-        <f>'June 2017_BLS Data Series'!S45</f>
-        <v>785.25</v>
+        <f>'July 2017_BLS Data Series'!T45</f>
+        <v>797.81</v>
       </c>
       <c r="F45" s="34"/>
       <c r="G45" s="34">
         <f t="shared" si="0"/>
-        <v>776.09364072392941</v>
+        <v>767.42569667702844</v>
       </c>
       <c r="H45" s="11">
         <f t="shared" si="1"/>
-        <v>1.1798008378898217</v>
+        <v>3.9592501859836426</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="29">
         <f t="shared" si="2"/>
-        <v>21.629999999999995</v>
+        <v>43.419999999999959</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
@@ -7631,26 +7672,26 @@
         <v>44</v>
       </c>
       <c r="D46" s="36">
-        <f>'June 2017_BLS Data Series'!G46</f>
-        <v>719.68</v>
+        <f>'July 2017_BLS Data Series'!H46</f>
+        <v>727.56</v>
       </c>
       <c r="E46" s="42">
-        <f>'June 2017_BLS Data Series'!S46</f>
-        <v>730.85</v>
+        <f>'July 2017_BLS Data Series'!T46</f>
+        <v>743.97</v>
       </c>
       <c r="F46" s="34"/>
       <c r="G46" s="34">
         <f t="shared" si="0"/>
-        <v>731.43588611638961</v>
+        <v>740.13208005718366</v>
       </c>
       <c r="H46" s="11">
         <f t="shared" si="1"/>
-        <v>-8.0100816422934429E-2</v>
+        <v>0.51854527674572992</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="29">
         <f t="shared" si="2"/>
-        <v>11.170000000000073</v>
+        <v>16.410000000000082</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
@@ -7666,26 +7707,26 @@
         <v>45</v>
       </c>
       <c r="D47" s="36">
-        <f>'June 2017_BLS Data Series'!G47</f>
-        <v>766.47</v>
+        <f>'July 2017_BLS Data Series'!H47</f>
+        <v>773.19</v>
       </c>
       <c r="E47" s="42">
-        <f>'June 2017_BLS Data Series'!S47</f>
-        <v>794.95</v>
+        <f>'July 2017_BLS Data Series'!T47</f>
+        <v>805.98</v>
       </c>
       <c r="F47" s="34"/>
       <c r="G47" s="34">
         <f t="shared" si="0"/>
-        <v>778.99019513065423</v>
+        <v>786.55055662682651</v>
       </c>
       <c r="H47" s="11">
         <f t="shared" si="1"/>
-        <v>2.0487812258880966</v>
+        <v>2.4702090932969378</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="29">
         <f t="shared" si="2"/>
-        <v>28.480000000000018</v>
+        <v>32.789999999999964</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
@@ -7701,26 +7742,26 @@
         <v>46</v>
       </c>
       <c r="D48" s="36">
-        <f>'June 2017_BLS Data Series'!G48</f>
-        <v>870.3</v>
+        <f>'July 2017_BLS Data Series'!H48</f>
+        <v>870.72</v>
       </c>
       <c r="E48" s="42">
-        <f>'June 2017_BLS Data Series'!S48</f>
-        <v>894.28</v>
+        <f>'July 2017_BLS Data Series'!T48</f>
+        <v>930.75</v>
       </c>
       <c r="F48" s="34"/>
       <c r="G48" s="34">
         <f t="shared" si="0"/>
-        <v>884.51624567459692</v>
+        <v>885.76585401532657</v>
       </c>
       <c r="H48" s="11">
         <f t="shared" si="1"/>
-        <v>1.1038524586913123</v>
+        <v>5.0785595065279132</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="29">
         <f t="shared" si="2"/>
-        <v>23.980000000000018</v>
+        <v>60.029999999999973</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
@@ -7736,26 +7777,26 @@
         <v>47</v>
       </c>
       <c r="D49" s="36">
-        <f>'June 2017_BLS Data Series'!G49</f>
-        <v>841.12</v>
+        <f>'July 2017_BLS Data Series'!H49</f>
+        <v>844.6</v>
       </c>
       <c r="E49" s="42">
-        <f>'June 2017_BLS Data Series'!S49</f>
-        <v>877.91</v>
+        <f>'July 2017_BLS Data Series'!T49</f>
+        <v>903.21</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="34">
         <f t="shared" si="0"/>
-        <v>854.85959388925312</v>
+        <v>859.19450604252211</v>
       </c>
       <c r="H49" s="11">
         <f t="shared" si="1"/>
-        <v>2.6963967270785538</v>
+        <v>5.1228788880663068</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="29">
         <f t="shared" si="2"/>
-        <v>36.789999999999964</v>
+        <v>58.610000000000014</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
@@ -7771,26 +7812,26 @@
         <v>48</v>
       </c>
       <c r="D50" s="36">
-        <f>'June 2017_BLS Data Series'!G50</f>
-        <v>810.82</v>
+        <f>'July 2017_BLS Data Series'!H50</f>
+        <v>811.91</v>
       </c>
       <c r="E50" s="42">
-        <f>'June 2017_BLS Data Series'!S50</f>
-        <v>809.76</v>
+        <f>'July 2017_BLS Data Series'!T50</f>
+        <v>821.14</v>
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="34">
         <f t="shared" si="0"/>
-        <v>824.06464703881045</v>
+        <v>825.93962988513385</v>
       </c>
       <c r="H50" s="11">
         <f t="shared" si="1"/>
-        <v>-1.7358646667118505</v>
+        <v>-0.58111146522916712</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="29">
         <f t="shared" si="2"/>
-        <v>-1.0600000000000591</v>
+        <v>9.2300000000000182</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -7806,26 +7847,26 @@
         <v>49</v>
       </c>
       <c r="D51" s="36">
-        <f>'June 2017_BLS Data Series'!G51</f>
-        <v>933.92</v>
+        <f>'July 2017_BLS Data Series'!H51</f>
+        <v>943.35</v>
       </c>
       <c r="E51" s="42">
-        <f>'June 2017_BLS Data Series'!S51</f>
-        <v>929.43</v>
+        <f>'July 2017_BLS Data Series'!T51</f>
+        <v>955.96</v>
       </c>
       <c r="F51" s="34"/>
       <c r="G51" s="34">
         <f t="shared" si="0"/>
-        <v>949.17547071173112</v>
+        <v>959.65088476818994</v>
       </c>
       <c r="H51" s="11">
         <f t="shared" si="1"/>
-        <v>-2.0802761260702574</v>
+        <v>-0.38460703019946862</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="29">
         <f t="shared" si="2"/>
-        <v>-4.4900000000000091</v>
+        <v>12.610000000000014</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -7841,26 +7882,26 @@
         <v>50</v>
       </c>
       <c r="D52" s="36">
-        <f>'June 2017_BLS Data Series'!G52</f>
-        <v>1033.6199999999999</v>
+        <f>'July 2017_BLS Data Series'!H52</f>
+        <v>1038.3499999999999</v>
       </c>
       <c r="E52" s="42">
-        <f>'June 2017_BLS Data Series'!S52</f>
-        <v>1070.8699999999999</v>
+        <f>'July 2017_BLS Data Series'!T52</f>
+        <v>1109.08</v>
       </c>
       <c r="F52" s="34"/>
       <c r="G52" s="34">
         <f t="shared" si="0"/>
-        <v>1050.5040582031218</v>
+        <v>1056.2924643017436</v>
       </c>
       <c r="H52" s="11">
         <f t="shared" si="1"/>
-        <v>1.9386828292423663</v>
+        <v>4.9974356044612422</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="29">
         <f t="shared" si="2"/>
-        <v>37.25</v>
+        <v>70.730000000000018</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -7876,26 +7917,26 @@
         <v>51</v>
       </c>
       <c r="D53" s="36">
-        <f>'June 2017_BLS Data Series'!G53</f>
-        <v>723.71</v>
+        <f>'July 2017_BLS Data Series'!H53</f>
+        <v>735.3</v>
       </c>
       <c r="E53" s="42">
-        <f>'June 2017_BLS Data Series'!S53</f>
-        <v>762.55</v>
+        <f>'July 2017_BLS Data Series'!T53</f>
+        <v>780.12</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="34">
         <f t="shared" si="0"/>
-        <v>735.53171568098651</v>
+        <v>748.00582558970689</v>
       </c>
       <c r="H53" s="11">
         <f t="shared" si="1"/>
-        <v>3.6732997018352531</v>
+        <v>4.2933053876920368</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="29">
         <f t="shared" si="2"/>
-        <v>38.839999999999918</v>
+        <v>44.82000000000005</v>
       </c>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
@@ -7911,26 +7952,26 @@
         <v>52</v>
       </c>
       <c r="D54" s="36">
-        <f>'June 2017_BLS Data Series'!G54</f>
-        <v>798.34</v>
+        <f>'July 2017_BLS Data Series'!H54</f>
+        <v>809.85</v>
       </c>
       <c r="E54" s="42">
-        <f>'June 2017_BLS Data Series'!S54</f>
-        <v>814.92</v>
+        <f>'July 2017_BLS Data Series'!T54</f>
+        <v>839.95</v>
       </c>
       <c r="F54" s="34"/>
       <c r="G54" s="34">
         <f t="shared" si="0"/>
-        <v>811.38078774199448</v>
+        <v>823.84403352893264</v>
       </c>
       <c r="H54" s="11">
         <f t="shared" si="1"/>
-        <v>0.43619621162769295</v>
+        <v>1.9549776190133317</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="29">
         <f t="shared" si="2"/>
-        <v>16.579999999999927</v>
+        <v>30.100000000000023</v>
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
@@ -7946,31 +7987,31 @@
         <v>53</v>
       </c>
       <c r="D55" s="36">
-        <f>'June 2017_BLS Data Series'!G55</f>
-        <v>746.5</v>
+        <f>'July 2017_BLS Data Series'!H55</f>
+        <v>757.91</v>
       </c>
       <c r="E55" s="42">
-        <f>'June 2017_BLS Data Series'!S55</f>
-        <v>818.15</v>
+        <f>'July 2017_BLS Data Series'!T55</f>
+        <v>835.18</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="34">
         <f t="shared" si="0"/>
-        <v>758.69398758598948</v>
+        <v>771.00652151869269</v>
       </c>
       <c r="H55" s="11">
         <f t="shared" si="1"/>
-        <v>7.836626279745218</v>
+        <v>8.3233379602161151</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="29">
         <f t="shared" si="2"/>
-        <v>71.649999999999977</v>
+        <v>77.269999999999982</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9">
         <f>COUNTIF(J5:J55,"&lt;0")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -7987,10 +8028,10 @@
         <v>54</v>
       </c>
       <c r="D57" s="44">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="E57" s="45">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -8010,24 +8051,24 @@
         <v>167</v>
       </c>
       <c r="D58" s="43">
-        <v>881.33</v>
+        <v>884.42</v>
       </c>
       <c r="E58" s="43">
-        <v>905.63</v>
+        <v>909.42</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="11">
         <f>D58/$G$61</f>
-        <v>895.72641939606183</v>
+        <v>899.70258706384959</v>
       </c>
       <c r="H58" s="29">
         <f>((E58/G58)-1)*100</f>
-        <v>1.105647928819109</v>
+        <v>1.0800694669405031</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="29">
         <f>((E58/D58)-1)*100</f>
-        <v>2.757196509820381</v>
+        <v>2.8267112910155712</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
@@ -8063,15 +8104,15 @@
         <v>56</v>
       </c>
       <c r="D61" s="43">
-        <v>241.018</v>
-      </c>
-      <c r="E61" s="46">
-        <v>244.95500000000001</v>
+        <v>240.62799999999999</v>
+      </c>
+      <c r="E61" s="43">
+        <v>244.786</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9">
         <f>D61/E61</f>
-        <v>0.98392766018248246</v>
+        <v>0.98301373444559736</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -8132,33 +8173,33 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="48" customWidth="1"/>
-    <col min="2" max="255" width="8" style="48" customWidth="1"/>
-    <col min="256" max="16384" width="9.140625" style="48"/>
+    <col min="1" max="1" width="23" style="47" customWidth="1"/>
+    <col min="2" max="255" width="8" style="47" customWidth="1"/>
+    <col min="256" max="16384" width="9.140625" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -8169,19 +8210,19 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
     </row>
     <row r="4" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
@@ -8316,7 +8357,10 @@
         <v>790.24</v>
       </c>
       <c r="S5" s="36">
-        <v>785.62</v>
+        <v>784.01</v>
+      </c>
+      <c r="T5" s="36">
+        <v>799.46</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -8375,7 +8419,10 @@
         <v>966.38</v>
       </c>
       <c r="S6" s="36">
-        <v>981.58</v>
+        <v>988.53</v>
+      </c>
+      <c r="T6" s="36">
+        <v>1027.1099999999999</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -8434,7 +8481,10 @@
         <v>862.5</v>
       </c>
       <c r="S7" s="36">
-        <v>863.08</v>
+        <v>858.48</v>
+      </c>
+      <c r="T7" s="36">
+        <v>898.1</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -8493,7 +8543,10 @@
         <v>707.92</v>
       </c>
       <c r="S8" s="36">
-        <v>714.35</v>
+        <v>713.01</v>
+      </c>
+      <c r="T8" s="36">
+        <v>724.46</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -8552,7 +8605,10 @@
         <v>1020.43</v>
       </c>
       <c r="S9" s="36">
-        <v>1021.34</v>
+        <v>1020.3</v>
+      </c>
+      <c r="T9" s="36">
+        <v>1061.28</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -8611,7 +8667,10 @@
         <v>917.33</v>
       </c>
       <c r="S10" s="36">
-        <v>914.85</v>
+        <v>920.37</v>
+      </c>
+      <c r="T10" s="36">
+        <v>953.57</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -8670,7 +8729,10 @@
         <v>1042.6099999999999</v>
       </c>
       <c r="S11" s="36">
-        <v>1030.51</v>
+        <v>1034.21</v>
+      </c>
+      <c r="T11" s="36">
+        <v>1058.95</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -8729,7 +8791,10 @@
         <v>814.93</v>
       </c>
       <c r="S12" s="36">
-        <v>820.33</v>
+        <v>893.12</v>
+      </c>
+      <c r="T12" s="36">
+        <v>911.09</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -8788,7 +8853,10 @@
         <v>1392.77</v>
       </c>
       <c r="S13" s="36">
-        <v>1389.26</v>
+        <v>1385.65</v>
+      </c>
+      <c r="T13" s="36">
+        <v>1477.08</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -8847,7 +8915,10 @@
         <v>815.67</v>
       </c>
       <c r="S14" s="36">
-        <v>807.49</v>
+        <v>806.81</v>
+      </c>
+      <c r="T14" s="36">
+        <v>829.38</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -8906,7 +8977,10 @@
         <v>868.02</v>
       </c>
       <c r="S15" s="36">
-        <v>874.87</v>
+        <v>900.28</v>
+      </c>
+      <c r="T15" s="36">
+        <v>911.41</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -8965,10 +9039,13 @@
         <v>846.95</v>
       </c>
       <c r="S16" s="36">
-        <v>847.26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>849.19</v>
+      </c>
+      <c r="T16" s="36">
+        <v>898.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>15</v>
       </c>
@@ -9024,10 +9101,13 @@
         <v>751.41</v>
       </c>
       <c r="S17" s="36">
-        <v>749.49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>748.81</v>
+      </c>
+      <c r="T17" s="36">
+        <v>770.56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>16</v>
       </c>
@@ -9083,10 +9163,13 @@
         <v>900.38</v>
       </c>
       <c r="S18" s="36">
-        <v>908.61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>906.64</v>
+      </c>
+      <c r="T18" s="36">
+        <v>927.77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>17</v>
       </c>
@@ -9142,10 +9225,13 @@
         <v>848.77</v>
       </c>
       <c r="S19" s="36">
-        <v>851.65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>850.66</v>
+      </c>
+      <c r="T19" s="36">
+        <v>865.56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>18</v>
       </c>
@@ -9201,10 +9287,13 @@
         <v>790.02</v>
       </c>
       <c r="S20" s="36">
-        <v>798.22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>796.49</v>
+      </c>
+      <c r="T20" s="36">
+        <v>811.98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>19</v>
       </c>
@@ -9260,10 +9349,13 @@
         <v>774.14</v>
       </c>
       <c r="S21" s="36">
-        <v>782.15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+        <v>783.07</v>
+      </c>
+      <c r="T21" s="36">
+        <v>798.91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>20</v>
       </c>
@@ -9319,10 +9411,13 @@
         <v>756.7</v>
       </c>
       <c r="S22" s="36">
-        <v>759.85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>760.62</v>
+      </c>
+      <c r="T22" s="36">
+        <v>774.84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>21</v>
       </c>
@@ -9378,10 +9473,13 @@
         <v>807.12</v>
       </c>
       <c r="S23" s="36">
-        <v>806.06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <v>803.43</v>
+      </c>
+      <c r="T23" s="36">
+        <v>828.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
         <v>22</v>
       </c>
@@ -9437,10 +9535,13 @@
         <v>793.85</v>
       </c>
       <c r="S24" s="36">
-        <v>780.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+        <v>777.14</v>
+      </c>
+      <c r="T24" s="36">
+        <v>785.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
         <v>23</v>
       </c>
@@ -9496,10 +9597,13 @@
         <v>939.47</v>
       </c>
       <c r="S25" s="36">
-        <v>945.65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <v>944.97</v>
+      </c>
+      <c r="T25" s="36">
+        <v>970.14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>24</v>
       </c>
@@ -9555,10 +9659,13 @@
         <v>1060.1199999999999</v>
       </c>
       <c r="S26" s="36">
-        <v>1054.77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1057.1099999999999</v>
+      </c>
+      <c r="T26" s="36">
+        <v>1077.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>25</v>
       </c>
@@ -9605,19 +9712,22 @@
         <v>843.09</v>
       </c>
       <c r="P27" s="36">
-        <v>808.02</v>
+        <v>842.8</v>
       </c>
       <c r="Q27" s="36">
-        <v>830.13</v>
+        <v>859.46</v>
       </c>
       <c r="R27" s="36">
-        <v>791.25</v>
+        <v>845.64</v>
       </c>
       <c r="S27" s="36">
-        <v>799.03</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+        <v>841.12</v>
+      </c>
+      <c r="T27" s="36">
+        <v>852.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>26</v>
       </c>
@@ -9673,10 +9783,13 @@
         <v>957.68</v>
       </c>
       <c r="S28" s="36">
-        <v>954.52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+        <v>952.75</v>
+      </c>
+      <c r="T28" s="36">
+        <v>977.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>27</v>
       </c>
@@ -9732,10 +9845,13 @@
         <v>697.12</v>
       </c>
       <c r="S29" s="36">
-        <v>703.93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+        <v>703.24</v>
+      </c>
+      <c r="T29" s="36">
+        <v>715.97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
         <v>28</v>
       </c>
@@ -9791,10 +9907,13 @@
         <v>791.28</v>
       </c>
       <c r="S30" s="36">
-        <v>792.61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+        <v>791.95</v>
+      </c>
+      <c r="T30" s="36">
+        <v>822.17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
         <v>29</v>
       </c>
@@ -9850,10 +9969,13 @@
         <v>750.79</v>
       </c>
       <c r="S31" s="36">
-        <v>760.91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <v>757.58</v>
+      </c>
+      <c r="T31" s="36">
+        <v>778.08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
         <v>30</v>
       </c>
@@ -9909,10 +10031,13 @@
         <v>812.89</v>
       </c>
       <c r="S32" s="36">
-        <v>818.03</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+        <v>815.65</v>
+      </c>
+      <c r="T32" s="36">
+        <v>836.97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
         <v>31</v>
       </c>
@@ -9968,10 +10093,13 @@
         <v>761.11</v>
       </c>
       <c r="S33" s="36">
-        <v>763.16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+        <v>763.69</v>
+      </c>
+      <c r="T33" s="36">
+        <v>775.73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
         <v>32</v>
       </c>
@@ -10027,10 +10155,13 @@
         <v>888.52</v>
       </c>
       <c r="S34" s="36">
-        <v>878.22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+        <v>880.8</v>
+      </c>
+      <c r="T34" s="36">
+        <v>874.79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
         <v>33</v>
       </c>
@@ -10086,10 +10217,13 @@
         <v>1007.76</v>
       </c>
       <c r="S35" s="36">
-        <v>999.32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+        <v>993.04</v>
+      </c>
+      <c r="T35" s="36">
+        <v>1000.84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
         <v>34</v>
       </c>
@@ -10147,8 +10281,11 @@
       <c r="S36" s="36">
         <v>706.82</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36" s="36">
+        <v>725.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
         <v>35</v>
       </c>
@@ -10204,10 +10341,13 @@
         <v>991.67</v>
       </c>
       <c r="S37" s="36">
-        <v>991.65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+        <v>992.61</v>
+      </c>
+      <c r="T37" s="36">
+        <v>1013.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>36</v>
       </c>
@@ -10263,10 +10403,13 @@
         <v>825.6</v>
       </c>
       <c r="S38" s="36">
-        <v>823.48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+        <v>822.1</v>
+      </c>
+      <c r="T38" s="36">
+        <v>841.46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
         <v>37</v>
       </c>
@@ -10322,10 +10465,13 @@
         <v>915.2</v>
       </c>
       <c r="S39" s="36">
-        <v>921.94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+        <v>922.52</v>
+      </c>
+      <c r="T39" s="36">
+        <v>942.73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
         <v>38</v>
       </c>
@@ -10381,10 +10527,13 @@
         <v>814.28</v>
       </c>
       <c r="S40" s="36">
-        <v>812.87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+        <v>814.94</v>
+      </c>
+      <c r="T40" s="36">
+        <v>822.17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
         <v>39</v>
       </c>
@@ -10440,10 +10589,13 @@
         <v>803.08</v>
       </c>
       <c r="S41" s="36">
-        <v>804.79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+        <v>806.7</v>
+      </c>
+      <c r="T41" s="36">
+        <v>833.69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
         <v>40</v>
       </c>
@@ -10499,10 +10651,13 @@
         <v>852.1</v>
       </c>
       <c r="S42" s="36">
-        <v>858.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+        <v>860.54</v>
+      </c>
+      <c r="T42" s="36">
+        <v>888.79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>41</v>
       </c>
@@ -10558,10 +10713,13 @@
         <v>839.59</v>
       </c>
       <c r="S43" s="36">
-        <v>837.23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+        <v>839.25</v>
+      </c>
+      <c r="T43" s="36">
+        <v>848.64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
         <v>42</v>
       </c>
@@ -10617,10 +10775,13 @@
         <v>878.76</v>
       </c>
       <c r="S44" s="36">
-        <v>872.52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+        <v>873.84</v>
+      </c>
+      <c r="T44" s="36">
+        <v>877.48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
         <v>43</v>
       </c>
@@ -10676,10 +10837,13 @@
         <v>776.42</v>
       </c>
       <c r="S45" s="36">
-        <v>785.25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+        <v>783.51</v>
+      </c>
+      <c r="T45" s="36">
+        <v>797.81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="37" t="s">
         <v>44</v>
       </c>
@@ -10735,10 +10899,13 @@
         <v>740.04</v>
       </c>
       <c r="S46" s="36">
-        <v>730.85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+        <v>732.7</v>
+      </c>
+      <c r="T46" s="36">
+        <v>743.97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="37" t="s">
         <v>45</v>
       </c>
@@ -10794,10 +10961,13 @@
         <v>794.02</v>
       </c>
       <c r="S47" s="36">
-        <v>794.95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+        <v>795.66</v>
+      </c>
+      <c r="T47" s="36">
+        <v>805.98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="37" t="s">
         <v>46</v>
       </c>
@@ -10853,10 +11023,13 @@
         <v>898.9</v>
       </c>
       <c r="S48" s="36">
-        <v>894.28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+        <v>896.07</v>
+      </c>
+      <c r="T48" s="36">
+        <v>930.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="37" t="s">
         <v>47</v>
       </c>
@@ -10912,10 +11085,13 @@
         <v>870.48</v>
       </c>
       <c r="S49" s="36">
-        <v>877.91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+        <v>877.89</v>
+      </c>
+      <c r="T49" s="36">
+        <v>903.21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="37" t="s">
         <v>48</v>
       </c>
@@ -10971,10 +11147,13 @@
         <v>817.74</v>
       </c>
       <c r="S50" s="36">
-        <v>809.76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+        <v>810.15</v>
+      </c>
+      <c r="T50" s="36">
+        <v>821.14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="37" t="s">
         <v>49</v>
       </c>
@@ -11030,10 +11209,13 @@
         <v>939.13</v>
       </c>
       <c r="S51" s="36">
-        <v>929.43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+        <v>931.85</v>
+      </c>
+      <c r="T51" s="36">
+        <v>955.96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="37" t="s">
         <v>50</v>
       </c>
@@ -11089,10 +11271,13 @@
         <v>1066.4000000000001</v>
       </c>
       <c r="S52" s="36">
-        <v>1070.8699999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1070.52</v>
+      </c>
+      <c r="T52" s="36">
+        <v>1109.08</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="37" t="s">
         <v>51</v>
       </c>
@@ -11148,10 +11333,13 @@
         <v>755.07</v>
       </c>
       <c r="S53" s="36">
-        <v>762.55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+        <v>768.63</v>
+      </c>
+      <c r="T53" s="36">
+        <v>780.12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="37" t="s">
         <v>52</v>
       </c>
@@ -11207,10 +11395,13 @@
         <v>817.74</v>
       </c>
       <c r="S54" s="36">
-        <v>814.92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+        <v>816.27</v>
+      </c>
+      <c r="T54" s="36">
+        <v>839.95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="37" t="s">
         <v>53</v>
       </c>
@@ -11266,7 +11457,10 @@
         <v>824.2</v>
       </c>
       <c r="S55" s="36">
-        <v>818.15</v>
+        <v>816.76</v>
+      </c>
+      <c r="T55" s="36">
+        <v>835.18</v>
       </c>
     </row>
   </sheetData>
@@ -11278,7 +11472,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: July 21, 2017 (11:12:55 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: August 18, 2017 (11:01:57 AM)</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -11288,8 +11482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11307,22 +11501,22 @@
       <c r="B1" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="47">
+      <c r="C1" s="46">
         <f>+Earnings_Comparison!E58</f>
-        <v>905.63</v>
+        <v>909.42</v>
       </c>
       <c r="D1" s="23">
         <f>+Earnings_Comparison!H58</f>
-        <v>1.105647928819109</v>
+        <v>1.0800694669405031</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -11340,605 +11534,601 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
+        <f>+Earnings_Comparison!B12</f>
+        <v>DE</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="25">
+        <f>+Earnings_Comparison!E12</f>
+        <v>911.09</v>
+      </c>
+      <c r="D4" s="24">
+        <f>+Earnings_Comparison!H12</f>
+        <v>11.761752934516245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>+Earnings_Comparison!B7</f>
+        <v>AZ</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="25">
+        <f>+Earnings_Comparison!E7</f>
+        <v>898.1</v>
+      </c>
+      <c r="D5" s="24">
+        <f>+Earnings_Comparison!H7</f>
+        <v>8.4202774114052978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
         <f>+Earnings_Comparison!B55</f>
         <v>WY</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B6" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C6" s="25">
         <f>+Earnings_Comparison!E55</f>
-        <v>818.15</v>
-      </c>
-      <c r="D4" s="24">
+        <v>835.18</v>
+      </c>
+      <c r="D6" s="24">
         <f>+Earnings_Comparison!H55</f>
-        <v>7.836626279745218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+        <v>8.3233379602161151</v>
+      </c>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
         <f>+Earnings_Comparison!B30</f>
         <v>MO</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B7" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C7" s="25">
         <f>+Earnings_Comparison!E30</f>
-        <v>792.61</v>
-      </c>
-      <c r="D5" s="24">
+        <v>822.17</v>
+      </c>
+      <c r="D7" s="24">
         <f>+Earnings_Comparison!H30</f>
-        <v>5.540565782582596</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+        <v>8.2527762291400464</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>+Earnings_Comparison!B13</f>
+        <v>DC</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="25">
+        <f>+Earnings_Comparison!E13</f>
+        <v>1477.08</v>
+      </c>
+      <c r="D8" s="24">
+        <f>+Earnings_Comparison!H13</f>
+        <v>6.8700494516544364</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>+Earnings_Comparison!B15</f>
+        <v>GA</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="25">
+        <f>+Earnings_Comparison!E15</f>
+        <v>911.41</v>
+      </c>
+      <c r="D9" s="24">
+        <f>+Earnings_Comparison!H15</f>
+        <v>5.6856012776546505</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>+Earnings_Comparison!B9</f>
+        <v>CA</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="25">
+        <f>+Earnings_Comparison!E9</f>
+        <v>1061.28</v>
+      </c>
+      <c r="D10" s="24">
+        <f>+Earnings_Comparison!H9</f>
+        <v>5.5592694693389344</v>
+      </c>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>+Earnings_Comparison!B16</f>
+        <v>HI</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="25">
+        <f>+Earnings_Comparison!E16</f>
+        <v>898.78</v>
+      </c>
+      <c r="D11" s="24">
+        <f>+Earnings_Comparison!H16</f>
+        <v>5.518038031913397</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>+Earnings_Comparison!B41</f>
+        <v>OK</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="25">
+        <f>+Earnings_Comparison!E41</f>
+        <v>833.69</v>
+      </c>
+      <c r="D12" s="24">
+        <f>+Earnings_Comparison!H41</f>
+        <v>5.4435964424423</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>+Earnings_Comparison!B49</f>
+        <v>UT</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="25">
+        <f>+Earnings_Comparison!E49</f>
+        <v>903.21</v>
+      </c>
+      <c r="D13" s="24">
+        <f>+Earnings_Comparison!H49</f>
+        <v>5.1228788880663068</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>+Earnings_Comparison!B32</f>
+        <v>NE</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="25">
+        <f>+Earnings_Comparison!E32</f>
+        <v>836.97</v>
+      </c>
+      <c r="D14" s="24">
+        <f>+Earnings_Comparison!H32</f>
+        <v>5.1199730820937983</v>
+      </c>
+      <c r="F14" s="25">
+        <f>C$1-C14</f>
+        <v>72.449999999999932</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>+Earnings_Comparison!B48</f>
+        <v>TX</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="25">
+        <f>+Earnings_Comparison!E48</f>
+        <v>930.75</v>
+      </c>
+      <c r="D15" s="24">
+        <f>+Earnings_Comparison!H48</f>
+        <v>5.0785595065279132</v>
+      </c>
+      <c r="F15" s="25">
+        <f t="shared" ref="F15:F21" si="0">C$1-C15</f>
+        <v>-21.330000000000041</v>
+      </c>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>+Earnings_Comparison!B52</f>
+        <v>WA</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="25">
+        <f>+Earnings_Comparison!E52</f>
+        <v>1109.08</v>
+      </c>
+      <c r="D16" s="24">
+        <f>+Earnings_Comparison!H52</f>
+        <v>4.9974356044612422</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" si="0"/>
+        <v>-199.65999999999997</v>
+      </c>
+      <c r="M16" s="20"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>+Earnings_Comparison!B19</f>
+        <v>IN</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="25">
+        <f>+Earnings_Comparison!E19</f>
+        <v>865.56</v>
+      </c>
+      <c r="D17" s="24">
+        <f>+Earnings_Comparison!H19</f>
+        <v>4.8331589501042549</v>
+      </c>
+      <c r="F17" s="25">
+        <f t="shared" si="0"/>
+        <v>43.860000000000014</v>
+      </c>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>+Earnings_Comparison!B28</f>
+        <v>MN</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="25">
+        <f>+Earnings_Comparison!E28</f>
+        <v>977.99</v>
+      </c>
+      <c r="D18" s="24">
+        <f>+Earnings_Comparison!H28</f>
+        <v>4.6112733569586339</v>
+      </c>
+      <c r="F18" s="25">
+        <f t="shared" si="0"/>
+        <v>-68.57000000000005</v>
+      </c>
+      <c r="M18" s="20"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>+Earnings_Comparison!B53</f>
+        <v>WV</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="25">
+        <f>+Earnings_Comparison!E53</f>
+        <v>780.12</v>
+      </c>
+      <c r="D19" s="24">
+        <f>+Earnings_Comparison!H53</f>
+        <v>4.2933053876920368</v>
+      </c>
+      <c r="F19" s="25">
+        <f t="shared" si="0"/>
+        <v>129.29999999999995</v>
+      </c>
+      <c r="M19" s="20"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>+Earnings_Comparison!B24</f>
+        <v>ME</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="25">
+        <f>+Earnings_Comparison!E24</f>
+        <v>785.22</v>
+      </c>
+      <c r="D20" s="24">
+        <f>+Earnings_Comparison!H24</f>
+        <v>4.2830182606085065</v>
+      </c>
+      <c r="F20" s="25">
+        <f t="shared" si="0"/>
+        <v>124.19999999999993</v>
+      </c>
+      <c r="M20" s="20"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>+Earnings_Comparison!B36</f>
+        <v>NM</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="25">
+        <f>+Earnings_Comparison!E36</f>
+        <v>725.9</v>
+      </c>
+      <c r="D21" s="24">
+        <f>+Earnings_Comparison!H36</f>
+        <v>4.2103089981685216</v>
+      </c>
+      <c r="F21" s="25">
+        <f t="shared" si="0"/>
+        <v>183.51999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>+Earnings_Comparison!B10</f>
+        <v>CO</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="25">
+        <f>+Earnings_Comparison!E10</f>
+        <v>953.57</v>
+      </c>
+      <c r="D22" s="24">
+        <f>+Earnings_Comparison!H10</f>
+        <v>4.1802710450885128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
         <f>+Earnings_Comparison!B35</f>
         <v>NJ</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B23" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C23" s="25">
         <f>+Earnings_Comparison!E35</f>
-        <v>999.32</v>
-      </c>
-      <c r="D6" s="24">
+        <v>1000.84</v>
+      </c>
+      <c r="D23" s="24">
         <f>+Earnings_Comparison!H35</f>
-        <v>4.4464190964051964</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>+Earnings_Comparison!B19</f>
-        <v>IN</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="25">
-        <f>+Earnings_Comparison!E19</f>
-        <v>851.65</v>
-      </c>
-      <c r="D7" s="24">
-        <f>+Earnings_Comparison!H19</f>
-        <v>4.0894852174315766</v>
-      </c>
-      <c r="K7" s="20"/>
-      <c r="M7" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f>+Earnings_Comparison!B7</f>
-        <v>AZ</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="25">
-        <f>+Earnings_Comparison!E7</f>
-        <v>863.08</v>
-      </c>
-      <c r="D8" s="24">
-        <f>+Earnings_Comparison!H7</f>
-        <v>3.8545518411986057</v>
-      </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>+Earnings_Comparison!B41</f>
-        <v>OK</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="25">
-        <f>+Earnings_Comparison!E41</f>
-        <v>804.79</v>
-      </c>
-      <c r="D9" s="24">
-        <f>+Earnings_Comparison!H41</f>
-        <v>3.829429179605337</v>
-      </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>+Earnings_Comparison!B53</f>
-        <v>WV</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="25">
-        <f>+Earnings_Comparison!E53</f>
-        <v>762.55</v>
-      </c>
-      <c r="D10" s="24">
-        <f>+Earnings_Comparison!H53</f>
-        <v>3.6732997018352531</v>
-      </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f>+Earnings_Comparison!B24</f>
-        <v>ME</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="25">
-        <f>+Earnings_Comparison!E24</f>
-        <v>780.1</v>
-      </c>
-      <c r="D11" s="24">
-        <f>+Earnings_Comparison!H24</f>
-        <v>3.4826645421318414</v>
-      </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>+Earnings_Comparison!B32</f>
-        <v>NE</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="25">
-        <f>+Earnings_Comparison!E32</f>
-        <v>818.03</v>
-      </c>
-      <c r="D12" s="24">
-        <f>+Earnings_Comparison!H32</f>
-        <v>3.3118991450269641</v>
-      </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
+        <v>3.9691704339658074</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>+Earnings_Comparison!B45</f>
+        <v>SC</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="25">
+        <f>+Earnings_Comparison!E45</f>
+        <v>797.81</v>
+      </c>
+      <c r="D24" s="24">
+        <f>+Earnings_Comparison!H45</f>
+        <v>3.9592501859836426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
         <f>+Earnings_Comparison!B39</f>
         <v>ND</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B25" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C25" s="25">
         <f>+Earnings_Comparison!E39</f>
-        <v>921.94</v>
-      </c>
-      <c r="D13" s="24">
+        <v>942.73</v>
+      </c>
+      <c r="D25" s="24">
         <f>+Earnings_Comparison!H39</f>
-        <v>3.218136068981603</v>
-      </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>+Earnings_Comparison!B28</f>
-        <v>MN</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="25">
-        <f>+Earnings_Comparison!E28</f>
-        <v>954.52</v>
-      </c>
-      <c r="D14" s="24">
-        <f>+Earnings_Comparison!H28</f>
-        <v>2.7828870257054161</v>
-      </c>
-      <c r="F14" s="25">
-        <f>C$1-C14</f>
-        <v>-48.889999999999986</v>
-      </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>+Earnings_Comparison!B49</f>
-        <v>UT</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="25">
-        <f>+Earnings_Comparison!E49</f>
-        <v>877.91</v>
-      </c>
-      <c r="D15" s="24">
-        <f>+Earnings_Comparison!H49</f>
-        <v>2.6963967270785538</v>
-      </c>
-      <c r="F15" s="25">
-        <f t="shared" ref="F15:F21" si="0">C$1-C15</f>
-        <v>27.720000000000027</v>
-      </c>
-      <c r="L15" s="20"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f>+Earnings_Comparison!B8</f>
-        <v>AR</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="25">
-        <f>+Earnings_Comparison!E8</f>
-        <v>714.35</v>
-      </c>
-      <c r="D16" s="24">
-        <f>+Earnings_Comparison!H8</f>
-        <v>2.5711381322665261</v>
-      </c>
-      <c r="F16" s="25">
-        <f t="shared" si="0"/>
-        <v>191.27999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f>+Earnings_Comparison!B9</f>
-        <v>CA</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="25">
-        <f>+Earnings_Comparison!E9</f>
-        <v>1021.34</v>
-      </c>
-      <c r="D17" s="24">
-        <f>+Earnings_Comparison!H9</f>
-        <v>2.4764109612882113</v>
-      </c>
-      <c r="F17" s="25">
-        <f t="shared" si="0"/>
-        <v>-115.71000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>+Earnings_Comparison!B36</f>
-        <v>NM</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="25">
-        <f>+Earnings_Comparison!E36</f>
-        <v>706.82</v>
-      </c>
-      <c r="D18" s="24">
-        <f>+Earnings_Comparison!H36</f>
-        <v>2.4708996405107264</v>
-      </c>
-      <c r="F18" s="25">
-        <f t="shared" si="0"/>
-        <v>198.80999999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
+        <v>3.9409293472148166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>+Earnings_Comparison!B14</f>
+        <v>FL</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="25">
+        <f>+Earnings_Comparison!E14</f>
+        <v>829.38</v>
+      </c>
+      <c r="D26" s="24">
+        <f>+Earnings_Comparison!H14</f>
+        <v>3.761031775713275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
         <f>+Earnings_Comparison!B31</f>
         <v>MT</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B27" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C27" s="25">
         <f>+Earnings_Comparison!E31</f>
-        <v>760.91</v>
-      </c>
-      <c r="D19" s="24">
+        <v>778.08</v>
+      </c>
+      <c r="D27" s="24">
         <f>+Earnings_Comparison!H31</f>
-        <v>2.2089277692085574</v>
-      </c>
-      <c r="F19" s="25">
-        <f t="shared" si="0"/>
-        <v>144.72000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>+Earnings_Comparison!B34</f>
-        <v>NH</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="25">
-        <f>+Earnings_Comparison!E34</f>
-        <v>878.22</v>
-      </c>
-      <c r="D20" s="24">
-        <f>+Earnings_Comparison!H34</f>
-        <v>2.1147173544935338</v>
-      </c>
-      <c r="F20" s="25">
-        <f t="shared" si="0"/>
-        <v>27.409999999999968</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
+        <v>3.449378719085483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>+Earnings_Comparison!B42</f>
+        <v>OR</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="25">
+        <f>+Earnings_Comparison!E42</f>
+        <v>888.79</v>
+      </c>
+      <c r="D28" s="24">
+        <f>+Earnings_Comparison!H42</f>
+        <v>3.412728385519781</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>+Earnings_Comparison!B23</f>
+        <v>LA</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="25">
+        <f>+Earnings_Comparison!E23</f>
+        <v>828.21</v>
+      </c>
+      <c r="D29" s="24">
+        <f>+Earnings_Comparison!H23</f>
+        <v>3.1342544977436271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>+Earnings_Comparison!B38</f>
+        <v>NC</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="25">
+        <f>+Earnings_Comparison!E38</f>
+        <v>841.46</v>
+      </c>
+      <c r="D30" s="24">
+        <f>+Earnings_Comparison!H38</f>
+        <v>2.9890354333622637</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>+Earnings_Comparison!B17</f>
+        <v>ID</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="25">
+        <f>+Earnings_Comparison!E17</f>
+        <v>770.56</v>
+      </c>
+      <c r="D31" s="24">
+        <f>+Earnings_Comparison!H17</f>
+        <v>2.9732277344208136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>+Earnings_Comparison!B25</f>
+        <v>MD</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="25">
+        <f>+Earnings_Comparison!E25</f>
+        <v>970.14</v>
+      </c>
+      <c r="D32" s="35">
+        <f>+Earnings_Comparison!H25</f>
+        <v>2.7474728856072161</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>+Earnings_Comparison!B11</f>
+        <v>CT</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="25">
+        <f>+Earnings_Comparison!E11</f>
+        <v>1058.95</v>
+      </c>
+      <c r="D33" s="24">
+        <f>+Earnings_Comparison!H11</f>
+        <v>2.653951392058107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
         <f>+Earnings_Comparison!B47</f>
         <v>TN</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B34" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C34" s="25">
         <f>+Earnings_Comparison!E47</f>
-        <v>794.95</v>
-      </c>
-      <c r="D21" s="24">
+        <v>805.98</v>
+      </c>
+      <c r="D34" s="24">
         <f>+Earnings_Comparison!H47</f>
-        <v>2.0487812258880966</v>
-      </c>
-      <c r="F21" s="25">
-        <f t="shared" si="0"/>
-        <v>110.67999999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>+Earnings_Comparison!B15</f>
-        <v>GA</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="25">
-        <f>+Earnings_Comparison!E15</f>
-        <v>874.87</v>
-      </c>
-      <c r="D22" s="24">
-        <f>+Earnings_Comparison!H15</f>
-        <v>2.0060662729118439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f>+Earnings_Comparison!B52</f>
-        <v>WA</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="25">
-        <f>+Earnings_Comparison!E52</f>
-        <v>1070.8699999999999</v>
-      </c>
-      <c r="D23" s="24">
-        <f>+Earnings_Comparison!H52</f>
-        <v>1.9386828292423663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f>+Earnings_Comparison!B12</f>
-        <v>DE</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="25">
-        <f>+Earnings_Comparison!E12</f>
-        <v>820.33</v>
-      </c>
-      <c r="D24" s="24">
-        <f>+Earnings_Comparison!H12</f>
-        <v>1.7093900397560313</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f>+Earnings_Comparison!B13</f>
-        <v>DC</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="25">
-        <f>+Earnings_Comparison!E13</f>
-        <v>1389.26</v>
-      </c>
-      <c r="D25" s="24">
-        <f>+Earnings_Comparison!H13</f>
-        <v>1.4450403859940675</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f>+Earnings_Comparison!B37</f>
-        <v>NY</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="25">
-        <f>+Earnings_Comparison!E37</f>
-        <v>991.65</v>
-      </c>
-      <c r="D26" s="35">
-        <f>+Earnings_Comparison!H37</f>
-        <v>1.4126994782312607</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f>+Earnings_Comparison!B42</f>
-        <v>OR</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="25">
-        <f>+Earnings_Comparison!E42</f>
-        <v>858.5</v>
-      </c>
-      <c r="D27" s="24">
-        <f>+Earnings_Comparison!H42</f>
-        <v>1.2662018685905441</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f>+Earnings_Comparison!B44</f>
-        <v>RI</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="25">
-        <f>+Earnings_Comparison!E44</f>
-        <v>872.52</v>
-      </c>
-      <c r="D28" s="24">
-        <f>+Earnings_Comparison!H44</f>
-        <v>1.2258651176063617</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f>+Earnings_Comparison!B45</f>
-        <v>SC</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29" s="25">
-        <f>+Earnings_Comparison!E45</f>
-        <v>785.25</v>
-      </c>
-      <c r="D29" s="24">
-        <f>+Earnings_Comparison!H45</f>
-        <v>1.1798008378898217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f>+Earnings_Comparison!B48</f>
-        <v>TX</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="25">
-        <f>+Earnings_Comparison!E48</f>
-        <v>894.28</v>
-      </c>
-      <c r="D30" s="24">
-        <f>+Earnings_Comparison!H48</f>
-        <v>1.1038524586913123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f>+Earnings_Comparison!B38</f>
-        <v>NC</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="25">
-        <f>+Earnings_Comparison!E38</f>
-        <v>823.48</v>
-      </c>
-      <c r="D31" s="24">
-        <f>+Earnings_Comparison!H38</f>
-        <v>1.0885255024292162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f>+Earnings_Comparison!B16</f>
-        <v>HI</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="25">
-        <f>+Earnings_Comparison!E16</f>
-        <v>847.26</v>
-      </c>
-      <c r="D32" s="24">
-        <f>+Earnings_Comparison!H16</f>
-        <v>1.0598314178942969</v>
-      </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f>+Earnings_Comparison!B17</f>
-        <v>ID</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="25">
-        <f>+Earnings_Comparison!E17</f>
-        <v>749.49</v>
-      </c>
-      <c r="D33" s="24">
-        <f>+Earnings_Comparison!H17</f>
-        <v>0.9022291893232115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f>+Earnings_Comparison!B14</f>
-        <v>FL</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="25">
-        <f>+Earnings_Comparison!E14</f>
-        <v>807.49</v>
-      </c>
-      <c r="D34" s="24">
-        <f>+Earnings_Comparison!H14</f>
-        <v>0.89038048517495749</v>
+        <v>2.4702090932969378</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -11951,62 +12141,62 @@
       </c>
       <c r="C35" s="25">
         <f>+Earnings_Comparison!E21</f>
-        <v>782.15</v>
+        <v>798.91</v>
       </c>
       <c r="D35" s="24">
         <f>+Earnings_Comparison!H21</f>
-        <v>0.82261488428254648</v>
+        <v>2.401750193753216</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
+        <f>+Earnings_Comparison!B44</f>
+        <v>RI</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="25">
+        <f>+Earnings_Comparison!E44</f>
+        <v>877.48</v>
+      </c>
+      <c r="D36" s="24">
+        <f>+Earnings_Comparison!H44</f>
+        <v>2.34390400101121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
         <f>+Earnings_Comparison!B26</f>
         <v>MA</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B37" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C37" s="25">
         <f>+Earnings_Comparison!E26</f>
-        <v>1054.77</v>
-      </c>
-      <c r="D36" s="24">
+        <v>1077.05</v>
+      </c>
+      <c r="D37" s="24">
         <f>+Earnings_Comparison!H26</f>
-        <v>0.8118215501988324</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f>+Earnings_Comparison!B40</f>
-        <v>OH</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="25">
-        <f>+Earnings_Comparison!E40</f>
-        <v>812.87</v>
-      </c>
-      <c r="D37" s="35">
-        <f>+Earnings_Comparison!H40</f>
-        <v>0.72480034412625294</v>
+        <v>2.2072751628677389</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f>+Earnings_Comparison!B29</f>
-        <v>MS</v>
+        <f>+Earnings_Comparison!B27</f>
+        <v>MI</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C38" s="25">
-        <f>+Earnings_Comparison!E29</f>
-        <v>703.93</v>
+        <f>+Earnings_Comparison!E27</f>
+        <v>852.95</v>
       </c>
       <c r="D38" s="24">
-        <f>+Earnings_Comparison!H29</f>
-        <v>0.68120271426670431</v>
+        <f>+Earnings_Comparison!H27</f>
+        <v>2.0684340018956693</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -12019,28 +12209,28 @@
       </c>
       <c r="C39" s="25">
         <f>+Earnings_Comparison!E6</f>
-        <v>981.58</v>
+        <v>1027.1099999999999</v>
       </c>
       <c r="D39" s="24">
         <f>+Earnings_Comparison!H6</f>
-        <v>0.48000007094550767</v>
+        <v>1.9995794181475679</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <f>+Earnings_Comparison!B11</f>
-        <v>CT</v>
+        <f>+Earnings_Comparison!B37</f>
+        <v>NY</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C40" s="25">
-        <f>+Earnings_Comparison!E11</f>
-        <v>1030.51</v>
-      </c>
-      <c r="D40" s="24">
-        <f>+Earnings_Comparison!H11</f>
-        <v>0.45646591779280321</v>
+        <f>+Earnings_Comparison!E37</f>
+        <v>1013.7</v>
+      </c>
+      <c r="D40" s="35">
+        <f>+Earnings_Comparison!H37</f>
+        <v>1.9626545183159871</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -12053,200 +12243,200 @@
       </c>
       <c r="C41" s="25">
         <f>+Earnings_Comparison!E54</f>
-        <v>814.92</v>
+        <v>839.95</v>
       </c>
       <c r="D41" s="24">
         <f>+Earnings_Comparison!H54</f>
-        <v>0.43619621162769295</v>
+        <v>1.9549776190133317</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <f>+Earnings_Comparison!B25</f>
-        <v>MD</v>
+        <f>+Earnings_Comparison!B33</f>
+        <v>NV</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C42" s="25">
-        <f>+Earnings_Comparison!E25</f>
-        <v>945.65</v>
-      </c>
-      <c r="D42" s="35">
-        <f>+Earnings_Comparison!H25</f>
-        <v>0.40045663849239688</v>
+        <f>+Earnings_Comparison!E33</f>
+        <v>775.73</v>
+      </c>
+      <c r="D42" s="24">
+        <f>+Earnings_Comparison!H33</f>
+        <v>1.9047499961891479</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <f>+Earnings_Comparison!B23</f>
-        <v>LA</v>
+        <f>+Earnings_Comparison!B8</f>
+        <v>AR</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C43" s="25">
-        <f>+Earnings_Comparison!E23</f>
-        <v>806.06</v>
+        <f>+Earnings_Comparison!E8</f>
+        <v>724.46</v>
       </c>
       <c r="D43" s="24">
-        <f>+Earnings_Comparison!H23</f>
-        <v>0.27369076879304455</v>
+        <f>+Earnings_Comparison!H8</f>
+        <v>1.8935114256935615</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f>+Earnings_Comparison!B33</f>
-        <v>NV</v>
+        <f>+Earnings_Comparison!B22</f>
+        <v>KY</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C44" s="25">
-        <f>+Earnings_Comparison!E33</f>
-        <v>763.16</v>
+        <f>+Earnings_Comparison!E22</f>
+        <v>774.84</v>
       </c>
       <c r="D44" s="24">
-        <f>+Earnings_Comparison!H33</f>
-        <v>6.8529697601649175E-2</v>
+        <f>+Earnings_Comparison!H22</f>
+        <v>1.87632742564392</v>
       </c>
       <c r="H44" s="20"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
+        <f>+Earnings_Comparison!B18</f>
+        <v>IL</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="25">
+        <f>+Earnings_Comparison!E18</f>
+        <v>927.77</v>
+      </c>
+      <c r="D45" s="24">
+        <f>+Earnings_Comparison!H18</f>
+        <v>1.2310363191617268</v>
+      </c>
+      <c r="H45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>+Earnings_Comparison!B40</f>
+        <v>OH</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="25">
+        <f>+Earnings_Comparison!E40</f>
+        <v>822.17</v>
+      </c>
+      <c r="D46" s="35">
+        <f>+Earnings_Comparison!H40</f>
+        <v>0.99777586777844984</v>
+      </c>
+      <c r="H46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>+Earnings_Comparison!B34</f>
+        <v>NH</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="25">
+        <f>+Earnings_Comparison!E34</f>
+        <v>874.79</v>
+      </c>
+      <c r="D47" s="24">
+        <f>+Earnings_Comparison!H34</f>
+        <v>0.8858237823111903</v>
+      </c>
+      <c r="H47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
         <f>+Earnings_Comparison!B46</f>
         <v>SD</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B48" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="25">
+      <c r="C48" s="25">
         <f>+Earnings_Comparison!E46</f>
-        <v>730.85</v>
-      </c>
-      <c r="D45" s="24">
+        <v>743.97</v>
+      </c>
+      <c r="D48" s="24">
         <f>+Earnings_Comparison!H46</f>
-        <v>-8.0100816422934429E-2</v>
-      </c>
-      <c r="H45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
+        <v>0.51854527674572992</v>
+      </c>
+      <c r="H48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>+Earnings_Comparison!B5</f>
+        <v>AL</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="25">
+        <f>+Earnings_Comparison!E5</f>
+        <v>799.46</v>
+      </c>
+      <c r="D49" s="24">
+        <f>+Earnings_Comparison!H5</f>
+        <v>0.47948041116914197</v>
+      </c>
+      <c r="H49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>+Earnings_Comparison!B29</f>
+        <v>MS</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="25">
+        <f>+Earnings_Comparison!E29</f>
+        <v>715.97</v>
+      </c>
+      <c r="D50" s="24">
+        <f>+Earnings_Comparison!H29</f>
+        <v>0.43070583926916317</v>
+      </c>
+      <c r="H50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
         <f>+Earnings_Comparison!B43</f>
         <v>PA</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B51" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="25">
+      <c r="C51" s="25">
         <f>+Earnings_Comparison!E43</f>
-        <v>837.23</v>
-      </c>
-      <c r="D46" s="24">
+        <v>848.64</v>
+      </c>
+      <c r="D51" s="24">
         <f>+Earnings_Comparison!H43</f>
-        <v>-0.11473531203562981</v>
-      </c>
-      <c r="H46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f>+Earnings_Comparison!B22</f>
-        <v>KY</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="25">
-        <f>+Earnings_Comparison!E22</f>
-        <v>759.85</v>
-      </c>
-      <c r="D47" s="24">
-        <f>+Earnings_Comparison!H22</f>
-        <v>-0.18858119088721592</v>
-      </c>
-      <c r="H47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
-        <f>+Earnings_Comparison!B10</f>
-        <v>CO</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="25">
-        <f>+Earnings_Comparison!E10</f>
-        <v>914.85</v>
-      </c>
-      <c r="D48" s="24">
-        <f>+Earnings_Comparison!H10</f>
-        <v>-0.33369282099028341</v>
-      </c>
-      <c r="H48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
-        <f>+Earnings_Comparison!B18</f>
-        <v>IL</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" s="25">
-        <f>+Earnings_Comparison!E18</f>
-        <v>908.61</v>
-      </c>
-      <c r="D49" s="24">
-        <f>+Earnings_Comparison!H18</f>
-        <v>-0.53110757711504197</v>
-      </c>
-      <c r="H49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
-        <f>+Earnings_Comparison!B5</f>
-        <v>AL</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="25">
-        <f>+Earnings_Comparison!E5</f>
-        <v>785.62</v>
-      </c>
-      <c r="D50" s="24">
-        <f>+Earnings_Comparison!H5</f>
-        <v>-0.67673420289339203</v>
-      </c>
-      <c r="H50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f>+Earnings_Comparison!B50</f>
-        <v>VT</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C51" s="25">
-        <f>+Earnings_Comparison!E50</f>
-        <v>809.76</v>
-      </c>
-      <c r="D51" s="24">
-        <f>+Earnings_Comparison!H50</f>
-        <v>-1.7358646667118505</v>
+        <v>0.33010723046997814</v>
       </c>
       <c r="H51" t="s">
         <v>108</v>
@@ -12262,29 +12452,29 @@
       </c>
       <c r="C52" s="25">
         <f>+Earnings_Comparison!E51</f>
-        <v>929.43</v>
+        <v>955.96</v>
       </c>
       <c r="D52" s="24">
         <f>+Earnings_Comparison!H51</f>
-        <v>-2.0802761260702574</v>
+        <v>-0.38460703019946862</v>
       </c>
       <c r="H52" s="20"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f>+Earnings_Comparison!B27</f>
-        <v>MI</v>
+        <f>+Earnings_Comparison!B50</f>
+        <v>VT</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="C53" s="25">
-        <f>+Earnings_Comparison!E27</f>
-        <v>799.03</v>
+        <f>+Earnings_Comparison!E50</f>
+        <v>821.14</v>
       </c>
       <c r="D53" s="24">
-        <f>+Earnings_Comparison!H27</f>
-        <v>-3.7313302579275454</v>
+        <f>+Earnings_Comparison!H50</f>
+        <v>-0.58111146522916712</v>
       </c>
       <c r="H53" s="20"/>
     </row>
@@ -12298,21 +12488,21 @@
       </c>
       <c r="C54" s="25">
         <f>+Earnings_Comparison!E20</f>
-        <v>798.22</v>
+        <v>811.98</v>
       </c>
       <c r="D54" s="24">
         <f>+Earnings_Comparison!H20</f>
-        <v>-4.3361384534694514</v>
+        <v>-1.4339970245571543</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56">
-        <f>COUNTIF(C4:C54, "&lt;906")</f>
-        <v>37</v>
+        <f>COUNTIF(C4:C54, "&lt;909")</f>
+        <v>34</v>
       </c>
       <c r="D56">
         <f>COUNTIF(D4:D54, "&lt;0")</f>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -12321,8 +12511,8 @@
       <sortCondition descending="1" ref="D3:D54"/>
     </sortState>
   </autoFilter>
-  <sortState ref="M6:M14">
-    <sortCondition ref="M6"/>
+  <sortState ref="L8:L11">
+    <sortCondition ref="L8"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>

--- a/data/source/current_earnings.xlsx
+++ b/data/source/current_earnings.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RAuxier\Box Sync\TPC\CENTER\SLFI\SEM\Online SEM\Earnings\2017\July 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bchartof/Desktop/sem/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="1110" windowWidth="20775" windowHeight="11415" activeTab="3"/>
+    <workbookView xWindow="400" yWindow="1120" windowWidth="20780" windowHeight="11420"/>
   </bookViews>
   <sheets>
     <sheet name="Earnings Table" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SCRATCH!$A$3:$D$54</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -30,7 +38,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="E8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0">
+    <comment ref="E10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
+    <comment ref="E12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0" shapeId="0">
+    <comment ref="E13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0">
+    <comment ref="E14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0" shapeId="0">
+    <comment ref="E15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0">
+    <comment ref="E16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0" shapeId="0">
+    <comment ref="E17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0">
+    <comment ref="E18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0">
+    <comment ref="E19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0">
+    <comment ref="E20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0" shapeId="0">
+    <comment ref="E21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0">
+    <comment ref="E22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -300,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0" shapeId="0">
+    <comment ref="E23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0" shapeId="0">
+    <comment ref="E24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -330,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0" shapeId="0">
+    <comment ref="E25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0">
+    <comment ref="E26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -360,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E27" authorId="0" shapeId="0">
+    <comment ref="E27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -375,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0" shapeId="0">
+    <comment ref="E28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -390,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0" shapeId="0">
+    <comment ref="E29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0" shapeId="0">
+    <comment ref="E30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E31" authorId="0" shapeId="0">
+    <comment ref="E31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -435,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0" shapeId="0">
+    <comment ref="E32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -450,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E33" authorId="0" shapeId="0">
+    <comment ref="E33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -465,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E34" authorId="0" shapeId="0">
+    <comment ref="E34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -480,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E35" authorId="0" shapeId="0">
+    <comment ref="E35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -495,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E36" authorId="0" shapeId="0">
+    <comment ref="E36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -510,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E37" authorId="0" shapeId="0">
+    <comment ref="E37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -525,7 +533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0" shapeId="0">
+    <comment ref="E38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E39" authorId="0" shapeId="0">
+    <comment ref="E39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -555,7 +563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E40" authorId="0" shapeId="0">
+    <comment ref="E40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -570,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E41" authorId="0" shapeId="0">
+    <comment ref="E41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -585,7 +593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E42" authorId="0" shapeId="0">
+    <comment ref="E42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -600,7 +608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E43" authorId="0" shapeId="0">
+    <comment ref="E43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -615,7 +623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0" shapeId="0">
+    <comment ref="E44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -630,7 +638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E45" authorId="0" shapeId="0">
+    <comment ref="E45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -645,7 +653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E46" authorId="0" shapeId="0">
+    <comment ref="E46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -660,7 +668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E47" authorId="0" shapeId="0">
+    <comment ref="E47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -675,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0" shapeId="0">
+    <comment ref="E48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -690,7 +698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E49" authorId="0" shapeId="0">
+    <comment ref="E49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -705,7 +713,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="0" shapeId="0">
+    <comment ref="E50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -720,7 +728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E51" authorId="0" shapeId="0">
+    <comment ref="E51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -735,7 +743,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E52" authorId="0" shapeId="0">
+    <comment ref="E52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -750,7 +758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E53" authorId="0" shapeId="0">
+    <comment ref="E53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -765,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0" shapeId="0">
+    <comment ref="E54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -780,7 +788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E55" authorId="0" shapeId="0">
+    <comment ref="E55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -805,7 +813,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="T5" authorId="0" shapeId="0">
+    <comment ref="T5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -820,7 +828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T6" authorId="0" shapeId="0">
+    <comment ref="T6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -835,7 +843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -850,7 +858,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T8" authorId="0" shapeId="0">
+    <comment ref="T8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -865,7 +873,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="0" shapeId="0">
+    <comment ref="T9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -880,7 +888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T10" authorId="0" shapeId="0">
+    <comment ref="T10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -895,7 +903,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T11" authorId="0" shapeId="0">
+    <comment ref="T11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -910,7 +918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T12" authorId="0" shapeId="0">
+    <comment ref="T12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -925,7 +933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T13" authorId="0" shapeId="0">
+    <comment ref="T13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -940,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T14" authorId="0" shapeId="0">
+    <comment ref="T14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -955,7 +963,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T15" authorId="0" shapeId="0">
+    <comment ref="T15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +978,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T16" authorId="0" shapeId="0">
+    <comment ref="T16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -985,7 +993,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T17" authorId="0" shapeId="0">
+    <comment ref="T17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1000,7 +1008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T18" authorId="0" shapeId="0">
+    <comment ref="T18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1015,7 +1023,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T19" authorId="0" shapeId="0">
+    <comment ref="T19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1030,7 +1038,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T20" authorId="0" shapeId="0">
+    <comment ref="T20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1045,7 +1053,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T21" authorId="0" shapeId="0">
+    <comment ref="T21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1060,7 +1068,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T22" authorId="0" shapeId="0">
+    <comment ref="T22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1075,7 +1083,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T23" authorId="0" shapeId="0">
+    <comment ref="T23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1098,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T24" authorId="0" shapeId="0">
+    <comment ref="T24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T25" authorId="0" shapeId="0">
+    <comment ref="T25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1120,7 +1128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T26" authorId="0" shapeId="0">
+    <comment ref="T26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1135,7 +1143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P27" authorId="0" shapeId="0">
+    <comment ref="P27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1150,7 +1158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q27" authorId="0" shapeId="0">
+    <comment ref="Q27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1165,7 +1173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R27" authorId="0" shapeId="0">
+    <comment ref="R27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1180,7 +1188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T27" authorId="0" shapeId="0">
+    <comment ref="T27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1195,7 +1203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T28" authorId="0" shapeId="0">
+    <comment ref="T28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1210,7 +1218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T29" authorId="0" shapeId="0">
+    <comment ref="T29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1225,7 +1233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T30" authorId="0" shapeId="0">
+    <comment ref="T30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1240,7 +1248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T31" authorId="0" shapeId="0">
+    <comment ref="T31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1255,7 +1263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T32" authorId="0" shapeId="0">
+    <comment ref="T32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1270,7 +1278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T33" authorId="0" shapeId="0">
+    <comment ref="T33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1285,7 +1293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T34" authorId="0" shapeId="0">
+    <comment ref="T34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1300,7 +1308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T35" authorId="0" shapeId="0">
+    <comment ref="T35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1315,7 +1323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T36" authorId="0" shapeId="0">
+    <comment ref="T36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1330,7 +1338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T37" authorId="0" shapeId="0">
+    <comment ref="T37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1345,7 +1353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T38" authorId="0" shapeId="0">
+    <comment ref="T38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1360,7 +1368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T39" authorId="0" shapeId="0">
+    <comment ref="T39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1375,7 +1383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T40" authorId="0" shapeId="0">
+    <comment ref="T40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1390,7 +1398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T41" authorId="0" shapeId="0">
+    <comment ref="T41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1405,7 +1413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T42" authorId="0" shapeId="0">
+    <comment ref="T42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1420,7 +1428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T43" authorId="0" shapeId="0">
+    <comment ref="T43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1435,7 +1443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T44" authorId="0" shapeId="0">
+    <comment ref="T44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1450,7 +1458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T45" authorId="0" shapeId="0">
+    <comment ref="T45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1465,7 +1473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T46" authorId="0" shapeId="0">
+    <comment ref="T46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1480,7 +1488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T47" authorId="0" shapeId="0">
+    <comment ref="T47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1495,7 +1503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T48" authorId="0" shapeId="0">
+    <comment ref="T48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1510,7 +1518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T49" authorId="0" shapeId="0">
+    <comment ref="T49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1525,7 +1533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T50" authorId="0" shapeId="0">
+    <comment ref="T50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1540,7 +1548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T51" authorId="0" shapeId="0">
+    <comment ref="T51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1555,7 +1563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T52" authorId="0" shapeId="0">
+    <comment ref="T52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1570,7 +1578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T53" authorId="0" shapeId="0">
+    <comment ref="T53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1585,7 +1593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T54" authorId="0" shapeId="0">
+    <comment ref="T54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1600,7 +1608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T55" authorId="0" shapeId="0">
+    <comment ref="T55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2240,7 +2248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="13">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2253,8 +2261,8 @@
     <numFmt numFmtId="170" formatCode="0%_);\(0%\)"/>
     <numFmt numFmtId="171" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="172" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="174" formatCode="#0"/>
+    <numFmt numFmtId="175" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="80" x14ac:knownFonts="1">
     <font>
@@ -3147,7 +3155,7 @@
       <left/>
       <right/>
       <top style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -3156,7 +3164,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -3165,10 +3173,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3176,10 +3184,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3188,22 +3196,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3212,13 +3220,13 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -3948,7 +3956,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="479" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3998,6 +4005,7 @@
     <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="0" xfId="479" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="480">
     <cellStyle name="20% - Accent1" xfId="9" builtinId="30" customBuiltin="1"/>
@@ -4514,7 +4522,7 @@
         <xdr:cNvPr id="1076" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000034040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4563,7 +4571,7 @@
         <xdr:cNvPr id="2" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4612,7 +4620,7 @@
         <xdr:cNvPr id="3" name="AutoShape 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4666,7 +4674,7 @@
         <xdr:cNvPr id="4" name="AutoShape 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4720,7 +4728,7 @@
         <xdr:cNvPr id="5" name="AutoShape 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4774,7 +4782,7 @@
         <xdr:cNvPr id="6" name="AutoShape 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4828,7 +4836,7 @@
         <xdr:cNvPr id="7" name="AutoShape 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4882,7 +4890,7 @@
         <xdr:cNvPr id="8" name="AutoShape 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5210,27 +5218,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>58</v>
       </c>
@@ -5244,14 +5252,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>164</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="53">
         <f>+Earnings_Comparison!E58</f>
         <v>909.42</v>
       </c>
@@ -5260,7 +5268,7 @@
         <v>1.0800694669405031</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>113</v>
       </c>
@@ -5268,7 +5276,7 @@
         <f>+Earnings_Comparison!B5</f>
         <v>AL</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="53">
         <f>+Earnings_Comparison!E5</f>
         <v>799.46</v>
       </c>
@@ -5277,7 +5285,7 @@
         <v>0.47948041116914197</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>114</v>
       </c>
@@ -5285,7 +5293,7 @@
         <f>+Earnings_Comparison!B6</f>
         <v>AK</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="53">
         <f>+Earnings_Comparison!E6</f>
         <v>1027.1099999999999</v>
       </c>
@@ -5294,7 +5302,7 @@
         <v>1.9995794181475679</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>115</v>
       </c>
@@ -5302,7 +5310,7 @@
         <f>+Earnings_Comparison!B7</f>
         <v>AZ</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="53">
         <f>+Earnings_Comparison!E7</f>
         <v>898.1</v>
       </c>
@@ -5311,7 +5319,7 @@
         <v>8.4202774114052978</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>116</v>
       </c>
@@ -5319,7 +5327,7 @@
         <f>+Earnings_Comparison!B8</f>
         <v>AR</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="53">
         <f>+Earnings_Comparison!E8</f>
         <v>724.46</v>
       </c>
@@ -5328,7 +5336,7 @@
         <v>1.8935114256935615</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>117</v>
       </c>
@@ -5336,7 +5344,7 @@
         <f>+Earnings_Comparison!B9</f>
         <v>CA</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="53">
         <f>+Earnings_Comparison!E9</f>
         <v>1061.28</v>
       </c>
@@ -5345,7 +5353,7 @@
         <v>5.5592694693389344</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>118</v>
       </c>
@@ -5353,7 +5361,7 @@
         <f>+Earnings_Comparison!B10</f>
         <v>CO</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="53">
         <f>+Earnings_Comparison!E10</f>
         <v>953.57</v>
       </c>
@@ -5362,7 +5370,7 @@
         <v>4.1802710450885128</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>119</v>
       </c>
@@ -5370,7 +5378,7 @@
         <f>+Earnings_Comparison!B11</f>
         <v>CT</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="53">
         <f>+Earnings_Comparison!E11</f>
         <v>1058.95</v>
       </c>
@@ -5379,7 +5387,7 @@
         <v>2.653951392058107</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>120</v>
       </c>
@@ -5387,7 +5395,7 @@
         <f>+Earnings_Comparison!B12</f>
         <v>DE</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="53">
         <f>+Earnings_Comparison!E12</f>
         <v>911.09</v>
       </c>
@@ -5396,7 +5404,7 @@
         <v>11.761752934516245</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>121</v>
       </c>
@@ -5404,7 +5412,7 @@
         <f>+Earnings_Comparison!B13</f>
         <v>DC</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="53">
         <f>+Earnings_Comparison!E13</f>
         <v>1477.08</v>
       </c>
@@ -5413,7 +5421,7 @@
         <v>6.8700494516544364</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>122</v>
       </c>
@@ -5421,7 +5429,7 @@
         <f>+Earnings_Comparison!B14</f>
         <v>FL</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="53">
         <f>+Earnings_Comparison!E14</f>
         <v>829.38</v>
       </c>
@@ -5430,7 +5438,7 @@
         <v>3.761031775713275</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>123</v>
       </c>
@@ -5438,7 +5446,7 @@
         <f>+Earnings_Comparison!B15</f>
         <v>GA</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="53">
         <f>+Earnings_Comparison!E15</f>
         <v>911.41</v>
       </c>
@@ -5447,7 +5455,7 @@
         <v>5.6856012776546505</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>124</v>
       </c>
@@ -5455,7 +5463,7 @@
         <f>+Earnings_Comparison!B16</f>
         <v>HI</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="53">
         <f>+Earnings_Comparison!E16</f>
         <v>898.78</v>
       </c>
@@ -5464,7 +5472,7 @@
         <v>5.518038031913397</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>125</v>
       </c>
@@ -5472,7 +5480,7 @@
         <f>+Earnings_Comparison!B17</f>
         <v>ID</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="53">
         <f>+Earnings_Comparison!E17</f>
         <v>770.56</v>
       </c>
@@ -5481,7 +5489,7 @@
         <v>2.9732277344208136</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>126</v>
       </c>
@@ -5489,7 +5497,7 @@
         <f>+Earnings_Comparison!B18</f>
         <v>IL</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="53">
         <f>+Earnings_Comparison!E18</f>
         <v>927.77</v>
       </c>
@@ -5498,7 +5506,7 @@
         <v>1.2310363191617268</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>127</v>
       </c>
@@ -5506,7 +5514,7 @@
         <f>+Earnings_Comparison!B19</f>
         <v>IN</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="53">
         <f>+Earnings_Comparison!E19</f>
         <v>865.56</v>
       </c>
@@ -5515,7 +5523,7 @@
         <v>4.8331589501042549</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>128</v>
       </c>
@@ -5523,7 +5531,7 @@
         <f>+Earnings_Comparison!B20</f>
         <v>IA</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="53">
         <f>+Earnings_Comparison!E20</f>
         <v>811.98</v>
       </c>
@@ -5532,7 +5540,7 @@
         <v>-1.4339970245571543</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>129</v>
       </c>
@@ -5540,7 +5548,7 @@
         <f>+Earnings_Comparison!B21</f>
         <v>KS</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="53">
         <f>+Earnings_Comparison!E21</f>
         <v>798.91</v>
       </c>
@@ -5549,7 +5557,7 @@
         <v>2.401750193753216</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>130</v>
       </c>
@@ -5557,7 +5565,7 @@
         <f>+Earnings_Comparison!B22</f>
         <v>KY</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="53">
         <f>+Earnings_Comparison!E22</f>
         <v>774.84</v>
       </c>
@@ -5566,7 +5574,7 @@
         <v>1.87632742564392</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>131</v>
       </c>
@@ -5574,7 +5582,7 @@
         <f>+Earnings_Comparison!B23</f>
         <v>LA</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="53">
         <f>+Earnings_Comparison!E23</f>
         <v>828.21</v>
       </c>
@@ -5583,7 +5591,7 @@
         <v>3.1342544977436271</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>132</v>
       </c>
@@ -5591,7 +5599,7 @@
         <f>+Earnings_Comparison!B24</f>
         <v>ME</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="53">
         <f>+Earnings_Comparison!E24</f>
         <v>785.22</v>
       </c>
@@ -5600,7 +5608,7 @@
         <v>4.2830182606085065</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>133</v>
       </c>
@@ -5608,7 +5616,7 @@
         <f>+Earnings_Comparison!B25</f>
         <v>MD</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="53">
         <f>+Earnings_Comparison!E25</f>
         <v>970.14</v>
       </c>
@@ -5617,7 +5625,7 @@
         <v>2.7474728856072161</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>134</v>
       </c>
@@ -5625,7 +5633,7 @@
         <f>+Earnings_Comparison!B26</f>
         <v>MA</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="53">
         <f>+Earnings_Comparison!E26</f>
         <v>1077.05</v>
       </c>
@@ -5634,7 +5642,7 @@
         <v>2.2072751628677389</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>135</v>
       </c>
@@ -5642,7 +5650,7 @@
         <f>+Earnings_Comparison!B27</f>
         <v>MI</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="53">
         <f>+Earnings_Comparison!E27</f>
         <v>852.95</v>
       </c>
@@ -5651,7 +5659,7 @@
         <v>2.0684340018956693</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>136</v>
       </c>
@@ -5659,7 +5667,7 @@
         <f>+Earnings_Comparison!B28</f>
         <v>MN</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="53">
         <f>+Earnings_Comparison!E28</f>
         <v>977.99</v>
       </c>
@@ -5668,7 +5676,7 @@
         <v>4.6112733569586339</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>137</v>
       </c>
@@ -5676,7 +5684,7 @@
         <f>+Earnings_Comparison!B29</f>
         <v>MS</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="53">
         <f>+Earnings_Comparison!E29</f>
         <v>715.97</v>
       </c>
@@ -5685,7 +5693,7 @@
         <v>0.43070583926916317</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>138</v>
       </c>
@@ -5693,7 +5701,7 @@
         <f>+Earnings_Comparison!B30</f>
         <v>MO</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="53">
         <f>+Earnings_Comparison!E30</f>
         <v>822.17</v>
       </c>
@@ -5702,7 +5710,7 @@
         <v>8.2527762291400464</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>139</v>
       </c>
@@ -5710,7 +5718,7 @@
         <f>+Earnings_Comparison!B31</f>
         <v>MT</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="53">
         <f>+Earnings_Comparison!E31</f>
         <v>778.08</v>
       </c>
@@ -5719,7 +5727,7 @@
         <v>3.449378719085483</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>140</v>
       </c>
@@ -5727,7 +5735,7 @@
         <f>+Earnings_Comparison!B32</f>
         <v>NE</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="53">
         <f>+Earnings_Comparison!E32</f>
         <v>836.97</v>
       </c>
@@ -5736,7 +5744,7 @@
         <v>5.1199730820937983</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>141</v>
       </c>
@@ -5744,7 +5752,7 @@
         <f>+Earnings_Comparison!B33</f>
         <v>NV</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="53">
         <f>+Earnings_Comparison!E33</f>
         <v>775.73</v>
       </c>
@@ -5753,7 +5761,7 @@
         <v>1.9047499961891479</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>142</v>
       </c>
@@ -5761,7 +5769,7 @@
         <f>+Earnings_Comparison!B34</f>
         <v>NH</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="53">
         <f>+Earnings_Comparison!E34</f>
         <v>874.79</v>
       </c>
@@ -5770,7 +5778,7 @@
         <v>0.8858237823111903</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>143</v>
       </c>
@@ -5778,7 +5786,7 @@
         <f>+Earnings_Comparison!B35</f>
         <v>NJ</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="53">
         <f>+Earnings_Comparison!E35</f>
         <v>1000.84</v>
       </c>
@@ -5787,7 +5795,7 @@
         <v>3.9691704339658074</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>144</v>
       </c>
@@ -5795,7 +5803,7 @@
         <f>+Earnings_Comparison!B36</f>
         <v>NM</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="53">
         <f>+Earnings_Comparison!E36</f>
         <v>725.9</v>
       </c>
@@ -5804,7 +5812,7 @@
         <v>4.2103089981685216</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>145</v>
       </c>
@@ -5812,7 +5820,7 @@
         <f>+Earnings_Comparison!B37</f>
         <v>NY</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="53">
         <f>+Earnings_Comparison!E37</f>
         <v>1013.7</v>
       </c>
@@ -5821,7 +5829,7 @@
         <v>1.9626545183159871</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>146</v>
       </c>
@@ -5829,7 +5837,7 @@
         <f>+Earnings_Comparison!B38</f>
         <v>NC</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="53">
         <f>+Earnings_Comparison!E38</f>
         <v>841.46</v>
       </c>
@@ -5838,7 +5846,7 @@
         <v>2.9890354333622637</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>147</v>
       </c>
@@ -5846,7 +5854,7 @@
         <f>+Earnings_Comparison!B39</f>
         <v>ND</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="53">
         <f>+Earnings_Comparison!E39</f>
         <v>942.73</v>
       </c>
@@ -5855,7 +5863,7 @@
         <v>3.9409293472148166</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>148</v>
       </c>
@@ -5863,7 +5871,7 @@
         <f>+Earnings_Comparison!B40</f>
         <v>OH</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="53">
         <f>+Earnings_Comparison!E40</f>
         <v>822.17</v>
       </c>
@@ -5872,7 +5880,7 @@
         <v>0.99777586777844984</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>149</v>
       </c>
@@ -5880,7 +5888,7 @@
         <f>+Earnings_Comparison!B41</f>
         <v>OK</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="53">
         <f>+Earnings_Comparison!E41</f>
         <v>833.69</v>
       </c>
@@ -5889,7 +5897,7 @@
         <v>5.4435964424423</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>150</v>
       </c>
@@ -5897,7 +5905,7 @@
         <f>+Earnings_Comparison!B42</f>
         <v>OR</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="53">
         <f>+Earnings_Comparison!E42</f>
         <v>888.79</v>
       </c>
@@ -5906,7 +5914,7 @@
         <v>3.412728385519781</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>151</v>
       </c>
@@ -5914,7 +5922,7 @@
         <f>+Earnings_Comparison!B43</f>
         <v>PA</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="53">
         <f>+Earnings_Comparison!E43</f>
         <v>848.64</v>
       </c>
@@ -5923,7 +5931,7 @@
         <v>0.33010723046997814</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>152</v>
       </c>
@@ -5931,7 +5939,7 @@
         <f>+Earnings_Comparison!B44</f>
         <v>RI</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="53">
         <f>+Earnings_Comparison!E44</f>
         <v>877.48</v>
       </c>
@@ -5940,7 +5948,7 @@
         <v>2.34390400101121</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>153</v>
       </c>
@@ -5948,7 +5956,7 @@
         <f>+Earnings_Comparison!B45</f>
         <v>SC</v>
       </c>
-      <c r="C44" s="30">
+      <c r="C44" s="53">
         <f>+Earnings_Comparison!E45</f>
         <v>797.81</v>
       </c>
@@ -5957,7 +5965,7 @@
         <v>3.9592501859836426</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>154</v>
       </c>
@@ -5965,7 +5973,7 @@
         <f>+Earnings_Comparison!B46</f>
         <v>SD</v>
       </c>
-      <c r="C45" s="30">
+      <c r="C45" s="53">
         <f>+Earnings_Comparison!E46</f>
         <v>743.97</v>
       </c>
@@ -5974,7 +5982,7 @@
         <v>0.51854527674572992</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>155</v>
       </c>
@@ -5982,7 +5990,7 @@
         <f>+Earnings_Comparison!B47</f>
         <v>TN</v>
       </c>
-      <c r="C46" s="30">
+      <c r="C46" s="53">
         <f>+Earnings_Comparison!E47</f>
         <v>805.98</v>
       </c>
@@ -5991,7 +5999,7 @@
         <v>2.4702090932969378</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>156</v>
       </c>
@@ -5999,7 +6007,7 @@
         <f>+Earnings_Comparison!B48</f>
         <v>TX</v>
       </c>
-      <c r="C47" s="30">
+      <c r="C47" s="53">
         <f>+Earnings_Comparison!E48</f>
         <v>930.75</v>
       </c>
@@ -6008,7 +6016,7 @@
         <v>5.0785595065279132</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>157</v>
       </c>
@@ -6016,7 +6024,7 @@
         <f>+Earnings_Comparison!B49</f>
         <v>UT</v>
       </c>
-      <c r="C48" s="30">
+      <c r="C48" s="53">
         <f>+Earnings_Comparison!E49</f>
         <v>903.21</v>
       </c>
@@ -6025,7 +6033,7 @@
         <v>5.1228788880663068</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>158</v>
       </c>
@@ -6033,7 +6041,7 @@
         <f>+Earnings_Comparison!B50</f>
         <v>VT</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C49" s="53">
         <f>+Earnings_Comparison!E50</f>
         <v>821.14</v>
       </c>
@@ -6042,7 +6050,7 @@
         <v>-0.58111146522916712</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>159</v>
       </c>
@@ -6050,7 +6058,7 @@
         <f>+Earnings_Comparison!B51</f>
         <v>VA</v>
       </c>
-      <c r="C50" s="30">
+      <c r="C50" s="53">
         <f>+Earnings_Comparison!E51</f>
         <v>955.96</v>
       </c>
@@ -6059,7 +6067,7 @@
         <v>-0.38460703019946862</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>160</v>
       </c>
@@ -6067,7 +6075,7 @@
         <f>+Earnings_Comparison!B52</f>
         <v>WA</v>
       </c>
-      <c r="C51" s="30">
+      <c r="C51" s="53">
         <f>+Earnings_Comparison!E52</f>
         <v>1109.08</v>
       </c>
@@ -6076,7 +6084,7 @@
         <v>4.9974356044612422</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>161</v>
       </c>
@@ -6084,7 +6092,7 @@
         <f>+Earnings_Comparison!B53</f>
         <v>WV</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="53">
         <f>+Earnings_Comparison!E53</f>
         <v>780.12</v>
       </c>
@@ -6093,7 +6101,7 @@
         <v>4.2933053876920368</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>162</v>
       </c>
@@ -6101,7 +6109,7 @@
         <f>+Earnings_Comparison!B54</f>
         <v>WI</v>
       </c>
-      <c r="C53" s="30">
+      <c r="C53" s="53">
         <f>+Earnings_Comparison!E54</f>
         <v>839.95</v>
       </c>
@@ -6110,7 +6118,7 @@
         <v>1.9549776190133317</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>163</v>
       </c>
@@ -6118,7 +6126,7 @@
         <f>+Earnings_Comparison!B55</f>
         <v>WY</v>
       </c>
-      <c r="C54" s="30">
+      <c r="C54" s="53">
         <f>+Earnings_Comparison!E55</f>
         <v>835.18</v>
       </c>
@@ -6147,36 +6155,36 @@
       <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="235" width="8" style="1" customWidth="1"/>
-    <col min="236" max="16384" width="9.140625" style="1"/>
+    <col min="236" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="49" t="s">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="C1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="50"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>61</v>
       </c>
@@ -6186,10 +6194,10 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="43">
         <v>42552</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="44">
         <v>42917</v>
       </c>
       <c r="F4" s="10"/>
@@ -6200,7 +6208,7 @@
         <v>57</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="40" t="s">
         <v>193</v>
       </c>
       <c r="K4" s="10"/>
@@ -6226,7 +6234,7 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
     </row>
-    <row r="5" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A5" s="19">
         <v>1</v>
       </c>
@@ -6236,16 +6244,16 @@
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="35">
         <f>'July 2017_BLS Data Series'!H5</f>
         <v>782.13</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="41">
         <f>'July 2017_BLS Data Series'!T5</f>
         <v>799.46</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34">
+      <c r="F5" s="33"/>
+      <c r="G5" s="33">
         <f>D5/$G$61</f>
         <v>795.6450379008262</v>
       </c>
@@ -6261,7 +6269,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A6" s="19">
         <v>2</v>
       </c>
@@ -6271,16 +6279,16 @@
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="35">
         <f>'July 2017_BLS Data Series'!H6</f>
         <v>989.87</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="41">
         <f>'July 2017_BLS Data Series'!T6</f>
         <v>1027.1099999999999</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34">
+      <c r="F6" s="33"/>
+      <c r="G6" s="33">
         <f t="shared" ref="G6:G55" si="0">D6/$G$61</f>
         <v>1006.9747403460944</v>
       </c>
@@ -6296,7 +6304,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A7" s="19">
         <v>4</v>
       </c>
@@ -6306,16 +6314,16 @@
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="35">
         <f>'July 2017_BLS Data Series'!H7</f>
         <v>814.28</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="41">
         <f>'July 2017_BLS Data Series'!T7</f>
         <v>898.1</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34">
+      <c r="F7" s="33"/>
+      <c r="G7" s="33">
         <f t="shared" si="0"/>
         <v>828.35058297454987</v>
       </c>
@@ -6331,7 +6339,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A8" s="19">
         <v>5</v>
       </c>
@@ -6341,16 +6349,16 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="35">
         <f>'July 2017_BLS Data Series'!H8</f>
         <v>698.92</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="41">
         <f>'July 2017_BLS Data Series'!T8</f>
         <v>724.46</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34">
+      <c r="F8" s="33"/>
+      <c r="G8" s="33">
         <f t="shared" si="0"/>
         <v>710.99718702727864</v>
       </c>
@@ -6366,7 +6374,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>6</v>
       </c>
@@ -6376,16 +6384,16 @@
       <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="35">
         <f>'July 2017_BLS Data Series'!H9</f>
         <v>988.31</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="41">
         <f>'July 2017_BLS Data Series'!T9</f>
         <v>1061.28</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34">
+      <c r="F9" s="33"/>
+      <c r="G9" s="33">
         <f t="shared" si="0"/>
         <v>1005.387783882175</v>
       </c>
@@ -6401,7 +6409,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>8</v>
       </c>
@@ -6411,16 +6419,16 @@
       <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="35">
         <f>'July 2017_BLS Data Series'!H10</f>
         <v>899.76</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="41">
         <f>'July 2017_BLS Data Series'!T10</f>
         <v>953.57</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34">
+      <c r="F10" s="33"/>
+      <c r="G10" s="33">
         <f t="shared" si="0"/>
         <v>915.30765895905711</v>
       </c>
@@ -6436,7 +6444,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>9</v>
       </c>
@@ -6446,16 +6454,16 @@
       <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="35">
         <f>'July 2017_BLS Data Series'!H11</f>
         <v>1014.05</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="41">
         <f>'July 2017_BLS Data Series'!T11</f>
         <v>1058.95</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34">
+      <c r="F11" s="33"/>
+      <c r="G11" s="33">
         <f t="shared" si="0"/>
         <v>1031.5725655368453</v>
       </c>
@@ -6471,7 +6479,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>10</v>
       </c>
@@ -6481,16 +6489,16 @@
       <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="35">
         <f>'July 2017_BLS Data Series'!H12</f>
         <v>801.36</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="41">
         <f>'July 2017_BLS Data Series'!T12</f>
         <v>911.09</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34">
+      <c r="F12" s="33"/>
+      <c r="G12" s="33">
         <f t="shared" si="0"/>
         <v>815.20732815798658</v>
       </c>
@@ -6506,7 +6514,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>11</v>
       </c>
@@ -6516,16 +6524,16 @@
       <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="35">
         <f>'July 2017_BLS Data Series'!H13</f>
         <v>1358.65</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="41">
         <f>'July 2017_BLS Data Series'!T13</f>
         <v>1477.08</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34">
+      <c r="F13" s="33"/>
+      <c r="G13" s="33">
         <f t="shared" si="0"/>
         <v>1382.1271792975049</v>
       </c>
@@ -6541,7 +6549,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>12</v>
       </c>
@@ -6551,16 +6559,16 @@
       <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="35">
         <f>'July 2017_BLS Data Series'!H14</f>
         <v>785.74</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="41">
         <f>'July 2017_BLS Data Series'!T14</f>
         <v>829.38</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34">
+      <c r="F14" s="33"/>
+      <c r="G14" s="33">
         <f t="shared" si="0"/>
         <v>799.31741792310129</v>
       </c>
@@ -6576,7 +6584,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>13</v>
       </c>
@@ -6586,16 +6594,16 @@
       <c r="C15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="35">
         <f>'July 2017_BLS Data Series'!H15</f>
         <v>847.73</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="41">
         <f>'July 2017_BLS Data Series'!T15</f>
         <v>911.41</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34">
+      <c r="F15" s="33"/>
+      <c r="G15" s="33">
         <f t="shared" si="0"/>
         <v>862.37859176820655</v>
       </c>
@@ -6611,7 +6619,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -6621,16 +6629,16 @@
       <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="35">
         <f>'July 2017_BLS Data Series'!H16</f>
         <v>837.31</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="41">
         <f>'July 2017_BLS Data Series'!T16</f>
         <v>898.78</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34">
+      <c r="F16" s="33"/>
+      <c r="G16" s="33">
         <f t="shared" si="0"/>
         <v>851.77853641305251</v>
       </c>
@@ -6646,7 +6654,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -6656,16 +6664,16 @@
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="35">
         <f>'July 2017_BLS Data Series'!H17</f>
         <v>735.6</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="41">
         <f>'July 2017_BLS Data Series'!T17</f>
         <v>770.56</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34">
+      <c r="F17" s="33"/>
+      <c r="G17" s="33">
         <f t="shared" si="0"/>
         <v>748.31100952507609</v>
       </c>
@@ -6681,7 +6689,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -6691,16 +6699,16 @@
       <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="35">
         <f>'July 2017_BLS Data Series'!H18</f>
         <v>900.92</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="41">
         <f>'July 2017_BLS Data Series'!T18</f>
         <v>927.77</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34">
+      <c r="F18" s="33"/>
+      <c r="G18" s="33">
         <f t="shared" si="0"/>
         <v>916.48770350915106</v>
       </c>
@@ -6716,7 +6724,7 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -6726,16 +6734,16 @@
       <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="35">
         <f>'July 2017_BLS Data Series'!H19</f>
         <v>811.63</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="41">
         <f>'July 2017_BLS Data Series'!T19</f>
         <v>865.56</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34">
+      <c r="F19" s="33"/>
+      <c r="G19" s="33">
         <f t="shared" si="0"/>
         <v>825.65479154545608</v>
       </c>
@@ -6751,7 +6759,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -6761,16 +6769,16 @@
       <c r="C20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="35">
         <f>'July 2017_BLS Data Series'!H20</f>
         <v>809.8</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="41">
         <f>'July 2017_BLS Data Series'!T20</f>
         <v>811.98</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34">
+      <c r="F20" s="33"/>
+      <c r="G20" s="33">
         <f t="shared" si="0"/>
         <v>823.79316953970442</v>
       </c>
@@ -6786,7 +6794,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -6796,16 +6804,16 @@
       <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="35">
         <f>'July 2017_BLS Data Series'!H21</f>
         <v>766.92</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="41">
         <f>'July 2017_BLS Data Series'!T21</f>
         <v>798.91</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34">
+      <c r="F21" s="33"/>
+      <c r="G21" s="33">
         <f t="shared" si="0"/>
         <v>780.17221237761191</v>
       </c>
@@ -6821,7 +6829,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -6831,16 +6839,16 @@
       <c r="C22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="35">
         <f>'July 2017_BLS Data Series'!H22</f>
         <v>747.65</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="41">
         <f>'July 2017_BLS Data Series'!T22</f>
         <v>774.84</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34">
+      <c r="F22" s="33"/>
+      <c r="G22" s="33">
         <f t="shared" si="0"/>
         <v>760.56923092906891</v>
       </c>
@@ -6856,7 +6864,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -6866,16 +6874,16 @@
       <c r="C23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="35">
         <f>'July 2017_BLS Data Series'!H23</f>
         <v>789.4</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="41">
         <f>'July 2017_BLS Data Series'!T23</f>
         <v>828.21</v>
       </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34">
+      <c r="F23" s="33"/>
+      <c r="G23" s="33">
         <f t="shared" si="0"/>
         <v>803.04066193460449</v>
       </c>
@@ -6891,7 +6899,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -6901,16 +6909,16 @@
       <c r="C24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="35">
         <f>'July 2017_BLS Data Series'!H24</f>
         <v>740.18</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="41">
         <f>'July 2017_BLS Data Series'!T24</f>
         <v>785.22</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34">
+      <c r="F24" s="33"/>
+      <c r="G24" s="33">
         <f t="shared" si="0"/>
         <v>752.97015093837786</v>
       </c>
@@ -6926,7 +6934,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -6936,16 +6944,16 @@
       <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="35">
         <f>'July 2017_BLS Data Series'!H25</f>
         <v>928.16</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="41">
         <f>'July 2017_BLS Data Series'!T25</f>
         <v>970.14</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34">
+      <c r="F25" s="33"/>
+      <c r="G25" s="33">
         <f t="shared" si="0"/>
         <v>944.19840484066685</v>
       </c>
@@ -6961,7 +6969,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="19">
         <v>25</v>
       </c>
@@ -6971,16 +6979,16 @@
       <c r="C26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="35">
         <f>'July 2017_BLS Data Series'!H26</f>
         <v>1035.8900000000001</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="41">
         <f>'July 2017_BLS Data Series'!T26</f>
         <v>1077.05</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34">
+      <c r="F26" s="33"/>
+      <c r="G26" s="33">
         <f t="shared" si="0"/>
         <v>1053.7899560317171</v>
       </c>
@@ -6996,7 +7004,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -7006,16 +7014,16 @@
       <c r="C27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="35">
         <f>'July 2017_BLS Data Series'!H27</f>
         <v>821.47</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="41">
         <f>'July 2017_BLS Data Series'!T27</f>
         <v>852.95</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34">
+      <c r="F27" s="33"/>
+      <c r="G27" s="33">
         <f t="shared" si="0"/>
         <v>835.66482462556314</v>
       </c>
@@ -7031,7 +7039,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="19">
         <v>27</v>
       </c>
@@ -7041,16 +7049,16 @@
       <c r="C28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="35">
         <f>'July 2017_BLS Data Series'!H28</f>
         <v>919</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="41">
         <f>'July 2017_BLS Data Series'!T28</f>
         <v>977.99</v>
       </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34">
+      <c r="F28" s="33"/>
+      <c r="G28" s="33">
         <f t="shared" si="0"/>
         <v>934.8801220140632</v>
       </c>
@@ -7066,7 +7074,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -7076,16 +7084,16 @@
       <c r="C29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="35">
         <f>'July 2017_BLS Data Series'!H29</f>
         <v>700.79</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="41">
         <f>'July 2017_BLS Data Series'!T29</f>
         <v>715.97</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34">
+      <c r="F29" s="33"/>
+      <c r="G29" s="33">
         <f t="shared" si="0"/>
         <v>712.8995002244128</v>
       </c>
@@ -7101,7 +7109,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="19">
         <v>29</v>
       </c>
@@ -7111,16 +7119,16 @@
       <c r="C30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="35">
         <f>'July 2017_BLS Data Series'!H30</f>
         <v>746.59</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="41">
         <f>'July 2017_BLS Data Series'!T30</f>
         <v>822.17</v>
       </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34">
+      <c r="F30" s="33"/>
+      <c r="G30" s="33">
         <f t="shared" si="0"/>
         <v>759.49091435743139</v>
       </c>
@@ -7136,7 +7144,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -7146,16 +7154,16 @@
       <c r="C31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="35">
         <f>'July 2017_BLS Data Series'!H31</f>
         <v>739.36</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="41">
         <f>'July 2017_BLS Data Series'!T31</f>
         <v>778.08</v>
       </c>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34">
+      <c r="F31" s="33"/>
+      <c r="G31" s="33">
         <f t="shared" si="0"/>
         <v>752.13598151503572</v>
       </c>
@@ -7171,7 +7179,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="19">
         <v>31</v>
       </c>
@@ -7181,16 +7189,16 @@
       <c r="C32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="35">
         <f>'July 2017_BLS Data Series'!H32</f>
         <v>782.68</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="41">
         <f>'July 2017_BLS Data Series'!T32</f>
         <v>836.97</v>
       </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34">
+      <c r="F32" s="33"/>
+      <c r="G32" s="33">
         <f t="shared" si="0"/>
         <v>796.20454178233615</v>
       </c>
@@ -7206,7 +7214,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="19">
         <v>32</v>
       </c>
@@ -7216,16 +7224,16 @@
       <c r="C33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="35">
         <f>'July 2017_BLS Data Series'!H33</f>
         <v>748.3</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="41">
         <f>'July 2017_BLS Data Series'!T33</f>
         <v>775.73</v>
       </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34">
+      <c r="F33" s="33"/>
+      <c r="G33" s="33">
         <f t="shared" si="0"/>
         <v>761.2304627890353</v>
       </c>
@@ -7241,7 +7249,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="19">
         <v>33</v>
       </c>
@@ -7251,16 +7259,16 @@
       <c r="C34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="35">
         <f>'July 2017_BLS Data Series'!H34</f>
         <v>852.38</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="41">
         <f>'July 2017_BLS Data Series'!T34</f>
         <v>874.79</v>
       </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34">
+      <c r="F34" s="33"/>
+      <c r="G34" s="33">
         <f t="shared" si="0"/>
         <v>867.10894276642784</v>
       </c>
@@ -7276,7 +7284,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="19">
         <v>34</v>
       </c>
@@ -7286,16 +7294,16 @@
       <c r="C35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="35">
         <f>'July 2017_BLS Data Series'!H35</f>
         <v>946.28</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="41">
         <f>'July 2017_BLS Data Series'!T35</f>
         <v>1000.84</v>
       </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34">
+      <c r="F35" s="33"/>
+      <c r="G35" s="33">
         <f t="shared" si="0"/>
         <v>962.63151453696162</v>
       </c>
@@ -7311,7 +7319,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="19">
         <v>35</v>
       </c>
@@ -7321,16 +7329,16 @@
       <c r="C36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="35">
         <f>'July 2017_BLS Data Series'!H36</f>
         <v>684.74</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="41">
         <f>'July 2017_BLS Data Series'!T36</f>
         <v>725.9</v>
       </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34">
+      <c r="F36" s="33"/>
+      <c r="G36" s="33">
         <f t="shared" si="0"/>
         <v>696.57215968216497</v>
       </c>
@@ -7346,7 +7354,7 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="19">
         <v>36</v>
       </c>
@@ -7356,16 +7364,16 @@
       <c r="C37" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="35">
         <f>'July 2017_BLS Data Series'!H37</f>
         <v>977.3</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="41">
         <f>'July 2017_BLS Data Series'!T37</f>
         <v>1013.7</v>
       </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34">
+      <c r="F37" s="33"/>
+      <c r="G37" s="33">
         <f t="shared" si="0"/>
         <v>994.18753345412836</v>
       </c>
@@ -7381,7 +7389,7 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="19">
         <v>37</v>
       </c>
@@ -7391,16 +7399,16 @@
       <c r="C38" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="35">
         <f>'July 2017_BLS Data Series'!H38</f>
         <v>803.16</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="41">
         <f>'July 2017_BLS Data Series'!T38</f>
         <v>841.46</v>
       </c>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34">
+      <c r="F38" s="33"/>
+      <c r="G38" s="33">
         <f t="shared" si="0"/>
         <v>817.03843177020133</v>
       </c>
@@ -7416,7 +7424,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="19">
         <v>38</v>
       </c>
@@ -7426,16 +7434,16 @@
       <c r="C39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="35">
         <f>'July 2017_BLS Data Series'!H39</f>
         <v>891.58</v>
       </c>
-      <c r="E39" s="42">
+      <c r="E39" s="41">
         <f>'July 2017_BLS Data Series'!T39</f>
         <v>942.73</v>
       </c>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34">
+      <c r="F39" s="33"/>
+      <c r="G39" s="33">
         <f t="shared" si="0"/>
         <v>906.98631032132596</v>
       </c>
@@ -7451,7 +7459,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="19">
         <v>39</v>
       </c>
@@ -7461,16 +7469,16 @@
       <c r="C40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="35">
         <f>'July 2017_BLS Data Series'!H40</f>
         <v>800.22</v>
       </c>
-      <c r="E40" s="42">
+      <c r="E40" s="41">
         <f>'July 2017_BLS Data Series'!T40</f>
         <v>822.17</v>
       </c>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34">
+      <c r="F40" s="33"/>
+      <c r="G40" s="33">
         <f t="shared" si="0"/>
         <v>814.04762920358405</v>
       </c>
@@ -7486,7 +7494,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -7496,16 +7504,16 @@
       <c r="C41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="35">
         <f>'July 2017_BLS Data Series'!H41</f>
         <v>777.22</v>
       </c>
-      <c r="E41" s="42">
+      <c r="E41" s="41">
         <f>'July 2017_BLS Data Series'!T41</f>
         <v>833.69</v>
       </c>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34">
+      <c r="F41" s="33"/>
+      <c r="G41" s="33">
         <f t="shared" si="0"/>
         <v>790.65019415861832</v>
       </c>
@@ -7521,7 +7529,7 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="19">
         <v>41</v>
       </c>
@@ -7531,16 +7539,16 @@
       <c r="C42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="35">
         <f>'July 2017_BLS Data Series'!H42</f>
         <v>844.86</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="41">
         <f>'July 2017_BLS Data Series'!T42</f>
         <v>888.79</v>
       </c>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34">
+      <c r="F42" s="33"/>
+      <c r="G42" s="33">
         <f t="shared" si="0"/>
         <v>859.45899878650869</v>
       </c>
@@ -7556,7 +7564,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="19">
         <v>42</v>
       </c>
@@ -7566,16 +7574,16 @@
       <c r="C43" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="35">
         <f>'July 2017_BLS Data Series'!H43</f>
         <v>831.48</v>
       </c>
-      <c r="E43" s="42">
+      <c r="E43" s="41">
         <f>'July 2017_BLS Data Series'!T43</f>
         <v>848.64</v>
       </c>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34">
+      <c r="F43" s="33"/>
+      <c r="G43" s="33">
         <f t="shared" si="0"/>
         <v>845.84779526904606</v>
       </c>
@@ -7591,7 +7599,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="19">
         <v>44</v>
       </c>
@@ -7601,16 +7609,16 @@
       <c r="C44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="36">
+      <c r="D44" s="35">
         <f>'July 2017_BLS Data Series'!H44</f>
         <v>842.82</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E44" s="41">
         <f>'July 2017_BLS Data Series'!T44</f>
         <v>877.48</v>
       </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34">
+      <c r="F44" s="33"/>
+      <c r="G44" s="33">
         <f t="shared" si="0"/>
         <v>857.38374802599867</v>
       </c>
@@ -7626,7 +7634,7 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="19">
         <v>45</v>
       </c>
@@ -7636,16 +7644,16 @@
       <c r="C45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="36">
+      <c r="D45" s="35">
         <f>'July 2017_BLS Data Series'!H45</f>
         <v>754.39</v>
       </c>
-      <c r="E45" s="42">
+      <c r="E45" s="41">
         <f>'July 2017_BLS Data Series'!T45</f>
         <v>797.81</v>
       </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34">
+      <c r="F45" s="33"/>
+      <c r="G45" s="33">
         <f t="shared" si="0"/>
         <v>767.42569667702844</v>
       </c>
@@ -7661,7 +7669,7 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="19">
         <v>46</v>
       </c>
@@ -7671,16 +7679,16 @@
       <c r="C46" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="36">
+      <c r="D46" s="35">
         <f>'July 2017_BLS Data Series'!H46</f>
         <v>727.56</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="41">
         <f>'July 2017_BLS Data Series'!T46</f>
         <v>743.97</v>
       </c>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34">
+      <c r="F46" s="33"/>
+      <c r="G46" s="33">
         <f t="shared" si="0"/>
         <v>740.13208005718366</v>
       </c>
@@ -7696,7 +7704,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="19">
         <v>47</v>
       </c>
@@ -7706,16 +7714,16 @@
       <c r="C47" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="36">
+      <c r="D47" s="35">
         <f>'July 2017_BLS Data Series'!H47</f>
         <v>773.19</v>
       </c>
-      <c r="E47" s="42">
+      <c r="E47" s="41">
         <f>'July 2017_BLS Data Series'!T47</f>
         <v>805.98</v>
       </c>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34">
+      <c r="F47" s="33"/>
+      <c r="G47" s="33">
         <f t="shared" si="0"/>
         <v>786.55055662682651</v>
       </c>
@@ -7731,7 +7739,7 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="19">
         <v>48</v>
       </c>
@@ -7741,16 +7749,16 @@
       <c r="C48" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="36">
+      <c r="D48" s="35">
         <f>'July 2017_BLS Data Series'!H48</f>
         <v>870.72</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="41">
         <f>'July 2017_BLS Data Series'!T48</f>
         <v>930.75</v>
       </c>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34">
+      <c r="F48" s="33"/>
+      <c r="G48" s="33">
         <f t="shared" si="0"/>
         <v>885.76585401532657</v>
       </c>
@@ -7766,7 +7774,7 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="19">
         <v>49</v>
       </c>
@@ -7776,16 +7784,16 @@
       <c r="C49" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="36">
+      <c r="D49" s="35">
         <f>'July 2017_BLS Data Series'!H49</f>
         <v>844.6</v>
       </c>
-      <c r="E49" s="42">
+      <c r="E49" s="41">
         <f>'July 2017_BLS Data Series'!T49</f>
         <v>903.21</v>
       </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34">
+      <c r="F49" s="33"/>
+      <c r="G49" s="33">
         <f t="shared" si="0"/>
         <v>859.19450604252211</v>
       </c>
@@ -7801,7 +7809,7 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="19">
         <v>50</v>
       </c>
@@ -7811,16 +7819,16 @@
       <c r="C50" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="36">
+      <c r="D50" s="35">
         <f>'July 2017_BLS Data Series'!H50</f>
         <v>811.91</v>
       </c>
-      <c r="E50" s="42">
+      <c r="E50" s="41">
         <f>'July 2017_BLS Data Series'!T50</f>
         <v>821.14</v>
       </c>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34">
+      <c r="F50" s="33"/>
+      <c r="G50" s="33">
         <f t="shared" si="0"/>
         <v>825.93962988513385</v>
       </c>
@@ -7836,7 +7844,7 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="19">
         <v>51</v>
       </c>
@@ -7846,16 +7854,16 @@
       <c r="C51" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="36">
+      <c r="D51" s="35">
         <f>'July 2017_BLS Data Series'!H51</f>
         <v>943.35</v>
       </c>
-      <c r="E51" s="42">
+      <c r="E51" s="41">
         <f>'July 2017_BLS Data Series'!T51</f>
         <v>955.96</v>
       </c>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34">
+      <c r="F51" s="33"/>
+      <c r="G51" s="33">
         <f t="shared" si="0"/>
         <v>959.65088476818994</v>
       </c>
@@ -7871,7 +7879,7 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="19">
         <v>53</v>
       </c>
@@ -7881,16 +7889,16 @@
       <c r="C52" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="36">
+      <c r="D52" s="35">
         <f>'July 2017_BLS Data Series'!H52</f>
         <v>1038.3499999999999</v>
       </c>
-      <c r="E52" s="42">
+      <c r="E52" s="41">
         <f>'July 2017_BLS Data Series'!T52</f>
         <v>1109.08</v>
       </c>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34">
+      <c r="F52" s="33"/>
+      <c r="G52" s="33">
         <f t="shared" si="0"/>
         <v>1056.2924643017436</v>
       </c>
@@ -7906,7 +7914,7 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="19">
         <v>54</v>
       </c>
@@ -7916,16 +7924,16 @@
       <c r="C53" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="35">
         <f>'July 2017_BLS Data Series'!H53</f>
         <v>735.3</v>
       </c>
-      <c r="E53" s="42">
+      <c r="E53" s="41">
         <f>'July 2017_BLS Data Series'!T53</f>
         <v>780.12</v>
       </c>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34">
+      <c r="F53" s="33"/>
+      <c r="G53" s="33">
         <f t="shared" si="0"/>
         <v>748.00582558970689</v>
       </c>
@@ -7941,7 +7949,7 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="19">
         <v>55</v>
       </c>
@@ -7951,16 +7959,16 @@
       <c r="C54" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="36">
+      <c r="D54" s="35">
         <f>'July 2017_BLS Data Series'!H54</f>
         <v>809.85</v>
       </c>
-      <c r="E54" s="42">
+      <c r="E54" s="41">
         <f>'July 2017_BLS Data Series'!T54</f>
         <v>839.95</v>
       </c>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34">
+      <c r="F54" s="33"/>
+      <c r="G54" s="33">
         <f t="shared" si="0"/>
         <v>823.84403352893264</v>
       </c>
@@ -7976,7 +7984,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="19">
         <v>56</v>
       </c>
@@ -7986,16 +7994,16 @@
       <c r="C55" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="36">
+      <c r="D55" s="35">
         <f>'July 2017_BLS Data Series'!H55</f>
         <v>757.91</v>
       </c>
-      <c r="E55" s="42">
+      <c r="E55" s="41">
         <f>'July 2017_BLS Data Series'!T55</f>
         <v>835.18</v>
       </c>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34">
+      <c r="F55" s="33"/>
+      <c r="G55" s="33">
         <f t="shared" si="0"/>
         <v>771.00652151869269</v>
       </c>
@@ -8014,7 +8022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="11"/>
@@ -8023,21 +8031,21 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C57" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="44">
+      <c r="D57" s="43">
         <v>42552</v>
       </c>
-      <c r="E57" s="45">
+      <c r="E57" s="44">
         <v>42917</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="11"/>
       <c r="I57" s="8"/>
-      <c r="J57" s="41" t="s">
+      <c r="J57" s="40" t="s">
         <v>193</v>
       </c>
       <c r="K57" s="8"/>
@@ -8046,14 +8054,14 @@
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="C58" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D58" s="43">
+      <c r="D58" s="42">
         <v>884.42</v>
       </c>
-      <c r="E58" s="43">
+      <c r="E58" s="42">
         <v>909.42</v>
       </c>
       <c r="F58" s="9"/>
@@ -8073,7 +8081,7 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
@@ -8085,7 +8093,7 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C60" s="7" t="s">
         <v>55</v>
       </c>
@@ -8099,14 +8107,14 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C61" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="43">
+      <c r="D61" s="42">
         <v>240.62799999999999</v>
       </c>
-      <c r="E61" s="43">
+      <c r="E61" s="42">
         <v>244.786</v>
       </c>
       <c r="F61" s="9"/>
@@ -8120,7 +8128,7 @@
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
     </row>
-    <row r="62" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="C62" s="9"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -8132,7 +8140,7 @@
       <c r="K62"/>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -8144,11 +8152,11 @@
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
     </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8176,3290 +8184,3290 @@
       <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" style="47" customWidth="1"/>
-    <col min="2" max="255" width="8" style="47" customWidth="1"/>
-    <col min="256" max="16384" width="9.140625" style="47"/>
+    <col min="1" max="1" width="23" style="46" customWidth="1"/>
+    <col min="2" max="255" width="8" style="46" customWidth="1"/>
+    <col min="256" max="16384" width="8.83203125" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-    </row>
-    <row r="4" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+    </row>
+    <row r="4" spans="1:25" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="Q4" s="32" t="s">
+      <c r="Q4" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="R4" s="32" t="s">
+      <c r="R4" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="S4" s="32" t="s">
+      <c r="S4" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="U4" s="32" t="s">
+      <c r="U4" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="V4" s="32" t="s">
+      <c r="V4" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="W4" s="32" t="s">
+      <c r="W4" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="X4" s="32" t="s">
+      <c r="X4" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="Y4" s="32" t="s">
+      <c r="Y4" s="31" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:25" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <v>768.58</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="35">
         <v>768.96</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="35">
         <v>760.77</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <v>777.15</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="35">
         <v>786.21</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="35">
         <v>778.26</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="35">
         <v>782.13</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="35">
         <v>771.37</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="35">
         <v>778.22</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="35">
         <v>801.36</v>
       </c>
-      <c r="L5" s="36">
+      <c r="L5" s="35">
         <v>780.57</v>
       </c>
-      <c r="M5" s="36">
+      <c r="M5" s="35">
         <v>783.13</v>
       </c>
-      <c r="N5" s="36">
+      <c r="N5" s="35">
         <v>795.44</v>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="35">
         <v>788.25</v>
       </c>
-      <c r="P5" s="36">
+      <c r="P5" s="35">
         <v>785.07</v>
       </c>
-      <c r="Q5" s="36">
+      <c r="Q5" s="35">
         <v>800.8</v>
       </c>
-      <c r="R5" s="36">
+      <c r="R5" s="35">
         <v>790.24</v>
       </c>
-      <c r="S5" s="36">
+      <c r="S5" s="35">
         <v>784.01</v>
       </c>
-      <c r="T5" s="36">
+      <c r="T5" s="35">
         <v>799.46</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <v>935.32</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>951.48</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="35">
         <v>955.89</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <v>959.92</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <v>965.81</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="35">
         <v>961.19</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="35">
         <v>989.87</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="35">
         <v>986.95</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="35">
         <v>974.63</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="35">
         <v>1001.32</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="35">
         <v>981.74</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="35">
         <v>976.29</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="35">
         <v>975.07</v>
       </c>
-      <c r="O6" s="36">
+      <c r="O6" s="35">
         <v>966.65</v>
       </c>
-      <c r="P6" s="36">
+      <c r="P6" s="35">
         <v>978.59</v>
       </c>
-      <c r="Q6" s="36">
+      <c r="Q6" s="35">
         <v>987.56</v>
       </c>
-      <c r="R6" s="36">
+      <c r="R6" s="35">
         <v>966.38</v>
       </c>
-      <c r="S6" s="36">
+      <c r="S6" s="35">
         <v>988.53</v>
       </c>
-      <c r="T6" s="36">
+      <c r="T6" s="35">
         <v>1027.1099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <v>803.06</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <v>810.54</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="35">
         <v>813.6</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <v>820.46</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="35">
         <v>841.12</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="35">
         <v>817.69</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="35">
         <v>814.28</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="35">
         <v>826.58</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="35">
         <v>825.56</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="35">
         <v>848.07</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="35">
         <v>831.74</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="35">
         <v>827.66</v>
       </c>
-      <c r="N7" s="36">
+      <c r="N7" s="35">
         <v>857.44</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="35">
         <v>856.03</v>
       </c>
-      <c r="P7" s="36">
+      <c r="P7" s="35">
         <v>849.34</v>
       </c>
-      <c r="Q7" s="36">
+      <c r="Q7" s="35">
         <v>884.1</v>
       </c>
-      <c r="R7" s="36">
+      <c r="R7" s="35">
         <v>862.5</v>
       </c>
-      <c r="S7" s="36">
+      <c r="S7" s="35">
         <v>858.48</v>
       </c>
-      <c r="T7" s="36">
+      <c r="T7" s="35">
         <v>898.1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>675.35</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="35">
         <v>673.93</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="35">
         <v>666.99</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <v>677.66</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="35">
         <v>687.37</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <v>685.25</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="35">
         <v>698.92</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="35">
         <v>688.4</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="35">
         <v>686.39</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="35">
         <v>706.15</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="35">
         <v>694.19</v>
       </c>
-      <c r="M8" s="36">
+      <c r="M8" s="35">
         <v>697.94</v>
       </c>
-      <c r="N8" s="36">
+      <c r="N8" s="35">
         <v>703.11</v>
       </c>
-      <c r="O8" s="36">
+      <c r="O8" s="35">
         <v>703.82</v>
       </c>
-      <c r="P8" s="36">
+      <c r="P8" s="35">
         <v>702.45</v>
       </c>
-      <c r="Q8" s="36">
+      <c r="Q8" s="35">
         <v>719.32</v>
       </c>
-      <c r="R8" s="36">
+      <c r="R8" s="35">
         <v>707.92</v>
       </c>
-      <c r="S8" s="36">
+      <c r="S8" s="35">
         <v>713.01</v>
       </c>
-      <c r="T8" s="36">
+      <c r="T8" s="35">
         <v>724.46</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="35">
         <v>971.28</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="35">
         <v>978.58</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="35">
         <v>970.49</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="35">
         <v>979.95</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="35">
         <v>1009.66</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="35">
         <v>980.64</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="35">
         <v>988.31</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="35">
         <v>992.44</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="35">
         <v>998.13</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="35">
         <v>1036.7</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="35">
         <v>1001.52</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="35">
         <v>1004.45</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="35">
         <v>1028.79</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="35">
         <v>1007.17</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="35">
         <v>1010.61</v>
       </c>
-      <c r="Q9" s="36">
+      <c r="Q9" s="35">
         <v>1043.6500000000001</v>
       </c>
-      <c r="R9" s="36">
+      <c r="R9" s="35">
         <v>1020.43</v>
       </c>
-      <c r="S9" s="36">
+      <c r="S9" s="35">
         <v>1020.3</v>
       </c>
-      <c r="T9" s="36">
+      <c r="T9" s="35">
         <v>1061.28</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <v>915.49</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="35">
         <v>912</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="35">
         <v>909.42</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <v>910.34</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="35">
         <v>925.81</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="35">
         <v>903.16</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="35">
         <v>899.76</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="35">
         <v>899.08</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="35">
         <v>901.81</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="35">
         <v>931.27</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="35">
         <v>897.77</v>
       </c>
-      <c r="M10" s="36">
+      <c r="M10" s="35">
         <v>891.38</v>
       </c>
-      <c r="N10" s="36">
+      <c r="N10" s="35">
         <v>904.2</v>
       </c>
-      <c r="O10" s="36">
+      <c r="O10" s="35">
         <v>899.7</v>
       </c>
-      <c r="P10" s="36">
+      <c r="P10" s="35">
         <v>896.2</v>
       </c>
-      <c r="Q10" s="36">
+      <c r="Q10" s="35">
         <v>931.39</v>
       </c>
-      <c r="R10" s="36">
+      <c r="R10" s="35">
         <v>917.33</v>
       </c>
-      <c r="S10" s="36">
+      <c r="S10" s="35">
         <v>920.37</v>
       </c>
-      <c r="T10" s="36">
+      <c r="T10" s="35">
         <v>953.57</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <v>1005.3</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="35">
         <v>1003.59</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="35">
         <v>999.32</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <v>1019.37</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="35">
         <v>1044.1400000000001</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <v>1009.34</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="35">
         <v>1014.05</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="35">
         <v>1021.1</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="35">
         <v>1029.8800000000001</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="35">
         <v>1058.49</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="35">
         <v>1030.21</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="35">
         <v>1033.24</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="35">
         <v>1056.83</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="35">
         <v>1032.9000000000001</v>
       </c>
-      <c r="P11" s="36">
+      <c r="P11" s="35">
         <v>1032.73</v>
       </c>
-      <c r="Q11" s="36">
+      <c r="Q11" s="35">
         <v>1065.93</v>
       </c>
-      <c r="R11" s="36">
+      <c r="R11" s="35">
         <v>1042.6099999999999</v>
       </c>
-      <c r="S11" s="36">
+      <c r="S11" s="35">
         <v>1034.21</v>
       </c>
-      <c r="T11" s="36">
+      <c r="T11" s="35">
         <v>1058.95</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="35">
         <v>799.2</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="35">
         <v>801.12</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="35">
         <v>807.53</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="35">
         <v>810.74</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="35">
         <v>811.85</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="35">
         <v>793.58</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="35">
         <v>801.36</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="35">
         <v>799.79</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="35">
         <v>803.75</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="35">
         <v>843.16</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="35">
         <v>819.89</v>
       </c>
-      <c r="M12" s="36">
+      <c r="M12" s="35">
         <v>816.19</v>
       </c>
-      <c r="N12" s="36">
+      <c r="N12" s="35">
         <v>833.02</v>
       </c>
-      <c r="O12" s="36">
+      <c r="O12" s="35">
         <v>829.46</v>
       </c>
-      <c r="P12" s="36">
+      <c r="P12" s="35">
         <v>825.93</v>
       </c>
-      <c r="Q12" s="36">
+      <c r="Q12" s="35">
         <v>860.6</v>
       </c>
-      <c r="R12" s="36">
+      <c r="R12" s="35">
         <v>814.93</v>
       </c>
-      <c r="S12" s="36">
+      <c r="S12" s="35">
         <v>893.12</v>
       </c>
-      <c r="T12" s="36">
+      <c r="T12" s="35">
         <v>911.09</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="35">
         <v>1287.26</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="35">
         <v>1304.69</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="35">
         <v>1305.9100000000001</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="35">
         <v>1332.86</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="35">
         <v>1411.96</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="35">
         <v>1347.46</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="35">
         <v>1358.65</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="35">
         <v>1382.7</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="35">
         <v>1383.08</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="35">
         <v>1456.36</v>
       </c>
-      <c r="L13" s="36">
+      <c r="L13" s="35">
         <v>1403.26</v>
       </c>
-      <c r="M13" s="36">
+      <c r="M13" s="35">
         <v>1412.46</v>
       </c>
-      <c r="N13" s="36">
+      <c r="N13" s="35">
         <v>1480.46</v>
       </c>
-      <c r="O13" s="36">
+      <c r="O13" s="35">
         <v>1412.46</v>
       </c>
-      <c r="P13" s="36">
+      <c r="P13" s="35">
         <v>1412.35</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="Q13" s="35">
         <v>1454.91</v>
       </c>
-      <c r="R13" s="36">
+      <c r="R13" s="35">
         <v>1392.77</v>
       </c>
-      <c r="S13" s="36">
+      <c r="S13" s="35">
         <v>1385.65</v>
       </c>
-      <c r="T13" s="36">
+      <c r="T13" s="35">
         <v>1477.08</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="35">
         <v>777.37</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="35">
         <v>782.5</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="35">
         <v>790.7</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="35">
         <v>788.65</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="35">
         <v>800.22</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="35">
         <v>787.5</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="35">
         <v>785.74</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="35">
         <v>789.57</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="35">
         <v>791.28</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="35">
         <v>811.23</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="35">
         <v>805.46</v>
       </c>
-      <c r="M14" s="36">
+      <c r="M14" s="35">
         <v>811.91</v>
       </c>
-      <c r="N14" s="36">
+      <c r="N14" s="35">
         <v>822.16</v>
       </c>
-      <c r="O14" s="36">
+      <c r="O14" s="35">
         <v>817.71</v>
       </c>
-      <c r="P14" s="36">
+      <c r="P14" s="35">
         <v>815.65</v>
       </c>
-      <c r="Q14" s="36">
+      <c r="Q14" s="35">
         <v>834.55</v>
       </c>
-      <c r="R14" s="36">
+      <c r="R14" s="35">
         <v>815.67</v>
       </c>
-      <c r="S14" s="36">
+      <c r="S14" s="35">
         <v>806.81</v>
       </c>
-      <c r="T14" s="36">
+      <c r="T14" s="35">
         <v>829.38</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>839.36</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="35">
         <v>842.17</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="35">
         <v>840.43</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="35">
         <v>842.51</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="35">
         <v>865.22</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="35">
         <v>843.88</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="35">
         <v>847.73</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="35">
         <v>847.7</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="35">
         <v>848.39</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="35">
         <v>882.46</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="35">
         <v>857.12</v>
       </c>
-      <c r="M15" s="36">
+      <c r="M15" s="35">
         <v>862.38</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="35">
         <v>885.89</v>
       </c>
-      <c r="O15" s="36">
+      <c r="O15" s="35">
         <v>867.22</v>
       </c>
-      <c r="P15" s="36">
+      <c r="P15" s="35">
         <v>861.27</v>
       </c>
-      <c r="Q15" s="36">
+      <c r="Q15" s="35">
         <v>890.53</v>
       </c>
-      <c r="R15" s="36">
+      <c r="R15" s="35">
         <v>868.02</v>
       </c>
-      <c r="S15" s="36">
+      <c r="S15" s="35">
         <v>900.28</v>
       </c>
-      <c r="T15" s="36">
+      <c r="T15" s="35">
         <v>911.41</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="35">
         <v>824.26</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="35">
         <v>824.13</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="35">
         <v>820.54</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="35">
         <v>827.64</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="35">
         <v>851.76</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="35">
         <v>824.9</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="35">
         <v>837.31</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="35">
         <v>830.58</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="35">
         <v>828.82</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="35">
         <v>858.61</v>
       </c>
-      <c r="L16" s="36">
+      <c r="L16" s="35">
         <v>817.59</v>
       </c>
-      <c r="M16" s="36">
+      <c r="M16" s="35">
         <v>829.76</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16" s="35">
         <v>870.13</v>
       </c>
-      <c r="O16" s="36">
+      <c r="O16" s="35">
         <v>837.82</v>
       </c>
-      <c r="P16" s="36">
+      <c r="P16" s="35">
         <v>830.43</v>
       </c>
-      <c r="Q16" s="36">
+      <c r="Q16" s="35">
         <v>876.77</v>
       </c>
-      <c r="R16" s="36">
+      <c r="R16" s="35">
         <v>846.95</v>
       </c>
-      <c r="S16" s="36">
+      <c r="S16" s="35">
         <v>849.19</v>
       </c>
-      <c r="T16" s="36">
+      <c r="T16" s="35">
         <v>898.78</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="35">
         <v>734.18</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="35">
         <v>729.65</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="35">
         <v>727.38</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="35">
         <v>744.89</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="35">
         <v>755.66</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="35">
         <v>730.85</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="35">
         <v>735.6</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="35">
         <v>735.71</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="35">
         <v>734.33</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="35">
         <v>757.91</v>
       </c>
-      <c r="L17" s="36">
+      <c r="L17" s="35">
         <v>735.05</v>
       </c>
-      <c r="M17" s="36">
+      <c r="M17" s="35">
         <v>724.81</v>
       </c>
-      <c r="N17" s="36">
+      <c r="N17" s="35">
         <v>740.34</v>
       </c>
-      <c r="O17" s="36">
+      <c r="O17" s="35">
         <v>735.15</v>
       </c>
-      <c r="P17" s="36">
+      <c r="P17" s="35">
         <v>734.72</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="35">
         <v>765.12</v>
       </c>
-      <c r="R17" s="36">
+      <c r="R17" s="35">
         <v>751.41</v>
       </c>
-      <c r="S17" s="36">
+      <c r="S17" s="35">
         <v>748.81</v>
       </c>
-      <c r="T17" s="36">
+      <c r="T17" s="35">
         <v>770.56</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="35">
         <v>900.38</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="35">
         <v>894.01</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="35">
         <v>897.33</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="35">
         <v>899.37</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="35">
         <v>915.47</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="35">
         <v>898.78</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="35">
         <v>900.92</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="35">
         <v>902.02</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="35">
         <v>910.75</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18" s="35">
         <v>935.86</v>
       </c>
-      <c r="L18" s="36">
+      <c r="L18" s="35">
         <v>912.8</v>
       </c>
-      <c r="M18" s="36">
+      <c r="M18" s="35">
         <v>906.1</v>
       </c>
-      <c r="N18" s="36">
+      <c r="N18" s="35">
         <v>914.62</v>
       </c>
-      <c r="O18" s="36">
+      <c r="O18" s="35">
         <v>902.46</v>
       </c>
-      <c r="P18" s="36">
+      <c r="P18" s="35">
         <v>897.43</v>
       </c>
-      <c r="Q18" s="36">
+      <c r="Q18" s="35">
         <v>919</v>
       </c>
-      <c r="R18" s="36">
+      <c r="R18" s="35">
         <v>900.38</v>
       </c>
-      <c r="S18" s="36">
+      <c r="S18" s="35">
         <v>906.64</v>
       </c>
-      <c r="T18" s="36">
+      <c r="T18" s="35">
         <v>927.77</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="35">
         <v>804.54</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="35">
         <v>796.79</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="35">
         <v>794.05</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="35">
         <v>809.03</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="35">
         <v>814.67</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="35">
         <v>805.04</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="35">
         <v>811.63</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="35">
         <v>815.26</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="35">
         <v>823.64</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="35">
         <v>847.97</v>
       </c>
-      <c r="L19" s="36">
+      <c r="L19" s="35">
         <v>836.78</v>
       </c>
-      <c r="M19" s="36">
+      <c r="M19" s="35">
         <v>837.66</v>
       </c>
-      <c r="N19" s="36">
+      <c r="N19" s="35">
         <v>845.99</v>
       </c>
-      <c r="O19" s="36">
+      <c r="O19" s="35">
         <v>840.42</v>
       </c>
-      <c r="P19" s="36">
+      <c r="P19" s="35">
         <v>833.17</v>
       </c>
-      <c r="Q19" s="36">
+      <c r="Q19" s="35">
         <v>851.54</v>
       </c>
-      <c r="R19" s="36">
+      <c r="R19" s="35">
         <v>848.77</v>
       </c>
-      <c r="S19" s="36">
+      <c r="S19" s="35">
         <v>850.66</v>
       </c>
-      <c r="T19" s="36">
+      <c r="T19" s="35">
         <v>865.56</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="35">
         <v>768.95</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="35">
         <v>770.3</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="35">
         <v>784.04</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="35">
         <v>806.27</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="35">
         <v>808.6</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="35">
         <v>820.99</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="35">
         <v>809.8</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="35">
         <v>803.18</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="35">
         <v>806.08</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="35">
         <v>826.96</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="35">
         <v>812.67</v>
       </c>
-      <c r="M20" s="36">
+      <c r="M20" s="35">
         <v>797.89</v>
       </c>
-      <c r="N20" s="36">
+      <c r="N20" s="35">
         <v>795.21</v>
       </c>
-      <c r="O20" s="36">
+      <c r="O20" s="35">
         <v>790.5</v>
       </c>
-      <c r="P20" s="36">
+      <c r="P20" s="35">
         <v>789.59</v>
       </c>
-      <c r="Q20" s="36">
+      <c r="Q20" s="35">
         <v>811.72</v>
       </c>
-      <c r="R20" s="36">
+      <c r="R20" s="35">
         <v>790.02</v>
       </c>
-      <c r="S20" s="36">
+      <c r="S20" s="35">
         <v>796.49</v>
       </c>
-      <c r="T20" s="36">
+      <c r="T20" s="35">
         <v>811.98</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="35">
         <v>772.13</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="35">
         <v>767.15</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="35">
         <v>760.45</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="35">
         <v>767.53</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="35">
         <v>766.08</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="35">
         <v>763.3</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="35">
         <v>766.92</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="35">
         <v>770.3</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="35">
         <v>774.36</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="35">
         <v>797.05</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="35">
         <v>780.72</v>
       </c>
-      <c r="M21" s="36">
+      <c r="M21" s="35">
         <v>779.09</v>
       </c>
-      <c r="N21" s="36">
+      <c r="N21" s="35">
         <v>785.23</v>
       </c>
-      <c r="O21" s="36">
+      <c r="O21" s="35">
         <v>786.86</v>
       </c>
-      <c r="P21" s="36">
+      <c r="P21" s="35">
         <v>781.17</v>
       </c>
-      <c r="Q21" s="36">
+      <c r="Q21" s="35">
         <v>794.53</v>
       </c>
-      <c r="R21" s="36">
+      <c r="R21" s="35">
         <v>774.14</v>
       </c>
-      <c r="S21" s="36">
+      <c r="S21" s="35">
         <v>783.07</v>
       </c>
-      <c r="T21" s="36">
+      <c r="T21" s="35">
         <v>798.91</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="35">
         <v>739.5</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="35">
         <v>732.89</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="35">
         <v>741.66</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="35">
         <v>746.58</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="35">
         <v>740.6</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="35">
         <v>749.05</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="35">
         <v>747.65</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="35">
         <v>739.9</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="35">
         <v>745.52</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="35">
         <v>763.22</v>
       </c>
-      <c r="L22" s="36">
+      <c r="L22" s="35">
         <v>753.3</v>
       </c>
-      <c r="M22" s="36">
+      <c r="M22" s="35">
         <v>763.58</v>
       </c>
-      <c r="N22" s="36">
+      <c r="N22" s="35">
         <v>773.78</v>
       </c>
-      <c r="O22" s="36">
+      <c r="O22" s="35">
         <v>758.73</v>
       </c>
-      <c r="P22" s="36">
+      <c r="P22" s="35">
         <v>757.25</v>
       </c>
-      <c r="Q22" s="36">
+      <c r="Q22" s="35">
         <v>768.15</v>
       </c>
-      <c r="R22" s="36">
+      <c r="R22" s="35">
         <v>756.7</v>
       </c>
-      <c r="S22" s="36">
+      <c r="S22" s="35">
         <v>760.62</v>
       </c>
-      <c r="T22" s="36">
+      <c r="T22" s="35">
         <v>774.84</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="35">
         <v>794.6</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="35">
         <v>785.89</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="35">
         <v>775.39</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="35">
         <v>788.55</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="35">
         <v>803.37</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="35">
         <v>790.94</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="35">
         <v>789.4</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="35">
         <v>774.63</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="35">
         <v>798.16</v>
       </c>
-      <c r="K23" s="36">
+      <c r="K23" s="35">
         <v>825.38</v>
       </c>
-      <c r="L23" s="36">
+      <c r="L23" s="35">
         <v>802.74</v>
       </c>
-      <c r="M23" s="36">
+      <c r="M23" s="35">
         <v>803.62</v>
       </c>
-      <c r="N23" s="36">
+      <c r="N23" s="35">
         <v>817.39</v>
       </c>
-      <c r="O23" s="36">
+      <c r="O23" s="35">
         <v>815.62</v>
       </c>
-      <c r="P23" s="36">
+      <c r="P23" s="35">
         <v>814.2</v>
       </c>
-      <c r="Q23" s="36">
+      <c r="Q23" s="35">
         <v>808.54</v>
       </c>
-      <c r="R23" s="36">
+      <c r="R23" s="35">
         <v>807.12</v>
       </c>
-      <c r="S23" s="36">
+      <c r="S23" s="35">
         <v>803.43</v>
       </c>
-      <c r="T23" s="36">
+      <c r="T23" s="35">
         <v>828.21</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="35">
         <v>749.06</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="35">
         <v>748.94</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="35">
         <v>751.04</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="35">
         <v>753.06</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="35">
         <v>754.8</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="35">
         <v>741.73</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="35">
         <v>740.18</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="35">
         <v>747.95</v>
       </c>
-      <c r="J24" s="36">
+      <c r="J24" s="35">
         <v>760.92</v>
       </c>
-      <c r="K24" s="36">
+      <c r="K24" s="35">
         <v>773.47</v>
       </c>
-      <c r="L24" s="36">
+      <c r="L24" s="35">
         <v>770.44</v>
       </c>
-      <c r="M24" s="36">
+      <c r="M24" s="35">
         <v>763.64</v>
       </c>
-      <c r="N24" s="36">
+      <c r="N24" s="35">
         <v>776.79</v>
       </c>
-      <c r="O24" s="36">
+      <c r="O24" s="35">
         <v>773.52</v>
       </c>
-      <c r="P24" s="36">
+      <c r="P24" s="35">
         <v>789.93</v>
       </c>
-      <c r="Q24" s="36">
+      <c r="Q24" s="35">
         <v>790.16</v>
       </c>
-      <c r="R24" s="36">
+      <c r="R24" s="35">
         <v>793.85</v>
       </c>
-      <c r="S24" s="36">
+      <c r="S24" s="35">
         <v>777.14</v>
       </c>
-      <c r="T24" s="36">
+      <c r="T24" s="35">
         <v>785.22</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="35">
         <v>919.97</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="35">
         <v>916.64</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="35">
         <v>924.45</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="35">
         <v>929.21</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="35">
         <v>939.47</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="35">
         <v>926.74</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="35">
         <v>928.16</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="35">
         <v>936.37</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="35">
         <v>940.77</v>
       </c>
-      <c r="K25" s="36">
+      <c r="K25" s="35">
         <v>962.85</v>
       </c>
-      <c r="L25" s="36">
+      <c r="L25" s="35">
         <v>951.51</v>
       </c>
-      <c r="M25" s="36">
+      <c r="M25" s="35">
         <v>942.22</v>
       </c>
-      <c r="N25" s="36">
+      <c r="N25" s="35">
         <v>971.11</v>
       </c>
-      <c r="O25" s="36">
+      <c r="O25" s="35">
         <v>950.08</v>
       </c>
-      <c r="P25" s="36">
+      <c r="P25" s="35">
         <v>944.12</v>
       </c>
-      <c r="Q25" s="36">
+      <c r="Q25" s="35">
         <v>969.88</v>
       </c>
-      <c r="R25" s="36">
+      <c r="R25" s="35">
         <v>939.47</v>
       </c>
-      <c r="S25" s="36">
+      <c r="S25" s="35">
         <v>944.97</v>
       </c>
-      <c r="T25" s="36">
+      <c r="T25" s="35">
         <v>970.14</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="35">
         <v>1041.48</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="35">
         <v>1031.25</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="35">
         <v>1030.8599999999999</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="35">
         <v>1034.6300000000001</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="35">
         <v>1047.4000000000001</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="35">
         <v>1029.46</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="35">
         <v>1035.8900000000001</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="35">
         <v>1029.46</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J26" s="35">
         <v>1049.22</v>
       </c>
-      <c r="K26" s="36">
+      <c r="K26" s="35">
         <v>1075.52</v>
       </c>
-      <c r="L26" s="36">
+      <c r="L26" s="35">
         <v>1059.78</v>
       </c>
-      <c r="M26" s="36">
+      <c r="M26" s="35">
         <v>1065.6400000000001</v>
       </c>
-      <c r="N26" s="36">
+      <c r="N26" s="35">
         <v>1084.27</v>
       </c>
-      <c r="O26" s="36">
+      <c r="O26" s="35">
         <v>1065.24</v>
       </c>
-      <c r="P26" s="36">
+      <c r="P26" s="35">
         <v>1061.6099999999999</v>
       </c>
-      <c r="Q26" s="36">
+      <c r="Q26" s="35">
         <v>1086.29</v>
       </c>
-      <c r="R26" s="36">
+      <c r="R26" s="35">
         <v>1060.1199999999999</v>
       </c>
-      <c r="S26" s="36">
+      <c r="S26" s="35">
         <v>1057.1099999999999</v>
       </c>
-      <c r="T26" s="36">
+      <c r="T26" s="35">
         <v>1077.05</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="35">
         <v>822.02</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="35">
         <v>818.64</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="35">
         <v>821.06</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="35">
         <v>822.17</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="35">
         <v>823.89</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="35">
         <v>816.66</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="35">
         <v>821.47</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="35">
         <v>821.1</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="35">
         <v>829.68</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="35">
         <v>850.86</v>
       </c>
-      <c r="L27" s="36">
+      <c r="L27" s="35">
         <v>834.54</v>
       </c>
-      <c r="M27" s="36">
+      <c r="M27" s="35">
         <v>840.08</v>
       </c>
-      <c r="N27" s="36">
+      <c r="N27" s="35">
         <v>851.06</v>
       </c>
-      <c r="O27" s="36">
+      <c r="O27" s="35">
         <v>843.09</v>
       </c>
-      <c r="P27" s="36">
+      <c r="P27" s="35">
         <v>842.8</v>
       </c>
-      <c r="Q27" s="36">
+      <c r="Q27" s="35">
         <v>859.46</v>
       </c>
-      <c r="R27" s="36">
+      <c r="R27" s="35">
         <v>845.64</v>
       </c>
-      <c r="S27" s="36">
+      <c r="S27" s="35">
         <v>841.12</v>
       </c>
-      <c r="T27" s="36">
+      <c r="T27" s="35">
         <v>852.95</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="35">
         <v>894.79</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="35">
         <v>886.44</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="35">
         <v>906.18</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="35">
         <v>906.53</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="35">
         <v>925.76</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="35">
         <v>913.75</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="35">
         <v>919</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="35">
         <v>916.61</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="35">
         <v>931.61</v>
       </c>
-      <c r="K28" s="36">
+      <c r="K28" s="35">
         <v>953.24</v>
       </c>
-      <c r="L28" s="36">
+      <c r="L28" s="35">
         <v>950.08</v>
       </c>
-      <c r="M28" s="36">
+      <c r="M28" s="35">
         <v>944.12</v>
       </c>
-      <c r="N28" s="36">
+      <c r="N28" s="35">
         <v>958.8</v>
       </c>
-      <c r="O28" s="36">
+      <c r="O28" s="35">
         <v>955.19</v>
       </c>
-      <c r="P28" s="36">
+      <c r="P28" s="35">
         <v>955.86</v>
       </c>
-      <c r="Q28" s="36">
+      <c r="Q28" s="35">
         <v>987.7</v>
       </c>
-      <c r="R28" s="36">
+      <c r="R28" s="35">
         <v>957.68</v>
       </c>
-      <c r="S28" s="36">
+      <c r="S28" s="35">
         <v>952.75</v>
       </c>
-      <c r="T28" s="36">
+      <c r="T28" s="35">
         <v>977.99</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="35">
         <v>687.5</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="35">
         <v>679.31</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="35">
         <v>672.37</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="35">
         <v>684.29</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="35">
         <v>698.09</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="35">
         <v>687.93</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="35">
         <v>700.79</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="35">
         <v>688.62</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="35">
         <v>699.05</v>
       </c>
-      <c r="K29" s="36">
+      <c r="K29" s="35">
         <v>715.88</v>
       </c>
-      <c r="L29" s="36">
+      <c r="L29" s="35">
         <v>699.75</v>
       </c>
-      <c r="M29" s="36">
+      <c r="M29" s="35">
         <v>700.79</v>
       </c>
-      <c r="N29" s="36">
+      <c r="N29" s="35">
         <v>711.61</v>
       </c>
-      <c r="O29" s="36">
+      <c r="O29" s="35">
         <v>705.1</v>
       </c>
-      <c r="P29" s="36">
+      <c r="P29" s="35">
         <v>699.61</v>
       </c>
-      <c r="Q29" s="36">
+      <c r="Q29" s="35">
         <v>705.1</v>
       </c>
-      <c r="R29" s="36">
+      <c r="R29" s="35">
         <v>697.12</v>
       </c>
-      <c r="S29" s="36">
+      <c r="S29" s="35">
         <v>703.24</v>
       </c>
-      <c r="T29" s="36">
+      <c r="T29" s="35">
         <v>715.97</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="35">
         <v>743.15</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="35">
         <v>738.26</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="35">
         <v>740.59</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="35">
         <v>746.79</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="35">
         <v>752.52</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="35">
         <v>738.93</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="35">
         <v>746.59</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="35">
         <v>741.02</v>
       </c>
-      <c r="J30" s="36">
+      <c r="J30" s="35">
         <v>760.91</v>
       </c>
-      <c r="K30" s="36">
+      <c r="K30" s="35">
         <v>780.78</v>
       </c>
-      <c r="L30" s="36">
+      <c r="L30" s="35">
         <v>768.91</v>
       </c>
-      <c r="M30" s="36">
+      <c r="M30" s="35">
         <v>766.92</v>
       </c>
-      <c r="N30" s="36">
+      <c r="N30" s="35">
         <v>792.08</v>
       </c>
-      <c r="O30" s="36">
+      <c r="O30" s="35">
         <v>776.86</v>
       </c>
-      <c r="P30" s="36">
+      <c r="P30" s="35">
         <v>785.55</v>
       </c>
-      <c r="Q30" s="36">
+      <c r="Q30" s="35">
         <v>812.26</v>
       </c>
-      <c r="R30" s="36">
+      <c r="R30" s="35">
         <v>791.28</v>
       </c>
-      <c r="S30" s="36">
+      <c r="S30" s="35">
         <v>791.95</v>
       </c>
-      <c r="T30" s="36">
+      <c r="T30" s="35">
         <v>822.17</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="35">
         <v>713.87</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="35">
         <v>722.87</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="35">
         <v>709.95</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="35">
         <v>724.79</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="35">
         <v>740.52</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="35">
         <v>732.5</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="35">
         <v>739.36</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="35">
         <v>738.47</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="35">
         <v>740.95</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="35">
         <v>758.91</v>
       </c>
-      <c r="L31" s="36">
+      <c r="L31" s="35">
         <v>739.37</v>
       </c>
-      <c r="M31" s="36">
+      <c r="M31" s="35">
         <v>735.8</v>
       </c>
-      <c r="N31" s="36">
+      <c r="N31" s="35">
         <v>751.43</v>
       </c>
-      <c r="O31" s="36">
+      <c r="O31" s="35">
         <v>729.31</v>
       </c>
-      <c r="P31" s="36">
+      <c r="P31" s="35">
         <v>731.58</v>
       </c>
-      <c r="Q31" s="36">
+      <c r="Q31" s="35">
         <v>760.98</v>
       </c>
-      <c r="R31" s="36">
+      <c r="R31" s="35">
         <v>750.79</v>
       </c>
-      <c r="S31" s="36">
+      <c r="S31" s="35">
         <v>757.58</v>
       </c>
-      <c r="T31" s="36">
+      <c r="T31" s="35">
         <v>778.08</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="36">
+      <c r="B32" s="35">
         <v>760.18</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="35">
         <v>761.9</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="35">
         <v>762.86</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="35">
         <v>779.96</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="35">
         <v>785.66</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="35">
         <v>779.08</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H32" s="35">
         <v>782.68</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="35">
         <v>783.28</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="35">
         <v>783.82</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K32" s="35">
         <v>806.27</v>
       </c>
-      <c r="L32" s="36">
+      <c r="L32" s="35">
         <v>774.14</v>
       </c>
-      <c r="M32" s="36">
+      <c r="M32" s="35">
         <v>768.83</v>
       </c>
-      <c r="N32" s="36">
+      <c r="N32" s="35">
         <v>807.84</v>
       </c>
-      <c r="O32" s="36">
+      <c r="O32" s="35">
         <v>791.95</v>
       </c>
-      <c r="P32" s="36">
+      <c r="P32" s="35">
         <v>804.44</v>
       </c>
-      <c r="Q32" s="36">
+      <c r="Q32" s="35">
         <v>830.06</v>
       </c>
-      <c r="R32" s="36">
+      <c r="R32" s="35">
         <v>812.89</v>
       </c>
-      <c r="S32" s="36">
+      <c r="S32" s="35">
         <v>815.65</v>
       </c>
-      <c r="T32" s="36">
+      <c r="T32" s="35">
         <v>836.97</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="35">
         <v>739.7</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="35">
         <v>741.26</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="35">
         <v>739.26</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="35">
         <v>746.59</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="35">
         <v>758.73</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="35">
         <v>750.38</v>
       </c>
-      <c r="H33" s="36">
+      <c r="H33" s="35">
         <v>748.3</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="35">
         <v>758.52</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="35">
         <v>750.88</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="35">
         <v>765.9</v>
       </c>
-      <c r="L33" s="36">
+      <c r="L33" s="35">
         <v>749.35</v>
       </c>
-      <c r="M33" s="36">
+      <c r="M33" s="35">
         <v>757.02</v>
       </c>
-      <c r="N33" s="36">
+      <c r="N33" s="35">
         <v>774.07</v>
       </c>
-      <c r="O33" s="36">
+      <c r="O33" s="35">
         <v>753.75</v>
       </c>
-      <c r="P33" s="36">
+      <c r="P33" s="35">
         <v>761.39</v>
       </c>
-      <c r="Q33" s="36">
+      <c r="Q33" s="35">
         <v>768.82</v>
       </c>
-      <c r="R33" s="36">
+      <c r="R33" s="35">
         <v>761.11</v>
       </c>
-      <c r="S33" s="36">
+      <c r="S33" s="35">
         <v>763.69</v>
       </c>
-      <c r="T33" s="36">
+      <c r="T33" s="35">
         <v>775.73</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="35">
         <v>861.8</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="35">
         <v>858.22</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="35">
         <v>849.35</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="35">
         <v>860.83</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="35">
         <v>862.92</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="35">
         <v>846.21</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34" s="35">
         <v>852.38</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="35">
         <v>864.62</v>
       </c>
-      <c r="J34" s="36">
+      <c r="J34" s="35">
         <v>884.07</v>
       </c>
-      <c r="K34" s="36">
+      <c r="K34" s="35">
         <v>909.08</v>
       </c>
-      <c r="L34" s="36">
+      <c r="L34" s="35">
         <v>892.06</v>
       </c>
-      <c r="M34" s="36">
+      <c r="M34" s="35">
         <v>894.44</v>
       </c>
-      <c r="N34" s="36">
+      <c r="N34" s="35">
         <v>905.13</v>
       </c>
-      <c r="O34" s="36">
+      <c r="O34" s="35">
         <v>893.45</v>
       </c>
-      <c r="P34" s="36">
+      <c r="P34" s="35">
         <v>893.45</v>
       </c>
-      <c r="Q34" s="36">
+      <c r="Q34" s="35">
         <v>916.76</v>
       </c>
-      <c r="R34" s="36">
+      <c r="R34" s="35">
         <v>888.52</v>
       </c>
-      <c r="S34" s="36">
+      <c r="S34" s="35">
         <v>880.8</v>
       </c>
-      <c r="T34" s="36">
+      <c r="T34" s="35">
         <v>874.79</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="35">
         <v>934.75</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="35">
         <v>940.46</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="35">
         <v>937.67</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="35">
         <v>948.77</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="35">
         <v>961.18</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="35">
         <v>941.4</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35" s="35">
         <v>946.28</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="35">
         <v>946.83</v>
       </c>
-      <c r="J35" s="36">
+      <c r="J35" s="35">
         <v>981.01</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="35">
         <v>1004.85</v>
       </c>
-      <c r="L35" s="36">
+      <c r="L35" s="35">
         <v>978.77</v>
       </c>
-      <c r="M35" s="36">
+      <c r="M35" s="35">
         <v>986.52</v>
       </c>
-      <c r="N35" s="36">
+      <c r="N35" s="35">
         <v>1003.45</v>
       </c>
-      <c r="O35" s="36">
+      <c r="O35" s="35">
         <v>963.64</v>
       </c>
-      <c r="P35" s="36">
+      <c r="P35" s="35">
         <v>951.35</v>
       </c>
-      <c r="Q35" s="36">
+      <c r="Q35" s="35">
         <v>987.39</v>
       </c>
-      <c r="R35" s="36">
+      <c r="R35" s="35">
         <v>1007.76</v>
       </c>
-      <c r="S35" s="36">
+      <c r="S35" s="35">
         <v>993.04</v>
       </c>
-      <c r="T35" s="36">
+      <c r="T35" s="35">
         <v>1000.84</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="35">
         <v>687.71</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="35">
         <v>691.78</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="35">
         <v>681.98</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="35">
         <v>685.41</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="35">
         <v>686.47</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="35">
         <v>678.69</v>
       </c>
-      <c r="H36" s="36">
+      <c r="H36" s="35">
         <v>684.74</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36" s="35">
         <v>688.13</v>
       </c>
-      <c r="J36" s="36">
+      <c r="J36" s="35">
         <v>691.71</v>
       </c>
-      <c r="K36" s="36">
+      <c r="K36" s="35">
         <v>709.87</v>
       </c>
-      <c r="L36" s="36">
+      <c r="L36" s="35">
         <v>695.72</v>
       </c>
-      <c r="M36" s="36">
+      <c r="M36" s="35">
         <v>694.54</v>
       </c>
-      <c r="N36" s="36">
+      <c r="N36" s="35">
         <v>703.17</v>
       </c>
-      <c r="O36" s="36">
+      <c r="O36" s="35">
         <v>695.21</v>
       </c>
-      <c r="P36" s="36">
+      <c r="P36" s="35">
         <v>694.21</v>
       </c>
-      <c r="Q36" s="36">
+      <c r="Q36" s="35">
         <v>720.71</v>
       </c>
-      <c r="R36" s="36">
+      <c r="R36" s="35">
         <v>710.06</v>
       </c>
-      <c r="S36" s="36">
+      <c r="S36" s="35">
         <v>706.82</v>
       </c>
-      <c r="T36" s="36">
+      <c r="T36" s="35">
         <v>725.9</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="35">
         <v>976.95</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="35">
         <v>979.07</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="35">
         <v>971.43</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="35">
         <v>969.36</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="35">
         <v>981.46</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="35">
         <v>962.12</v>
       </c>
-      <c r="H37" s="36">
+      <c r="H37" s="35">
         <v>977.3</v>
       </c>
-      <c r="I37" s="36">
+      <c r="I37" s="35">
         <v>993.04</v>
       </c>
-      <c r="J37" s="36">
+      <c r="J37" s="35">
         <v>980.78</v>
       </c>
-      <c r="K37" s="36">
+      <c r="K37" s="35">
         <v>998.87</v>
       </c>
-      <c r="L37" s="36">
+      <c r="L37" s="35">
         <v>979.96</v>
       </c>
-      <c r="M37" s="36">
+      <c r="M37" s="35">
         <v>980.88</v>
       </c>
-      <c r="N37" s="36">
+      <c r="N37" s="35">
         <v>1011.03</v>
       </c>
-      <c r="O37" s="36">
+      <c r="O37" s="35">
         <v>992.67</v>
       </c>
-      <c r="P37" s="36">
+      <c r="P37" s="35">
         <v>984.66</v>
       </c>
-      <c r="Q37" s="36">
+      <c r="Q37" s="35">
         <v>1016.06</v>
       </c>
-      <c r="R37" s="36">
+      <c r="R37" s="35">
         <v>991.67</v>
       </c>
-      <c r="S37" s="36">
+      <c r="S37" s="35">
         <v>992.61</v>
       </c>
-      <c r="T37" s="36">
+      <c r="T37" s="35">
         <v>1013.7</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="36">
+      <c r="B38" s="35">
         <v>776.72</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="35">
         <v>783.48</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="35">
         <v>790.78</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="35">
         <v>797.13</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="35">
         <v>809.03</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="35">
         <v>801.52</v>
       </c>
-      <c r="H38" s="36">
+      <c r="H38" s="35">
         <v>803.16</v>
       </c>
-      <c r="I38" s="36">
+      <c r="I38" s="35">
         <v>806.68</v>
       </c>
-      <c r="J38" s="36">
+      <c r="J38" s="35">
         <v>809.43</v>
       </c>
-      <c r="K38" s="36">
+      <c r="K38" s="35">
         <v>824.86</v>
       </c>
-      <c r="L38" s="36">
+      <c r="L38" s="35">
         <v>817.65</v>
       </c>
-      <c r="M38" s="36">
+      <c r="M38" s="35">
         <v>812.87</v>
       </c>
-      <c r="N38" s="36">
+      <c r="N38" s="35">
         <v>818.38</v>
       </c>
-      <c r="O38" s="36">
+      <c r="O38" s="35">
         <v>825.26</v>
       </c>
-      <c r="P38" s="36">
+      <c r="P38" s="35">
         <v>823.89</v>
       </c>
-      <c r="Q38" s="36">
+      <c r="Q38" s="35">
         <v>844.6</v>
       </c>
-      <c r="R38" s="36">
+      <c r="R38" s="35">
         <v>825.6</v>
       </c>
-      <c r="S38" s="36">
+      <c r="S38" s="35">
         <v>822.1</v>
       </c>
-      <c r="T38" s="36">
+      <c r="T38" s="35">
         <v>841.46</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="35">
         <v>895.13</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="35">
         <v>875.69</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="35">
         <v>864.74</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="35">
         <v>885.1</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="35">
         <v>904.96</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="35">
         <v>878.84</v>
       </c>
-      <c r="H39" s="36">
+      <c r="H39" s="35">
         <v>891.58</v>
       </c>
-      <c r="I39" s="36">
+      <c r="I39" s="35">
         <v>896.93</v>
       </c>
-      <c r="J39" s="36">
+      <c r="J39" s="35">
         <v>891.99</v>
       </c>
-      <c r="K39" s="36">
+      <c r="K39" s="35">
         <v>913.3</v>
       </c>
-      <c r="L39" s="36">
+      <c r="L39" s="35">
         <v>880.14</v>
       </c>
-      <c r="M39" s="36">
+      <c r="M39" s="35">
         <v>872.25</v>
       </c>
-      <c r="N39" s="36">
+      <c r="N39" s="35">
         <v>882.2</v>
       </c>
-      <c r="O39" s="36">
+      <c r="O39" s="35">
         <v>867.16</v>
       </c>
-      <c r="P39" s="36">
+      <c r="P39" s="35">
         <v>868.52</v>
       </c>
-      <c r="Q39" s="36">
+      <c r="Q39" s="35">
         <v>915.41</v>
       </c>
-      <c r="R39" s="36">
+      <c r="R39" s="35">
         <v>915.2</v>
       </c>
-      <c r="S39" s="36">
+      <c r="S39" s="35">
         <v>922.52</v>
       </c>
-      <c r="T39" s="36">
+      <c r="T39" s="35">
         <v>942.73</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="36">
+      <c r="B40" s="35">
         <v>786.08</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="35">
         <v>785.4</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="35">
         <v>787.03</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="35">
         <v>799.94</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40" s="35">
         <v>805.3</v>
       </c>
-      <c r="G40" s="36">
+      <c r="G40" s="35">
         <v>794.05</v>
       </c>
-      <c r="H40" s="36">
+      <c r="H40" s="35">
         <v>800.22</v>
       </c>
-      <c r="I40" s="36">
+      <c r="I40" s="35">
         <v>796.79</v>
       </c>
-      <c r="J40" s="36">
+      <c r="J40" s="35">
         <v>810.12</v>
       </c>
-      <c r="K40" s="36">
+      <c r="K40" s="35">
         <v>827.94</v>
       </c>
-      <c r="L40" s="36">
+      <c r="L40" s="35">
         <v>815.28</v>
       </c>
-      <c r="M40" s="36">
+      <c r="M40" s="35">
         <v>820.44</v>
       </c>
-      <c r="N40" s="36">
+      <c r="N40" s="35">
         <v>825.94</v>
       </c>
-      <c r="O40" s="36">
+      <c r="O40" s="35">
         <v>814.31</v>
       </c>
-      <c r="P40" s="36">
+      <c r="P40" s="35">
         <v>815.33</v>
       </c>
-      <c r="Q40" s="36">
+      <c r="Q40" s="35">
         <v>823.54</v>
       </c>
-      <c r="R40" s="36">
+      <c r="R40" s="35">
         <v>814.28</v>
       </c>
-      <c r="S40" s="36">
+      <c r="S40" s="35">
         <v>814.94</v>
       </c>
-      <c r="T40" s="36">
+      <c r="T40" s="35">
         <v>822.17</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="35">
         <v>756.28</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="35">
         <v>759.68</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="35">
         <v>754.52</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="35">
         <v>757.39</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F41" s="35">
         <v>771.15</v>
       </c>
-      <c r="G41" s="36">
+      <c r="G41" s="35">
         <v>762.65</v>
       </c>
-      <c r="H41" s="36">
+      <c r="H41" s="35">
         <v>777.22</v>
       </c>
-      <c r="I41" s="36">
+      <c r="I41" s="35">
         <v>767.55</v>
       </c>
-      <c r="J41" s="36">
+      <c r="J41" s="35">
         <v>779.92</v>
       </c>
-      <c r="K41" s="36">
+      <c r="K41" s="35">
         <v>798.25</v>
       </c>
-      <c r="L41" s="36">
+      <c r="L41" s="35">
         <v>780.15</v>
       </c>
-      <c r="M41" s="36">
+      <c r="M41" s="35">
         <v>781.55</v>
       </c>
-      <c r="N41" s="36">
+      <c r="N41" s="35">
         <v>798.13</v>
       </c>
-      <c r="O41" s="36">
+      <c r="O41" s="35">
         <v>798.13</v>
       </c>
-      <c r="P41" s="36">
+      <c r="P41" s="35">
         <v>799.19</v>
       </c>
-      <c r="Q41" s="36">
+      <c r="Q41" s="35">
         <v>823.19</v>
       </c>
-      <c r="R41" s="36">
+      <c r="R41" s="35">
         <v>803.08</v>
       </c>
-      <c r="S41" s="36">
+      <c r="S41" s="35">
         <v>806.7</v>
       </c>
-      <c r="T41" s="36">
+      <c r="T41" s="35">
         <v>833.69</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="36">
+      <c r="B42" s="35">
         <v>811.29</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="35">
         <v>820.6</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="35">
         <v>811.71</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="35">
         <v>834.62</v>
       </c>
-      <c r="F42" s="36">
+      <c r="F42" s="35">
         <v>855.7</v>
       </c>
-      <c r="G42" s="36">
+      <c r="G42" s="35">
         <v>834.14</v>
       </c>
-      <c r="H42" s="36">
+      <c r="H42" s="35">
         <v>844.86</v>
       </c>
-      <c r="I42" s="36">
+      <c r="I42" s="35">
         <v>843.83</v>
       </c>
-      <c r="J42" s="36">
+      <c r="J42" s="35">
         <v>857.5</v>
       </c>
-      <c r="K42" s="36">
+      <c r="K42" s="35">
         <v>885.92</v>
       </c>
-      <c r="L42" s="36">
+      <c r="L42" s="35">
         <v>856.8</v>
       </c>
-      <c r="M42" s="36">
+      <c r="M42" s="35">
         <v>850.48</v>
       </c>
-      <c r="N42" s="36">
+      <c r="N42" s="35">
         <v>871.34</v>
       </c>
-      <c r="O42" s="36">
+      <c r="O42" s="35">
         <v>869.04</v>
       </c>
-      <c r="P42" s="36">
+      <c r="P42" s="35">
         <v>859.35</v>
       </c>
-      <c r="Q42" s="36">
+      <c r="Q42" s="35">
         <v>894.84</v>
       </c>
-      <c r="R42" s="36">
+      <c r="R42" s="35">
         <v>852.1</v>
       </c>
-      <c r="S42" s="36">
+      <c r="S42" s="35">
         <v>860.54</v>
       </c>
-      <c r="T42" s="36">
+      <c r="T42" s="35">
         <v>888.79</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B43" s="35">
         <v>831.72</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="35">
         <v>825.89</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="35">
         <v>822.53</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="35">
         <v>825.65</v>
       </c>
-      <c r="F43" s="36">
+      <c r="F43" s="35">
         <v>830.55</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="35">
         <v>824.72</v>
       </c>
-      <c r="H43" s="36">
+      <c r="H43" s="35">
         <v>831.48</v>
       </c>
-      <c r="I43" s="36">
+      <c r="I43" s="35">
         <v>829.11</v>
       </c>
-      <c r="J43" s="36">
+      <c r="J43" s="35">
         <v>837.23</v>
       </c>
-      <c r="K43" s="36">
+      <c r="K43" s="35">
         <v>852.5</v>
       </c>
-      <c r="L43" s="36">
+      <c r="L43" s="35">
         <v>842.63</v>
       </c>
-      <c r="M43" s="36">
+      <c r="M43" s="35">
         <v>845</v>
       </c>
-      <c r="N43" s="36">
+      <c r="N43" s="35">
         <v>848.57</v>
       </c>
-      <c r="O43" s="36">
+      <c r="O43" s="35">
         <v>835.33</v>
       </c>
-      <c r="P43" s="36">
+      <c r="P43" s="35">
         <v>826.65</v>
       </c>
-      <c r="Q43" s="36">
+      <c r="Q43" s="35">
         <v>853.94</v>
       </c>
-      <c r="R43" s="36">
+      <c r="R43" s="35">
         <v>839.59</v>
       </c>
-      <c r="S43" s="36">
+      <c r="S43" s="35">
         <v>839.25</v>
       </c>
-      <c r="T43" s="36">
+      <c r="T43" s="35">
         <v>848.64</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="s">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="36">
+      <c r="B44" s="35">
         <v>842.08</v>
       </c>
-      <c r="C44" s="36">
+      <c r="C44" s="35">
         <v>843.7</v>
       </c>
-      <c r="D44" s="36">
+      <c r="D44" s="35">
         <v>833.95</v>
       </c>
-      <c r="E44" s="36">
+      <c r="E44" s="35">
         <v>849.55</v>
       </c>
-      <c r="F44" s="36">
+      <c r="F44" s="35">
         <v>857.67</v>
       </c>
-      <c r="G44" s="36">
+      <c r="G44" s="35">
         <v>848.1</v>
       </c>
-      <c r="H44" s="36">
+      <c r="H44" s="35">
         <v>842.82</v>
       </c>
-      <c r="I44" s="36">
+      <c r="I44" s="35">
         <v>854.04</v>
       </c>
-      <c r="J44" s="36">
+      <c r="J44" s="35">
         <v>852.11</v>
       </c>
-      <c r="K44" s="36">
+      <c r="K44" s="35">
         <v>853.74</v>
       </c>
-      <c r="L44" s="36">
+      <c r="L44" s="35">
         <v>856.27</v>
       </c>
-      <c r="M44" s="36">
+      <c r="M44" s="35">
         <v>858.05</v>
       </c>
-      <c r="N44" s="36">
+      <c r="N44" s="35">
         <v>876.29</v>
       </c>
-      <c r="O44" s="36">
+      <c r="O44" s="35">
         <v>858.92</v>
       </c>
-      <c r="P44" s="36">
+      <c r="P44" s="35">
         <v>857.92</v>
       </c>
-      <c r="Q44" s="36">
+      <c r="Q44" s="35">
         <v>887.7</v>
       </c>
-      <c r="R44" s="36">
+      <c r="R44" s="35">
         <v>878.76</v>
       </c>
-      <c r="S44" s="36">
+      <c r="S44" s="35">
         <v>873.84</v>
       </c>
-      <c r="T44" s="36">
+      <c r="T44" s="35">
         <v>877.48</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="36">
+      <c r="B45" s="35">
         <v>752.33</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="35">
         <v>749.58</v>
       </c>
-      <c r="D45" s="36">
+      <c r="D45" s="35">
         <v>767.08</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45" s="35">
         <v>758.78</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="35">
         <v>761.08</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="35">
         <v>763.62</v>
       </c>
-      <c r="H45" s="36">
+      <c r="H45" s="35">
         <v>754.39</v>
       </c>
-      <c r="I45" s="36">
+      <c r="I45" s="35">
         <v>755.08</v>
       </c>
-      <c r="J45" s="36">
+      <c r="J45" s="35">
         <v>765.06</v>
       </c>
-      <c r="K45" s="36">
+      <c r="K45" s="35">
         <v>770.87</v>
       </c>
-      <c r="L45" s="36">
+      <c r="L45" s="35">
         <v>776.25</v>
       </c>
-      <c r="M45" s="36">
+      <c r="M45" s="35">
         <v>774.87</v>
       </c>
-      <c r="N45" s="36">
+      <c r="N45" s="35">
         <v>794.3</v>
       </c>
-      <c r="O45" s="36">
+      <c r="O45" s="35">
         <v>782.26</v>
       </c>
-      <c r="P45" s="36">
+      <c r="P45" s="35">
         <v>797.99</v>
       </c>
-      <c r="Q45" s="36">
+      <c r="Q45" s="35">
         <v>791.16</v>
       </c>
-      <c r="R45" s="36">
+      <c r="R45" s="35">
         <v>776.42</v>
       </c>
-      <c r="S45" s="36">
+      <c r="S45" s="35">
         <v>783.51</v>
       </c>
-      <c r="T45" s="36">
+      <c r="T45" s="35">
         <v>797.81</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="37" t="s">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="36">
+      <c r="B46" s="35">
         <v>717.02</v>
       </c>
-      <c r="C46" s="36">
+      <c r="C46" s="35">
         <v>707.41</v>
       </c>
-      <c r="D46" s="36">
+      <c r="D46" s="35">
         <v>711.65</v>
       </c>
-      <c r="E46" s="36">
+      <c r="E46" s="35">
         <v>725.8</v>
       </c>
-      <c r="F46" s="36">
+      <c r="F46" s="35">
         <v>734.16</v>
       </c>
-      <c r="G46" s="36">
+      <c r="G46" s="35">
         <v>719.68</v>
       </c>
-      <c r="H46" s="36">
+      <c r="H46" s="35">
         <v>727.56</v>
       </c>
-      <c r="I46" s="36">
+      <c r="I46" s="35">
         <v>720.53</v>
       </c>
-      <c r="J46" s="36">
+      <c r="J46" s="35">
         <v>736.56</v>
       </c>
-      <c r="K46" s="36">
+      <c r="K46" s="35">
         <v>750.03</v>
       </c>
-      <c r="L46" s="36">
+      <c r="L46" s="35">
         <v>738.82</v>
       </c>
-      <c r="M46" s="36">
+      <c r="M46" s="35">
         <v>726.55</v>
       </c>
-      <c r="N46" s="36">
+      <c r="N46" s="35">
         <v>745.78</v>
       </c>
-      <c r="O46" s="36">
+      <c r="O46" s="35">
         <v>737.37</v>
       </c>
-      <c r="P46" s="36">
+      <c r="P46" s="35">
         <v>732.06</v>
       </c>
-      <c r="Q46" s="36">
+      <c r="Q46" s="35">
         <v>749.53</v>
       </c>
-      <c r="R46" s="36">
+      <c r="R46" s="35">
         <v>740.04</v>
       </c>
-      <c r="S46" s="36">
+      <c r="S46" s="35">
         <v>732.7</v>
       </c>
-      <c r="T46" s="36">
+      <c r="T46" s="35">
         <v>743.97</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="36">
+      <c r="B47" s="35">
         <v>753.25</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="35">
         <v>748.68</v>
       </c>
-      <c r="D47" s="36">
+      <c r="D47" s="35">
         <v>753.3</v>
       </c>
-      <c r="E47" s="36">
+      <c r="E47" s="35">
         <v>756.5</v>
       </c>
-      <c r="F47" s="36">
+      <c r="F47" s="35">
         <v>775.43</v>
       </c>
-      <c r="G47" s="36">
+      <c r="G47" s="35">
         <v>766.47</v>
       </c>
-      <c r="H47" s="36">
+      <c r="H47" s="35">
         <v>773.19</v>
       </c>
-      <c r="I47" s="36">
+      <c r="I47" s="35">
         <v>770.71</v>
       </c>
-      <c r="J47" s="36">
+      <c r="J47" s="35">
         <v>781.99</v>
       </c>
-      <c r="K47" s="36">
+      <c r="K47" s="35">
         <v>797.27</v>
       </c>
-      <c r="L47" s="36">
+      <c r="L47" s="35">
         <v>788.81</v>
       </c>
-      <c r="M47" s="36">
+      <c r="M47" s="35">
         <v>806.7</v>
       </c>
-      <c r="N47" s="36">
+      <c r="N47" s="35">
         <v>814.67</v>
       </c>
-      <c r="O47" s="36">
+      <c r="O47" s="35">
         <v>800.75</v>
       </c>
-      <c r="P47" s="36">
+      <c r="P47" s="35">
         <v>790.72</v>
       </c>
-      <c r="Q47" s="36">
+      <c r="Q47" s="35">
         <v>805.85</v>
       </c>
-      <c r="R47" s="36">
+      <c r="R47" s="35">
         <v>794.02</v>
       </c>
-      <c r="S47" s="36">
+      <c r="S47" s="35">
         <v>795.66</v>
       </c>
-      <c r="T47" s="36">
+      <c r="T47" s="35">
         <v>805.98</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="37" t="s">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="36">
+      <c r="B48" s="35">
         <v>877.15</v>
       </c>
-      <c r="C48" s="36">
+      <c r="C48" s="35">
         <v>871.79</v>
       </c>
-      <c r="D48" s="36">
+      <c r="D48" s="35">
         <v>863.1</v>
       </c>
-      <c r="E48" s="36">
+      <c r="E48" s="35">
         <v>870.06</v>
       </c>
-      <c r="F48" s="36">
+      <c r="F48" s="35">
         <v>892.69</v>
       </c>
-      <c r="G48" s="36">
+      <c r="G48" s="35">
         <v>870.3</v>
       </c>
-      <c r="H48" s="36">
+      <c r="H48" s="35">
         <v>870.72</v>
       </c>
-      <c r="I48" s="36">
+      <c r="I48" s="35">
         <v>872.15</v>
       </c>
-      <c r="J48" s="36">
+      <c r="J48" s="35">
         <v>877.86</v>
       </c>
-      <c r="K48" s="36">
+      <c r="K48" s="35">
         <v>909.32</v>
       </c>
-      <c r="L48" s="36">
+      <c r="L48" s="35">
         <v>880.4</v>
       </c>
-      <c r="M48" s="36">
+      <c r="M48" s="35">
         <v>887.5</v>
       </c>
-      <c r="N48" s="36">
+      <c r="N48" s="35">
         <v>912.6</v>
       </c>
-      <c r="O48" s="36">
+      <c r="O48" s="35">
         <v>890.66</v>
       </c>
-      <c r="P48" s="36">
+      <c r="P48" s="35">
         <v>891.76</v>
       </c>
-      <c r="Q48" s="36">
+      <c r="Q48" s="35">
         <v>913.92</v>
       </c>
-      <c r="R48" s="36">
+      <c r="R48" s="35">
         <v>898.9</v>
       </c>
-      <c r="S48" s="36">
+      <c r="S48" s="35">
         <v>896.07</v>
       </c>
-      <c r="T48" s="36">
+      <c r="T48" s="35">
         <v>930.75</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="36">
+      <c r="B49" s="35">
         <v>831.3</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C49" s="35">
         <v>829.01</v>
       </c>
-      <c r="D49" s="36">
+      <c r="D49" s="35">
         <v>826.97</v>
       </c>
-      <c r="E49" s="36">
+      <c r="E49" s="35">
         <v>840.39</v>
       </c>
-      <c r="F49" s="36">
+      <c r="F49" s="35">
         <v>860.97</v>
       </c>
-      <c r="G49" s="36">
+      <c r="G49" s="35">
         <v>841.12</v>
       </c>
-      <c r="H49" s="36">
+      <c r="H49" s="35">
         <v>844.6</v>
       </c>
-      <c r="I49" s="36">
+      <c r="I49" s="35">
         <v>843.18</v>
       </c>
-      <c r="J49" s="36">
+      <c r="J49" s="35">
         <v>853.88</v>
       </c>
-      <c r="K49" s="36">
+      <c r="K49" s="35">
         <v>872.96</v>
       </c>
-      <c r="L49" s="36">
+      <c r="L49" s="35">
         <v>871.39</v>
       </c>
-      <c r="M49" s="36">
+      <c r="M49" s="35">
         <v>848.08</v>
       </c>
-      <c r="N49" s="36">
+      <c r="N49" s="35">
         <v>872.96</v>
       </c>
-      <c r="O49" s="36">
+      <c r="O49" s="35">
         <v>849.47</v>
       </c>
-      <c r="P49" s="36">
+      <c r="P49" s="35">
         <v>850.81</v>
       </c>
-      <c r="Q49" s="36">
+      <c r="Q49" s="35">
         <v>892.74</v>
       </c>
-      <c r="R49" s="36">
+      <c r="R49" s="35">
         <v>870.48</v>
       </c>
-      <c r="S49" s="36">
+      <c r="S49" s="35">
         <v>877.89</v>
       </c>
-      <c r="T49" s="36">
+      <c r="T49" s="35">
         <v>903.21</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="37" t="s">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="36">
+      <c r="B50" s="35">
         <v>813.12</v>
       </c>
-      <c r="C50" s="36">
+      <c r="C50" s="35">
         <v>802.76</v>
       </c>
-      <c r="D50" s="36">
+      <c r="D50" s="35">
         <v>797.37</v>
       </c>
-      <c r="E50" s="36">
+      <c r="E50" s="35">
         <v>814.52</v>
       </c>
-      <c r="F50" s="36">
+      <c r="F50" s="35">
         <v>824.72</v>
       </c>
-      <c r="G50" s="36">
+      <c r="G50" s="35">
         <v>810.82</v>
       </c>
-      <c r="H50" s="36">
+      <c r="H50" s="35">
         <v>811.91</v>
       </c>
-      <c r="I50" s="36">
+      <c r="I50" s="35">
         <v>806.13</v>
       </c>
-      <c r="J50" s="36">
+      <c r="J50" s="35">
         <v>822.35</v>
       </c>
-      <c r="K50" s="36">
+      <c r="K50" s="35">
         <v>828.35</v>
       </c>
-      <c r="L50" s="36">
+      <c r="L50" s="35">
         <v>821.51</v>
       </c>
-      <c r="M50" s="36">
+      <c r="M50" s="35">
         <v>802.46</v>
       </c>
-      <c r="N50" s="36">
+      <c r="N50" s="35">
         <v>815.63</v>
       </c>
-      <c r="O50" s="36">
+      <c r="O50" s="35">
         <v>797.83</v>
       </c>
-      <c r="P50" s="36">
+      <c r="P50" s="35">
         <v>789.9</v>
       </c>
-      <c r="Q50" s="36">
+      <c r="Q50" s="35">
         <v>819.18</v>
       </c>
-      <c r="R50" s="36">
+      <c r="R50" s="35">
         <v>817.74</v>
       </c>
-      <c r="S50" s="36">
+      <c r="S50" s="35">
         <v>810.15</v>
       </c>
-      <c r="T50" s="36">
+      <c r="T50" s="35">
         <v>821.14</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="37" t="s">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="36">
+      <c r="B51" s="35">
         <v>924.41</v>
       </c>
-      <c r="C51" s="36">
+      <c r="C51" s="35">
         <v>924.06</v>
       </c>
-      <c r="D51" s="36">
+      <c r="D51" s="35">
         <v>929.51</v>
       </c>
-      <c r="E51" s="36">
+      <c r="E51" s="35">
         <v>938.46</v>
       </c>
-      <c r="F51" s="36">
+      <c r="F51" s="35">
         <v>954.72</v>
       </c>
-      <c r="G51" s="36">
+      <c r="G51" s="35">
         <v>933.92</v>
       </c>
-      <c r="H51" s="36">
+      <c r="H51" s="35">
         <v>943.35</v>
       </c>
-      <c r="I51" s="36">
+      <c r="I51" s="35">
         <v>935.06</v>
       </c>
-      <c r="J51" s="36">
+      <c r="J51" s="35">
         <v>950.51</v>
       </c>
-      <c r="K51" s="36">
+      <c r="K51" s="35">
         <v>972.87</v>
       </c>
-      <c r="L51" s="36">
+      <c r="L51" s="35">
         <v>947.19</v>
       </c>
-      <c r="M51" s="36">
+      <c r="M51" s="35">
         <v>949.69</v>
       </c>
-      <c r="N51" s="36">
+      <c r="N51" s="35">
         <v>970.56</v>
       </c>
-      <c r="O51" s="36">
+      <c r="O51" s="35">
         <v>954.26</v>
       </c>
-      <c r="P51" s="36">
+      <c r="P51" s="35">
         <v>942.55</v>
       </c>
-      <c r="Q51" s="36">
+      <c r="Q51" s="35">
         <v>974.72</v>
       </c>
-      <c r="R51" s="36">
+      <c r="R51" s="35">
         <v>939.13</v>
       </c>
-      <c r="S51" s="36">
+      <c r="S51" s="35">
         <v>931.85</v>
       </c>
-      <c r="T51" s="36">
+      <c r="T51" s="35">
         <v>955.96</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="s">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="36">
+      <c r="B52" s="35">
         <v>1032.92</v>
       </c>
-      <c r="C52" s="36">
+      <c r="C52" s="35">
         <v>1036.94</v>
       </c>
-      <c r="D52" s="36">
+      <c r="D52" s="35">
         <v>1033.23</v>
       </c>
-      <c r="E52" s="36">
+      <c r="E52" s="35">
         <v>1039.9100000000001</v>
       </c>
-      <c r="F52" s="36">
+      <c r="F52" s="35">
         <v>1068.32</v>
       </c>
-      <c r="G52" s="36">
+      <c r="G52" s="35">
         <v>1033.6199999999999</v>
       </c>
-      <c r="H52" s="36">
+      <c r="H52" s="35">
         <v>1038.3499999999999</v>
       </c>
-      <c r="I52" s="36">
+      <c r="I52" s="35">
         <v>1040.02</v>
       </c>
-      <c r="J52" s="36">
+      <c r="J52" s="35">
         <v>1052.53</v>
       </c>
-      <c r="K52" s="36">
+      <c r="K52" s="35">
         <v>1087.5899999999999</v>
       </c>
-      <c r="L52" s="36">
+      <c r="L52" s="35">
         <v>1050.58</v>
       </c>
-      <c r="M52" s="36">
+      <c r="M52" s="35">
         <v>1053.33</v>
       </c>
-      <c r="N52" s="36">
+      <c r="N52" s="35">
         <v>1094.46</v>
       </c>
-      <c r="O52" s="36">
+      <c r="O52" s="35">
         <v>1063.96</v>
       </c>
-      <c r="P52" s="36">
+      <c r="P52" s="35">
         <v>1064.33</v>
       </c>
-      <c r="Q52" s="36">
+      <c r="Q52" s="35">
         <v>1110.54</v>
       </c>
-      <c r="R52" s="36">
+      <c r="R52" s="35">
         <v>1066.4000000000001</v>
       </c>
-      <c r="S52" s="36">
+      <c r="S52" s="35">
         <v>1070.52</v>
       </c>
-      <c r="T52" s="36">
+      <c r="T52" s="35">
         <v>1109.08</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="36">
+      <c r="B53" s="35">
         <v>720.94</v>
       </c>
-      <c r="C53" s="36">
+      <c r="C53" s="35">
         <v>724.07</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="35">
         <v>728.02</v>
       </c>
-      <c r="E53" s="36">
+      <c r="E53" s="35">
         <v>732.19</v>
       </c>
-      <c r="F53" s="36">
+      <c r="F53" s="35">
         <v>720.69</v>
       </c>
-      <c r="G53" s="36">
+      <c r="G53" s="35">
         <v>723.71</v>
       </c>
-      <c r="H53" s="36">
+      <c r="H53" s="35">
         <v>735.3</v>
       </c>
-      <c r="I53" s="36">
+      <c r="I53" s="35">
         <v>732.16</v>
       </c>
-      <c r="J53" s="36">
+      <c r="J53" s="35">
         <v>738.85</v>
       </c>
-      <c r="K53" s="36">
+      <c r="K53" s="35">
         <v>751.89</v>
       </c>
-      <c r="L53" s="36">
+      <c r="L53" s="35">
         <v>745.54</v>
       </c>
-      <c r="M53" s="36">
+      <c r="M53" s="35">
         <v>740.61</v>
       </c>
-      <c r="N53" s="36">
+      <c r="N53" s="35">
         <v>755.04</v>
       </c>
-      <c r="O53" s="36">
+      <c r="O53" s="35">
         <v>752.19</v>
       </c>
-      <c r="P53" s="36">
+      <c r="P53" s="35">
         <v>754.25</v>
       </c>
-      <c r="Q53" s="36">
+      <c r="Q53" s="35">
         <v>758.6</v>
       </c>
-      <c r="R53" s="36">
+      <c r="R53" s="35">
         <v>755.07</v>
       </c>
-      <c r="S53" s="36">
+      <c r="S53" s="35">
         <v>768.63</v>
       </c>
-      <c r="T53" s="36">
+      <c r="T53" s="35">
         <v>780.12</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="37" t="s">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="36">
+      <c r="B54" s="35">
         <v>793.74</v>
       </c>
-      <c r="C54" s="36">
+      <c r="C54" s="35">
         <v>791.42</v>
       </c>
-      <c r="D54" s="36">
+      <c r="D54" s="35">
         <v>794.54</v>
       </c>
-      <c r="E54" s="36">
+      <c r="E54" s="35">
         <v>801.27</v>
       </c>
-      <c r="F54" s="36">
+      <c r="F54" s="35">
         <v>809.42</v>
       </c>
-      <c r="G54" s="36">
+      <c r="G54" s="35">
         <v>798.34</v>
       </c>
-      <c r="H54" s="36">
+      <c r="H54" s="35">
         <v>809.85</v>
       </c>
-      <c r="I54" s="36">
+      <c r="I54" s="35">
         <v>808.16</v>
       </c>
-      <c r="J54" s="36">
+      <c r="J54" s="35">
         <v>801.02</v>
       </c>
-      <c r="K54" s="36">
+      <c r="K54" s="35">
         <v>825.52</v>
       </c>
-      <c r="L54" s="36">
+      <c r="L54" s="35">
         <v>819.25</v>
       </c>
-      <c r="M54" s="36">
+      <c r="M54" s="35">
         <v>818.41</v>
       </c>
-      <c r="N54" s="36">
+      <c r="N54" s="35">
         <v>829.25</v>
       </c>
-      <c r="O54" s="36">
+      <c r="O54" s="35">
         <v>812.52</v>
       </c>
-      <c r="P54" s="36">
+      <c r="P54" s="35">
         <v>815.85</v>
       </c>
-      <c r="Q54" s="36">
+      <c r="Q54" s="35">
         <v>843.31</v>
       </c>
-      <c r="R54" s="36">
+      <c r="R54" s="35">
         <v>817.74</v>
       </c>
-      <c r="S54" s="36">
+      <c r="S54" s="35">
         <v>816.27</v>
       </c>
-      <c r="T54" s="36">
+      <c r="T54" s="35">
         <v>839.95</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="36">
+      <c r="B55" s="35">
         <v>774.82</v>
       </c>
-      <c r="C55" s="36">
+      <c r="C55" s="35">
         <v>777.2</v>
       </c>
-      <c r="D55" s="36">
+      <c r="D55" s="35">
         <v>776.88</v>
       </c>
-      <c r="E55" s="36">
+      <c r="E55" s="35">
         <v>755.31</v>
       </c>
-      <c r="F55" s="36">
+      <c r="F55" s="35">
         <v>773.89</v>
       </c>
-      <c r="G55" s="36">
+      <c r="G55" s="35">
         <v>746.5</v>
       </c>
-      <c r="H55" s="36">
+      <c r="H55" s="35">
         <v>757.91</v>
       </c>
-      <c r="I55" s="36">
+      <c r="I55" s="35">
         <v>770.38</v>
       </c>
-      <c r="J55" s="36">
+      <c r="J55" s="35">
         <v>775.56</v>
       </c>
-      <c r="K55" s="36">
+      <c r="K55" s="35">
         <v>812.26</v>
       </c>
-      <c r="L55" s="36">
+      <c r="L55" s="35">
         <v>793.54</v>
       </c>
-      <c r="M55" s="36">
+      <c r="M55" s="35">
         <v>770.25</v>
       </c>
-      <c r="N55" s="36">
+      <c r="N55" s="35">
         <v>795.31</v>
       </c>
-      <c r="O55" s="36">
+      <c r="O55" s="35">
         <v>783.42</v>
       </c>
-      <c r="P55" s="36">
+      <c r="P55" s="35">
         <v>784.14</v>
       </c>
-      <c r="Q55" s="36">
+      <c r="Q55" s="35">
         <v>838.01</v>
       </c>
-      <c r="R55" s="36">
+      <c r="R55" s="35">
         <v>824.2</v>
       </c>
-      <c r="S55" s="36">
+      <c r="S55" s="35">
         <v>816.76</v>
       </c>
-      <c r="T55" s="36">
+      <c r="T55" s="35">
         <v>835.18</v>
       </c>
     </row>
@@ -11482,26 +11490,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>166</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="46">
+      <c r="C1" s="45">
         <f>+Earnings_Comparison!E58</f>
         <v>909.42</v>
       </c>
@@ -11510,15 +11518,15 @@
         <v>1.0800694669405031</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>165</v>
       </c>
@@ -11532,7 +11540,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>+Earnings_Comparison!B12</f>
         <v>DE</v>
@@ -11549,7 +11557,7 @@
         <v>11.761752934516245</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>+Earnings_Comparison!B7</f>
         <v>AZ</v>
@@ -11566,7 +11574,7 @@
         <v>8.4202774114052978</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>+Earnings_Comparison!B55</f>
         <v>WY</v>
@@ -11584,7 +11592,7 @@
       </c>
       <c r="M6" s="20"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>+Earnings_Comparison!B30</f>
         <v>MO</v>
@@ -11603,7 +11611,7 @@
       <c r="K7" s="20"/>
       <c r="M7" s="20"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>+Earnings_Comparison!B13</f>
         <v>DC</v>
@@ -11625,7 +11633,7 @@
       </c>
       <c r="M8" s="20"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>+Earnings_Comparison!B15</f>
         <v>GA</v>
@@ -11647,7 +11655,7 @@
       </c>
       <c r="M9" s="20"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>+Earnings_Comparison!B9</f>
         <v>CA</v>
@@ -11669,7 +11677,7 @@
       </c>
       <c r="M10" s="20"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>+Earnings_Comparison!B16</f>
         <v>HI</v>
@@ -11691,7 +11699,7 @@
       </c>
       <c r="M11" s="20"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>+Earnings_Comparison!B41</f>
         <v>OK</v>
@@ -11711,7 +11719,7 @@
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>+Earnings_Comparison!B49</f>
         <v>UT</v>
@@ -11730,7 +11738,7 @@
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>+Earnings_Comparison!B32</f>
         <v>NE</v>
@@ -11753,7 +11761,7 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>+Earnings_Comparison!B48</f>
         <v>TX</v>
@@ -11776,7 +11784,7 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>+Earnings_Comparison!B52</f>
         <v>WA</v>
@@ -11798,7 +11806,7 @@
       </c>
       <c r="M16" s="20"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>+Earnings_Comparison!B19</f>
         <v>IN</v>
@@ -11820,7 +11828,7 @@
       </c>
       <c r="M17" s="20"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>+Earnings_Comparison!B28</f>
         <v>MN</v>
@@ -11842,7 +11850,7 @@
       </c>
       <c r="M18" s="20"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>+Earnings_Comparison!B53</f>
         <v>WV</v>
@@ -11864,7 +11872,7 @@
       </c>
       <c r="M19" s="20"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>+Earnings_Comparison!B24</f>
         <v>ME</v>
@@ -11886,7 +11894,7 @@
       </c>
       <c r="M20" s="20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>+Earnings_Comparison!B36</f>
         <v>NM</v>
@@ -11907,7 +11915,7 @@
         <v>183.51999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>+Earnings_Comparison!B10</f>
         <v>CO</v>
@@ -11924,7 +11932,7 @@
         <v>4.1802710450885128</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>+Earnings_Comparison!B35</f>
         <v>NJ</v>
@@ -11941,7 +11949,7 @@
         <v>3.9691704339658074</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>+Earnings_Comparison!B45</f>
         <v>SC</v>
@@ -11958,7 +11966,7 @@
         <v>3.9592501859836426</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>+Earnings_Comparison!B39</f>
         <v>ND</v>
@@ -11975,7 +11983,7 @@
         <v>3.9409293472148166</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>+Earnings_Comparison!B14</f>
         <v>FL</v>
@@ -11992,7 +12000,7 @@
         <v>3.761031775713275</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>+Earnings_Comparison!B31</f>
         <v>MT</v>
@@ -12009,7 +12017,7 @@
         <v>3.449378719085483</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>+Earnings_Comparison!B42</f>
         <v>OR</v>
@@ -12026,7 +12034,7 @@
         <v>3.412728385519781</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>+Earnings_Comparison!B23</f>
         <v>LA</v>
@@ -12043,7 +12051,7 @@
         <v>3.1342544977436271</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>+Earnings_Comparison!B38</f>
         <v>NC</v>
@@ -12060,7 +12068,7 @@
         <v>2.9890354333622637</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>+Earnings_Comparison!B17</f>
         <v>ID</v>
@@ -12077,7 +12085,7 @@
         <v>2.9732277344208136</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f>+Earnings_Comparison!B25</f>
         <v>MD</v>
@@ -12089,7 +12097,7 @@
         <f>+Earnings_Comparison!E25</f>
         <v>970.14</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="34">
         <f>+Earnings_Comparison!H25</f>
         <v>2.7474728856072161</v>
       </c>
@@ -12097,7 +12105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f>+Earnings_Comparison!B11</f>
         <v>CT</v>
@@ -12114,7 +12122,7 @@
         <v>2.653951392058107</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>+Earnings_Comparison!B47</f>
         <v>TN</v>
@@ -12131,7 +12139,7 @@
         <v>2.4702090932969378</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>+Earnings_Comparison!B21</f>
         <v>KS</v>
@@ -12148,7 +12156,7 @@
         <v>2.401750193753216</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>+Earnings_Comparison!B44</f>
         <v>RI</v>
@@ -12165,7 +12173,7 @@
         <v>2.34390400101121</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>+Earnings_Comparison!B26</f>
         <v>MA</v>
@@ -12182,7 +12190,7 @@
         <v>2.2072751628677389</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>+Earnings_Comparison!B27</f>
         <v>MI</v>
@@ -12199,7 +12207,7 @@
         <v>2.0684340018956693</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>+Earnings_Comparison!B6</f>
         <v>AK</v>
@@ -12216,7 +12224,7 @@
         <v>1.9995794181475679</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f>+Earnings_Comparison!B37</f>
         <v>NY</v>
@@ -12228,12 +12236,12 @@
         <f>+Earnings_Comparison!E37</f>
         <v>1013.7</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="34">
         <f>+Earnings_Comparison!H37</f>
         <v>1.9626545183159871</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f>+Earnings_Comparison!B54</f>
         <v>WI</v>
@@ -12250,7 +12258,7 @@
         <v>1.9549776190133317</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>+Earnings_Comparison!B33</f>
         <v>NV</v>
@@ -12267,7 +12275,7 @@
         <v>1.9047499961891479</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>+Earnings_Comparison!B8</f>
         <v>AR</v>
@@ -12284,7 +12292,7 @@
         <v>1.8935114256935615</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>+Earnings_Comparison!B22</f>
         <v>KY</v>
@@ -12302,7 +12310,7 @@
       </c>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>+Earnings_Comparison!B18</f>
         <v>IL</v>
@@ -12322,7 +12330,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>+Earnings_Comparison!B40</f>
         <v>OH</v>
@@ -12334,7 +12342,7 @@
         <f>+Earnings_Comparison!E40</f>
         <v>822.17</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="34">
         <f>+Earnings_Comparison!H40</f>
         <v>0.99777586777844984</v>
       </c>
@@ -12342,7 +12350,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>+Earnings_Comparison!B34</f>
         <v>NH</v>
@@ -12362,7 +12370,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f>+Earnings_Comparison!B46</f>
         <v>SD</v>
@@ -12382,7 +12390,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f>+Earnings_Comparison!B5</f>
         <v>AL</v>
@@ -12402,7 +12410,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>+Earnings_Comparison!B29</f>
         <v>MS</v>
@@ -12422,7 +12430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>+Earnings_Comparison!B43</f>
         <v>PA</v>
@@ -12442,7 +12450,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>+Earnings_Comparison!B51</f>
         <v>VA</v>
@@ -12460,7 +12468,7 @@
       </c>
       <c r="H52" s="20"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>+Earnings_Comparison!B50</f>
         <v>VT</v>
@@ -12478,7 +12486,7 @@
       </c>
       <c r="H53" s="20"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>+Earnings_Comparison!B20</f>
         <v>IA</v>
@@ -12495,7 +12503,7 @@
         <v>-1.4339970245571543</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C56">
         <f>COUNTIF(C4:C54, "&lt;909")</f>
         <v>34</v>
